--- a/Shenzhen_WJW/2019nCov_Shenzhen_new_cases.xlsx
+++ b/Shenzhen_WJW/2019nCov_Shenzhen_new_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Shenzhen_WJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1015" documentId="8_{518E5CB1-397D-479F-A002-9F80F41B7951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F4C11135-21A6-4C84-A110-C549826F7402}"/>
+  <xr:revisionPtr revIDLastSave="1193" documentId="8_{518E5CB1-397D-479F-A002-9F80F41B7951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{30C09AD4-FA26-43D1-BF68-4D23499EE552}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Places" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cases!$A$1:$N$317</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cases!$A$1:$O$317</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2882" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="609">
   <si>
     <t>Sex</t>
   </si>
@@ -1961,6 +1961,29 @@
   </si>
   <si>
     <t>赤壁</t>
+  </si>
+  <si>
+    <t>珠光村西区</t>
+  </si>
+  <si>
+    <t>病例214丈夫
+　　61岁男性患者，常住于湖北荆州。1月16日前往湖北京山，20号返回荆州，21日到深圳。24日发病，31日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>病例342女儿
+　　37岁女性患者，常住于深圳南山。自述近期无湖北相关旅居史，有与新冠肺炎确诊病例接触史。2月4日发病，2月5日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>43岁女性患者，常住于江西新余。自述近期无湖北相关旅居史，1月29日发病，2月3日前往深圳，2月9日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>江西</t>
+  </si>
+  <si>
+    <t>新余</t>
+  </si>
+  <si>
+    <t>Released_Time</t>
   </si>
 </sst>
 </file>
@@ -2002,10 +2025,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2302,20 +2326,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N355"/>
+  <dimension ref="A1:O370"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.77734375" customWidth="1"/>
+    <col min="7" max="8" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2334,10 +2359,10 @@
       <c r="F1" t="s">
         <v>314</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" t="s">
@@ -2355,11 +2380,14 @@
       <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="O1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2390,11 +2418,11 @@
       <c r="M2" t="s">
         <v>286</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2434,11 +2462,14 @@
       <c r="M3" t="s">
         <v>286</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1">
+        <v>43857</v>
+      </c>
+      <c r="O3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2472,11 +2503,14 @@
       <c r="M4" t="s">
         <v>287</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="1">
+        <v>43857</v>
+      </c>
+      <c r="O4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2510,11 +2544,14 @@
       <c r="M5" t="s">
         <v>287</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="1">
+        <v>43853</v>
+      </c>
+      <c r="O5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2551,11 +2588,14 @@
       <c r="M6" t="s">
         <v>286</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="1">
+        <v>43862</v>
+      </c>
+      <c r="O6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2583,11 +2623,11 @@
       <c r="M7" t="s">
         <v>286</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2615,11 +2655,11 @@
       <c r="M8" t="s">
         <v>286</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2647,11 +2687,14 @@
       <c r="M9" t="s">
         <v>287</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="1">
+        <v>43853</v>
+      </c>
+      <c r="O9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2679,11 +2722,14 @@
       <c r="M10" t="s">
         <v>287</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="1">
+        <v>43864</v>
+      </c>
+      <c r="O10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2711,11 +2757,14 @@
       <c r="M11" t="s">
         <v>287</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="1">
+        <v>43866</v>
+      </c>
+      <c r="O11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2743,11 +2792,14 @@
       <c r="M12" t="s">
         <v>287</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="1">
+        <v>43864</v>
+      </c>
+      <c r="O12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2784,11 +2836,14 @@
       <c r="M13" t="s">
         <v>287</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="1">
+        <v>43869</v>
+      </c>
+      <c r="O13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2816,11 +2871,11 @@
       <c r="M14" t="s">
         <v>287</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2857,11 +2912,11 @@
       <c r="M15" t="s">
         <v>287</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2889,11 +2944,14 @@
       <c r="M16" t="s">
         <v>287</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="1">
+        <v>43865</v>
+      </c>
+      <c r="O16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2930,11 +2988,11 @@
       <c r="M17" t="s">
         <v>287</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2962,11 +3020,11 @@
       <c r="M18" t="s">
         <v>287</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2994,11 +3052,11 @@
       <c r="M19" t="s">
         <v>286</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3026,11 +3084,14 @@
       <c r="M20" t="s">
         <v>287</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="1">
+        <v>43867</v>
+      </c>
+      <c r="O20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3058,11 +3119,11 @@
       <c r="M21" t="s">
         <v>287</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3090,11 +3151,14 @@
       <c r="M22" t="s">
         <v>287</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="1">
+        <v>43864</v>
+      </c>
+      <c r="O22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3122,11 +3186,11 @@
       <c r="M23" t="s">
         <v>287</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3154,11 +3218,11 @@
       <c r="M24" t="s">
         <v>287</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3186,11 +3250,11 @@
       <c r="M25" t="s">
         <v>287</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3218,11 +3282,11 @@
       <c r="M26" t="s">
         <v>286</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3250,11 +3314,11 @@
       <c r="M27" t="s">
         <v>287</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3282,11 +3346,14 @@
       <c r="M28" t="s">
         <v>287</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" s="1">
+        <v>43864</v>
+      </c>
+      <c r="O28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3314,11 +3381,11 @@
       <c r="M29" t="s">
         <v>287</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3346,11 +3413,14 @@
       <c r="M30" t="s">
         <v>287</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N30" s="1">
+        <v>43869</v>
+      </c>
+      <c r="O30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3378,11 +3448,14 @@
       <c r="M31" t="s">
         <v>287</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="1">
+        <v>43870</v>
+      </c>
+      <c r="O31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3410,11 +3483,14 @@
       <c r="M32" t="s">
         <v>287</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32" s="1">
+        <v>43870</v>
+      </c>
+      <c r="O32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3442,11 +3518,11 @@
       <c r="M33" t="s">
         <v>287</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3474,11 +3550,11 @@
       <c r="M34" t="s">
         <v>286</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3506,11 +3582,14 @@
       <c r="M35" t="s">
         <v>287</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35" s="1">
+        <v>43870</v>
+      </c>
+      <c r="O35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3538,11 +3617,14 @@
       <c r="M36" t="s">
         <v>287</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36" s="1">
+        <v>43869</v>
+      </c>
+      <c r="O36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3570,11 +3652,11 @@
       <c r="M37" t="s">
         <v>287</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3605,11 +3687,11 @@
       <c r="M38" t="s">
         <v>287</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3646,11 +3728,14 @@
       <c r="M39" t="s">
         <v>287</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N39" s="1">
+        <v>43865</v>
+      </c>
+      <c r="O39" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3690,11 +3775,14 @@
       <c r="M40" t="s">
         <v>287</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N40" s="1">
+        <v>43868</v>
+      </c>
+      <c r="O40" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3722,11 +3810,11 @@
       <c r="M41" t="s">
         <v>287</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3754,11 +3842,14 @@
       <c r="M42" t="s">
         <v>287</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N42" s="1">
+        <v>43868</v>
+      </c>
+      <c r="O42" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3786,11 +3877,11 @@
       <c r="M43" t="s">
         <v>287</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3821,11 +3912,11 @@
       <c r="M44" t="s">
         <v>287</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3853,11 +3944,11 @@
       <c r="M45" t="s">
         <v>287</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3885,11 +3976,11 @@
       <c r="M46" t="s">
         <v>287</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3917,11 +4008,14 @@
       <c r="M47" t="s">
         <v>287</v>
       </c>
-      <c r="N47" t="s">
+      <c r="N47" s="1">
+        <v>43870</v>
+      </c>
+      <c r="O47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3958,11 +4052,11 @@
       <c r="M48" t="s">
         <v>287</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3990,11 +4084,11 @@
       <c r="M49" t="s">
         <v>287</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4025,11 +4119,11 @@
       <c r="M50" t="s">
         <v>287</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4057,11 +4151,11 @@
       <c r="M51" t="s">
         <v>287</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4089,11 +4183,11 @@
       <c r="M52" t="s">
         <v>287</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4121,11 +4215,11 @@
       <c r="M53" t="s">
         <v>287</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4156,11 +4250,14 @@
       <c r="M54" t="s">
         <v>287</v>
       </c>
-      <c r="N54" t="s">
+      <c r="N54" s="1">
+        <v>43868</v>
+      </c>
+      <c r="O54" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4188,11 +4285,14 @@
       <c r="M55" t="s">
         <v>287</v>
       </c>
-      <c r="N55" t="s">
+      <c r="N55" s="1">
+        <v>43866</v>
+      </c>
+      <c r="O55" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4220,11 +4320,11 @@
       <c r="M56" t="s">
         <v>287</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4252,11 +4352,14 @@
       <c r="M57" t="s">
         <v>287</v>
       </c>
-      <c r="N57" t="s">
+      <c r="N57" s="1">
+        <v>43870</v>
+      </c>
+      <c r="O57" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4287,11 +4390,14 @@
       <c r="M58" t="s">
         <v>287</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N58" s="1">
+        <v>43866</v>
+      </c>
+      <c r="O58" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4322,11 +4428,11 @@
       <c r="M59" t="s">
         <v>287</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4354,11 +4460,11 @@
       <c r="M60" t="s">
         <v>287</v>
       </c>
-      <c r="N60" t="s">
+      <c r="O60" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4386,11 +4492,11 @@
       <c r="M61" t="s">
         <v>287</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4418,11 +4524,11 @@
       <c r="M62" t="s">
         <v>287</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4450,11 +4556,11 @@
       <c r="M63" t="s">
         <v>287</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4491,11 +4597,11 @@
       <c r="M64" t="s">
         <v>287</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4523,11 +4629,14 @@
       <c r="M65" t="s">
         <v>287</v>
       </c>
-      <c r="N65" t="s">
+      <c r="N65" s="1">
+        <v>43870</v>
+      </c>
+      <c r="O65" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4558,11 +4667,11 @@
       <c r="M66" t="s">
         <v>287</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4602,11 +4711,14 @@
       <c r="M67" t="s">
         <v>287</v>
       </c>
-      <c r="N67" t="s">
+      <c r="N67" s="1">
+        <v>43868</v>
+      </c>
+      <c r="O67" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4643,11 +4755,11 @@
       <c r="M68" t="s">
         <v>287</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4687,11 +4799,14 @@
       <c r="M69" t="s">
         <v>287</v>
       </c>
-      <c r="N69" t="s">
+      <c r="N69" s="1">
+        <v>43870</v>
+      </c>
+      <c r="O69" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4731,11 +4846,11 @@
       <c r="M70" t="s">
         <v>287</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4763,11 +4878,11 @@
       <c r="M71" t="s">
         <v>287</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4798,11 +4913,11 @@
       <c r="M72" t="s">
         <v>287</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4830,11 +4945,11 @@
       <c r="M73" t="s">
         <v>287</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4862,11 +4977,14 @@
       <c r="M74" t="s">
         <v>287</v>
       </c>
-      <c r="N74" t="s">
+      <c r="N74" s="1">
+        <v>43867</v>
+      </c>
+      <c r="O74" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4906,11 +5024,14 @@
       <c r="M75" t="s">
         <v>287</v>
       </c>
-      <c r="N75" t="s">
+      <c r="N75" s="1">
+        <v>43869</v>
+      </c>
+      <c r="O75" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4941,11 +5062,14 @@
       <c r="M76" t="s">
         <v>287</v>
       </c>
-      <c r="N76" t="s">
+      <c r="N76" s="1">
+        <v>43871</v>
+      </c>
+      <c r="O76" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4973,11 +5097,11 @@
       <c r="M77" t="s">
         <v>287</v>
       </c>
-      <c r="N77" t="s">
+      <c r="O77" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5008,11 +5132,11 @@
       <c r="M78" t="s">
         <v>287</v>
       </c>
-      <c r="N78" t="s">
+      <c r="O78" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5040,11 +5164,11 @@
       <c r="M79" t="s">
         <v>287</v>
       </c>
-      <c r="N79" t="s">
+      <c r="O79" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5075,11 +5199,11 @@
       <c r="M80" t="s">
         <v>287</v>
       </c>
-      <c r="N80" t="s">
+      <c r="O80" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5116,11 +5240,14 @@
       <c r="M81" t="s">
         <v>287</v>
       </c>
-      <c r="N81" t="s">
+      <c r="N81" s="1">
+        <v>43867</v>
+      </c>
+      <c r="O81" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5148,11 +5275,14 @@
       <c r="M82" t="s">
         <v>287</v>
       </c>
-      <c r="N82" t="s">
+      <c r="N82" s="1">
+        <v>43867</v>
+      </c>
+      <c r="O82" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5183,11 +5313,11 @@
       <c r="M83" t="s">
         <v>287</v>
       </c>
-      <c r="N83" t="s">
+      <c r="O83" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5218,11 +5348,14 @@
       <c r="M84" t="s">
         <v>287</v>
       </c>
-      <c r="N84" t="s">
+      <c r="N84" s="1">
+        <v>43871</v>
+      </c>
+      <c r="O84" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5253,11 +5386,11 @@
       <c r="M85" t="s">
         <v>287</v>
       </c>
-      <c r="N85" t="s">
+      <c r="O85" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5288,11 +5421,11 @@
       <c r="M86" t="s">
         <v>287</v>
       </c>
-      <c r="N86" t="s">
+      <c r="O86" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5320,11 +5453,14 @@
       <c r="M87" t="s">
         <v>287</v>
       </c>
-      <c r="N87" t="s">
+      <c r="N87" s="1">
+        <v>43868</v>
+      </c>
+      <c r="O87" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5352,11 +5488,11 @@
       <c r="M88" t="s">
         <v>287</v>
       </c>
-      <c r="N88" t="s">
+      <c r="O88" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5384,11 +5520,11 @@
       <c r="M89" t="s">
         <v>287</v>
       </c>
-      <c r="N89" t="s">
+      <c r="O89" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5416,11 +5552,11 @@
       <c r="M90" t="s">
         <v>287</v>
       </c>
-      <c r="N90" t="s">
+      <c r="O90" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5451,11 +5587,11 @@
       <c r="M91" t="s">
         <v>286</v>
       </c>
-      <c r="N91" t="s">
+      <c r="O91" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5486,11 +5622,11 @@
       <c r="M92" t="s">
         <v>287</v>
       </c>
-      <c r="N92" t="s">
+      <c r="O92" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5521,11 +5657,11 @@
       <c r="M93" t="s">
         <v>287</v>
       </c>
-      <c r="N93" t="s">
+      <c r="O93" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5553,11 +5689,11 @@
       <c r="M94" t="s">
         <v>287</v>
       </c>
-      <c r="N94" t="s">
+      <c r="O94" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5588,11 +5724,11 @@
       <c r="M95" t="s">
         <v>287</v>
       </c>
-      <c r="N95" t="s">
+      <c r="O95" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5632,11 +5768,11 @@
       <c r="M96" t="s">
         <v>287</v>
       </c>
-      <c r="N96" t="s">
+      <c r="O96" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5664,11 +5800,11 @@
       <c r="M97" t="s">
         <v>287</v>
       </c>
-      <c r="N97" t="s">
+      <c r="O97" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5696,11 +5832,11 @@
       <c r="M98" t="s">
         <v>287</v>
       </c>
-      <c r="N98" t="s">
+      <c r="O98" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5740,11 +5876,11 @@
       <c r="M99" t="s">
         <v>287</v>
       </c>
-      <c r="N99" t="s">
+      <c r="O99" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5772,11 +5908,14 @@
       <c r="M100" t="s">
         <v>287</v>
       </c>
-      <c r="N100" t="s">
+      <c r="N100" s="1">
+        <v>43871</v>
+      </c>
+      <c r="O100" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5816,11 +5955,11 @@
       <c r="M101" t="s">
         <v>287</v>
       </c>
-      <c r="N101" t="s">
+      <c r="O101" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5860,11 +5999,11 @@
       <c r="M102" t="s">
         <v>287</v>
       </c>
-      <c r="N102" t="s">
+      <c r="O102" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5904,11 +6043,14 @@
       <c r="M103" t="s">
         <v>287</v>
       </c>
-      <c r="N103" t="s">
+      <c r="N103" s="1">
+        <v>43871</v>
+      </c>
+      <c r="O103" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5939,11 +6081,14 @@
       <c r="M104" t="s">
         <v>287</v>
       </c>
-      <c r="N104" t="s">
+      <c r="N104" s="1">
+        <v>43869</v>
+      </c>
+      <c r="O104" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5974,11 +6119,14 @@
       <c r="M105" t="s">
         <v>287</v>
       </c>
-      <c r="N105" t="s">
+      <c r="N105" s="1">
+        <v>43869</v>
+      </c>
+      <c r="O105" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6009,11 +6157,14 @@
       <c r="M106" t="s">
         <v>287</v>
       </c>
-      <c r="N106" t="s">
+      <c r="N106" s="1">
+        <v>43868</v>
+      </c>
+      <c r="O106" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6053,11 +6204,11 @@
       <c r="M107" t="s">
         <v>287</v>
       </c>
-      <c r="N107" t="s">
+      <c r="O107" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6097,11 +6248,11 @@
       <c r="M108" t="s">
         <v>287</v>
       </c>
-      <c r="N108" t="s">
+      <c r="O108" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6141,11 +6292,11 @@
       <c r="M109" t="s">
         <v>287</v>
       </c>
-      <c r="N109" t="s">
+      <c r="O109" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6182,11 +6333,11 @@
       <c r="M110" t="s">
         <v>287</v>
       </c>
-      <c r="N110" t="s">
+      <c r="O110" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6223,11 +6374,11 @@
       <c r="M111" t="s">
         <v>287</v>
       </c>
-      <c r="N111" t="s">
+      <c r="O111" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6255,11 +6406,11 @@
       <c r="M112" t="s">
         <v>287</v>
       </c>
-      <c r="N112" t="s">
+      <c r="O112" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6287,11 +6438,11 @@
       <c r="M113" t="s">
         <v>287</v>
       </c>
-      <c r="N113" t="s">
+      <c r="O113" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6319,11 +6470,11 @@
       <c r="M114" t="s">
         <v>287</v>
       </c>
-      <c r="N114" t="s">
+      <c r="O114" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6354,11 +6505,11 @@
       <c r="M115" t="s">
         <v>287</v>
       </c>
-      <c r="N115" t="s">
+      <c r="O115" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6386,11 +6537,11 @@
       <c r="M116" t="s">
         <v>287</v>
       </c>
-      <c r="N116" t="s">
+      <c r="O116" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6418,11 +6569,14 @@
       <c r="M117" t="s">
         <v>287</v>
       </c>
-      <c r="N117" t="s">
+      <c r="N117" s="1">
+        <v>43871</v>
+      </c>
+      <c r="O117" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6453,11 +6607,11 @@
       <c r="M118" t="s">
         <v>287</v>
       </c>
-      <c r="N118" t="s">
+      <c r="O118" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6488,11 +6642,14 @@
       <c r="M119" t="s">
         <v>287</v>
       </c>
-      <c r="N119" t="s">
+      <c r="N119" s="1">
+        <v>43864</v>
+      </c>
+      <c r="O119" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6520,11 +6677,14 @@
       <c r="M120" t="s">
         <v>287</v>
       </c>
-      <c r="N120" t="s">
+      <c r="N120" s="1">
+        <v>43867</v>
+      </c>
+      <c r="O120" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6564,11 +6724,11 @@
       <c r="M121" t="s">
         <v>287</v>
       </c>
-      <c r="N121" t="s">
+      <c r="O121" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6608,11 +6768,11 @@
       <c r="M122" t="s">
         <v>287</v>
       </c>
-      <c r="N122" t="s">
+      <c r="O122" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6640,11 +6800,14 @@
       <c r="M123" t="s">
         <v>287</v>
       </c>
-      <c r="N123" t="s">
+      <c r="N123" s="1">
+        <v>43865</v>
+      </c>
+      <c r="O123" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6681,11 +6844,11 @@
       <c r="M124" t="s">
         <v>287</v>
       </c>
-      <c r="N124" t="s">
+      <c r="O124" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6725,11 +6888,11 @@
       <c r="M125" t="s">
         <v>287</v>
       </c>
-      <c r="N125" t="s">
+      <c r="O125" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6769,11 +6932,11 @@
       <c r="M126" t="s">
         <v>287</v>
       </c>
-      <c r="N126" t="s">
+      <c r="O126" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6801,11 +6964,11 @@
       <c r="M127" t="s">
         <v>287</v>
       </c>
-      <c r="N127" t="s">
+      <c r="O127" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6833,11 +6996,11 @@
       <c r="M128" t="s">
         <v>287</v>
       </c>
-      <c r="N128" t="s">
+      <c r="O128" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6868,11 +7031,11 @@
       <c r="M129" t="s">
         <v>287</v>
       </c>
-      <c r="N129" t="s">
+      <c r="O129" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6903,11 +7066,11 @@
       <c r="M130" t="s">
         <v>286</v>
       </c>
-      <c r="N130" t="s">
+      <c r="O130" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6935,11 +7098,11 @@
       <c r="M131" t="s">
         <v>287</v>
       </c>
-      <c r="N131" t="s">
+      <c r="O131" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6967,11 +7130,11 @@
       <c r="M132" t="s">
         <v>287</v>
       </c>
-      <c r="N132" t="s">
+      <c r="O132" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7002,11 +7165,11 @@
       <c r="M133" t="s">
         <v>287</v>
       </c>
-      <c r="N133" t="s">
+      <c r="O133" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7046,11 +7209,11 @@
       <c r="M134" t="s">
         <v>286</v>
       </c>
-      <c r="N134" t="s">
+      <c r="O134" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7090,11 +7253,14 @@
       <c r="M135" t="s">
         <v>287</v>
       </c>
-      <c r="N135" t="s">
+      <c r="N135" s="1">
+        <v>43869</v>
+      </c>
+      <c r="O135" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7119,11 +7285,11 @@
       <c r="M136" t="s">
         <v>287</v>
       </c>
-      <c r="N136" t="s">
+      <c r="O136" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7160,11 +7326,11 @@
       <c r="M137" t="s">
         <v>287</v>
       </c>
-      <c r="N137" t="s">
+      <c r="O137" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7192,11 +7358,11 @@
       <c r="M138" t="s">
         <v>287</v>
       </c>
-      <c r="N138" t="s">
+      <c r="O138" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7227,11 +7393,11 @@
       <c r="M139" t="s">
         <v>287</v>
       </c>
-      <c r="N139" t="s">
+      <c r="O139" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7271,11 +7437,11 @@
       <c r="M140" t="s">
         <v>287</v>
       </c>
-      <c r="N140" t="s">
+      <c r="O140" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7303,11 +7469,11 @@
       <c r="M141" t="s">
         <v>287</v>
       </c>
-      <c r="N141" t="s">
+      <c r="O141" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7335,11 +7501,11 @@
       <c r="M142" t="s">
         <v>287</v>
       </c>
-      <c r="N142" t="s">
+      <c r="O142" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7367,11 +7533,11 @@
       <c r="M143" t="s">
         <v>287</v>
       </c>
-      <c r="N143" t="s">
+      <c r="O143" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7402,11 +7568,11 @@
       <c r="M144" t="s">
         <v>287</v>
       </c>
-      <c r="N144" t="s">
+      <c r="O144" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7437,11 +7603,11 @@
       <c r="M145" t="s">
         <v>287</v>
       </c>
-      <c r="N145" t="s">
+      <c r="O145" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7472,11 +7638,11 @@
       <c r="M146" t="s">
         <v>287</v>
       </c>
-      <c r="N146" t="s">
+      <c r="O146" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7513,11 +7679,11 @@
       <c r="M147" t="s">
         <v>287</v>
       </c>
-      <c r="N147" t="s">
+      <c r="O147" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7557,11 +7723,14 @@
       <c r="M148" t="s">
         <v>287</v>
       </c>
-      <c r="N148" t="s">
+      <c r="N148" s="1">
+        <v>43868</v>
+      </c>
+      <c r="O148" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7592,11 +7761,11 @@
       <c r="M149" t="s">
         <v>287</v>
       </c>
-      <c r="N149" t="s">
+      <c r="O149" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7627,11 +7796,11 @@
       <c r="M150" t="s">
         <v>287</v>
       </c>
-      <c r="N150" t="s">
+      <c r="O150" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7662,11 +7831,11 @@
       <c r="M151" t="s">
         <v>287</v>
       </c>
-      <c r="N151" t="s">
+      <c r="O151" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7697,11 +7866,11 @@
       <c r="M152" t="s">
         <v>287</v>
       </c>
-      <c r="N152" t="s">
+      <c r="O152" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7729,11 +7898,11 @@
       <c r="M153" t="s">
         <v>287</v>
       </c>
-      <c r="N153" t="s">
+      <c r="O153" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7773,11 +7942,11 @@
       <c r="M154" t="s">
         <v>287</v>
       </c>
-      <c r="N154" t="s">
+      <c r="O154" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7817,11 +7986,11 @@
       <c r="M155" t="s">
         <v>287</v>
       </c>
-      <c r="N155" t="s">
+      <c r="O155" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7861,11 +8030,11 @@
       <c r="M156" t="s">
         <v>287</v>
       </c>
-      <c r="N156" t="s">
+      <c r="O156" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7893,11 +8062,14 @@
       <c r="M157" t="s">
         <v>287</v>
       </c>
-      <c r="N157" t="s">
+      <c r="N157" s="1">
+        <v>43867</v>
+      </c>
+      <c r="O157" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7928,11 +8100,11 @@
       <c r="M158" t="s">
         <v>287</v>
       </c>
-      <c r="N158" t="s">
+      <c r="O158" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7960,11 +8132,11 @@
       <c r="M159" t="s">
         <v>287</v>
       </c>
-      <c r="N159" t="s">
+      <c r="O159" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7992,11 +8164,11 @@
       <c r="M160" t="s">
         <v>287</v>
       </c>
-      <c r="N160" t="s">
+      <c r="O160" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -8024,11 +8196,11 @@
       <c r="M161" t="s">
         <v>287</v>
       </c>
-      <c r="N161" t="s">
+      <c r="O161" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -8059,11 +8231,11 @@
       <c r="M162" t="s">
         <v>287</v>
       </c>
-      <c r="N162" t="s">
+      <c r="O162" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8094,11 +8266,14 @@
       <c r="M163" t="s">
         <v>287</v>
       </c>
-      <c r="N163" t="s">
+      <c r="N163" s="1">
+        <v>43871</v>
+      </c>
+      <c r="O163" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8138,11 +8313,11 @@
       <c r="M164" t="s">
         <v>287</v>
       </c>
-      <c r="N164" t="s">
+      <c r="O164" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8170,11 +8345,11 @@
       <c r="M165" t="s">
         <v>287</v>
       </c>
-      <c r="N165" t="s">
+      <c r="O165" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8214,11 +8389,11 @@
       <c r="M166" t="s">
         <v>287</v>
       </c>
-      <c r="N166" t="s">
+      <c r="O166" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8249,11 +8424,11 @@
       <c r="M167" t="s">
         <v>287</v>
       </c>
-      <c r="N167" t="s">
+      <c r="O167" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8284,11 +8459,11 @@
       <c r="M168" t="s">
         <v>287</v>
       </c>
-      <c r="N168" t="s">
+      <c r="O168" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8325,11 +8500,11 @@
       <c r="M169" t="s">
         <v>287</v>
       </c>
-      <c r="N169" t="s">
+      <c r="O169" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8369,11 +8544,11 @@
       <c r="M170" t="s">
         <v>287</v>
       </c>
-      <c r="N170" t="s">
+      <c r="O170" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8404,11 +8579,14 @@
       <c r="M171" t="s">
         <v>287</v>
       </c>
-      <c r="N171" t="s">
+      <c r="N171" s="1">
+        <v>43868</v>
+      </c>
+      <c r="O171" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8439,11 +8617,11 @@
       <c r="M172" t="s">
         <v>286</v>
       </c>
-      <c r="N172" t="s">
+      <c r="O172" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8471,11 +8649,11 @@
       <c r="M173" t="s">
         <v>287</v>
       </c>
-      <c r="N173" t="s">
+      <c r="O173" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8515,11 +8693,11 @@
       <c r="M174" t="s">
         <v>287</v>
       </c>
-      <c r="N174" t="s">
+      <c r="O174" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8559,11 +8737,11 @@
       <c r="M175" t="s">
         <v>287</v>
       </c>
-      <c r="N175" t="s">
+      <c r="O175" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8594,11 +8772,11 @@
       <c r="M176" t="s">
         <v>287</v>
       </c>
-      <c r="N176" t="s">
+      <c r="O176" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8626,11 +8804,11 @@
       <c r="M177" t="s">
         <v>287</v>
       </c>
-      <c r="N177" t="s">
+      <c r="O177" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8661,11 +8839,11 @@
       <c r="M178" t="s">
         <v>287</v>
       </c>
-      <c r="N178" t="s">
+      <c r="O178" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8705,11 +8883,11 @@
       <c r="M179" t="s">
         <v>287</v>
       </c>
-      <c r="N179" t="s">
+      <c r="O179" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8740,11 +8918,11 @@
       <c r="M180" t="s">
         <v>287</v>
       </c>
-      <c r="N180" t="s">
+      <c r="O180" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8775,11 +8953,11 @@
       <c r="M181" t="s">
         <v>287</v>
       </c>
-      <c r="N181" t="s">
+      <c r="O181" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8810,11 +8988,11 @@
       <c r="M182" t="s">
         <v>287</v>
       </c>
-      <c r="N182" t="s">
+      <c r="O182" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8845,11 +9023,11 @@
       <c r="M183" t="s">
         <v>287</v>
       </c>
-      <c r="N183" t="s">
+      <c r="O183" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8880,11 +9058,11 @@
       <c r="M184" t="s">
         <v>287</v>
       </c>
-      <c r="N184" t="s">
+      <c r="O184" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8924,11 +9102,11 @@
       <c r="M185" t="s">
         <v>287</v>
       </c>
-      <c r="N185" t="s">
+      <c r="O185" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8959,11 +9137,11 @@
       <c r="M186" t="s">
         <v>287</v>
       </c>
-      <c r="N186" t="s">
+      <c r="O186" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8994,11 +9172,11 @@
       <c r="M187" t="s">
         <v>287</v>
       </c>
-      <c r="N187" t="s">
+      <c r="O187" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -9029,11 +9207,11 @@
       <c r="M188" t="s">
         <v>287</v>
       </c>
-      <c r="N188" t="s">
+      <c r="O188" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -9073,11 +9251,11 @@
       <c r="M189" t="s">
         <v>287</v>
       </c>
-      <c r="N189" t="s">
+      <c r="O189" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -9105,11 +9283,11 @@
       <c r="M190" t="s">
         <v>287</v>
       </c>
-      <c r="N190" t="s">
+      <c r="O190" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -9137,11 +9315,11 @@
       <c r="M191" t="s">
         <v>287</v>
       </c>
-      <c r="N191" t="s">
+      <c r="O191" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -9178,11 +9356,11 @@
       <c r="M192" t="s">
         <v>287</v>
       </c>
-      <c r="N192" t="s">
+      <c r="O192" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -9210,11 +9388,11 @@
       <c r="M193" t="s">
         <v>287</v>
       </c>
-      <c r="N193" t="s">
+      <c r="O193" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -9245,11 +9423,11 @@
       <c r="M194" t="s">
         <v>287</v>
       </c>
-      <c r="N194" t="s">
+      <c r="O194" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -9277,11 +9455,11 @@
       <c r="M195" t="s">
         <v>287</v>
       </c>
-      <c r="N195" t="s">
+      <c r="O195" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -9321,11 +9499,11 @@
       <c r="M196" t="s">
         <v>287</v>
       </c>
-      <c r="N196" t="s">
+      <c r="O196" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -9353,11 +9531,11 @@
       <c r="M197" t="s">
         <v>287</v>
       </c>
-      <c r="N197" t="s">
+      <c r="O197" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -9394,11 +9572,11 @@
       <c r="M198" t="s">
         <v>287</v>
       </c>
-      <c r="N198" t="s">
+      <c r="O198" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -9429,11 +9607,11 @@
       <c r="M199" t="s">
         <v>287</v>
       </c>
-      <c r="N199" t="s">
+      <c r="O199" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -9464,11 +9642,11 @@
       <c r="M200" t="s">
         <v>287</v>
       </c>
-      <c r="N200" t="s">
+      <c r="O200" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -9496,11 +9674,14 @@
       <c r="M201" t="s">
         <v>287</v>
       </c>
-      <c r="N201" t="s">
+      <c r="N201" s="1">
+        <v>43871</v>
+      </c>
+      <c r="O201" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -9528,11 +9709,11 @@
       <c r="M202" t="s">
         <v>287</v>
       </c>
-      <c r="N202" t="s">
+      <c r="O202" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -9569,11 +9750,11 @@
       <c r="M203" t="s">
         <v>287</v>
       </c>
-      <c r="N203" t="s">
+      <c r="O203" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -9613,11 +9794,11 @@
       <c r="M204" t="s">
         <v>287</v>
       </c>
-      <c r="N204" t="s">
+      <c r="O204" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -9657,11 +9838,11 @@
       <c r="M205" t="s">
         <v>287</v>
       </c>
-      <c r="N205" t="s">
+      <c r="O205" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -9701,11 +9882,11 @@
       <c r="M206" t="s">
         <v>287</v>
       </c>
-      <c r="N206" t="s">
+      <c r="O206" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -9733,11 +9914,11 @@
       <c r="M207" t="s">
         <v>287</v>
       </c>
-      <c r="N207" t="s">
+      <c r="O207" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -9768,11 +9949,11 @@
       <c r="M208" t="s">
         <v>287</v>
       </c>
-      <c r="N208" t="s">
+      <c r="O208" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -9803,11 +9984,11 @@
       <c r="M209" t="s">
         <v>287</v>
       </c>
-      <c r="N209" t="s">
+      <c r="O209" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -9835,11 +10016,11 @@
       <c r="M210" t="s">
         <v>287</v>
       </c>
-      <c r="N210" t="s">
+      <c r="O210" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -9870,11 +10051,11 @@
       <c r="M211" t="s">
         <v>287</v>
       </c>
-      <c r="N211" t="s">
+      <c r="O211" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -9905,11 +10086,11 @@
       <c r="M212" t="s">
         <v>287</v>
       </c>
-      <c r="N212" t="s">
+      <c r="O212" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -9937,11 +10118,11 @@
       <c r="M213" t="s">
         <v>287</v>
       </c>
-      <c r="N213" t="s">
+      <c r="O213" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -9969,11 +10150,11 @@
       <c r="M214" t="s">
         <v>287</v>
       </c>
-      <c r="N214" t="s">
+      <c r="O214" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -10001,11 +10182,11 @@
       <c r="M215" t="s">
         <v>287</v>
       </c>
-      <c r="N215" t="s">
+      <c r="O215" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -10036,11 +10217,11 @@
       <c r="M216" t="s">
         <v>287</v>
       </c>
-      <c r="N216" t="s">
+      <c r="O216" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -10080,11 +10261,11 @@
       <c r="M217" t="s">
         <v>287</v>
       </c>
-      <c r="N217" t="s">
+      <c r="O217" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -10115,11 +10296,11 @@
       <c r="M218" t="s">
         <v>287</v>
       </c>
-      <c r="N218" t="s">
+      <c r="O218" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -10156,11 +10337,11 @@
       <c r="M219" t="s">
         <v>287</v>
       </c>
-      <c r="N219" t="s">
+      <c r="O219" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -10197,11 +10378,11 @@
       <c r="M220" t="s">
         <v>287</v>
       </c>
-      <c r="N220" t="s">
+      <c r="O220" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -10232,11 +10413,11 @@
       <c r="M221" t="s">
         <v>287</v>
       </c>
-      <c r="N221" t="s">
+      <c r="O221" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -10276,11 +10457,11 @@
       <c r="M222" t="s">
         <v>287</v>
       </c>
-      <c r="N222" t="s">
+      <c r="O222" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -10317,11 +10498,11 @@
       <c r="M223" t="s">
         <v>287</v>
       </c>
-      <c r="N223" t="s">
+      <c r="O223" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -10361,11 +10542,11 @@
       <c r="M224" t="s">
         <v>287</v>
       </c>
-      <c r="N224" t="s">
+      <c r="O224" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -10405,11 +10586,11 @@
       <c r="M225" t="s">
         <v>287</v>
       </c>
-      <c r="N225" t="s">
+      <c r="O225" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -10449,11 +10630,11 @@
       <c r="M226" t="s">
         <v>287</v>
       </c>
-      <c r="N226" t="s">
+      <c r="O226" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -10484,11 +10665,11 @@
       <c r="M227" t="s">
         <v>287</v>
       </c>
-      <c r="N227" t="s">
+      <c r="O227" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -10528,11 +10709,11 @@
       <c r="M228" t="s">
         <v>287</v>
       </c>
-      <c r="N228" t="s">
+      <c r="O228" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -10572,11 +10753,11 @@
       <c r="M229" t="s">
         <v>287</v>
       </c>
-      <c r="N229" t="s">
+      <c r="O229" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -10607,11 +10788,11 @@
       <c r="M230" t="s">
         <v>287</v>
       </c>
-      <c r="N230" t="s">
+      <c r="O230" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -10651,11 +10832,11 @@
       <c r="M231" t="s">
         <v>287</v>
       </c>
-      <c r="N231" t="s">
+      <c r="O231" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -10695,11 +10876,11 @@
       <c r="M232" t="s">
         <v>287</v>
       </c>
-      <c r="N232" t="s">
+      <c r="O232" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -10736,11 +10917,11 @@
       <c r="M233" t="s">
         <v>287</v>
       </c>
-      <c r="N233" t="s">
+      <c r="O233" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -10777,11 +10958,14 @@
       <c r="M234" t="s">
         <v>287</v>
       </c>
-      <c r="N234" t="s">
+      <c r="N234" s="1">
+        <v>43869</v>
+      </c>
+      <c r="O234" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -10812,11 +10996,11 @@
       <c r="M235" t="s">
         <v>287</v>
       </c>
-      <c r="N235" t="s">
+      <c r="O235" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -10844,11 +11028,11 @@
       <c r="M236" t="s">
         <v>287</v>
       </c>
-      <c r="N236" t="s">
+      <c r="O236" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -10879,11 +11063,11 @@
       <c r="M237" t="s">
         <v>287</v>
       </c>
-      <c r="N237" t="s">
+      <c r="O237" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -10923,11 +11107,11 @@
       <c r="M238" t="s">
         <v>287</v>
       </c>
-      <c r="N238" t="s">
+      <c r="O238" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -10967,11 +11151,11 @@
       <c r="M239" t="s">
         <v>287</v>
       </c>
-      <c r="N239" t="s">
+      <c r="O239" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -11002,11 +11186,11 @@
       <c r="M240" t="s">
         <v>287</v>
       </c>
-      <c r="N240" t="s">
+      <c r="O240" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -11037,11 +11221,11 @@
       <c r="M241" t="s">
         <v>287</v>
       </c>
-      <c r="N241" t="s">
+      <c r="O241" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -11072,11 +11256,11 @@
       <c r="M242" t="s">
         <v>287</v>
       </c>
-      <c r="N242" t="s">
+      <c r="O242" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -11116,11 +11300,11 @@
       <c r="M243" t="s">
         <v>287</v>
       </c>
-      <c r="N243" t="s">
+      <c r="O243" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -11148,11 +11332,11 @@
       <c r="M244" t="s">
         <v>287</v>
       </c>
-      <c r="N244" t="s">
+      <c r="O244" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -11192,11 +11376,11 @@
       <c r="M245" t="s">
         <v>287</v>
       </c>
-      <c r="N245" t="s">
+      <c r="O245" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -11227,11 +11411,11 @@
       <c r="M246" t="s">
         <v>287</v>
       </c>
-      <c r="N246" t="s">
+      <c r="O246" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -11262,11 +11446,11 @@
       <c r="M247" t="s">
         <v>287</v>
       </c>
-      <c r="N247" t="s">
+      <c r="O247" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -11303,11 +11487,11 @@
       <c r="M248" t="s">
         <v>287</v>
       </c>
-      <c r="N248" t="s">
+      <c r="O248" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -11344,11 +11528,11 @@
       <c r="M249" t="s">
         <v>287</v>
       </c>
-      <c r="N249" t="s">
+      <c r="O249" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -11388,11 +11572,11 @@
       <c r="M250" t="s">
         <v>287</v>
       </c>
-      <c r="N250" t="s">
+      <c r="O250" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -11423,11 +11607,11 @@
       <c r="M251" t="s">
         <v>287</v>
       </c>
-      <c r="N251" t="s">
+      <c r="O251" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -11458,11 +11642,11 @@
       <c r="M252" t="s">
         <v>287</v>
       </c>
-      <c r="N252" t="s">
+      <c r="O252" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -11493,11 +11677,11 @@
       <c r="M253" t="s">
         <v>287</v>
       </c>
-      <c r="N253" t="s">
+      <c r="O253" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -11537,11 +11721,11 @@
       <c r="M254" t="s">
         <v>287</v>
       </c>
-      <c r="N254" t="s">
+      <c r="O254" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -11572,11 +11756,11 @@
       <c r="M255" t="s">
         <v>287</v>
       </c>
-      <c r="N255" t="s">
+      <c r="O255" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -11616,11 +11800,11 @@
       <c r="M256" t="s">
         <v>287</v>
       </c>
-      <c r="N256" t="s">
+      <c r="O256" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -11660,11 +11844,11 @@
       <c r="M257" t="s">
         <v>287</v>
       </c>
-      <c r="N257" t="s">
+      <c r="O257" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -11701,11 +11885,11 @@
       <c r="M258" t="s">
         <v>287</v>
       </c>
-      <c r="N258" t="s">
+      <c r="O258" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -11733,11 +11917,11 @@
       <c r="M259" t="s">
         <v>287</v>
       </c>
-      <c r="N259" t="s">
+      <c r="O259" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -11768,11 +11952,14 @@
       <c r="M260" t="s">
         <v>287</v>
       </c>
-      <c r="N260" t="s">
+      <c r="N260" s="1">
+        <v>43871</v>
+      </c>
+      <c r="O260" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -11803,11 +11990,11 @@
       <c r="M261" t="s">
         <v>287</v>
       </c>
-      <c r="N261" t="s">
+      <c r="O261" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
@@ -11847,11 +12034,11 @@
       <c r="M262" t="s">
         <v>287</v>
       </c>
-      <c r="N262" t="s">
+      <c r="O262" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -11882,11 +12069,11 @@
       <c r="M263" t="s">
         <v>287</v>
       </c>
-      <c r="N263" t="s">
+      <c r="O263" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -11914,11 +12101,14 @@
       <c r="M264" t="s">
         <v>287</v>
       </c>
-      <c r="N264" t="s">
+      <c r="N264" s="1">
+        <v>43868</v>
+      </c>
+      <c r="O264" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -11958,11 +12148,11 @@
       <c r="M265" t="s">
         <v>287</v>
       </c>
-      <c r="N265" t="s">
+      <c r="O265" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
@@ -11993,11 +12183,11 @@
       <c r="M266" t="s">
         <v>287</v>
       </c>
-      <c r="N266" t="s">
+      <c r="O266" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -12028,11 +12218,11 @@
       <c r="M267" t="s">
         <v>287</v>
       </c>
-      <c r="N267" t="s">
+      <c r="O267" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
@@ -12072,11 +12262,11 @@
       <c r="M268" t="s">
         <v>287</v>
       </c>
-      <c r="N268" t="s">
+      <c r="O268" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -12107,11 +12297,11 @@
       <c r="M269" t="s">
         <v>287</v>
       </c>
-      <c r="N269" t="s">
+      <c r="O269" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -12139,11 +12329,11 @@
       <c r="M270" t="s">
         <v>287</v>
       </c>
-      <c r="N270" t="s">
+      <c r="O270" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -12174,11 +12364,11 @@
       <c r="M271" t="s">
         <v>287</v>
       </c>
-      <c r="N271" t="s">
+      <c r="O271" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
@@ -12209,11 +12399,11 @@
       <c r="M272" t="s">
         <v>287</v>
       </c>
-      <c r="N272" t="s">
+      <c r="O272" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
@@ -12244,11 +12434,11 @@
       <c r="M273" t="s">
         <v>287</v>
       </c>
-      <c r="N273" t="s">
+      <c r="O273" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -12279,11 +12469,11 @@
       <c r="M274" t="s">
         <v>287</v>
       </c>
-      <c r="N274" t="s">
+      <c r="O274" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
@@ -12320,11 +12510,11 @@
       <c r="M275" t="s">
         <v>287</v>
       </c>
-      <c r="N275" t="s">
+      <c r="O275" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -12364,11 +12554,11 @@
       <c r="M276" t="s">
         <v>287</v>
       </c>
-      <c r="N276" t="s">
+      <c r="O276" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
@@ -12399,11 +12589,11 @@
       <c r="M277" t="s">
         <v>287</v>
       </c>
-      <c r="N277" t="s">
+      <c r="O277" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
@@ -12434,11 +12624,11 @@
       <c r="M278" t="s">
         <v>287</v>
       </c>
-      <c r="N278" t="s">
+      <c r="O278" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -12466,11 +12656,14 @@
       <c r="M279" t="s">
         <v>287</v>
       </c>
-      <c r="N279" t="s">
+      <c r="N279" s="1">
+        <v>43871</v>
+      </c>
+      <c r="O279" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -12498,11 +12691,11 @@
       <c r="M280" t="s">
         <v>287</v>
       </c>
-      <c r="N280" t="s">
+      <c r="O280" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
@@ -12533,11 +12726,11 @@
       <c r="M281" t="s">
         <v>287</v>
       </c>
-      <c r="N281" t="s">
+      <c r="O281" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -12577,11 +12770,11 @@
       <c r="M282" t="s">
         <v>287</v>
       </c>
-      <c r="N282" t="s">
+      <c r="O282" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -12621,11 +12814,11 @@
       <c r="M283" t="s">
         <v>287</v>
       </c>
-      <c r="N283" t="s">
+      <c r="O283" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
@@ -12665,11 +12858,11 @@
       <c r="M284" t="s">
         <v>287</v>
       </c>
-      <c r="N284" t="s">
+      <c r="O284" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
@@ -12706,11 +12899,11 @@
       <c r="M285" t="s">
         <v>287</v>
       </c>
-      <c r="N285" t="s">
+      <c r="O285" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -12750,11 +12943,11 @@
       <c r="M286" t="s">
         <v>287</v>
       </c>
-      <c r="N286" t="s">
+      <c r="O286" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -12785,11 +12978,11 @@
       <c r="M287" t="s">
         <v>287</v>
       </c>
-      <c r="N287" t="s">
+      <c r="O287" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -12820,11 +13013,11 @@
       <c r="M288" t="s">
         <v>287</v>
       </c>
-      <c r="N288" t="s">
+      <c r="O288" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -12855,11 +13048,11 @@
       <c r="M289" t="s">
         <v>287</v>
       </c>
-      <c r="N289" t="s">
+      <c r="O289" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -12890,11 +13083,11 @@
       <c r="M290" t="s">
         <v>287</v>
       </c>
-      <c r="N290" t="s">
+      <c r="O290" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -12922,11 +13115,11 @@
       <c r="M291" t="s">
         <v>287</v>
       </c>
-      <c r="N291" t="s">
+      <c r="O291" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -12957,11 +13150,11 @@
       <c r="M292" t="s">
         <v>287</v>
       </c>
-      <c r="N292" t="s">
+      <c r="O292" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -12989,11 +13182,11 @@
       <c r="M293" t="s">
         <v>287</v>
       </c>
-      <c r="N293" t="s">
+      <c r="O293" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -13021,11 +13214,11 @@
       <c r="M294" t="s">
         <v>287</v>
       </c>
-      <c r="N294" t="s">
+      <c r="O294" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -13056,11 +13249,11 @@
       <c r="M295" t="s">
         <v>287</v>
       </c>
-      <c r="N295" t="s">
+      <c r="O295" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -13091,11 +13284,11 @@
       <c r="M296" t="s">
         <v>287</v>
       </c>
-      <c r="N296" t="s">
+      <c r="O296" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -13126,11 +13319,11 @@
       <c r="M297" t="s">
         <v>287</v>
       </c>
-      <c r="N297" t="s">
+      <c r="O297" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -13161,11 +13354,11 @@
       <c r="M298" t="s">
         <v>287</v>
       </c>
-      <c r="N298" t="s">
+      <c r="O298" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -13193,11 +13386,11 @@
       <c r="M299" t="s">
         <v>287</v>
       </c>
-      <c r="N299" t="s">
+      <c r="O299" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -13228,11 +13421,11 @@
       <c r="M300" t="s">
         <v>287</v>
       </c>
-      <c r="N300" t="s">
+      <c r="O300" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -13272,11 +13465,11 @@
       <c r="M301" t="s">
         <v>287</v>
       </c>
-      <c r="N301" t="s">
+      <c r="O301" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
@@ -13307,11 +13500,11 @@
       <c r="M302" t="s">
         <v>287</v>
       </c>
-      <c r="N302" t="s">
+      <c r="O302" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -13342,11 +13535,11 @@
       <c r="M303" t="s">
         <v>287</v>
       </c>
-      <c r="N303" t="s">
+      <c r="O303" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -13374,11 +13567,11 @@
       <c r="M304" t="s">
         <v>287</v>
       </c>
-      <c r="N304" t="s">
+      <c r="O304" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
@@ -13409,11 +13602,11 @@
       <c r="M305" t="s">
         <v>287</v>
       </c>
-      <c r="N305" t="s">
+      <c r="O305" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
@@ -13444,11 +13637,11 @@
       <c r="M306" t="s">
         <v>287</v>
       </c>
-      <c r="N306" t="s">
+      <c r="O306" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
@@ -13476,11 +13669,11 @@
       <c r="M307" t="s">
         <v>287</v>
       </c>
-      <c r="N307" t="s">
+      <c r="O307" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
@@ -13511,11 +13704,11 @@
       <c r="M308" t="s">
         <v>287</v>
       </c>
-      <c r="N308" t="s">
+      <c r="O308" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
@@ -13546,11 +13739,11 @@
       <c r="M309" t="s">
         <v>287</v>
       </c>
-      <c r="N309" t="s">
+      <c r="O309" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
@@ -13581,11 +13774,11 @@
       <c r="M310" t="s">
         <v>287</v>
       </c>
-      <c r="N310" t="s">
+      <c r="O310" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
@@ -13625,11 +13818,11 @@
       <c r="M311" t="s">
         <v>287</v>
       </c>
-      <c r="N311" t="s">
+      <c r="O311" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
@@ -13669,11 +13862,11 @@
       <c r="M312" t="s">
         <v>287</v>
       </c>
-      <c r="N312" t="s">
+      <c r="O312" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
@@ -13713,11 +13906,11 @@
       <c r="M313" t="s">
         <v>287</v>
       </c>
-      <c r="N313" t="s">
+      <c r="O313" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
@@ -13757,11 +13950,11 @@
       <c r="M314" t="s">
         <v>287</v>
       </c>
-      <c r="N314" t="s">
+      <c r="O314" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
@@ -13801,11 +13994,11 @@
       <c r="M315" t="s">
         <v>287</v>
       </c>
-      <c r="N315" t="s">
+      <c r="O315" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
@@ -13836,11 +14029,11 @@
       <c r="M316" t="s">
         <v>287</v>
       </c>
-      <c r="N316" t="s">
+      <c r="O316" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
@@ -13880,11 +14073,11 @@
       <c r="M317" t="s">
         <v>287</v>
       </c>
-      <c r="N317" t="s">
+      <c r="O317" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
@@ -13924,11 +14117,11 @@
       <c r="M318" t="s">
         <v>287</v>
       </c>
-      <c r="N318" t="s">
+      <c r="O318" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
@@ -13959,11 +14152,11 @@
       <c r="M319" t="s">
         <v>287</v>
       </c>
-      <c r="N319" t="s">
+      <c r="O319" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
@@ -14000,11 +14193,11 @@
       <c r="M320" t="s">
         <v>287</v>
       </c>
-      <c r="N320" t="s">
+      <c r="O320" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
@@ -14044,11 +14237,11 @@
       <c r="M321" t="s">
         <v>287</v>
       </c>
-      <c r="N321" t="s">
+      <c r="O321" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
@@ -14085,11 +14278,11 @@
       <c r="M322" t="s">
         <v>287</v>
       </c>
-      <c r="N322" t="s">
+      <c r="O322" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
@@ -14126,11 +14319,11 @@
       <c r="M323" t="s">
         <v>287</v>
       </c>
-      <c r="N323" t="s">
+      <c r="O323" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
@@ -14170,11 +14363,11 @@
       <c r="M324" t="s">
         <v>287</v>
       </c>
-      <c r="N324" t="s">
+      <c r="O324" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
@@ -14214,11 +14407,11 @@
       <c r="M325" t="s">
         <v>287</v>
       </c>
-      <c r="N325" t="s">
+      <c r="O325" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
@@ -14258,11 +14451,11 @@
       <c r="M326" t="s">
         <v>287</v>
       </c>
-      <c r="N326" t="s">
+      <c r="O326" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
@@ -14302,11 +14495,11 @@
       <c r="M327" t="s">
         <v>287</v>
       </c>
-      <c r="N327" t="s">
+      <c r="O327" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
@@ -14346,11 +14539,11 @@
       <c r="M328" t="s">
         <v>287</v>
       </c>
-      <c r="N328" t="s">
+      <c r="O328" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
@@ -14381,11 +14574,11 @@
       <c r="M329" t="s">
         <v>287</v>
       </c>
-      <c r="N329" t="s">
+      <c r="O329" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
@@ -14416,11 +14609,11 @@
       <c r="M330" t="s">
         <v>287</v>
       </c>
-      <c r="N330" t="s">
+      <c r="O330" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
@@ -14448,11 +14641,11 @@
       <c r="M331" t="s">
         <v>287</v>
       </c>
-      <c r="N331" t="s">
+      <c r="O331" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
@@ -14483,11 +14676,11 @@
       <c r="M332" t="s">
         <v>287</v>
       </c>
-      <c r="N332" t="s">
+      <c r="O332" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
@@ -14515,11 +14708,14 @@
       <c r="M333" t="s">
         <v>287</v>
       </c>
-      <c r="N333" t="s">
+      <c r="N333" s="1">
+        <v>43871</v>
+      </c>
+      <c r="O333" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
@@ -14550,11 +14746,11 @@
       <c r="M334" t="s">
         <v>287</v>
       </c>
-      <c r="N334" t="s">
+      <c r="O334" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>334</v>
       </c>
@@ -14594,11 +14790,11 @@
       <c r="M335" t="s">
         <v>287</v>
       </c>
-      <c r="N335" t="s">
+      <c r="O335" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
@@ -14629,11 +14825,11 @@
       <c r="M336" t="s">
         <v>287</v>
       </c>
-      <c r="N336" t="s">
+      <c r="O336" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
@@ -14664,11 +14860,11 @@
       <c r="M337" t="s">
         <v>287</v>
       </c>
-      <c r="N337" t="s">
+      <c r="O337" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>337</v>
       </c>
@@ -14699,11 +14895,11 @@
       <c r="M338" t="s">
         <v>287</v>
       </c>
-      <c r="N338" t="s">
+      <c r="O338" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>338</v>
       </c>
@@ -14743,11 +14939,11 @@
       <c r="M339" t="s">
         <v>287</v>
       </c>
-      <c r="N339" t="s">
+      <c r="O339" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>339</v>
       </c>
@@ -14787,11 +14983,11 @@
       <c r="M340" t="s">
         <v>287</v>
       </c>
-      <c r="N340" t="s">
+      <c r="O340" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>340</v>
       </c>
@@ -14831,11 +15027,11 @@
       <c r="M341" t="s">
         <v>287</v>
       </c>
-      <c r="N341" t="s">
+      <c r="O341" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>341</v>
       </c>
@@ -14875,11 +15071,11 @@
       <c r="M342" t="s">
         <v>287</v>
       </c>
-      <c r="N342" t="s">
+      <c r="O342" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>342</v>
       </c>
@@ -14910,11 +15106,11 @@
       <c r="M343" t="s">
         <v>287</v>
       </c>
-      <c r="N343" t="s">
+      <c r="O343" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>343</v>
       </c>
@@ -14954,11 +15150,11 @@
       <c r="M344" t="s">
         <v>287</v>
       </c>
-      <c r="N344" t="s">
+      <c r="O344" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>344</v>
       </c>
@@ -14998,11 +15194,11 @@
       <c r="M345" t="s">
         <v>287</v>
       </c>
-      <c r="N345" t="s">
+      <c r="O345" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>345</v>
       </c>
@@ -15039,11 +15235,11 @@
       <c r="M346" t="s">
         <v>287</v>
       </c>
-      <c r="N346" t="s">
+      <c r="O346" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>346</v>
       </c>
@@ -15074,11 +15270,11 @@
       <c r="M347" t="s">
         <v>287</v>
       </c>
-      <c r="N347" t="s">
+      <c r="O347" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>347</v>
       </c>
@@ -15109,11 +15305,11 @@
       <c r="M348" t="s">
         <v>287</v>
       </c>
-      <c r="N348" t="s">
+      <c r="O348" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>348</v>
       </c>
@@ -15141,11 +15337,11 @@
       <c r="M349" t="s">
         <v>287</v>
       </c>
-      <c r="N349" t="s">
+      <c r="O349" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>349</v>
       </c>
@@ -15176,11 +15372,11 @@
       <c r="M350" t="s">
         <v>287</v>
       </c>
-      <c r="N350" t="s">
+      <c r="O350" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>350</v>
       </c>
@@ -15208,11 +15404,11 @@
       <c r="M351" t="s">
         <v>287</v>
       </c>
-      <c r="N351" t="s">
+      <c r="O351" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>351</v>
       </c>
@@ -15243,11 +15439,11 @@
       <c r="M352" t="s">
         <v>287</v>
       </c>
-      <c r="N352" t="s">
+      <c r="O352" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>352</v>
       </c>
@@ -15278,11 +15474,11 @@
       <c r="M353" t="s">
         <v>287</v>
       </c>
-      <c r="N353" t="s">
+      <c r="O353" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>353</v>
       </c>
@@ -15322,11 +15518,11 @@
       <c r="M354" t="s">
         <v>287</v>
       </c>
-      <c r="N354" t="s">
+      <c r="O354" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>354</v>
       </c>
@@ -15366,13 +15562,190 @@
       <c r="M355" t="s">
         <v>287</v>
       </c>
-      <c r="N355" t="s">
+      <c r="O355" t="s">
         <v>599</v>
       </c>
     </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368" t="s">
+        <v>282</v>
+      </c>
+      <c r="C368">
+        <v>61</v>
+      </c>
+      <c r="D368">
+        <v>214</v>
+      </c>
+      <c r="E368" t="s">
+        <v>24</v>
+      </c>
+      <c r="F368" t="s">
+        <v>315</v>
+      </c>
+      <c r="G368" s="1">
+        <v>43854</v>
+      </c>
+      <c r="H368" s="1">
+        <v>43861</v>
+      </c>
+      <c r="I368" t="s">
+        <v>273</v>
+      </c>
+      <c r="J368" t="s">
+        <v>301</v>
+      </c>
+      <c r="L368" t="s">
+        <v>317</v>
+      </c>
+      <c r="M368" t="s">
+        <v>287</v>
+      </c>
+      <c r="O368" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369" t="s">
+        <v>283</v>
+      </c>
+      <c r="C369">
+        <v>37</v>
+      </c>
+      <c r="D369">
+        <v>342</v>
+      </c>
+      <c r="E369" t="s">
+        <v>107</v>
+      </c>
+      <c r="F369" t="s">
+        <v>315</v>
+      </c>
+      <c r="G369" s="1">
+        <v>43865</v>
+      </c>
+      <c r="H369" s="1">
+        <v>43866</v>
+      </c>
+      <c r="I369" t="s">
+        <v>313</v>
+      </c>
+      <c r="J369" t="s">
+        <v>268</v>
+      </c>
+      <c r="K369" t="s">
+        <v>280</v>
+      </c>
+      <c r="L369" t="s">
+        <v>318</v>
+      </c>
+      <c r="M369" t="s">
+        <v>287</v>
+      </c>
+      <c r="O369" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370" t="s">
+        <v>283</v>
+      </c>
+      <c r="C370">
+        <v>43</v>
+      </c>
+      <c r="G370" s="1">
+        <v>43859</v>
+      </c>
+      <c r="H370" s="1">
+        <v>43870</v>
+      </c>
+      <c r="I370" t="s">
+        <v>606</v>
+      </c>
+      <c r="J370" t="s">
+        <v>607</v>
+      </c>
+      <c r="L370" t="s">
+        <v>317</v>
+      </c>
+      <c r="M370" t="s">
+        <v>287</v>
+      </c>
+      <c r="O370" t="s">
+        <v>605</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N317" xr:uid="{FFE7E968-33FE-49F2-BD5B-649463C4FD63}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N355">
+  <autoFilter ref="A1:O317" xr:uid="{FFE7E968-33FE-49F2-BD5B-649463C4FD63}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O370">
       <sortCondition ref="A1:A317"/>
     </sortState>
   </autoFilter>
@@ -15383,9 +15756,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0673D1E6-6595-4429-B6E9-D1E808706CBD}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15526,7 +15901,7 @@
         <v>171</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N11" si="1">M3-M2</f>
+        <f t="shared" ref="N3:N12" si="1">M3-M2</f>
         <v>73</v>
       </c>
       <c r="O3">
@@ -15574,7 +15949,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M11" si="2">SUM(B4:L4)</f>
+        <f t="shared" ref="M4:M12" si="2">SUM(B4:L4)</f>
         <v>196</v>
       </c>
       <c r="N4">
@@ -15950,6 +16325,58 @@
       </c>
       <c r="P11">
         <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43870</v>
+      </c>
+      <c r="B12">
+        <v>83</v>
+      </c>
+      <c r="C12">
+        <v>68</v>
+      </c>
+      <c r="D12">
+        <v>61</v>
+      </c>
+      <c r="E12">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>29</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>24</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>368</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -15959,9 +16386,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9D6FEA-175F-4C98-96B4-DF3F2D772A0A}">
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -17945,10 +18374,130 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B142" s="1"/>
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1">
+        <v>43870</v>
+      </c>
+      <c r="C142" t="s">
+        <v>295</v>
+      </c>
+      <c r="D142" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B143" s="1"/>
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1">
+        <v>43870</v>
+      </c>
+      <c r="C143" t="s">
+        <v>295</v>
+      </c>
+      <c r="D143" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1">
+        <v>43870</v>
+      </c>
+      <c r="C144" t="s">
+        <v>280</v>
+      </c>
+      <c r="D144" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1">
+        <v>43870</v>
+      </c>
+      <c r="C145" t="s">
+        <v>280</v>
+      </c>
+      <c r="D145" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1">
+        <v>43870</v>
+      </c>
+      <c r="C146" t="s">
+        <v>298</v>
+      </c>
+      <c r="D146" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1">
+        <v>43870</v>
+      </c>
+      <c r="C147" t="s">
+        <v>298</v>
+      </c>
+      <c r="D147" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1">
+        <v>43870</v>
+      </c>
+      <c r="C148" t="s">
+        <v>281</v>
+      </c>
+      <c r="D148" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1">
+        <v>43870</v>
+      </c>
+      <c r="C149" t="s">
+        <v>299</v>
+      </c>
+      <c r="D149" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1">
+        <v>43871</v>
+      </c>
+      <c r="C150" t="s">
+        <v>280</v>
+      </c>
+      <c r="D150" t="s">
+        <v>602</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Shenzhen_WJW/2019nCov_Shenzhen_new_cases.xlsx
+++ b/Shenzhen_WJW/2019nCov_Shenzhen_new_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Shenzhen_WJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1193" documentId="8_{518E5CB1-397D-479F-A002-9F80F41B7951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{30C09AD4-FA26-43D1-BF68-4D23499EE552}"/>
+  <xr:revisionPtr revIDLastSave="1339" documentId="8_{518E5CB1-397D-479F-A002-9F80F41B7951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BF49F0BB-2066-4863-9EA1-48B4230EB221}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="629">
   <si>
     <t>Sex</t>
   </si>
@@ -1984,6 +1984,74 @@
   </si>
   <si>
     <t>Released_Time</t>
+  </si>
+  <si>
+    <t>36岁女性患者，常住于深圳福田。1月6日前往武汉，后到湖北随州，22日发病，24日从随州驾车返回深圳。30日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>御景峰</t>
+  </si>
+  <si>
+    <t>金泓凯旋城</t>
+  </si>
+  <si>
+    <t>48 岁女性患者，常住于深圳南山。1 月 22 日乘私家车到福建龙岩过年，与从武汉回来的亲属有接触史，26 日乘私家车返回深圳。2 月 1 日发病，2 月 7 日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>39 岁男性患者，常住于湖北武汉。1 月 15 日乘私家车从河南周口到武汉，23 日经湖南长沙到广州，24 日到普吉岛旅游，27 日抵达深圳。1 月 25 日发病，2 月8 日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>病例 277 女儿
+　   30 岁女性患者，常住于深圳龙岗。1 月 20 日前往武汉接父母回深圳，22 日返回。2 月 3 日发病，2 月 7 日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>57 岁女性患者，常住于湖北荆州。1 月 21 日从湖南岳阳前往深圳，25 日乘私家车前往惠州，27 日发病，2 月 3 日到深圳。2 月 6 日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>72 岁女性患者，常住于深圳罗湖。自述近期无湖北相关旅居史。1 月 21 日发病，2 月 7 日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>病例 337 儿媳
+　   28 岁女性患者，常住于深圳罗湖。1 月 19 日驾车到江西新余过年，2 月 1 日返回深圳。2 月 5 日发病，2 月 7 日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>49 岁女性患者，常住于深圳福田。1 月 15 日前往武汉，后自驾前往湖北黄石，19 日返回武汉，22 日再到黄石。24 日从黄石驾车出发，经长沙、韶关，26 日抵达深圳。29 日发病，2 月 5 日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>病例 335 丈夫
+　   69 岁男性患者，常住于深圳南山。自述近期无湖北相关旅居史，1 月 18 日接触过湖北赤壁返深人员。21 日发病，25 日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>18 岁男性患者，常住于深圳福田。2019 年 12 月 1 日前往武汉探亲，有与家中新冠肺炎确诊病例接触史，1 月 13 日前往湖北仙桃，20 日返回深圳。23 日发病，29 日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>病例 329 妻子
+　   32 岁女性患者，常住于深圳南山。1 月 21 日驾车到湖北黄冈探亲，26 日驾车返回深圳。2 月 5 日发病，2 月 7 日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>36 岁男性患者，常住于深圳龙岗。1 月 19 日驾车到湖北洪湖，24 日驾车返回深圳。2 月 1 日发病，2 月 8 日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>病例366母亲
+　　62岁女性患者，常住于深圳龙岗。1月18日驾车经湖南楚江，次日抵达湖北洪湖，24日驾车返回深圳。2月7日发病，2月9日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>病例328妻子
+　　51岁女性患者，常住于深圳福田。1月18日驾车前往湖北鄂州，22日驾车到黄冈，当日发病，23日返回深圳。2月1日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>40岁女性患者，常住于深圳宝安。自述近期无湖北相关旅居史。1月19日后接触过武汉来深亲属。2月6日发病，2月9日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>病例372女儿
+　　10岁女性患者，常住于深圳宝安。自述近期无湖北相关旅居史。1月19日后接触过武汉来深亲属。2月1日发病，2月9日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>41岁男性患者，常住于深圳福田。1月11日到北京开会，自述有与武汉人员接触史，16日返回深圳。23日发病，2月5日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>病例361儿子
+　　21岁男性患者，常住于深圳福田。1月15日前往湖北武汉，后自驾前往湖北黄石，19日返回武汉，22日再到黄石。24日从黄石驾车出发，经长沙、韶关，26日返回深圳。2月8日发病，2月9日入院，目前病情稳定。</t>
   </si>
 </sst>
 </file>
@@ -2326,11 +2394,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O370"/>
+  <dimension ref="A1:Q376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I377" sqref="I377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2988,6 +3056,9 @@
       <c r="M17" t="s">
         <v>287</v>
       </c>
+      <c r="N17" s="1">
+        <v>43872</v>
+      </c>
       <c r="O17" t="s">
         <v>29</v>
       </c>
@@ -3687,6 +3758,9 @@
       <c r="M38" t="s">
         <v>287</v>
       </c>
+      <c r="N38" s="1">
+        <v>43872</v>
+      </c>
       <c r="O38" t="s">
         <v>50</v>
       </c>
@@ -5955,6 +6029,9 @@
       <c r="M101" t="s">
         <v>287</v>
       </c>
+      <c r="N101" s="1">
+        <v>43872</v>
+      </c>
       <c r="O101" t="s">
         <v>113</v>
       </c>
@@ -6374,6 +6451,9 @@
       <c r="M111" t="s">
         <v>287</v>
       </c>
+      <c r="N111" s="1">
+        <v>43872</v>
+      </c>
       <c r="O111" t="s">
         <v>125</v>
       </c>
@@ -6888,6 +6968,9 @@
       <c r="M125" t="s">
         <v>287</v>
       </c>
+      <c r="N125" s="1">
+        <v>43872</v>
+      </c>
       <c r="O125" t="s">
         <v>139</v>
       </c>
@@ -7031,6 +7114,9 @@
       <c r="M129" t="s">
         <v>287</v>
       </c>
+      <c r="N129" s="1">
+        <v>43872</v>
+      </c>
       <c r="O129" t="s">
         <v>143</v>
       </c>
@@ -7098,6 +7184,9 @@
       <c r="M131" t="s">
         <v>287</v>
       </c>
+      <c r="N131" s="1">
+        <v>43872</v>
+      </c>
       <c r="O131" t="s">
         <v>145</v>
       </c>
@@ -7866,6 +7955,9 @@
       <c r="M152" t="s">
         <v>287</v>
       </c>
+      <c r="N152" s="1">
+        <v>43872</v>
+      </c>
       <c r="O152" t="s">
         <v>167</v>
       </c>
@@ -8164,6 +8256,9 @@
       <c r="M160" t="s">
         <v>287</v>
       </c>
+      <c r="N160" s="1">
+        <v>43872</v>
+      </c>
       <c r="O160" t="s">
         <v>176</v>
       </c>
@@ -15443,7 +15538,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>352</v>
       </c>
@@ -15478,7 +15573,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>353</v>
       </c>
@@ -15522,7 +15617,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>354</v>
       </c>
@@ -15566,67 +15661,476 @@
         <v>599</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B356" t="s">
+        <v>283</v>
+      </c>
+      <c r="C356">
+        <v>48</v>
+      </c>
+      <c r="G356" s="1">
+        <v>43862</v>
+      </c>
+      <c r="H356" s="1">
+        <v>43868</v>
+      </c>
+      <c r="I356" t="s">
+        <v>313</v>
+      </c>
+      <c r="J356" t="s">
+        <v>268</v>
+      </c>
+      <c r="K356" t="s">
+        <v>280</v>
+      </c>
+      <c r="L356" t="s">
+        <v>317</v>
+      </c>
+      <c r="M356" t="s">
+        <v>287</v>
+      </c>
+      <c r="N356"/>
+      <c r="O356" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q356" s="1"/>
+    </row>
+    <row r="357" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B357" t="s">
+        <v>282</v>
+      </c>
+      <c r="C357">
+        <v>39</v>
+      </c>
+      <c r="G357" s="1">
+        <v>43855</v>
+      </c>
+      <c r="H357" s="1">
+        <v>43869</v>
+      </c>
+      <c r="I357" t="s">
+        <v>273</v>
+      </c>
+      <c r="J357" t="s">
+        <v>269</v>
+      </c>
+      <c r="L357" t="s">
+        <v>317</v>
+      </c>
+      <c r="M357" t="s">
+        <v>287</v>
+      </c>
+      <c r="N357"/>
+      <c r="O357" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q357" s="1"/>
+    </row>
+    <row r="358" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B358" t="s">
+        <v>283</v>
+      </c>
+      <c r="C358">
+        <v>30</v>
+      </c>
+      <c r="D358">
+        <v>277</v>
+      </c>
+      <c r="E358" t="s">
+        <v>107</v>
+      </c>
+      <c r="F358" t="s">
+        <v>315</v>
+      </c>
+      <c r="G358" s="1">
+        <v>43864</v>
+      </c>
+      <c r="H358" s="1">
+        <v>43868</v>
+      </c>
+      <c r="I358" t="s">
+        <v>313</v>
+      </c>
+      <c r="J358" t="s">
+        <v>268</v>
+      </c>
+      <c r="K358" t="s">
+        <v>295</v>
+      </c>
+      <c r="L358" t="s">
+        <v>317</v>
+      </c>
+      <c r="M358" t="s">
+        <v>287</v>
+      </c>
+      <c r="N358"/>
+      <c r="O358" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q358" s="1"/>
+    </row>
+    <row r="359" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B359" t="s">
+        <v>283</v>
+      </c>
+      <c r="C359">
+        <v>57</v>
+      </c>
+      <c r="G359" s="1">
+        <v>43857</v>
+      </c>
+      <c r="H359" s="1">
+        <v>43867</v>
+      </c>
+      <c r="I359" t="s">
+        <v>273</v>
+      </c>
+      <c r="J359" t="s">
+        <v>301</v>
+      </c>
+      <c r="L359" t="s">
+        <v>317</v>
+      </c>
+      <c r="M359" t="s">
+        <v>287</v>
+      </c>
+      <c r="N359"/>
+      <c r="O359" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q359" s="1"/>
+    </row>
+    <row r="360" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B360" t="s">
+        <v>283</v>
+      </c>
+      <c r="C360">
+        <v>72</v>
+      </c>
+      <c r="G360" s="1">
+        <v>43851</v>
+      </c>
+      <c r="H360" s="1">
+        <v>43868</v>
+      </c>
+      <c r="I360" t="s">
+        <v>313</v>
+      </c>
+      <c r="J360" t="s">
+        <v>268</v>
+      </c>
+      <c r="K360" t="s">
+        <v>299</v>
+      </c>
+      <c r="L360" t="s">
+        <v>318</v>
+      </c>
+      <c r="M360" t="s">
+        <v>287</v>
+      </c>
+      <c r="N360"/>
+      <c r="O360" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q360" s="1"/>
+    </row>
+    <row r="361" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B361" t="s">
+        <v>283</v>
+      </c>
+      <c r="C361">
+        <v>28</v>
+      </c>
+      <c r="D361">
+        <v>337</v>
+      </c>
+      <c r="E361" t="s">
+        <v>289</v>
+      </c>
+      <c r="F361" t="s">
+        <v>315</v>
+      </c>
+      <c r="G361" s="1">
+        <v>43866</v>
+      </c>
+      <c r="H361" s="1">
+        <v>43868</v>
+      </c>
+      <c r="I361" t="s">
+        <v>313</v>
+      </c>
+      <c r="J361" t="s">
+        <v>268</v>
+      </c>
+      <c r="K361" t="s">
+        <v>299</v>
+      </c>
+      <c r="L361" t="s">
+        <v>317</v>
+      </c>
+      <c r="M361" t="s">
+        <v>287</v>
+      </c>
+      <c r="N361"/>
+      <c r="O361" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q361" s="1"/>
+    </row>
+    <row r="362" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B362" t="s">
+        <v>283</v>
+      </c>
+      <c r="C362">
+        <v>49</v>
+      </c>
+      <c r="G362" s="1">
+        <v>43859</v>
+      </c>
+      <c r="H362" s="1">
+        <v>43866</v>
+      </c>
+      <c r="I362" t="s">
+        <v>313</v>
+      </c>
+      <c r="J362" t="s">
+        <v>268</v>
+      </c>
+      <c r="K362" t="s">
+        <v>281</v>
+      </c>
+      <c r="L362" t="s">
+        <v>317</v>
+      </c>
+      <c r="M362" t="s">
+        <v>287</v>
+      </c>
+      <c r="N362"/>
+      <c r="O362" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q362" s="1"/>
+    </row>
+    <row r="363" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B363" t="s">
+        <v>282</v>
+      </c>
+      <c r="C363">
+        <v>69</v>
+      </c>
+      <c r="D363">
+        <v>335</v>
+      </c>
+      <c r="E363" t="s">
+        <v>24</v>
+      </c>
+      <c r="F363" t="s">
+        <v>315</v>
+      </c>
+      <c r="G363" s="1">
+        <v>43851</v>
+      </c>
+      <c r="H363" s="1">
+        <v>43855</v>
+      </c>
+      <c r="I363" t="s">
+        <v>313</v>
+      </c>
+      <c r="J363" t="s">
+        <v>268</v>
+      </c>
+      <c r="K363" t="s">
+        <v>280</v>
+      </c>
+      <c r="L363" t="s">
+        <v>317</v>
+      </c>
+      <c r="M363" t="s">
+        <v>287</v>
+      </c>
+      <c r="N363"/>
+      <c r="O363" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q363" s="1"/>
+    </row>
+    <row r="364" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B364" t="s">
+        <v>283</v>
+      </c>
+      <c r="C364">
+        <v>36</v>
+      </c>
+      <c r="G364" s="1">
+        <v>43852</v>
+      </c>
+      <c r="H364" s="1">
+        <v>43860</v>
+      </c>
+      <c r="I364" t="s">
+        <v>313</v>
+      </c>
+      <c r="J364" t="s">
+        <v>268</v>
+      </c>
+      <c r="K364" t="s">
+        <v>281</v>
+      </c>
+      <c r="L364" t="s">
+        <v>317</v>
+      </c>
+      <c r="M364" t="s">
+        <v>287</v>
+      </c>
+      <c r="N364" s="1">
+        <v>43872</v>
+      </c>
+      <c r="O364" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="365" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B365" t="s">
+        <v>282</v>
+      </c>
+      <c r="C365">
+        <v>18</v>
+      </c>
+      <c r="G365" s="1">
+        <v>43853</v>
+      </c>
+      <c r="H365" s="1">
+        <v>43859</v>
+      </c>
+      <c r="I365" t="s">
+        <v>313</v>
+      </c>
+      <c r="J365" t="s">
+        <v>268</v>
+      </c>
+      <c r="K365" t="s">
+        <v>281</v>
+      </c>
+      <c r="L365" t="s">
+        <v>317</v>
+      </c>
+      <c r="M365" t="s">
+        <v>287</v>
+      </c>
+      <c r="O365" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="366" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>365</v>
       </c>
-    </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B366" t="s">
+        <v>283</v>
+      </c>
+      <c r="C366">
+        <v>32</v>
+      </c>
+      <c r="D366">
+        <v>329</v>
+      </c>
+      <c r="E366" t="s">
+        <v>10</v>
+      </c>
+      <c r="F366" t="s">
+        <v>315</v>
+      </c>
+      <c r="G366" s="1">
+        <v>43866</v>
+      </c>
+      <c r="H366" s="1">
+        <v>43868</v>
+      </c>
+      <c r="I366" t="s">
+        <v>313</v>
+      </c>
+      <c r="J366" t="s">
+        <v>268</v>
+      </c>
+      <c r="K366" t="s">
+        <v>280</v>
+      </c>
+      <c r="L366" t="s">
+        <v>317</v>
+      </c>
+      <c r="M366" t="s">
+        <v>287</v>
+      </c>
+      <c r="O366" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="367" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B367" t="s">
+        <v>282</v>
+      </c>
+      <c r="C367">
+        <v>36</v>
+      </c>
+      <c r="G367" s="1">
+        <v>43862</v>
+      </c>
+      <c r="H367" s="1">
+        <v>43869</v>
+      </c>
+      <c r="I367" t="s">
+        <v>313</v>
+      </c>
+      <c r="J367" t="s">
+        <v>268</v>
+      </c>
+      <c r="K367" t="s">
+        <v>295</v>
+      </c>
+      <c r="L367" t="s">
+        <v>317</v>
+      </c>
+      <c r="M367" t="s">
+        <v>287</v>
+      </c>
+      <c r="O367" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="368" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>367</v>
       </c>
@@ -15741,6 +16245,258 @@
       </c>
       <c r="O370" t="s">
         <v>605</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371" t="s">
+        <v>283</v>
+      </c>
+      <c r="C371">
+        <v>62</v>
+      </c>
+      <c r="D371">
+        <v>366</v>
+      </c>
+      <c r="E371" t="s">
+        <v>16</v>
+      </c>
+      <c r="F371" t="s">
+        <v>315</v>
+      </c>
+      <c r="G371" s="1">
+        <v>43868</v>
+      </c>
+      <c r="H371" s="1">
+        <v>43870</v>
+      </c>
+      <c r="I371" t="s">
+        <v>313</v>
+      </c>
+      <c r="J371" t="s">
+        <v>268</v>
+      </c>
+      <c r="K371" t="s">
+        <v>295</v>
+      </c>
+      <c r="L371" t="s">
+        <v>317</v>
+      </c>
+      <c r="M371" t="s">
+        <v>287</v>
+      </c>
+      <c r="N371"/>
+      <c r="O371" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372" t="s">
+        <v>283</v>
+      </c>
+      <c r="C372">
+        <v>51</v>
+      </c>
+      <c r="D372">
+        <v>328</v>
+      </c>
+      <c r="E372" t="s">
+        <v>10</v>
+      </c>
+      <c r="F372" t="s">
+        <v>315</v>
+      </c>
+      <c r="G372" s="1">
+        <v>43852</v>
+      </c>
+      <c r="H372" s="1">
+        <v>43862</v>
+      </c>
+      <c r="I372" t="s">
+        <v>313</v>
+      </c>
+      <c r="J372" t="s">
+        <v>268</v>
+      </c>
+      <c r="K372" t="s">
+        <v>281</v>
+      </c>
+      <c r="L372" t="s">
+        <v>317</v>
+      </c>
+      <c r="M372" t="s">
+        <v>287</v>
+      </c>
+      <c r="N372"/>
+      <c r="O372" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373" t="s">
+        <v>283</v>
+      </c>
+      <c r="C373">
+        <v>40</v>
+      </c>
+      <c r="G373" s="1">
+        <v>43867</v>
+      </c>
+      <c r="H373" s="1">
+        <v>43870</v>
+      </c>
+      <c r="I373" t="s">
+        <v>313</v>
+      </c>
+      <c r="J373" t="s">
+        <v>268</v>
+      </c>
+      <c r="K373" t="s">
+        <v>298</v>
+      </c>
+      <c r="L373" t="s">
+        <v>317</v>
+      </c>
+      <c r="M373" t="s">
+        <v>287</v>
+      </c>
+      <c r="N373"/>
+      <c r="O373" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374" t="s">
+        <v>283</v>
+      </c>
+      <c r="C374">
+        <v>10</v>
+      </c>
+      <c r="D374">
+        <v>372</v>
+      </c>
+      <c r="E374" t="s">
+        <v>107</v>
+      </c>
+      <c r="F374" t="s">
+        <v>315</v>
+      </c>
+      <c r="G374" s="1">
+        <v>43862</v>
+      </c>
+      <c r="H374" s="1">
+        <v>43870</v>
+      </c>
+      <c r="I374" t="s">
+        <v>313</v>
+      </c>
+      <c r="J374" t="s">
+        <v>268</v>
+      </c>
+      <c r="K374" t="s">
+        <v>298</v>
+      </c>
+      <c r="L374" t="s">
+        <v>317</v>
+      </c>
+      <c r="M374" t="s">
+        <v>287</v>
+      </c>
+      <c r="N374"/>
+      <c r="O374" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375" t="s">
+        <v>282</v>
+      </c>
+      <c r="C375">
+        <v>41</v>
+      </c>
+      <c r="G375" s="1">
+        <v>43853</v>
+      </c>
+      <c r="H375" s="1">
+        <v>43866</v>
+      </c>
+      <c r="I375" t="s">
+        <v>313</v>
+      </c>
+      <c r="J375" t="s">
+        <v>268</v>
+      </c>
+      <c r="K375" t="s">
+        <v>281</v>
+      </c>
+      <c r="L375" t="s">
+        <v>317</v>
+      </c>
+      <c r="M375" t="s">
+        <v>287</v>
+      </c>
+      <c r="N375"/>
+      <c r="O375" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376" t="s">
+        <v>282</v>
+      </c>
+      <c r="C376">
+        <v>21</v>
+      </c>
+      <c r="D376">
+        <v>361</v>
+      </c>
+      <c r="E376" t="s">
+        <v>182</v>
+      </c>
+      <c r="F376" t="s">
+        <v>315</v>
+      </c>
+      <c r="G376" s="1">
+        <v>43869</v>
+      </c>
+      <c r="H376" s="1">
+        <v>43870</v>
+      </c>
+      <c r="I376" t="s">
+        <v>313</v>
+      </c>
+      <c r="J376" t="s">
+        <v>268</v>
+      </c>
+      <c r="K376" t="s">
+        <v>281</v>
+      </c>
+      <c r="L376" t="s">
+        <v>317</v>
+      </c>
+      <c r="M376" t="s">
+        <v>287</v>
+      </c>
+      <c r="N376"/>
+      <c r="O376" t="s">
+        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -15756,10 +16512,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0673D1E6-6595-4429-B6E9-D1E808706CBD}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15901,7 +16657,7 @@
         <v>171</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N12" si="1">M3-M2</f>
+        <f t="shared" ref="N3:N13" si="1">M3-M2</f>
         <v>73</v>
       </c>
       <c r="O3">
@@ -15949,7 +16705,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M12" si="2">SUM(B4:L4)</f>
+        <f t="shared" ref="M4:M13" si="2">SUM(B4:L4)</f>
         <v>196</v>
       </c>
       <c r="N4">
@@ -16377,6 +17133,58 @@
       </c>
       <c r="P12">
         <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43871</v>
+      </c>
+      <c r="B13">
+        <v>85</v>
+      </c>
+      <c r="C13">
+        <v>70</v>
+      </c>
+      <c r="D13">
+        <v>62</v>
+      </c>
+      <c r="E13">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>52</v>
+      </c>
+      <c r="G13">
+        <v>29</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>24</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>375</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -16386,11 +17194,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9D6FEA-175F-4C98-96B4-DF3F2D772A0A}">
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -18499,6 +19305,34 @@
         <v>602</v>
       </c>
     </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1">
+        <v>43872</v>
+      </c>
+      <c r="C151" t="s">
+        <v>280</v>
+      </c>
+      <c r="D151" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1">
+        <v>43872</v>
+      </c>
+      <c r="C152" t="s">
+        <v>298</v>
+      </c>
+      <c r="D152" t="s">
+        <v>611</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Shenzhen_WJW/2019nCov_Shenzhen_new_cases.xlsx
+++ b/Shenzhen_WJW/2019nCov_Shenzhen_new_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Shenzhen_WJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1339" documentId="8_{518E5CB1-397D-479F-A002-9F80F41B7951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BF49F0BB-2066-4863-9EA1-48B4230EB221}"/>
+  <xr:revisionPtr revIDLastSave="1488" documentId="8_{518E5CB1-397D-479F-A002-9F80F41B7951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0A614D39-71B2-4B62-B77C-4B79C1DB53D2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Places" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cases!$A$1:$O$317</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cases!$A$1:$O$387</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3165" uniqueCount="649">
   <si>
     <t>Sex</t>
   </si>
@@ -2052,6 +2052,69 @@
   <si>
     <t>病例361儿子
 　　21岁男性患者，常住于深圳福田。1月15日前往湖北武汉，后自驾前往湖北黄石，19日返回武汉，22日再到黄石。24日从黄石驾车出发，经长沙、韶关，26日返回深圳。2月8日发病，2月9日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>花园城一期</t>
+  </si>
+  <si>
+    <t>东方社区上头田新村</t>
+  </si>
+  <si>
+    <t>正大时代华庭</t>
+  </si>
+  <si>
+    <t>玮鹏花园</t>
+  </si>
+  <si>
+    <t>东海丽景花园</t>
+  </si>
+  <si>
+    <t>汤坑社区东方丽园</t>
+  </si>
+  <si>
+    <t>新亚洲花园</t>
+  </si>
+  <si>
+    <t>上木古社区岭根吓</t>
+  </si>
+  <si>
+    <t>50岁男性患者，常住于深圳盐田。1月20日自驾车前往湖北通城，29日自驾返回深圳。2月8日发病，当日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>病例376女儿
+　　13岁女性患者，常住于深圳盐田。1月20日乘私家车前往湖北通城，29日随父母乘私家车返回深圳。2月8日发病，当日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>35岁男性患者，常住于深圳南山。1月20日前往武汉探亲，23日自驾从武汉返回深圳。1月24日发病，2月8日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>28岁女性患者，常住于深圳宝安。1月18日自驾到湖北咸宁，25日自驾前往清远，26日驾车返回深圳。2月8日发病，当日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>病例294妻子
+　　40岁女性患者，常住于深圳龙岗。1月18日自驾从深圳途经江西于都前往河南信阳，1月21日回南阳探亲，22日前往信阳，自述在信阳期间曾接触确诊病例，当晚返回南阳。1月25日自驾回深，26抵达。2月6日发病，2月10日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>33岁女性患者，常住于深圳坪山。自述无湖北相关旅居史，1月24日-29日期间与新冠肺炎确诊病例有接触史。2月5日发病，2月9日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>69岁男性患者，常住于湖北黄石。1月24日前往深圳。2月9日发病，当日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>43岁男性患者，常住于深圳龙岗。1月20日自驾从深圳出发，途径湖北境内前往河南省信阳市探亲，1月28日自驾返回深圳。2月2日发病，2月9日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>病例347儿子
+　　22岁男性患者，常住于广东广州。1月23日到深圳探亲，期间有与新冠肺炎确诊病例接触史。2月6日发病，2月8日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>28岁女性患者，常住于深圳福田。1月13日经武汉中转前往随州，18日从随州前往武汉游玩，次日返回随州，25日自驾返回深圳。2月8日发病，2月9日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>31岁男性患者，常住于深圳龙岗。1月15日自驾到湖北孝感探亲，25日自驾返回深圳，在湖北期间曾接触过新冠肺炎确诊病例。2月3日发病，2月9日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>广州</t>
   </si>
 </sst>
 </file>
@@ -2394,11 +2457,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q376"/>
+  <dimension ref="A1:Q387"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I377" sqref="I377"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3123,6 +3186,9 @@
       <c r="M19" t="s">
         <v>286</v>
       </c>
+      <c r="N19" s="1">
+        <v>43873</v>
+      </c>
       <c r="O19" t="s">
         <v>31</v>
       </c>
@@ -3986,6 +4052,9 @@
       <c r="M44" t="s">
         <v>287</v>
       </c>
+      <c r="N44" s="1">
+        <v>43873</v>
+      </c>
       <c r="O44" t="s">
         <v>56</v>
       </c>
@@ -4289,6 +4358,9 @@
       <c r="M53" t="s">
         <v>287</v>
       </c>
+      <c r="N53" s="1">
+        <v>43873</v>
+      </c>
       <c r="O53" t="s">
         <v>65</v>
       </c>
@@ -4502,6 +4574,9 @@
       <c r="M59" t="s">
         <v>287</v>
       </c>
+      <c r="N59" s="1">
+        <v>43873</v>
+      </c>
       <c r="O59" t="s">
         <v>71</v>
       </c>
@@ -4566,6 +4641,9 @@
       <c r="M61" t="s">
         <v>287</v>
       </c>
+      <c r="N61" s="1">
+        <v>43873</v>
+      </c>
       <c r="O61" t="s">
         <v>73</v>
       </c>
@@ -4598,6 +4676,9 @@
       <c r="M62" t="s">
         <v>287</v>
       </c>
+      <c r="N62" s="1">
+        <v>43873</v>
+      </c>
       <c r="O62" t="s">
         <v>74</v>
       </c>
@@ -4952,6 +5033,9 @@
       <c r="M71" t="s">
         <v>287</v>
       </c>
+      <c r="N71" s="1">
+        <v>43873</v>
+      </c>
       <c r="O71" t="s">
         <v>83</v>
       </c>
@@ -6369,6 +6453,9 @@
       <c r="M109" t="s">
         <v>287</v>
       </c>
+      <c r="N109" s="1">
+        <v>43873</v>
+      </c>
       <c r="O109" t="s">
         <v>123</v>
       </c>
@@ -6410,6 +6497,9 @@
       <c r="M110" t="s">
         <v>287</v>
       </c>
+      <c r="N110" s="1">
+        <v>43873</v>
+      </c>
       <c r="O110" t="s">
         <v>124</v>
       </c>
@@ -7768,6 +7858,9 @@
       <c r="M147" t="s">
         <v>287</v>
       </c>
+      <c r="N147" s="1">
+        <v>43873</v>
+      </c>
       <c r="O147" t="s">
         <v>162</v>
       </c>
@@ -7885,6 +7978,9 @@
       <c r="M150" t="s">
         <v>287</v>
       </c>
+      <c r="N150" s="1">
+        <v>43873</v>
+      </c>
       <c r="O150" t="s">
         <v>165</v>
       </c>
@@ -8867,6 +8963,9 @@
       <c r="M176" t="s">
         <v>287</v>
       </c>
+      <c r="N176" s="1">
+        <v>43873</v>
+      </c>
       <c r="O176" t="s">
         <v>193</v>
       </c>
@@ -9083,6 +9182,9 @@
       <c r="M182" t="s">
         <v>287</v>
       </c>
+      <c r="N182" s="1">
+        <v>43873</v>
+      </c>
       <c r="O182" t="s">
         <v>199</v>
       </c>
@@ -11086,7 +11188,7 @@
         <v>281</v>
       </c>
       <c r="L235" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M235" t="s">
         <v>287</v>
@@ -11281,6 +11383,9 @@
       <c r="M240" t="s">
         <v>287</v>
       </c>
+      <c r="N240" s="1">
+        <v>43873</v>
+      </c>
       <c r="O240" t="s">
         <v>259</v>
       </c>
@@ -13625,7 +13730,7 @@
         <v>280</v>
       </c>
       <c r="L303" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M303" t="s">
         <v>287</v>
@@ -13692,7 +13797,7 @@
         <v>298</v>
       </c>
       <c r="L305" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M305" t="s">
         <v>287</v>
@@ -14327,7 +14432,7 @@
         <v>280</v>
       </c>
       <c r="L321" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M321" t="s">
         <v>287</v>
@@ -15117,7 +15222,7 @@
         <v>298</v>
       </c>
       <c r="L341" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M341" t="s">
         <v>287</v>
@@ -15196,7 +15301,7 @@
         <v>280</v>
       </c>
       <c r="L343" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M343" t="s">
         <v>287</v>
@@ -15240,7 +15345,7 @@
         <v>280</v>
       </c>
       <c r="L344" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M344" t="s">
         <v>287</v>
@@ -15284,7 +15389,7 @@
         <v>298</v>
       </c>
       <c r="L345" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M345" t="s">
         <v>287</v>
@@ -15360,7 +15465,7 @@
         <v>280</v>
       </c>
       <c r="L347" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M347" t="s">
         <v>287</v>
@@ -15967,7 +16072,7 @@
         <v>280</v>
       </c>
       <c r="L363" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M363" t="s">
         <v>287</v>
@@ -16047,6 +16152,9 @@
       <c r="M365" t="s">
         <v>287</v>
       </c>
+      <c r="N365" s="1">
+        <v>43873</v>
+      </c>
       <c r="O365" t="s">
         <v>620</v>
       </c>
@@ -16238,7 +16346,7 @@
         <v>607</v>
       </c>
       <c r="L370" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M370" t="s">
         <v>287</v>
@@ -16363,7 +16471,7 @@
         <v>298</v>
       </c>
       <c r="L373" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M373" t="s">
         <v>287</v>
@@ -16408,7 +16516,7 @@
         <v>298</v>
       </c>
       <c r="L374" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M374" t="s">
         <v>287</v>
@@ -16499,10 +16607,416 @@
         <v>628</v>
       </c>
     </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
+        <v>282</v>
+      </c>
+      <c r="C377">
+        <v>50</v>
+      </c>
+      <c r="G377" s="1">
+        <v>43869</v>
+      </c>
+      <c r="H377" s="1">
+        <v>43869</v>
+      </c>
+      <c r="I377" t="s">
+        <v>313</v>
+      </c>
+      <c r="J377" t="s">
+        <v>268</v>
+      </c>
+      <c r="K377" t="s">
+        <v>434</v>
+      </c>
+      <c r="L377" t="s">
+        <v>317</v>
+      </c>
+      <c r="M377" t="s">
+        <v>287</v>
+      </c>
+      <c r="O377" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378" t="s">
+        <v>283</v>
+      </c>
+      <c r="C378">
+        <v>13</v>
+      </c>
+      <c r="D378">
+        <v>376</v>
+      </c>
+      <c r="E378" t="s">
+        <v>107</v>
+      </c>
+      <c r="F378" t="s">
+        <v>315</v>
+      </c>
+      <c r="G378" s="1">
+        <v>43869</v>
+      </c>
+      <c r="H378" s="1">
+        <v>43869</v>
+      </c>
+      <c r="I378" t="s">
+        <v>313</v>
+      </c>
+      <c r="J378" t="s">
+        <v>268</v>
+      </c>
+      <c r="K378" t="s">
+        <v>434</v>
+      </c>
+      <c r="L378" t="s">
+        <v>317</v>
+      </c>
+      <c r="M378" t="s">
+        <v>287</v>
+      </c>
+      <c r="O378" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379" t="s">
+        <v>282</v>
+      </c>
+      <c r="C379">
+        <v>35</v>
+      </c>
+      <c r="G379" s="1">
+        <v>43854</v>
+      </c>
+      <c r="H379" s="1">
+        <v>43869</v>
+      </c>
+      <c r="I379" t="s">
+        <v>313</v>
+      </c>
+      <c r="J379" t="s">
+        <v>268</v>
+      </c>
+      <c r="K379" t="s">
+        <v>280</v>
+      </c>
+      <c r="L379" t="s">
+        <v>317</v>
+      </c>
+      <c r="M379" t="s">
+        <v>287</v>
+      </c>
+      <c r="O379" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380" t="s">
+        <v>283</v>
+      </c>
+      <c r="C380">
+        <v>28</v>
+      </c>
+      <c r="G380" s="1">
+        <v>43869</v>
+      </c>
+      <c r="H380" s="1">
+        <v>43869</v>
+      </c>
+      <c r="I380" t="s">
+        <v>313</v>
+      </c>
+      <c r="J380" t="s">
+        <v>268</v>
+      </c>
+      <c r="K380" t="s">
+        <v>298</v>
+      </c>
+      <c r="L380" t="s">
+        <v>317</v>
+      </c>
+      <c r="M380" t="s">
+        <v>287</v>
+      </c>
+      <c r="O380" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>283</v>
+      </c>
+      <c r="C381">
+        <v>40</v>
+      </c>
+      <c r="D381">
+        <v>294</v>
+      </c>
+      <c r="E381" t="s">
+        <v>10</v>
+      </c>
+      <c r="F381" t="s">
+        <v>315</v>
+      </c>
+      <c r="G381" s="1">
+        <v>43867</v>
+      </c>
+      <c r="H381" s="1">
+        <v>43871</v>
+      </c>
+      <c r="I381" t="s">
+        <v>313</v>
+      </c>
+      <c r="J381" t="s">
+        <v>268</v>
+      </c>
+      <c r="K381" t="s">
+        <v>295</v>
+      </c>
+      <c r="L381" t="s">
+        <v>317</v>
+      </c>
+      <c r="M381" t="s">
+        <v>287</v>
+      </c>
+      <c r="O381" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382" t="s">
+        <v>283</v>
+      </c>
+      <c r="C382">
+        <v>33</v>
+      </c>
+      <c r="G382" s="1">
+        <v>43866</v>
+      </c>
+      <c r="H382" s="1">
+        <v>43870</v>
+      </c>
+      <c r="I382" t="s">
+        <v>313</v>
+      </c>
+      <c r="J382" t="s">
+        <v>268</v>
+      </c>
+      <c r="K382" t="s">
+        <v>338</v>
+      </c>
+      <c r="L382" t="s">
+        <v>318</v>
+      </c>
+      <c r="M382" t="s">
+        <v>287</v>
+      </c>
+      <c r="O382" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383" t="s">
+        <v>282</v>
+      </c>
+      <c r="C383">
+        <v>69</v>
+      </c>
+      <c r="G383" s="1">
+        <v>43870</v>
+      </c>
+      <c r="H383" s="1">
+        <v>43870</v>
+      </c>
+      <c r="I383" t="s">
+        <v>273</v>
+      </c>
+      <c r="J383" t="s">
+        <v>278</v>
+      </c>
+      <c r="L383" t="s">
+        <v>317</v>
+      </c>
+      <c r="M383" t="s">
+        <v>287</v>
+      </c>
+      <c r="O383" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384" t="s">
+        <v>282</v>
+      </c>
+      <c r="C384">
+        <v>43</v>
+      </c>
+      <c r="G384" s="1">
+        <v>43863</v>
+      </c>
+      <c r="H384" s="1">
+        <v>43870</v>
+      </c>
+      <c r="I384" t="s">
+        <v>313</v>
+      </c>
+      <c r="J384" t="s">
+        <v>268</v>
+      </c>
+      <c r="K384" t="s">
+        <v>295</v>
+      </c>
+      <c r="L384" t="s">
+        <v>317</v>
+      </c>
+      <c r="M384" t="s">
+        <v>287</v>
+      </c>
+      <c r="O384" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385" t="s">
+        <v>282</v>
+      </c>
+      <c r="C385">
+        <v>22</v>
+      </c>
+      <c r="D385">
+        <v>347</v>
+      </c>
+      <c r="E385" t="s">
+        <v>182</v>
+      </c>
+      <c r="F385" t="s">
+        <v>315</v>
+      </c>
+      <c r="G385" s="1">
+        <v>43867</v>
+      </c>
+      <c r="H385" s="1">
+        <v>43869</v>
+      </c>
+      <c r="I385" t="s">
+        <v>313</v>
+      </c>
+      <c r="J385" t="s">
+        <v>648</v>
+      </c>
+      <c r="L385" t="s">
+        <v>317</v>
+      </c>
+      <c r="M385" t="s">
+        <v>287</v>
+      </c>
+      <c r="O385" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386" t="s">
+        <v>283</v>
+      </c>
+      <c r="C386">
+        <v>28</v>
+      </c>
+      <c r="G386" s="1">
+        <v>43869</v>
+      </c>
+      <c r="H386" s="1">
+        <v>43870</v>
+      </c>
+      <c r="I386" t="s">
+        <v>313</v>
+      </c>
+      <c r="J386" t="s">
+        <v>268</v>
+      </c>
+      <c r="K386" t="s">
+        <v>281</v>
+      </c>
+      <c r="L386" t="s">
+        <v>317</v>
+      </c>
+      <c r="M386" t="s">
+        <v>287</v>
+      </c>
+      <c r="O386" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387" t="s">
+        <v>282</v>
+      </c>
+      <c r="C387">
+        <v>31</v>
+      </c>
+      <c r="G387" s="1">
+        <v>43864</v>
+      </c>
+      <c r="H387" s="1">
+        <v>43870</v>
+      </c>
+      <c r="I387" t="s">
+        <v>313</v>
+      </c>
+      <c r="J387" t="s">
+        <v>268</v>
+      </c>
+      <c r="K387" t="s">
+        <v>295</v>
+      </c>
+      <c r="L387" t="s">
+        <v>317</v>
+      </c>
+      <c r="M387" t="s">
+        <v>287</v>
+      </c>
+      <c r="O387" t="s">
+        <v>647</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O317" xr:uid="{FFE7E968-33FE-49F2-BD5B-649463C4FD63}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O370">
-      <sortCondition ref="A1:A317"/>
+  <autoFilter ref="A1:O387" xr:uid="{FFE7E968-33FE-49F2-BD5B-649463C4FD63}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O387">
+      <sortCondition ref="A1:A387"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16512,10 +17026,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0673D1E6-6595-4429-B6E9-D1E808706CBD}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16657,7 +17171,7 @@
         <v>171</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N13" si="1">M3-M2</f>
+        <f t="shared" ref="N3:N15" si="1">M3-M2</f>
         <v>73</v>
       </c>
       <c r="O3">
@@ -16705,7 +17219,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M13" si="2">SUM(B4:L4)</f>
+        <f t="shared" ref="M4:M15" si="2">SUM(B4:L4)</f>
         <v>196</v>
       </c>
       <c r="N4">
@@ -17185,6 +17699,110 @@
       </c>
       <c r="P13">
         <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43872</v>
+      </c>
+      <c r="B14">
+        <v>86</v>
+      </c>
+      <c r="C14">
+        <v>71</v>
+      </c>
+      <c r="D14">
+        <v>67</v>
+      </c>
+      <c r="E14">
+        <v>31</v>
+      </c>
+      <c r="F14">
+        <v>53</v>
+      </c>
+      <c r="G14">
+        <v>29</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>24</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>386</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43873</v>
+      </c>
+      <c r="B15">
+        <v>86</v>
+      </c>
+      <c r="C15">
+        <v>72</v>
+      </c>
+      <c r="D15">
+        <v>67</v>
+      </c>
+      <c r="E15">
+        <v>33</v>
+      </c>
+      <c r="F15">
+        <v>55</v>
+      </c>
+      <c r="G15">
+        <v>29</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>24</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>391</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -17194,13 +17812,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9D6FEA-175F-4C98-96B4-DF3F2D772A0A}">
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="E155" sqref="E155"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" customWidth="1"/>
     <col min="4" max="4" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -17224,7 +17844,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C2" t="s">
         <v>281</v>
@@ -17238,7 +17858,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C3" t="s">
         <v>281</v>
@@ -17252,7 +17872,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C4" t="s">
         <v>281</v>
@@ -17266,7 +17886,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C5" t="s">
         <v>281</v>
@@ -17280,7 +17900,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C6" t="s">
         <v>281</v>
@@ -17294,7 +17914,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C7" t="s">
         <v>281</v>
@@ -17308,7 +17928,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C8" t="s">
         <v>281</v>
@@ -17322,7 +17942,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C9" t="s">
         <v>280</v>
@@ -17336,7 +17956,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C10" t="s">
         <v>280</v>
@@ -17350,7 +17970,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C11" t="s">
         <v>280</v>
@@ -17364,7 +17984,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C12" t="s">
         <v>280</v>
@@ -17378,7 +17998,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C13" t="s">
         <v>280</v>
@@ -17392,7 +18012,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C14" t="s">
         <v>280</v>
@@ -17406,7 +18026,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C15" t="s">
         <v>280</v>
@@ -17420,7 +18040,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C16" t="s">
         <v>298</v>
@@ -17434,7 +18054,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C17" t="s">
         <v>298</v>
@@ -17448,7 +18068,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C18" t="s">
         <v>298</v>
@@ -17462,7 +18082,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C19" t="s">
         <v>298</v>
@@ -17476,7 +18096,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C20" t="s">
         <v>434</v>
@@ -17490,7 +18110,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C21" t="s">
         <v>300</v>
@@ -17504,7 +18124,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C22" t="s">
         <v>300</v>
@@ -17518,7 +18138,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C23" t="s">
         <v>300</v>
@@ -17532,7 +18152,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C24" t="s">
         <v>300</v>
@@ -17546,7 +18166,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C25" t="s">
         <v>300</v>
@@ -17560,7 +18180,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C26" t="s">
         <v>300</v>
@@ -17574,7 +18194,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C27" t="s">
         <v>295</v>
@@ -17588,7 +18208,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C28" t="s">
         <v>295</v>
@@ -17602,7 +18222,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C29" t="s">
         <v>295</v>
@@ -17616,7 +18236,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C30" t="s">
         <v>295</v>
@@ -17630,7 +18250,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C31" t="s">
         <v>295</v>
@@ -17644,7 +18264,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C32" t="s">
         <v>338</v>
@@ -17658,7 +18278,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>43863</v>
+        <v>43862</v>
       </c>
       <c r="C33" t="s">
         <v>280</v>
@@ -17672,7 +18292,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>43863</v>
+        <v>43862</v>
       </c>
       <c r="C34" t="s">
         <v>280</v>
@@ -17686,7 +18306,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>43863</v>
+        <v>43862</v>
       </c>
       <c r="C35" t="s">
         <v>280</v>
@@ -17700,7 +18320,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>43863</v>
+        <v>43862</v>
       </c>
       <c r="C36" t="s">
         <v>280</v>
@@ -17714,7 +18334,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>43863</v>
+        <v>43862</v>
       </c>
       <c r="C37" t="s">
         <v>280</v>
@@ -17728,7 +18348,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>43863</v>
+        <v>43862</v>
       </c>
       <c r="C38" t="s">
         <v>280</v>
@@ -17742,7 +18362,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>43863</v>
+        <v>43862</v>
       </c>
       <c r="C39" t="s">
         <v>295</v>
@@ -17756,7 +18376,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>43863</v>
+        <v>43862</v>
       </c>
       <c r="C40" t="s">
         <v>295</v>
@@ -17770,7 +18390,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>43863</v>
+        <v>43862</v>
       </c>
       <c r="C41" t="s">
         <v>295</v>
@@ -17784,7 +18404,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>43863</v>
+        <v>43862</v>
       </c>
       <c r="C42" t="s">
         <v>295</v>
@@ -17798,7 +18418,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>43863</v>
+        <v>43862</v>
       </c>
       <c r="C43" t="s">
         <v>295</v>
@@ -17812,7 +18432,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>43863</v>
+        <v>43862</v>
       </c>
       <c r="C44" t="s">
         <v>281</v>
@@ -17826,7 +18446,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>43863</v>
+        <v>43862</v>
       </c>
       <c r="C45" t="s">
         <v>281</v>
@@ -17840,7 +18460,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>43863</v>
+        <v>43862</v>
       </c>
       <c r="C46" t="s">
         <v>281</v>
@@ -17854,7 +18474,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>43863</v>
+        <v>43862</v>
       </c>
       <c r="C47" t="s">
         <v>300</v>
@@ -17868,7 +18488,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>43863</v>
+        <v>43862</v>
       </c>
       <c r="C48" t="s">
         <v>298</v>
@@ -17882,7 +18502,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C49" t="s">
         <v>281</v>
@@ -17896,7 +18516,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C50" t="s">
         <v>281</v>
@@ -17910,7 +18530,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C51" t="s">
         <v>281</v>
@@ -17924,7 +18544,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C52" t="s">
         <v>281</v>
@@ -17938,7 +18558,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C53" t="s">
         <v>281</v>
@@ -17952,7 +18572,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C54" t="s">
         <v>281</v>
@@ -17966,7 +18586,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C55" t="s">
         <v>280</v>
@@ -17980,7 +18600,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C56" t="s">
         <v>280</v>
@@ -17994,7 +18614,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C57" t="s">
         <v>280</v>
@@ -18008,7 +18628,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C58" t="s">
         <v>280</v>
@@ -18022,7 +18642,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C59" t="s">
         <v>280</v>
@@ -18036,7 +18656,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C60" t="s">
         <v>298</v>
@@ -18050,7 +18670,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C61" t="s">
         <v>298</v>
@@ -18064,7 +18684,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C62" t="s">
         <v>298</v>
@@ -18078,7 +18698,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C63" t="s">
         <v>298</v>
@@ -18092,7 +18712,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C64" t="s">
         <v>298</v>
@@ -18106,7 +18726,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C65" t="s">
         <v>295</v>
@@ -18120,7 +18740,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C66" t="s">
         <v>295</v>
@@ -18134,7 +18754,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C67" t="s">
         <v>295</v>
@@ -18148,7 +18768,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C68" t="s">
         <v>295</v>
@@ -18162,7 +18782,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C69" t="s">
         <v>295</v>
@@ -18176,7 +18796,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C70" t="s">
         <v>308</v>
@@ -18190,7 +18810,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C71" t="s">
         <v>308</v>
@@ -18204,7 +18824,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C72" t="s">
         <v>308</v>
@@ -18218,7 +18838,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C73" t="s">
         <v>300</v>
@@ -18232,7 +18852,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C74" t="s">
         <v>300</v>
@@ -18246,7 +18866,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C75" t="s">
         <v>299</v>
@@ -18260,7 +18880,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C76" t="s">
         <v>281</v>
@@ -18274,7 +18894,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C77" t="s">
         <v>281</v>
@@ -18288,7 +18908,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C78" t="s">
         <v>281</v>
@@ -18302,7 +18922,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C79" t="s">
         <v>281</v>
@@ -18316,7 +18936,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C80" t="s">
         <v>281</v>
@@ -18330,7 +18950,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C81" t="s">
         <v>281</v>
@@ -18344,7 +18964,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C82" t="s">
         <v>299</v>
@@ -18358,7 +18978,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C83" t="s">
         <v>299</v>
@@ -18372,7 +18992,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C84" t="s">
         <v>299</v>
@@ -18386,7 +19006,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C85" t="s">
         <v>299</v>
@@ -18400,7 +19020,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C86" t="s">
         <v>299</v>
@@ -18414,7 +19034,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C87" t="s">
         <v>299</v>
@@ -18428,7 +19048,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C88" t="s">
         <v>298</v>
@@ -18442,7 +19062,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C89" t="s">
         <v>298</v>
@@ -18456,7 +19076,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C90" t="s">
         <v>298</v>
@@ -18470,7 +19090,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C91" t="s">
         <v>298</v>
@@ -18484,7 +19104,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C92" t="s">
         <v>295</v>
@@ -18498,7 +19118,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C93" t="s">
         <v>295</v>
@@ -18512,7 +19132,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C94" t="s">
         <v>295</v>
@@ -18526,7 +19146,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C95" t="s">
         <v>295</v>
@@ -18540,7 +19160,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C96" t="s">
         <v>280</v>
@@ -18554,7 +19174,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C97" t="s">
         <v>280</v>
@@ -18568,7 +19188,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C98" t="s">
         <v>308</v>
@@ -18582,7 +19202,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C99" t="s">
         <v>300</v>
@@ -18596,7 +19216,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>43866</v>
+        <v>43865</v>
       </c>
       <c r="C100" t="s">
         <v>281</v>
@@ -18610,7 +19230,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>43866</v>
+        <v>43865</v>
       </c>
       <c r="C101" t="s">
         <v>281</v>
@@ -18624,7 +19244,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1">
-        <v>43866</v>
+        <v>43865</v>
       </c>
       <c r="C102" t="s">
         <v>281</v>
@@ -18638,7 +19258,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1">
-        <v>43866</v>
+        <v>43865</v>
       </c>
       <c r="C103" t="s">
         <v>281</v>
@@ -18652,7 +19272,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1">
-        <v>43866</v>
+        <v>43865</v>
       </c>
       <c r="C104" t="s">
         <v>280</v>
@@ -18666,7 +19286,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1">
-        <v>43866</v>
+        <v>43865</v>
       </c>
       <c r="C105" t="s">
         <v>280</v>
@@ -18680,7 +19300,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1">
-        <v>43866</v>
+        <v>43865</v>
       </c>
       <c r="C106" t="s">
         <v>280</v>
@@ -18694,7 +19314,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1">
-        <v>43866</v>
+        <v>43865</v>
       </c>
       <c r="C107" t="s">
         <v>299</v>
@@ -18708,7 +19328,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1">
-        <v>43866</v>
+        <v>43865</v>
       </c>
       <c r="C108" t="s">
         <v>299</v>
@@ -18722,7 +19342,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1">
-        <v>43866</v>
+        <v>43865</v>
       </c>
       <c r="C109" t="s">
         <v>300</v>
@@ -18736,7 +19356,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>43866</v>
+        <v>43865</v>
       </c>
       <c r="C110" t="s">
         <v>300</v>
@@ -18750,7 +19370,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>43866</v>
+        <v>43865</v>
       </c>
       <c r="C111" t="s">
         <v>298</v>
@@ -18764,7 +19384,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1">
-        <v>43866</v>
+        <v>43865</v>
       </c>
       <c r="C112" t="s">
         <v>295</v>
@@ -18778,7 +19398,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1">
-        <v>43866</v>
+        <v>43865</v>
       </c>
       <c r="C113" t="s">
         <v>338</v>
@@ -18792,7 +19412,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>43867</v>
+        <v>43866</v>
       </c>
       <c r="C114" t="s">
         <v>280</v>
@@ -18806,7 +19426,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1">
-        <v>43867</v>
+        <v>43866</v>
       </c>
       <c r="C115" t="s">
         <v>280</v>
@@ -18820,7 +19440,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1">
-        <v>43867</v>
+        <v>43866</v>
       </c>
       <c r="C116" t="s">
         <v>280</v>
@@ -18834,7 +19454,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1">
-        <v>43867</v>
+        <v>43866</v>
       </c>
       <c r="C117" t="s">
         <v>280</v>
@@ -18848,7 +19468,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1">
-        <v>43867</v>
+        <v>43866</v>
       </c>
       <c r="C118" t="s">
         <v>280</v>
@@ -18862,7 +19482,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>43867</v>
+        <v>43866</v>
       </c>
       <c r="C119" t="s">
         <v>295</v>
@@ -18876,7 +19496,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1">
-        <v>43867</v>
+        <v>43866</v>
       </c>
       <c r="C120" t="s">
         <v>295</v>
@@ -18890,7 +19510,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1">
-        <v>43867</v>
+        <v>43866</v>
       </c>
       <c r="C121" t="s">
         <v>295</v>
@@ -18904,7 +19524,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1">
-        <v>43867</v>
+        <v>43866</v>
       </c>
       <c r="C122" t="s">
         <v>281</v>
@@ -18918,7 +19538,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1">
-        <v>43867</v>
+        <v>43866</v>
       </c>
       <c r="C123" t="s">
         <v>281</v>
@@ -18932,7 +19552,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1">
-        <v>43867</v>
+        <v>43866</v>
       </c>
       <c r="C124" t="s">
         <v>298</v>
@@ -18946,7 +19566,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1">
-        <v>43867</v>
+        <v>43866</v>
       </c>
       <c r="C125" t="s">
         <v>308</v>
@@ -18960,7 +19580,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1">
-        <v>43868</v>
+        <v>43867</v>
       </c>
       <c r="C126" t="s">
         <v>295</v>
@@ -18974,7 +19594,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1">
-        <v>43868</v>
+        <v>43867</v>
       </c>
       <c r="C127" t="s">
         <v>280</v>
@@ -18988,7 +19608,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1">
-        <v>43868</v>
+        <v>43867</v>
       </c>
       <c r="C128" t="s">
         <v>280</v>
@@ -19002,7 +19622,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1">
-        <v>43868</v>
+        <v>43867</v>
       </c>
       <c r="C129" t="s">
         <v>280</v>
@@ -19016,7 +19636,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1">
-        <v>43868</v>
+        <v>43867</v>
       </c>
       <c r="C130" t="s">
         <v>298</v>
@@ -19030,7 +19650,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1">
-        <v>43868</v>
+        <v>43867</v>
       </c>
       <c r="C131" t="s">
         <v>298</v>
@@ -19044,7 +19664,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1">
-        <v>43868</v>
+        <v>43867</v>
       </c>
       <c r="C132" t="s">
         <v>281</v>
@@ -19058,7 +19678,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1">
-        <v>43868</v>
+        <v>43867</v>
       </c>
       <c r="C133" t="s">
         <v>299</v>
@@ -19072,7 +19692,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1">
-        <v>43869</v>
+        <v>43868</v>
       </c>
       <c r="C134" t="s">
         <v>295</v>
@@ -19086,7 +19706,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1">
-        <v>43869</v>
+        <v>43868</v>
       </c>
       <c r="C135" t="s">
         <v>295</v>
@@ -19100,7 +19720,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1">
-        <v>43869</v>
+        <v>43868</v>
       </c>
       <c r="C136" t="s">
         <v>280</v>
@@ -19114,7 +19734,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1">
-        <v>43869</v>
+        <v>43868</v>
       </c>
       <c r="C137" t="s">
         <v>280</v>
@@ -19128,7 +19748,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1">
-        <v>43869</v>
+        <v>43868</v>
       </c>
       <c r="C138" t="s">
         <v>280</v>
@@ -19142,7 +19762,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1">
-        <v>43869</v>
+        <v>43868</v>
       </c>
       <c r="C139" t="s">
         <v>298</v>
@@ -19156,7 +19776,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1">
-        <v>43869</v>
+        <v>43868</v>
       </c>
       <c r="C140" t="s">
         <v>281</v>
@@ -19170,7 +19790,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1">
-        <v>43869</v>
+        <v>43868</v>
       </c>
       <c r="C141" t="s">
         <v>299</v>
@@ -19184,7 +19804,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1">
-        <v>43870</v>
+        <v>43869</v>
       </c>
       <c r="C142" t="s">
         <v>295</v>
@@ -19198,7 +19818,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1">
-        <v>43870</v>
+        <v>43869</v>
       </c>
       <c r="C143" t="s">
         <v>295</v>
@@ -19212,7 +19832,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1">
-        <v>43870</v>
+        <v>43869</v>
       </c>
       <c r="C144" t="s">
         <v>280</v>
@@ -19226,7 +19846,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1">
-        <v>43870</v>
+        <v>43869</v>
       </c>
       <c r="C145" t="s">
         <v>280</v>
@@ -19240,7 +19860,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1">
-        <v>43870</v>
+        <v>43869</v>
       </c>
       <c r="C146" t="s">
         <v>298</v>
@@ -19254,7 +19874,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1">
-        <v>43870</v>
+        <v>43869</v>
       </c>
       <c r="C147" t="s">
         <v>298</v>
@@ -19268,7 +19888,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1">
-        <v>43870</v>
+        <v>43869</v>
       </c>
       <c r="C148" t="s">
         <v>281</v>
@@ -19282,7 +19902,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1">
-        <v>43870</v>
+        <v>43869</v>
       </c>
       <c r="C149" t="s">
         <v>299</v>
@@ -19296,7 +19916,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1">
-        <v>43871</v>
+        <v>43870</v>
       </c>
       <c r="C150" t="s">
         <v>280</v>
@@ -19310,7 +19930,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1">
-        <v>43872</v>
+        <v>43871</v>
       </c>
       <c r="C151" t="s">
         <v>280</v>
@@ -19324,13 +19944,125 @@
         <v>151</v>
       </c>
       <c r="B152" s="1">
-        <v>43872</v>
+        <v>43871</v>
       </c>
       <c r="C152" t="s">
         <v>298</v>
       </c>
       <c r="D152" t="s">
         <v>611</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1">
+        <v>43872</v>
+      </c>
+      <c r="C153" t="s">
+        <v>280</v>
+      </c>
+      <c r="D153" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1">
+        <v>43872</v>
+      </c>
+      <c r="C154" t="s">
+        <v>298</v>
+      </c>
+      <c r="D154" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1">
+        <v>43872</v>
+      </c>
+      <c r="C155" t="s">
+        <v>295</v>
+      </c>
+      <c r="D155" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1">
+        <v>43872</v>
+      </c>
+      <c r="C156" t="s">
+        <v>295</v>
+      </c>
+      <c r="D156" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1">
+        <v>43872</v>
+      </c>
+      <c r="C157" t="s">
+        <v>295</v>
+      </c>
+      <c r="D157" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1">
+        <v>43872</v>
+      </c>
+      <c r="C158" t="s">
+        <v>281</v>
+      </c>
+      <c r="D158" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1">
+        <v>43872</v>
+      </c>
+      <c r="C159" t="s">
+        <v>434</v>
+      </c>
+      <c r="D159" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1">
+        <v>43872</v>
+      </c>
+      <c r="C160" t="s">
+        <v>338</v>
+      </c>
+      <c r="D160" t="s">
+        <v>634</v>
       </c>
     </row>
   </sheetData>

--- a/Shenzhen_WJW/2019nCov_Shenzhen_new_cases.xlsx
+++ b/Shenzhen_WJW/2019nCov_Shenzhen_new_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Shenzhen_WJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2336" documentId="8_{518E5CB1-397D-479F-A002-9F80F41B7951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6C3C48BF-C70E-4973-AE76-1A9408F6CE5A}"/>
+  <xr:revisionPtr revIDLastSave="2429" documentId="8_{518E5CB1-397D-479F-A002-9F80F41B7951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BC2DBB5A-B29B-482F-B3F5-09A1652D45DF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3759" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3829" uniqueCount="866">
   <si>
     <t>Sex</t>
   </si>
@@ -2738,6 +2738,46 @@
   </si>
   <si>
     <t>2019/11/1——2019/11/9</t>
+  </si>
+  <si>
+    <t>鑫竹苑</t>
+  </si>
+  <si>
+    <t>鼎太风华二期</t>
+  </si>
+  <si>
+    <t>万科·金色领域一期（宝安大道）</t>
+  </si>
+  <si>
+    <t>佳兆业·中央广场一期</t>
+  </si>
+  <si>
+    <t>病例382儿媳
+　　37岁女性患者，常住于深圳龙岗。1月22日前往湖北黄石，24日返回深圳。2月9日发病，当日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>病例171女儿
+　　38岁女性患者，常住于深圳南山。自述近期无湖北相关旅居史，接触过新冠肺炎确诊患者。1月30日发病，2月14日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>病例179儿媳
+　　33岁女性患者，常住于深圳宝安。1月22日自驾车从深圳到湖北枝江，24日自驾车返回深圳。2月14日发病，当日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>病例304岳母
+　　59岁女性患者，常住于湖北咸宁。1月22日到深圳过年。2月12日发病，当日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>44岁女性患者，常住于深圳南山。1月21日自驾车前往湖北孝感探亲，25日自驾返回深圳。2月13日发病，14日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>65岁女性患者，常住于湖北武汉。1月23日从武汉到深圳过年。2月12日在家接触过有武汉旅居史的客人。2月14日发病，当日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>53岁女性患者，常住于深圳宝安。1月19日随亲属自驾车从深圳出发，前往湖北赤壁。1月27日发病，30日返回深圳。2月7日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>51岁男性患者，常住于深圳龙岗。1月6日自驾前往湖北宜昌探亲，25日自驾返回深圳。1月27日发病，2月5日入院，目前病情稳定。</t>
   </si>
 </sst>
 </file>
@@ -3081,11 +3121,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U407"/>
+  <dimension ref="A1:U415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q416" sqref="Q416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3189,7 +3229,7 @@
         <v>279</v>
       </c>
       <c r="N2" t="str">
-        <f>IF(H2="","否","是")</f>
+        <f t="shared" ref="N2:N65" si="0">IF(H2="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O2" t="s">
@@ -3246,7 +3286,7 @@
         <v>279</v>
       </c>
       <c r="N3" t="str">
-        <f>IF(H3="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O3" t="s">
@@ -3300,7 +3340,7 @@
         <v>266</v>
       </c>
       <c r="N4" t="str">
-        <f>IF(H4="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O4" t="s">
@@ -3354,7 +3394,7 @@
         <v>266</v>
       </c>
       <c r="N5" t="str">
-        <f>IF(H5="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O5" t="s">
@@ -3409,7 +3449,7 @@
         <v>267</v>
       </c>
       <c r="N6" t="str">
-        <f>IF(H6="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>否</v>
       </c>
       <c r="O6" t="s">
@@ -3457,7 +3497,7 @@
         <v>267</v>
       </c>
       <c r="N7" t="str">
-        <f>IF(H7="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O7" t="s">
@@ -3502,7 +3542,7 @@
         <v>268</v>
       </c>
       <c r="N8" t="str">
-        <f>IF(H8="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O8" t="s">
@@ -3544,7 +3584,7 @@
         <v>268</v>
       </c>
       <c r="N9" t="str">
-        <f>IF(H9="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O9" t="s">
@@ -3589,7 +3629,7 @@
         <v>268</v>
       </c>
       <c r="N10" t="str">
-        <f>IF(H10="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O10" t="s">
@@ -3634,7 +3674,7 @@
         <v>268</v>
       </c>
       <c r="N11" t="str">
-        <f>IF(H11="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O11" t="s">
@@ -3679,7 +3719,7 @@
         <v>268</v>
       </c>
       <c r="N12" t="str">
-        <f>IF(H12="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O12" t="s">
@@ -3733,7 +3773,7 @@
         <v>268</v>
       </c>
       <c r="N13" t="str">
-        <f>IF(H13="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O13" t="s">
@@ -3778,7 +3818,7 @@
         <v>268</v>
       </c>
       <c r="N14" t="str">
-        <f>IF(H14="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O14" t="s">
@@ -3829,7 +3869,7 @@
         <v>268</v>
       </c>
       <c r="N15" t="str">
-        <f>IF(H15="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O15" t="s">
@@ -3871,7 +3911,7 @@
         <v>275</v>
       </c>
       <c r="N16" t="str">
-        <f>IF(H16="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O16" t="s">
@@ -3925,7 +3965,7 @@
         <v>268</v>
       </c>
       <c r="N17" t="str">
-        <f>IF(H17="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O17" t="s">
@@ -3973,7 +4013,7 @@
         <v>268</v>
       </c>
       <c r="N18" t="str">
-        <f>IF(H18="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O18" t="s">
@@ -4015,7 +4055,7 @@
         <v>268</v>
       </c>
       <c r="N19" t="str">
-        <f>IF(H19="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O19" t="s">
@@ -4060,7 +4100,7 @@
         <v>283</v>
       </c>
       <c r="N20" t="str">
-        <f>IF(H20="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O20" t="s">
@@ -4108,7 +4148,7 @@
         <v>284</v>
       </c>
       <c r="N21" t="str">
-        <f>IF(H21="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O21" t="s">
@@ -4153,7 +4193,7 @@
         <v>269</v>
       </c>
       <c r="N22" t="str">
-        <f>IF(H22="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O22" t="s">
@@ -4201,7 +4241,7 @@
         <v>268</v>
       </c>
       <c r="N23" t="str">
-        <f>IF(H23="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O23" t="s">
@@ -4243,7 +4283,7 @@
         <v>268</v>
       </c>
       <c r="N24" t="str">
-        <f>IF(H24="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O24" t="s">
@@ -4285,7 +4325,7 @@
         <v>268</v>
       </c>
       <c r="N25" t="str">
-        <f>IF(H25="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O25" t="s">
@@ -4327,7 +4367,7 @@
         <v>268</v>
       </c>
       <c r="N26" t="str">
-        <f>IF(H26="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O26" t="s">
@@ -4335,6 +4375,9 @@
       </c>
       <c r="P26" t="s">
         <v>285</v>
+      </c>
+      <c r="R26" s="1">
+        <v>43878</v>
       </c>
       <c r="S26" t="s">
         <v>38</v>
@@ -4369,7 +4412,7 @@
         <v>268</v>
       </c>
       <c r="N27" t="str">
-        <f>IF(H27="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O27" t="s">
@@ -4414,7 +4457,7 @@
         <v>268</v>
       </c>
       <c r="N28" t="str">
-        <f>IF(H28="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O28" t="s">
@@ -4459,7 +4502,7 @@
         <v>268</v>
       </c>
       <c r="N29" t="str">
-        <f>IF(H29="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O29" t="s">
@@ -4505,7 +4548,7 @@
         <v>268</v>
       </c>
       <c r="N30" t="str">
-        <f>IF(H30="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O30" t="s">
@@ -4550,7 +4593,7 @@
         <v>268</v>
       </c>
       <c r="N31" t="str">
-        <f>IF(H31="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O31" t="s">
@@ -4595,7 +4638,7 @@
         <v>268</v>
       </c>
       <c r="N32" t="str">
-        <f>IF(H32="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O32" t="s">
@@ -4640,7 +4683,7 @@
         <v>268</v>
       </c>
       <c r="N33" t="str">
-        <f>IF(H33="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O33" t="s">
@@ -4685,7 +4728,7 @@
         <v>268</v>
       </c>
       <c r="N34" t="str">
-        <f>IF(H34="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O34" t="s">
@@ -4727,7 +4770,7 @@
         <v>268</v>
       </c>
       <c r="N35" t="str">
-        <f>IF(H35="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O35" t="s">
@@ -4772,7 +4815,7 @@
         <v>277</v>
       </c>
       <c r="N36" t="str">
-        <f>IF(H36="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O36" t="s">
@@ -4817,7 +4860,7 @@
         <v>268</v>
       </c>
       <c r="N37" t="str">
-        <f>IF(H37="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O37" t="s">
@@ -4862,7 +4905,7 @@
         <v>297</v>
       </c>
       <c r="N38" t="str">
-        <f>IF(H38="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O38" t="s">
@@ -4919,7 +4962,7 @@
         <v>268</v>
       </c>
       <c r="N39" t="str">
-        <f>IF(H39="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O39" t="s">
@@ -4974,7 +5017,7 @@
         <v>294</v>
       </c>
       <c r="N40" t="str">
-        <f>IF(H40="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>否</v>
       </c>
       <c r="O40" t="s">
@@ -5022,7 +5065,7 @@
         <v>268</v>
       </c>
       <c r="N41" t="str">
-        <f>IF(H41="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O41" t="s">
@@ -5064,7 +5107,7 @@
         <v>268</v>
       </c>
       <c r="N42" t="str">
-        <f>IF(H42="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O42" t="s">
@@ -5109,7 +5152,7 @@
         <v>268</v>
       </c>
       <c r="N43" t="str">
-        <f>IF(H43="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O43" t="s">
@@ -5157,7 +5200,7 @@
         <v>279</v>
       </c>
       <c r="N44" t="str">
-        <f>IF(H44="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O44" t="s">
@@ -5205,7 +5248,7 @@
         <v>268</v>
       </c>
       <c r="N45" t="str">
-        <f>IF(H45="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O45" t="s">
@@ -5247,7 +5290,7 @@
         <v>268</v>
       </c>
       <c r="N46" t="str">
-        <f>IF(H46="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O46" t="s">
@@ -5289,7 +5332,7 @@
         <v>268</v>
       </c>
       <c r="N47" t="str">
-        <f>IF(H47="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O47" t="s">
@@ -5343,7 +5386,7 @@
         <v>268</v>
       </c>
       <c r="N48" t="str">
-        <f>IF(H48="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O48" t="s">
@@ -5388,7 +5431,7 @@
         <v>268</v>
       </c>
       <c r="N49" t="str">
-        <f>IF(H49="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O49" t="s">
@@ -5433,7 +5476,7 @@
         <v>279</v>
       </c>
       <c r="N50" t="str">
-        <f>IF(H50="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O50" t="s">
@@ -5478,7 +5521,7 @@
         <v>268</v>
       </c>
       <c r="N51" t="str">
-        <f>IF(H51="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O51" t="s">
@@ -5523,7 +5566,7 @@
         <v>268</v>
       </c>
       <c r="N52" t="str">
-        <f>IF(H52="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O52" t="s">
@@ -5565,7 +5608,7 @@
         <v>302</v>
       </c>
       <c r="N53" t="str">
-        <f>IF(H53="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O53" t="s">
@@ -5613,7 +5656,7 @@
         <v>297</v>
       </c>
       <c r="N54" t="str">
-        <f>IF(H54="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O54" t="s">
@@ -5661,7 +5704,7 @@
         <v>268</v>
       </c>
       <c r="N55" t="str">
-        <f>IF(H55="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O55" t="s">
@@ -5706,7 +5749,7 @@
         <v>268</v>
       </c>
       <c r="N56" t="str">
-        <f>IF(H56="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O56" t="s">
@@ -5748,7 +5791,7 @@
         <v>268</v>
       </c>
       <c r="N57" t="str">
-        <f>IF(H57="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O57" t="s">
@@ -5796,7 +5839,7 @@
         <v>279</v>
       </c>
       <c r="N58" t="str">
-        <f>IF(H58="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O58" t="s">
@@ -5847,7 +5890,7 @@
         <v>297</v>
       </c>
       <c r="N59" t="str">
-        <f>IF(H59="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O59" t="s">
@@ -5895,7 +5938,7 @@
         <v>300</v>
       </c>
       <c r="N60" t="str">
-        <f>IF(H60="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O60" t="s">
@@ -5937,7 +5980,7 @@
         <v>268</v>
       </c>
       <c r="N61" t="str">
-        <f>IF(H61="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O61" t="s">
@@ -5982,7 +6025,7 @@
         <v>268</v>
       </c>
       <c r="N62" t="str">
-        <f>IF(H62="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O62" t="s">
@@ -6027,7 +6070,7 @@
         <v>268</v>
       </c>
       <c r="N63" t="str">
-        <f>IF(H63="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O63" t="s">
@@ -6078,7 +6121,7 @@
         <v>268</v>
       </c>
       <c r="N64" t="str">
-        <f>IF(H64="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O64" t="s">
@@ -6120,7 +6163,7 @@
         <v>268</v>
       </c>
       <c r="N65" t="str">
-        <f>IF(H65="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O65" t="s">
@@ -6168,7 +6211,7 @@
         <v>299</v>
       </c>
       <c r="N66" t="str">
-        <f>IF(H66="","否","是")</f>
+        <f t="shared" ref="N66:N129" si="1">IF(H66="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O66" t="s">
@@ -6225,7 +6268,7 @@
         <v>299</v>
       </c>
       <c r="N67" t="str">
-        <f>IF(H67="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O67" t="s">
@@ -6282,7 +6325,7 @@
         <v>284</v>
       </c>
       <c r="N68" t="str">
-        <f>IF(H68="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O68" t="s">
@@ -6334,7 +6377,7 @@
         <v>294</v>
       </c>
       <c r="N69" t="str">
-        <f>IF(H69="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="O69" t="s">
@@ -6389,7 +6432,7 @@
         <v>294</v>
       </c>
       <c r="N70" t="str">
-        <f>IF(H70="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="O70" t="s">
@@ -6431,7 +6474,7 @@
         <v>268</v>
       </c>
       <c r="N71" t="str">
-        <f>IF(H71="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O71" t="s">
@@ -6479,7 +6522,7 @@
         <v>299</v>
       </c>
       <c r="N72" t="str">
-        <f>IF(H72="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O72" t="s">
@@ -6524,7 +6567,7 @@
         <v>268</v>
       </c>
       <c r="N73" t="str">
-        <f>IF(H73="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O73" t="s">
@@ -6566,7 +6609,7 @@
         <v>268</v>
       </c>
       <c r="N74" t="str">
-        <f>IF(H74="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O74" t="s">
@@ -6623,7 +6666,7 @@
         <v>280</v>
       </c>
       <c r="N75" t="str">
-        <f>IF(H75="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O75" t="s">
@@ -6674,7 +6717,7 @@
         <v>297</v>
       </c>
       <c r="N76" t="str">
-        <f>IF(H76="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O76" t="s">
@@ -6722,7 +6765,7 @@
         <v>268</v>
       </c>
       <c r="N77" t="str">
-        <f>IF(H77="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O77" t="s">
@@ -6767,7 +6810,7 @@
         <v>294</v>
       </c>
       <c r="N78" t="str">
-        <f>IF(H78="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O78" t="s">
@@ -6778,6 +6821,9 @@
       </c>
       <c r="Q78" s="1">
         <v>43849</v>
+      </c>
+      <c r="R78" s="1">
+        <v>43878</v>
       </c>
       <c r="S78" t="s">
         <v>90</v>
@@ -6812,7 +6858,7 @@
         <v>268</v>
       </c>
       <c r="N79" t="str">
-        <f>IF(H79="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O79" t="s">
@@ -6857,7 +6903,7 @@
         <v>280</v>
       </c>
       <c r="N80" t="str">
-        <f>IF(H80="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O80" t="s">
@@ -6914,7 +6960,7 @@
         <v>268</v>
       </c>
       <c r="N81" t="str">
-        <f>IF(H81="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O81" t="s">
@@ -6959,7 +7005,7 @@
         <v>268</v>
       </c>
       <c r="N82" t="str">
-        <f>IF(H82="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O82" t="s">
@@ -7007,7 +7053,7 @@
         <v>279</v>
       </c>
       <c r="N83" t="str">
-        <f>IF(H83="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O83" t="s">
@@ -7055,7 +7101,7 @@
         <v>279</v>
       </c>
       <c r="N84" t="str">
-        <f>IF(H84="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O84" t="s">
@@ -7106,7 +7152,7 @@
         <v>299</v>
       </c>
       <c r="N85" t="str">
-        <f>IF(H85="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O85" t="s">
@@ -7157,7 +7203,7 @@
         <v>279</v>
       </c>
       <c r="N86" t="str">
-        <f>IF(H86="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O86" t="s">
@@ -7202,7 +7248,7 @@
         <v>300</v>
       </c>
       <c r="N87" t="str">
-        <f>IF(H87="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O87" t="s">
@@ -7247,7 +7293,7 @@
         <v>268</v>
       </c>
       <c r="N88" t="str">
-        <f>IF(H88="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O88" t="s">
@@ -7289,7 +7335,7 @@
         <v>296</v>
       </c>
       <c r="N89" t="str">
-        <f>IF(H89="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O89" t="s">
@@ -7334,7 +7380,7 @@
         <v>268</v>
       </c>
       <c r="N90" t="str">
-        <f>IF(H90="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O90" t="s">
@@ -7379,7 +7425,7 @@
         <v>294</v>
       </c>
       <c r="N91" t="str">
-        <f>IF(H91="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O91" t="s">
@@ -7425,7 +7471,7 @@
         <v>280</v>
       </c>
       <c r="N92" t="str">
-        <f>IF(H92="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="O92" t="s">
@@ -7466,7 +7512,7 @@
         <v>280</v>
       </c>
       <c r="N93" t="str">
-        <f>IF(H93="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="O93" t="s">
@@ -7508,7 +7554,7 @@
         <v>268</v>
       </c>
       <c r="N94" t="str">
-        <f>IF(H94="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O94" t="s">
@@ -7553,7 +7599,7 @@
         <v>280</v>
       </c>
       <c r="N95" t="str">
-        <f>IF(H95="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O95" t="s">
@@ -7610,7 +7656,7 @@
         <v>280</v>
       </c>
       <c r="N96" t="str">
-        <f>IF(H96="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O96" t="s">
@@ -7658,7 +7704,7 @@
         <v>268</v>
       </c>
       <c r="N97" t="str">
-        <f>IF(H97="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O97" t="s">
@@ -7700,7 +7746,7 @@
         <v>311</v>
       </c>
       <c r="N98" t="str">
-        <f>IF(H98="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O98" t="s">
@@ -7752,7 +7798,7 @@
         <v>294</v>
       </c>
       <c r="N99" t="str">
-        <f>IF(H99="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="O99" t="s">
@@ -7798,7 +7844,7 @@
         <v>268</v>
       </c>
       <c r="N100" t="str">
-        <f>IF(H100="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O100" t="s">
@@ -7853,7 +7899,7 @@
         <v>279</v>
       </c>
       <c r="N101" t="str">
-        <f>IF(H101="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="O101" t="s">
@@ -7908,7 +7954,7 @@
         <v>279</v>
       </c>
       <c r="N102" t="str">
-        <f>IF(H102="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="O102" t="s">
@@ -7963,7 +8009,7 @@
         <v>279</v>
       </c>
       <c r="N103" t="str">
-        <f>IF(H103="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="O103" t="s">
@@ -8011,7 +8057,7 @@
         <v>280</v>
       </c>
       <c r="N104" t="str">
-        <f>IF(H104="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O104" t="s">
@@ -8062,7 +8108,7 @@
         <v>279</v>
       </c>
       <c r="N105" t="str">
-        <f>IF(H105="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O105" t="s">
@@ -8113,7 +8159,7 @@
         <v>298</v>
       </c>
       <c r="N106" t="str">
-        <f>IF(H106="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O106" t="s">
@@ -8173,7 +8219,7 @@
         <v>298</v>
       </c>
       <c r="N107" t="str">
-        <f>IF(H107="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O107" t="s">
@@ -8230,7 +8276,7 @@
         <v>298</v>
       </c>
       <c r="N108" t="str">
-        <f>IF(H108="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O108" t="s">
@@ -8285,7 +8331,7 @@
         <v>297</v>
       </c>
       <c r="N109" t="str">
-        <f>IF(H109="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="O109" t="s">
@@ -8337,7 +8383,7 @@
         <v>302</v>
       </c>
       <c r="N110" t="str">
-        <f>IF(H110="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O110" t="s">
@@ -8389,7 +8435,7 @@
         <v>268</v>
       </c>
       <c r="N111" t="str">
-        <f>IF(H111="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O111" t="s">
@@ -8434,7 +8480,7 @@
         <v>268</v>
       </c>
       <c r="N112" t="str">
-        <f>IF(H112="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O112" t="s">
@@ -8442,6 +8488,9 @@
       </c>
       <c r="P112" t="s">
         <v>286</v>
+      </c>
+      <c r="R112" s="1">
+        <v>43878</v>
       </c>
       <c r="S112" t="s">
         <v>126</v>
@@ -8476,7 +8525,7 @@
         <v>268</v>
       </c>
       <c r="N113" t="str">
-        <f>IF(H113="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O113" t="s">
@@ -8521,7 +8570,7 @@
         <v>268</v>
       </c>
       <c r="N114" t="str">
-        <f>IF(H114="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O114" t="s">
@@ -8569,7 +8618,7 @@
         <v>299</v>
       </c>
       <c r="N115" t="str">
-        <f>IF(H115="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O115" t="s">
@@ -8614,7 +8663,7 @@
         <v>268</v>
       </c>
       <c r="N116" t="str">
-        <f>IF(H116="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O116" t="s">
@@ -8656,7 +8705,7 @@
         <v>268</v>
       </c>
       <c r="N117" t="str">
-        <f>IF(H117="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O117" t="s">
@@ -8704,7 +8753,7 @@
         <v>299</v>
       </c>
       <c r="N118" t="str">
-        <f>IF(H118="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O118" t="s">
@@ -8752,7 +8801,7 @@
         <v>280</v>
       </c>
       <c r="N119" t="str">
-        <f>IF(H119="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O119" t="s">
@@ -8800,7 +8849,7 @@
         <v>268</v>
       </c>
       <c r="N120" t="str">
-        <f>IF(H120="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O120" t="s">
@@ -8855,7 +8904,7 @@
         <v>279</v>
       </c>
       <c r="N121" t="str">
-        <f>IF(H121="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="O121" t="s">
@@ -8910,7 +8959,7 @@
         <v>279</v>
       </c>
       <c r="N122" t="str">
-        <f>IF(H122="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="O122" t="s">
@@ -8918,6 +8967,9 @@
       </c>
       <c r="P122" t="s">
         <v>286</v>
+      </c>
+      <c r="Q122" s="1">
+        <v>43878</v>
       </c>
       <c r="S122" t="s">
         <v>136</v>
@@ -8952,7 +9004,7 @@
         <v>301</v>
       </c>
       <c r="N123" t="str">
-        <f>IF(H123="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O123" t="s">
@@ -9004,7 +9056,7 @@
         <v>311</v>
       </c>
       <c r="N124" t="str">
-        <f>IF(H124="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O124" t="s">
@@ -9056,7 +9108,7 @@
         <v>294</v>
       </c>
       <c r="N125" t="str">
-        <f>IF(H125="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O125" t="s">
@@ -9114,7 +9166,7 @@
         <v>294</v>
       </c>
       <c r="N126" t="str">
-        <f>IF(H126="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O126" t="s">
@@ -9162,7 +9214,7 @@
         <v>301</v>
       </c>
       <c r="N127" t="str">
-        <f>IF(H127="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O127" t="s">
@@ -9170,6 +9222,9 @@
       </c>
       <c r="P127" t="s">
         <v>286</v>
+      </c>
+      <c r="R127" s="1">
+        <v>43878</v>
       </c>
       <c r="S127" t="s">
         <v>141</v>
@@ -9204,7 +9259,7 @@
         <v>268</v>
       </c>
       <c r="N128" t="str">
-        <f>IF(H128="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O128" t="s">
@@ -9249,7 +9304,7 @@
         <v>280</v>
       </c>
       <c r="N129" t="str">
-        <f>IF(H129="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O129" t="s">
@@ -9298,7 +9353,7 @@
         <v>280</v>
       </c>
       <c r="N130" t="str">
-        <f>IF(H130="","否","是")</f>
+        <f t="shared" ref="N130:N193" si="2">IF(H130="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O130" t="s">
@@ -9343,7 +9398,7 @@
         <v>268</v>
       </c>
       <c r="N131" t="str">
-        <f>IF(H131="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O131" t="s">
@@ -9388,7 +9443,7 @@
         <v>268</v>
       </c>
       <c r="N132" t="str">
-        <f>IF(H132="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O132" t="s">
@@ -9436,7 +9491,7 @@
         <v>299</v>
       </c>
       <c r="N133" t="str">
-        <f>IF(H133="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O133" t="s">
@@ -9494,7 +9549,7 @@
         <v>280</v>
       </c>
       <c r="N134" t="str">
-        <f>IF(H134="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="O134" t="s">
@@ -9546,7 +9601,7 @@
         <v>280</v>
       </c>
       <c r="N135" t="str">
-        <f>IF(H135="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="O135" t="s">
@@ -9588,7 +9643,7 @@
         <v>270</v>
       </c>
       <c r="N136" t="str">
-        <f>IF(H136="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O136" t="s">
@@ -9635,7 +9690,7 @@
         <v>311</v>
       </c>
       <c r="N137" t="str">
-        <f>IF(H137="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="O137" t="s">
@@ -9680,7 +9735,7 @@
         <v>268</v>
       </c>
       <c r="N138" t="str">
-        <f>IF(H138="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O138" t="s">
@@ -9725,7 +9780,7 @@
         <v>299</v>
       </c>
       <c r="N139" t="str">
-        <f>IF(H139="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O139" t="s">
@@ -9782,7 +9837,7 @@
         <v>299</v>
       </c>
       <c r="N140" t="str">
-        <f>IF(H140="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O140" t="s">
@@ -9827,7 +9882,7 @@
         <v>268</v>
       </c>
       <c r="N141" t="str">
-        <f>IF(H141="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O141" t="s">
@@ -9869,7 +9924,7 @@
         <v>268</v>
       </c>
       <c r="N142" t="str">
-        <f>IF(H142="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O142" t="s">
@@ -9914,7 +9969,7 @@
         <v>268</v>
       </c>
       <c r="N143" t="str">
-        <f>IF(H143="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O143" t="s">
@@ -9959,7 +10014,7 @@
         <v>279</v>
       </c>
       <c r="N144" t="str">
-        <f>IF(H144="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O144" t="s">
@@ -10010,7 +10065,7 @@
         <v>279</v>
       </c>
       <c r="N145" t="str">
-        <f>IF(H145="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O145" t="s">
@@ -10061,7 +10116,7 @@
         <v>279</v>
       </c>
       <c r="N146" t="str">
-        <f>IF(H146="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O146" t="s">
@@ -10115,7 +10170,7 @@
         <v>268</v>
       </c>
       <c r="N147" t="str">
-        <f>IF(H147="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O147" t="s">
@@ -10170,7 +10225,7 @@
         <v>298</v>
       </c>
       <c r="N148" t="str">
-        <f>IF(H148="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O148" t="s">
@@ -10219,7 +10274,7 @@
         <v>280</v>
       </c>
       <c r="N149" t="str">
-        <f>IF(H149="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="O149" t="s">
@@ -10267,7 +10322,7 @@
         <v>280</v>
       </c>
       <c r="N150" t="str">
-        <f>IF(H150="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O150" t="s">
@@ -10318,7 +10373,7 @@
         <v>299</v>
       </c>
       <c r="N151" t="str">
-        <f>IF(H151="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O151" t="s">
@@ -10329,6 +10384,9 @@
       </c>
       <c r="Q151" s="1">
         <v>43848</v>
+      </c>
+      <c r="R151" s="1">
+        <v>43878</v>
       </c>
       <c r="S151" t="s">
         <v>166</v>
@@ -10366,7 +10424,7 @@
         <v>299</v>
       </c>
       <c r="N152" t="str">
-        <f>IF(H152="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O152" t="s">
@@ -10414,7 +10472,7 @@
         <v>306</v>
       </c>
       <c r="N153" t="str">
-        <f>IF(H153="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O153" t="s">
@@ -10464,7 +10522,7 @@
         <v>299</v>
       </c>
       <c r="N154" t="str">
-        <f>IF(H154="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="O154" t="s">
@@ -10518,7 +10576,7 @@
         <v>299</v>
       </c>
       <c r="N155" t="str">
-        <f>IF(H155="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O155" t="s">
@@ -10578,7 +10636,7 @@
         <v>299</v>
       </c>
       <c r="N156" t="str">
-        <f>IF(H156="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O156" t="s">
@@ -10623,7 +10681,7 @@
         <v>304</v>
       </c>
       <c r="N157" t="str">
-        <f>IF(H157="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O157" t="s">
@@ -10671,7 +10729,7 @@
         <v>294</v>
       </c>
       <c r="N158" t="str">
-        <f>IF(H158="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O158" t="s">
@@ -10714,7 +10772,7 @@
         <v>268</v>
       </c>
       <c r="N159" t="str">
-        <f>IF(H159="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="O159" t="s">
@@ -10756,7 +10814,7 @@
         <v>268</v>
       </c>
       <c r="N160" t="str">
-        <f>IF(H160="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O160" t="s">
@@ -10801,7 +10859,7 @@
         <v>268</v>
       </c>
       <c r="N161" t="str">
-        <f>IF(H161="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O161" t="s">
@@ -10844,7 +10902,7 @@
         <v>294</v>
       </c>
       <c r="N162" t="str">
-        <f>IF(H162="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="O162" t="s">
@@ -10892,7 +10950,7 @@
         <v>294</v>
       </c>
       <c r="N163" t="str">
-        <f>IF(H163="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O163" t="s">
@@ -10952,7 +11010,7 @@
         <v>294</v>
       </c>
       <c r="N164" t="str">
-        <f>IF(H164="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O164" t="s">
@@ -10997,7 +11055,7 @@
         <v>268</v>
       </c>
       <c r="N165" t="str">
-        <f>IF(H165="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O165" t="s">
@@ -11051,7 +11109,7 @@
         <v>299</v>
       </c>
       <c r="N166" t="str">
-        <f>IF(H166="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O166" t="s">
@@ -11102,7 +11160,7 @@
         <v>299</v>
       </c>
       <c r="N167" t="str">
-        <f>IF(H167="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O167" t="s">
@@ -11150,7 +11208,7 @@
         <v>299</v>
       </c>
       <c r="N168" t="str">
-        <f>IF(H168="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O168" t="s">
@@ -11204,7 +11262,7 @@
         <v>268</v>
       </c>
       <c r="N169" t="str">
-        <f>IF(H169="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O169" t="s">
@@ -11256,7 +11314,7 @@
         <v>294</v>
       </c>
       <c r="N170" t="str">
-        <f>IF(H170="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="O170" t="s">
@@ -11301,7 +11359,7 @@
         <v>294</v>
       </c>
       <c r="N171" t="str">
-        <f>IF(H171="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O171" t="s">
@@ -11350,7 +11408,7 @@
         <v>279</v>
       </c>
       <c r="N172" t="str">
-        <f>IF(H172="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="O172" t="s">
@@ -11392,7 +11450,7 @@
         <v>268</v>
       </c>
       <c r="N173" t="str">
-        <f>IF(H173="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O173" t="s">
@@ -11449,7 +11507,7 @@
         <v>299</v>
       </c>
       <c r="N174" t="str">
-        <f>IF(H174="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O174" t="s">
@@ -11506,7 +11564,7 @@
         <v>307</v>
       </c>
       <c r="N175" t="str">
-        <f>IF(H175="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O175" t="s">
@@ -11554,7 +11612,7 @@
         <v>279</v>
       </c>
       <c r="N176" t="str">
-        <f>IF(H176="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O176" t="s">
@@ -11602,7 +11660,7 @@
         <v>268</v>
       </c>
       <c r="N177" t="str">
-        <f>IF(H177="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O177" t="s">
@@ -11647,7 +11705,7 @@
         <v>280</v>
       </c>
       <c r="N178" t="str">
-        <f>IF(H178="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O178" t="s">
@@ -11704,7 +11762,7 @@
         <v>280</v>
       </c>
       <c r="N179" t="str">
-        <f>IF(H179="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O179" t="s">
@@ -11752,7 +11810,7 @@
         <v>297</v>
       </c>
       <c r="N180" t="str">
-        <f>IF(H180="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O180" t="s">
@@ -11763,6 +11821,9 @@
       </c>
       <c r="Q180" s="1">
         <v>43838</v>
+      </c>
+      <c r="R180" s="1">
+        <v>43878</v>
       </c>
       <c r="S180" t="s">
         <v>197</v>
@@ -11800,7 +11861,7 @@
         <v>297</v>
       </c>
       <c r="N181" t="str">
-        <f>IF(H181="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O181" t="s">
@@ -11846,7 +11907,7 @@
         <v>294</v>
       </c>
       <c r="N182" t="str">
-        <f>IF(H182="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="O182" t="s">
@@ -11894,7 +11955,7 @@
         <v>294</v>
       </c>
       <c r="N183" t="str">
-        <f>IF(H183="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O183" t="s">
@@ -11904,6 +11965,9 @@
         <v>286</v>
       </c>
       <c r="Q183" s="1"/>
+      <c r="R183" s="1">
+        <v>43878</v>
+      </c>
       <c r="S183" t="s">
         <v>200</v>
       </c>
@@ -11940,7 +12004,7 @@
         <v>280</v>
       </c>
       <c r="N184" t="str">
-        <f>IF(H184="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O184" t="s">
@@ -11997,7 +12061,7 @@
         <v>297</v>
       </c>
       <c r="N185" t="str">
-        <f>IF(H185="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O185" t="s">
@@ -12045,7 +12109,7 @@
         <v>280</v>
       </c>
       <c r="N186" t="str">
-        <f>IF(H186="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O186" t="s">
@@ -12093,7 +12157,7 @@
         <v>294</v>
       </c>
       <c r="N187" t="str">
-        <f>IF(H187="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O187" t="s">
@@ -12141,7 +12205,7 @@
         <v>279</v>
       </c>
       <c r="N188" t="str">
-        <f>IF(H188="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O188" t="s">
@@ -12196,7 +12260,7 @@
         <v>279</v>
       </c>
       <c r="N189" t="str">
-        <f>IF(H189="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="O189" t="s">
@@ -12238,7 +12302,7 @@
         <v>268</v>
       </c>
       <c r="N190" t="str">
-        <f>IF(H190="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O190" t="s">
@@ -12280,7 +12344,7 @@
         <v>268</v>
       </c>
       <c r="N191" t="str">
-        <f>IF(H191="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O191" t="s">
@@ -12331,7 +12395,7 @@
         <v>268</v>
       </c>
       <c r="N192" t="str">
-        <f>IF(H192="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O192" t="s">
@@ -12339,6 +12403,9 @@
       </c>
       <c r="P192" t="s">
         <v>286</v>
+      </c>
+      <c r="R192" s="1">
+        <v>43878</v>
       </c>
       <c r="S192" t="s">
         <v>209</v>
@@ -12373,7 +12440,7 @@
         <v>268</v>
       </c>
       <c r="N193" t="str">
-        <f>IF(H193="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O193" t="s">
@@ -12421,7 +12488,7 @@
         <v>297</v>
       </c>
       <c r="N194" t="str">
-        <f>IF(H194="","否","是")</f>
+        <f t="shared" ref="N194:N257" si="3">IF(H194="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O194" t="s">
@@ -12432,6 +12499,9 @@
       </c>
       <c r="Q194" s="1">
         <v>43850</v>
+      </c>
+      <c r="R194" s="1">
+        <v>43878</v>
       </c>
       <c r="S194" t="s">
         <v>211</v>
@@ -12466,7 +12536,7 @@
         <v>308</v>
       </c>
       <c r="N195" t="str">
-        <f>IF(H195="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O195" t="s">
@@ -12520,7 +12590,7 @@
         <v>297</v>
       </c>
       <c r="N196" t="str">
-        <f>IF(H196="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O196" t="s">
@@ -12563,7 +12633,7 @@
         <v>271</v>
       </c>
       <c r="N197" t="str">
-        <f>IF(H197="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O197" t="s">
@@ -12617,7 +12687,7 @@
         <v>268</v>
       </c>
       <c r="N198" t="str">
-        <f>IF(H198="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O198" t="s">
@@ -12662,7 +12732,7 @@
         <v>307</v>
       </c>
       <c r="N199" t="str">
-        <f>IF(H199="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O199" t="s">
@@ -12710,7 +12780,7 @@
         <v>297</v>
       </c>
       <c r="N200" t="str">
-        <f>IF(H200="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O200" t="s">
@@ -12755,7 +12825,7 @@
         <v>268</v>
       </c>
       <c r="N201" t="str">
-        <f>IF(H201="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O201" t="s">
@@ -12800,7 +12870,7 @@
         <v>268</v>
       </c>
       <c r="N202" t="str">
-        <f>IF(H202="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O202" t="s">
@@ -12851,7 +12921,7 @@
         <v>268</v>
       </c>
       <c r="N203" t="str">
-        <f>IF(H203="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O203" t="s">
@@ -12905,7 +12975,7 @@
         <v>297</v>
       </c>
       <c r="N204" t="str">
-        <f>IF(H204="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O204" t="s">
@@ -12962,7 +13032,7 @@
         <v>297</v>
       </c>
       <c r="N205" t="str">
-        <f>IF(H205="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O205" t="s">
@@ -12973,6 +13043,9 @@
       </c>
       <c r="Q205" s="1">
         <v>43852</v>
+      </c>
+      <c r="R205" s="1">
+        <v>43878</v>
       </c>
       <c r="S205" t="s">
         <v>222</v>
@@ -13019,7 +13092,7 @@
         <v>297</v>
       </c>
       <c r="N206" t="str">
-        <f>IF(H206="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O206" t="s">
@@ -13064,7 +13137,7 @@
         <v>268</v>
       </c>
       <c r="N207" t="str">
-        <f>IF(H207="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O207" t="s">
@@ -13112,7 +13185,7 @@
         <v>307</v>
       </c>
       <c r="N208" t="str">
-        <f>IF(H208="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O208" t="s">
@@ -13160,7 +13233,7 @@
         <v>297</v>
       </c>
       <c r="N209" t="str">
-        <f>IF(H209="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O209" t="s">
@@ -13208,7 +13281,7 @@
         <v>310</v>
       </c>
       <c r="N210" t="str">
-        <f>IF(H210="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O210" t="s">
@@ -13253,7 +13326,7 @@
         <v>279</v>
       </c>
       <c r="N211" t="str">
-        <f>IF(H211="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O211" t="s">
@@ -13304,7 +13377,7 @@
         <v>297</v>
       </c>
       <c r="N212" t="str">
-        <f>IF(H212="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O212" t="s">
@@ -13349,7 +13422,7 @@
         <v>268</v>
       </c>
       <c r="N213" t="str">
-        <f>IF(H213="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O213" t="s">
@@ -13394,7 +13467,7 @@
         <v>268</v>
       </c>
       <c r="N214" t="str">
-        <f>IF(H214="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O214" t="s">
@@ -13402,6 +13475,9 @@
       </c>
       <c r="P214" t="s">
         <v>286</v>
+      </c>
+      <c r="R214" s="1">
+        <v>43878</v>
       </c>
       <c r="S214" t="s">
         <v>231</v>
@@ -13436,7 +13512,7 @@
         <v>300</v>
       </c>
       <c r="N215" t="str">
-        <f>IF(H215="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O215" t="s">
@@ -13479,7 +13555,7 @@
         <v>280</v>
       </c>
       <c r="N216" t="str">
-        <f>IF(H216="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O216" t="s">
@@ -13534,7 +13610,7 @@
         <v>280</v>
       </c>
       <c r="N217" t="str">
-        <f>IF(H217="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O217" t="s">
@@ -13579,7 +13655,7 @@
         <v>280</v>
       </c>
       <c r="N218" t="str">
-        <f>IF(H218="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O218" t="s">
@@ -13590,6 +13666,9 @@
       </c>
       <c r="Q218" s="1">
         <v>43844</v>
+      </c>
+      <c r="R218" s="1">
+        <v>43878</v>
       </c>
       <c r="S218" t="s">
         <v>235</v>
@@ -13633,7 +13712,7 @@
         <v>268</v>
       </c>
       <c r="N219" t="str">
-        <f>IF(H219="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O219" t="s">
@@ -13684,7 +13763,7 @@
         <v>284</v>
       </c>
       <c r="N220" t="str">
-        <f>IF(H220="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O220" t="s">
@@ -13732,7 +13811,7 @@
         <v>280</v>
       </c>
       <c r="N221" t="str">
-        <f>IF(H221="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O221" t="s">
@@ -13789,7 +13868,7 @@
         <v>280</v>
       </c>
       <c r="N222" t="str">
-        <f>IF(H222="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O222" t="s">
@@ -13843,7 +13922,7 @@
         <v>268</v>
       </c>
       <c r="N223" t="str">
-        <f>IF(H223="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O223" t="s">
@@ -13897,7 +13976,7 @@
         <v>280</v>
       </c>
       <c r="N224" t="str">
-        <f>IF(H224="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O224" t="s">
@@ -13957,7 +14036,7 @@
         <v>298</v>
       </c>
       <c r="N225" t="str">
-        <f>IF(H225="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O225" t="s">
@@ -14014,7 +14093,7 @@
         <v>298</v>
       </c>
       <c r="N226" t="str">
-        <f>IF(H226="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O226" t="s">
@@ -14062,7 +14141,7 @@
         <v>294</v>
       </c>
       <c r="N227" t="str">
-        <f>IF(H227="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O227" t="s">
@@ -14119,7 +14198,7 @@
         <v>280</v>
       </c>
       <c r="N228" t="str">
-        <f>IF(H228="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O228" t="s">
@@ -14176,7 +14255,7 @@
         <v>297</v>
       </c>
       <c r="N229" t="str">
-        <f>IF(H229="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O229" t="s">
@@ -14225,7 +14304,7 @@
         <v>294</v>
       </c>
       <c r="N230" t="str">
-        <f>IF(H230="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O230" t="s">
@@ -14279,7 +14358,7 @@
         <v>307</v>
       </c>
       <c r="N231" t="str">
-        <f>IF(H231="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O231" t="s">
@@ -14339,7 +14418,7 @@
         <v>299</v>
       </c>
       <c r="N232" t="str">
-        <f>IF(H232="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O232" t="s">
@@ -14393,7 +14472,7 @@
         <v>268</v>
       </c>
       <c r="N233" t="str">
-        <f>IF(H233="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O233" t="s">
@@ -14444,7 +14523,7 @@
         <v>268</v>
       </c>
       <c r="N234" t="str">
-        <f>IF(H234="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O234" t="s">
@@ -14492,7 +14571,7 @@
         <v>280</v>
       </c>
       <c r="N235" t="str">
-        <f>IF(H235="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O235" t="s">
@@ -14537,7 +14616,7 @@
         <v>268</v>
       </c>
       <c r="N236" t="str">
-        <f>IF(H236="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O236" t="s">
@@ -14583,7 +14662,7 @@
         <v>307</v>
       </c>
       <c r="N237" t="str">
-        <f>IF(H237="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O237" t="s">
@@ -14635,7 +14714,7 @@
         <v>279</v>
       </c>
       <c r="N238" t="str">
-        <f>IF(H238="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O238" t="s">
@@ -14689,7 +14768,7 @@
         <v>280</v>
       </c>
       <c r="N239" t="str">
-        <f>IF(H239="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O239" t="s">
@@ -14737,7 +14816,7 @@
         <v>298</v>
       </c>
       <c r="N240" t="str">
-        <f>IF(H240="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O240" t="s">
@@ -14788,7 +14867,7 @@
         <v>298</v>
       </c>
       <c r="N241" t="str">
-        <f>IF(H241="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O241" t="s">
@@ -14839,7 +14918,7 @@
         <v>297</v>
       </c>
       <c r="N242" t="str">
-        <f>IF(H242="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O242" t="s">
@@ -14896,7 +14975,7 @@
         <v>299</v>
       </c>
       <c r="N243" t="str">
-        <f>IF(H243="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O243" t="s">
@@ -14907,6 +14986,9 @@
       </c>
       <c r="Q243" s="1">
         <v>43847</v>
+      </c>
+      <c r="R243" s="1">
+        <v>43878</v>
       </c>
       <c r="S243" t="s">
         <v>262</v>
@@ -14941,7 +15023,7 @@
         <v>309</v>
       </c>
       <c r="N244" t="str">
-        <f>IF(H244="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O244" t="s">
@@ -14995,7 +15077,7 @@
         <v>299</v>
       </c>
       <c r="N245" t="str">
-        <f>IF(H245="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O245" t="s">
@@ -15043,7 +15125,7 @@
         <v>279</v>
       </c>
       <c r="N246" t="str">
-        <f>IF(H246="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O246" t="s">
@@ -15091,7 +15173,7 @@
         <v>294</v>
       </c>
       <c r="N247" t="str">
-        <f>IF(H247="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O247" t="s">
@@ -15145,7 +15227,7 @@
         <v>268</v>
       </c>
       <c r="N248" t="str">
-        <f>IF(H248="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O248" t="s">
@@ -15196,7 +15278,7 @@
         <v>268</v>
       </c>
       <c r="N249" t="str">
-        <f>IF(H249="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O249" t="s">
@@ -15253,7 +15335,7 @@
         <v>280</v>
       </c>
       <c r="N250" t="str">
-        <f>IF(H250="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O250" t="s">
@@ -15301,7 +15383,7 @@
         <v>294</v>
       </c>
       <c r="N251" t="str">
-        <f>IF(H251="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O251" t="s">
@@ -15349,7 +15431,7 @@
         <v>299</v>
       </c>
       <c r="N252" t="str">
-        <f>IF(H252="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O252" t="s">
@@ -15397,7 +15479,7 @@
         <v>299</v>
       </c>
       <c r="N253" t="str">
-        <f>IF(H253="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O253" t="s">
@@ -15452,7 +15534,7 @@
         <v>297</v>
       </c>
       <c r="N254" t="str">
-        <f>IF(H254="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O254" t="s">
@@ -15500,7 +15582,7 @@
         <v>297</v>
       </c>
       <c r="N255" t="str">
-        <f>IF(H255="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O255" t="s">
@@ -15511,6 +15593,9 @@
       </c>
       <c r="Q255" s="1">
         <v>43847</v>
+      </c>
+      <c r="R255" s="1">
+        <v>43878</v>
       </c>
       <c r="S255" t="s">
         <v>345</v>
@@ -15555,7 +15640,7 @@
         <v>280</v>
       </c>
       <c r="N256" t="str">
-        <f>IF(H256="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O256" t="s">
@@ -15612,7 +15697,7 @@
         <v>299</v>
       </c>
       <c r="N257" t="str">
-        <f>IF(H257="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O257" t="s">
@@ -15623,6 +15708,9 @@
       </c>
       <c r="Q257" s="1">
         <v>43848</v>
+      </c>
+      <c r="R257" s="1">
+        <v>43878</v>
       </c>
       <c r="S257" t="s">
         <v>347</v>
@@ -15666,7 +15754,7 @@
         <v>301</v>
       </c>
       <c r="N258" t="str">
-        <f>IF(H258="","否","是")</f>
+        <f t="shared" ref="N258:N321" si="4">IF(H258="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O258" t="s">
@@ -15708,7 +15796,7 @@
         <v>268</v>
       </c>
       <c r="N259" t="str">
-        <f>IF(H259="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O259" t="s">
@@ -15756,7 +15844,7 @@
         <v>280</v>
       </c>
       <c r="N260" t="str">
-        <f>IF(H260="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O260" t="s">
@@ -15805,7 +15893,7 @@
         <v>280</v>
       </c>
       <c r="N261" t="str">
-        <f>IF(H261="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O261" t="s">
@@ -15860,7 +15948,7 @@
         <v>280</v>
       </c>
       <c r="N262" t="str">
-        <f>IF(H262="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O262" t="s">
@@ -15905,7 +15993,7 @@
         <v>280</v>
       </c>
       <c r="N263" t="str">
-        <f>IF(H263="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O263" t="s">
@@ -15948,7 +16036,7 @@
         <v>336</v>
       </c>
       <c r="N264" t="str">
-        <f>IF(H264="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O264" t="s">
@@ -16003,7 +16091,7 @@
         <v>280</v>
       </c>
       <c r="N265" t="str">
-        <f>IF(H265="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O265" t="s">
@@ -16048,7 +16136,7 @@
         <v>335</v>
       </c>
       <c r="N266" t="str">
-        <f>IF(H266="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O266" t="s">
@@ -16096,7 +16184,7 @@
         <v>297</v>
       </c>
       <c r="N267" t="str">
-        <f>IF(H267="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O267" t="s">
@@ -16154,7 +16242,7 @@
         <v>280</v>
       </c>
       <c r="N268" t="str">
-        <f>IF(H268="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O268" t="s">
@@ -16197,7 +16285,7 @@
         <v>298</v>
       </c>
       <c r="N269" t="str">
-        <f>IF(H269="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O269" t="s">
@@ -16239,7 +16327,7 @@
         <v>268</v>
       </c>
       <c r="N270" t="str">
-        <f>IF(H270="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O270" t="s">
@@ -16247,6 +16335,9 @@
       </c>
       <c r="P270" t="s">
         <v>286</v>
+      </c>
+      <c r="R270" s="1">
+        <v>43878</v>
       </c>
       <c r="S270" t="s">
         <v>360</v>
@@ -16282,7 +16373,7 @@
         <v>279</v>
       </c>
       <c r="N271" t="str">
-        <f>IF(H271="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O271" t="s">
@@ -16327,7 +16418,7 @@
         <v>298</v>
       </c>
       <c r="N272" t="str">
-        <f>IF(H272="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O272" t="s">
@@ -16375,7 +16466,7 @@
         <v>297</v>
       </c>
       <c r="N273" t="str">
-        <f>IF(H273="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O273" t="s">
@@ -16386,6 +16477,9 @@
       </c>
       <c r="Q273" s="1">
         <v>43842</v>
+      </c>
+      <c r="R273" s="1">
+        <v>43878</v>
       </c>
       <c r="S273" t="s">
         <v>364</v>
@@ -16423,7 +16517,7 @@
         <v>294</v>
       </c>
       <c r="N274" t="str">
-        <f>IF(H274="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O274" t="s">
@@ -16477,7 +16571,7 @@
         <v>300</v>
       </c>
       <c r="N275" t="str">
-        <f>IF(H275="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O275" t="s">
@@ -16529,7 +16623,7 @@
         <v>294</v>
       </c>
       <c r="N276" t="str">
-        <f>IF(H276="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O276" t="s">
@@ -16574,7 +16668,7 @@
         <v>280</v>
       </c>
       <c r="N277" t="str">
-        <f>IF(H277="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O277" t="s">
@@ -16622,7 +16716,7 @@
         <v>294</v>
       </c>
       <c r="N278" t="str">
-        <f>IF(H278="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O278" t="s">
@@ -16667,7 +16761,7 @@
         <v>268</v>
       </c>
       <c r="N279" t="str">
-        <f>IF(H279="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O279" t="s">
@@ -16712,7 +16806,7 @@
         <v>268</v>
       </c>
       <c r="N280" t="str">
-        <f>IF(H280="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O280" t="s">
@@ -16760,7 +16854,7 @@
         <v>279</v>
       </c>
       <c r="N281" t="str">
-        <f>IF(H281="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O281" t="s">
@@ -16820,7 +16914,7 @@
         <v>279</v>
       </c>
       <c r="N282" t="str">
-        <f>IF(H282="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O282" t="s">
@@ -16877,7 +16971,7 @@
         <v>279</v>
       </c>
       <c r="N283" t="str">
-        <f>IF(H283="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O283" t="s">
@@ -16932,7 +17026,7 @@
         <v>279</v>
       </c>
       <c r="N284" t="str">
-        <f>IF(H284="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O284" t="s">
@@ -16983,7 +17077,7 @@
         <v>268</v>
       </c>
       <c r="N285" t="str">
-        <f>IF(H285="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O285" t="s">
@@ -17037,7 +17131,7 @@
         <v>294</v>
       </c>
       <c r="N286" t="str">
-        <f>IF(H286="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O286" t="s">
@@ -17085,7 +17179,7 @@
         <v>307</v>
       </c>
       <c r="N287" t="str">
-        <f>IF(H287="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O287" t="s">
@@ -17133,7 +17227,7 @@
         <v>297</v>
       </c>
       <c r="N288" t="str">
-        <f>IF(H288="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O288" t="s">
@@ -17179,7 +17273,7 @@
         <v>279</v>
       </c>
       <c r="N289" t="str">
-        <f>IF(H289="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O289" t="s">
@@ -17224,7 +17318,7 @@
         <v>294</v>
       </c>
       <c r="N290" t="str">
-        <f>IF(H290="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O290" t="s">
@@ -17269,7 +17363,7 @@
         <v>268</v>
       </c>
       <c r="N291" t="str">
-        <f>IF(H291="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O291" t="s">
@@ -17312,7 +17406,7 @@
         <v>279</v>
       </c>
       <c r="N292" t="str">
-        <f>IF(H292="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O292" t="s">
@@ -17354,7 +17448,7 @@
         <v>411</v>
       </c>
       <c r="N293" t="str">
-        <f>IF(H293="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O293" t="s">
@@ -17396,7 +17490,7 @@
         <v>268</v>
       </c>
       <c r="N294" t="str">
-        <f>IF(H294="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O294" t="s">
@@ -17441,7 +17535,7 @@
         <v>294</v>
       </c>
       <c r="N295" t="str">
-        <f>IF(H295="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O295" t="s">
@@ -17489,7 +17583,7 @@
         <v>294</v>
       </c>
       <c r="N296" t="str">
-        <f>IF(H296="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O296" t="s">
@@ -17537,7 +17631,7 @@
         <v>297</v>
       </c>
       <c r="N297" t="str">
-        <f>IF(H297="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O297" t="s">
@@ -17585,7 +17679,7 @@
         <v>294</v>
       </c>
       <c r="N298" t="str">
-        <f>IF(H298="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O298" t="s">
@@ -17630,7 +17724,7 @@
         <v>268</v>
       </c>
       <c r="N299" t="str">
-        <f>IF(H299="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O299" t="s">
@@ -17678,7 +17772,7 @@
         <v>297</v>
       </c>
       <c r="N300" t="str">
-        <f>IF(H300="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O300" t="s">
@@ -17689,6 +17783,9 @@
       </c>
       <c r="Q300" s="1">
         <v>43852</v>
+      </c>
+      <c r="R300" s="1">
+        <v>43878</v>
       </c>
       <c r="S300" t="s">
         <v>391</v>
@@ -17735,7 +17832,7 @@
         <v>297</v>
       </c>
       <c r="N301" t="str">
-        <f>IF(H301="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O301" t="s">
@@ -17783,7 +17880,7 @@
         <v>279</v>
       </c>
       <c r="N302" t="str">
-        <f>IF(H302="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O302" t="s">
@@ -17831,7 +17928,7 @@
         <v>279</v>
       </c>
       <c r="N303" t="str">
-        <f>IF(H303="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O303" t="s">
@@ -17842,6 +17939,9 @@
       </c>
       <c r="Q303" s="1">
         <v>43848</v>
+      </c>
+      <c r="R303" s="1">
+        <v>43878</v>
       </c>
       <c r="S303" t="s">
         <v>394</v>
@@ -17876,7 +17976,7 @@
         <v>410</v>
       </c>
       <c r="N304" t="str">
-        <f>IF(H304="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O304" t="s">
@@ -17919,7 +18019,7 @@
         <v>297</v>
       </c>
       <c r="N305" t="str">
-        <f>IF(H305="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O305" t="s">
@@ -17964,7 +18064,7 @@
         <v>298</v>
       </c>
       <c r="N306" t="str">
-        <f>IF(H306="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O306" t="s">
@@ -18012,7 +18112,7 @@
         <v>268</v>
       </c>
       <c r="N307" t="str">
-        <f>IF(H307="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O307" t="s">
@@ -18057,7 +18157,7 @@
         <v>298</v>
       </c>
       <c r="N308" t="str">
-        <f>IF(H308="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O308" t="s">
@@ -18105,7 +18205,7 @@
         <v>280</v>
       </c>
       <c r="N309" t="str">
-        <f>IF(H309="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O309" t="s">
@@ -18153,7 +18253,7 @@
         <v>280</v>
       </c>
       <c r="N310" t="str">
-        <f>IF(H310="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O310" t="s">
@@ -18210,7 +18310,7 @@
         <v>280</v>
       </c>
       <c r="N311" t="str">
-        <f>IF(H311="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O311" t="s">
@@ -18267,7 +18367,7 @@
         <v>279</v>
       </c>
       <c r="N312" t="str">
-        <f>IF(H312="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O312" t="s">
@@ -18324,7 +18424,7 @@
         <v>279</v>
       </c>
       <c r="N313" t="str">
-        <f>IF(H313="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O313" t="s">
@@ -18379,7 +18479,7 @@
         <v>298</v>
       </c>
       <c r="N314" t="str">
-        <f>IF(H314="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O314" t="s">
@@ -18433,7 +18533,7 @@
         <v>280</v>
       </c>
       <c r="N315" t="str">
-        <f>IF(H315="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O315" t="s">
@@ -18481,7 +18581,7 @@
         <v>294</v>
       </c>
       <c r="N316" t="str">
-        <f>IF(H316="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O316" t="s">
@@ -18538,7 +18638,7 @@
         <v>294</v>
       </c>
       <c r="N317" t="str">
-        <f>IF(H317="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O317" t="s">
@@ -18595,7 +18695,7 @@
         <v>297</v>
       </c>
       <c r="N318" t="str">
-        <f>IF(H318="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O318" t="s">
@@ -18643,7 +18743,7 @@
         <v>279</v>
       </c>
       <c r="N319" t="str">
-        <f>IF(H319="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O319" t="s">
@@ -18697,7 +18797,7 @@
         <v>579</v>
       </c>
       <c r="N320" t="str">
-        <f>IF(H320="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O320" t="s">
@@ -18749,7 +18849,7 @@
         <v>279</v>
       </c>
       <c r="N321" t="str">
-        <f>IF(H321="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O321" t="s">
@@ -18803,7 +18903,7 @@
         <v>580</v>
       </c>
       <c r="N322" t="str">
-        <f>IF(H322="","否","是")</f>
+        <f t="shared" ref="N322:N385" si="5">IF(H322="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O322" t="s">
@@ -18854,7 +18954,7 @@
         <v>580</v>
       </c>
       <c r="N323" t="str">
-        <f>IF(H323="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O323" t="s">
@@ -18906,7 +19006,7 @@
         <v>279</v>
       </c>
       <c r="N324" t="str">
-        <f>IF(H324="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O324" t="s">
@@ -18960,7 +19060,7 @@
         <v>294</v>
       </c>
       <c r="N325" t="str">
-        <f>IF(H325="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O325" t="s">
@@ -19017,7 +19117,7 @@
         <v>294</v>
       </c>
       <c r="N326" t="str">
-        <f>IF(H326="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O326" t="s">
@@ -19074,7 +19174,7 @@
         <v>280</v>
       </c>
       <c r="N327" t="str">
-        <f>IF(H327="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O327" t="s">
@@ -19129,7 +19229,7 @@
         <v>279</v>
       </c>
       <c r="N328" t="str">
-        <f>IF(H328="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O328" t="s">
@@ -19140,6 +19240,9 @@
       </c>
       <c r="Q328" s="1">
         <v>43854</v>
+      </c>
+      <c r="R328" s="1">
+        <v>43878</v>
       </c>
       <c r="S328" t="s">
         <v>566</v>
@@ -19177,7 +19280,7 @@
         <v>280</v>
       </c>
       <c r="N329" t="str">
-        <f>IF(H329="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O329" t="s">
@@ -19225,7 +19328,7 @@
         <v>279</v>
       </c>
       <c r="N330" t="str">
-        <f>IF(H330="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O330" t="s">
@@ -19270,7 +19373,7 @@
         <v>268</v>
       </c>
       <c r="N331" t="str">
-        <f>IF(H331="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O331" t="s">
@@ -19313,7 +19416,7 @@
         <v>297</v>
       </c>
       <c r="N332" t="str">
-        <f>IF(H332="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O332" t="s">
@@ -19355,7 +19458,7 @@
         <v>268</v>
       </c>
       <c r="N333" t="str">
-        <f>IF(H333="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O333" t="s">
@@ -19403,7 +19506,7 @@
         <v>297</v>
       </c>
       <c r="N334" t="str">
-        <f>IF(H334="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O334" t="s">
@@ -19460,7 +19563,7 @@
         <v>297</v>
       </c>
       <c r="N335" t="str">
-        <f>IF(H335="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O335" t="s">
@@ -19506,7 +19609,7 @@
         <v>279</v>
       </c>
       <c r="N336" t="str">
-        <f>IF(H336="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O336" t="s">
@@ -19554,7 +19657,7 @@
         <v>297</v>
       </c>
       <c r="N337" t="str">
-        <f>IF(H337="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O337" t="s">
@@ -19602,7 +19705,7 @@
         <v>298</v>
       </c>
       <c r="N338" t="str">
-        <f>IF(H338="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O338" t="s">
@@ -19659,7 +19762,7 @@
         <v>298</v>
       </c>
       <c r="N339" t="str">
-        <f>IF(H339="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O339" t="s">
@@ -19716,7 +19819,7 @@
         <v>298</v>
       </c>
       <c r="N340" t="str">
-        <f>IF(H340="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O340" t="s">
@@ -19771,7 +19874,7 @@
         <v>297</v>
       </c>
       <c r="N341" t="str">
-        <f>IF(H341="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O341" t="s">
@@ -19825,7 +19928,7 @@
         <v>279</v>
       </c>
       <c r="N342" t="str">
-        <f>IF(H342="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O342" t="s">
@@ -19871,7 +19974,7 @@
         <v>279</v>
       </c>
       <c r="N343" t="str">
-        <f>IF(H343="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O343" t="s">
@@ -19926,7 +20029,7 @@
         <v>279</v>
       </c>
       <c r="N344" t="str">
-        <f>IF(H344="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O344" t="s">
@@ -19981,7 +20084,7 @@
         <v>297</v>
       </c>
       <c r="N345" t="str">
-        <f>IF(H345="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O345" t="s">
@@ -20035,7 +20138,7 @@
         <v>268</v>
       </c>
       <c r="N346" t="str">
-        <f>IF(H346="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O346" t="s">
@@ -20078,7 +20181,7 @@
         <v>279</v>
       </c>
       <c r="N347" t="str">
-        <f>IF(H347="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O347" t="s">
@@ -20126,7 +20229,7 @@
         <v>294</v>
       </c>
       <c r="N348" t="str">
-        <f>IF(H348="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O348" t="s">
@@ -20171,7 +20274,7 @@
         <v>411</v>
       </c>
       <c r="N349" t="str">
-        <f>IF(H349="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O349" t="s">
@@ -20216,7 +20319,7 @@
         <v>298</v>
       </c>
       <c r="N350" t="str">
-        <f>IF(H350="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O350" t="s">
@@ -20261,7 +20364,7 @@
         <v>598</v>
       </c>
       <c r="N351" t="str">
-        <f>IF(H351="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O351" t="s">
@@ -20306,7 +20409,7 @@
         <v>294</v>
       </c>
       <c r="N352" t="str">
-        <f>IF(H352="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O352" t="s">
@@ -20354,7 +20457,7 @@
         <v>297</v>
       </c>
       <c r="N353" t="str">
-        <f>IF(H353="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O353" t="s">
@@ -20409,7 +20512,7 @@
         <v>279</v>
       </c>
       <c r="N354" t="str">
-        <f>IF(H354="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O354" t="s">
@@ -20464,7 +20567,7 @@
         <v>279</v>
       </c>
       <c r="N355" t="str">
-        <f>IF(H355="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O355" t="s">
@@ -20509,7 +20612,7 @@
         <v>279</v>
       </c>
       <c r="N356" t="str">
-        <f>IF(H356="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O356" t="s">
@@ -20556,7 +20659,7 @@
         <v>268</v>
       </c>
       <c r="N357" t="str">
-        <f>IF(H357="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O357" t="s">
@@ -20612,7 +20715,7 @@
         <v>294</v>
       </c>
       <c r="N358" t="str">
-        <f>IF(H358="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O358" t="s">
@@ -20659,7 +20762,7 @@
         <v>300</v>
       </c>
       <c r="N359" t="str">
-        <f>IF(H359="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O359" t="s">
@@ -20704,7 +20807,7 @@
         <v>298</v>
       </c>
       <c r="N360" t="str">
-        <f>IF(H360="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O360" t="s">
@@ -20760,7 +20863,7 @@
         <v>298</v>
       </c>
       <c r="N361" t="str">
-        <f>IF(H361="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O361" t="s">
@@ -20810,7 +20913,7 @@
         <v>280</v>
       </c>
       <c r="N362" t="str">
-        <f>IF(H362="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O362" t="s">
@@ -20867,7 +20970,7 @@
         <v>279</v>
       </c>
       <c r="N363" t="str">
-        <f>IF(H363="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O363" t="s">
@@ -20917,7 +21020,7 @@
         <v>280</v>
       </c>
       <c r="N364" t="str">
-        <f>IF(H364="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O364" t="s">
@@ -20968,7 +21071,7 @@
         <v>280</v>
       </c>
       <c r="N365" t="str">
-        <f>IF(H365="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O365" t="s">
@@ -21025,7 +21128,7 @@
         <v>279</v>
       </c>
       <c r="N366" t="str">
-        <f>IF(H366="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O366" t="s">
@@ -21073,7 +21176,7 @@
         <v>294</v>
       </c>
       <c r="N367" t="str">
-        <f>IF(H367="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O367" t="s">
@@ -21127,7 +21230,7 @@
         <v>300</v>
       </c>
       <c r="N368" t="str">
-        <f>IF(H368="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O368" t="s">
@@ -21179,7 +21282,7 @@
         <v>279</v>
       </c>
       <c r="N369" t="str">
-        <f>IF(H369="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O369" t="s">
@@ -21221,7 +21324,7 @@
         <v>604</v>
       </c>
       <c r="N370" t="str">
-        <f>IF(H370="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O370" t="s">
@@ -21275,7 +21378,7 @@
         <v>294</v>
       </c>
       <c r="N371" t="str">
-        <f>IF(H371="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O371" t="s">
@@ -21333,7 +21436,7 @@
         <v>280</v>
       </c>
       <c r="N372" t="str">
-        <f>IF(H372="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O372" t="s">
@@ -21380,7 +21483,7 @@
         <v>297</v>
       </c>
       <c r="N373" t="str">
-        <f>IF(H373="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O373" t="s">
@@ -21436,7 +21539,7 @@
         <v>297</v>
       </c>
       <c r="N374" t="str">
-        <f>IF(H374="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O374" t="s">
@@ -21485,7 +21588,7 @@
         <v>280</v>
       </c>
       <c r="N375" t="str">
-        <f>IF(H375="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O375" t="s">
@@ -21543,7 +21646,7 @@
         <v>280</v>
       </c>
       <c r="N376" t="str">
-        <f>IF(H376="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O376" t="s">
@@ -21592,7 +21695,7 @@
         <v>431</v>
       </c>
       <c r="N377" t="str">
-        <f>IF(H377="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O377" t="s">
@@ -21649,7 +21752,7 @@
         <v>431</v>
       </c>
       <c r="N378" t="str">
-        <f>IF(H378="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O378" t="s">
@@ -21697,7 +21800,7 @@
         <v>279</v>
       </c>
       <c r="N379" t="str">
-        <f>IF(H379="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O379" t="s">
@@ -21745,7 +21848,7 @@
         <v>297</v>
       </c>
       <c r="N380" t="str">
-        <f>IF(H380="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O380" t="s">
@@ -21802,7 +21905,7 @@
         <v>294</v>
       </c>
       <c r="N381" t="str">
-        <f>IF(H381="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O381" t="s">
@@ -21848,7 +21951,7 @@
         <v>335</v>
       </c>
       <c r="N382" t="str">
-        <f>IF(H382="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O382" t="s">
@@ -21893,7 +21996,7 @@
         <v>277</v>
       </c>
       <c r="N383" t="str">
-        <f>IF(H383="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O383" t="s">
@@ -21938,7 +22041,7 @@
         <v>294</v>
       </c>
       <c r="N384" t="str">
-        <f>IF(H384="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O384" t="s">
@@ -21992,7 +22095,7 @@
         <v>644</v>
       </c>
       <c r="N385" t="str">
-        <f>IF(H385="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O385" t="s">
@@ -22037,7 +22140,7 @@
         <v>280</v>
       </c>
       <c r="N386" t="str">
-        <f>IF(H386="","否","是")</f>
+        <f t="shared" ref="N386:N401" si="6">IF(H386="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O386" t="s">
@@ -22085,7 +22188,7 @@
         <v>294</v>
       </c>
       <c r="N387" t="str">
-        <f>IF(H387="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O387" t="s">
@@ -22139,7 +22242,7 @@
         <v>268</v>
       </c>
       <c r="N388" t="str">
-        <f>IF(H388="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O388" t="s">
@@ -22181,7 +22284,7 @@
         <v>268</v>
       </c>
       <c r="N389" t="str">
-        <f>IF(H389="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O389" t="s">
@@ -22226,7 +22329,7 @@
         <v>297</v>
       </c>
       <c r="N390" t="str">
-        <f>IF(H390="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O390" t="s">
@@ -22274,7 +22377,7 @@
         <v>299</v>
       </c>
       <c r="N391" t="str">
-        <f>IF(H391="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O391" t="s">
@@ -22322,7 +22425,7 @@
         <v>299</v>
       </c>
       <c r="N392" t="str">
-        <f>IF(H392="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O392" t="s">
@@ -22377,7 +22480,7 @@
         <v>298</v>
       </c>
       <c r="N393" t="str">
-        <f>IF(H393="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>否</v>
       </c>
       <c r="O393" t="s">
@@ -22428,7 +22531,7 @@
         <v>827</v>
       </c>
       <c r="N394" t="str">
-        <f>IF(H394="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O394" t="s">
@@ -22480,7 +22583,7 @@
         <v>279</v>
       </c>
       <c r="N395" t="str">
-        <f>IF(H395="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>否</v>
       </c>
       <c r="O395" t="s">
@@ -22532,7 +22635,7 @@
         <v>298</v>
       </c>
       <c r="N396" t="str">
-        <f>IF(H396="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>否</v>
       </c>
       <c r="O396" t="s">
@@ -22577,7 +22680,7 @@
         <v>294</v>
       </c>
       <c r="N397" t="str">
-        <f>IF(H397="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O397" t="s">
@@ -22623,7 +22726,7 @@
         <v>280</v>
       </c>
       <c r="N398" t="str">
-        <f>IF(H398="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>否</v>
       </c>
       <c r="O398" t="s">
@@ -22678,7 +22781,7 @@
         <v>280</v>
       </c>
       <c r="N399" t="str">
-        <f>IF(H399="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>否</v>
       </c>
       <c r="O399" t="s">
@@ -22730,7 +22833,7 @@
         <v>297</v>
       </c>
       <c r="N400" t="str">
-        <f>IF(H400="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>否</v>
       </c>
       <c r="O400" t="s">
@@ -22775,7 +22878,7 @@
         <v>826</v>
       </c>
       <c r="N401" t="str">
-        <f>IF(H401="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O401" t="s">
@@ -22832,7 +22935,7 @@
         <v>294</v>
       </c>
       <c r="N402" t="str">
-        <f t="shared" ref="N402:N407" si="0">IF(H402="","否","是")</f>
+        <f t="shared" ref="N402:N415" si="7">IF(H402="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O402" t="s">
@@ -22889,7 +22992,7 @@
         <v>280</v>
       </c>
       <c r="N403" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>是</v>
       </c>
       <c r="O403" t="s">
@@ -22934,7 +23037,7 @@
         <v>280</v>
       </c>
       <c r="N404" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>否</v>
       </c>
       <c r="O404" t="s">
@@ -22982,7 +23085,7 @@
         <v>279</v>
       </c>
       <c r="N405" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>是</v>
       </c>
       <c r="O405" t="s">
@@ -23030,7 +23133,7 @@
         <v>297</v>
       </c>
       <c r="N406" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>是</v>
       </c>
       <c r="O406" t="s">
@@ -23087,7 +23190,7 @@
         <v>307</v>
       </c>
       <c r="N407" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>是</v>
       </c>
       <c r="O407" t="s">
@@ -23101,6 +23204,399 @@
       </c>
       <c r="S407" s="3" t="s">
         <v>852</v>
+      </c>
+    </row>
+    <row r="408" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>407</v>
+      </c>
+      <c r="B408" t="s">
+        <v>282</v>
+      </c>
+      <c r="C408">
+        <v>37</v>
+      </c>
+      <c r="D408">
+        <v>382</v>
+      </c>
+      <c r="E408" t="s">
+        <v>288</v>
+      </c>
+      <c r="F408" t="s">
+        <v>314</v>
+      </c>
+      <c r="G408"/>
+      <c r="H408" s="1">
+        <v>43854</v>
+      </c>
+      <c r="I408" s="1">
+        <v>43870</v>
+      </c>
+      <c r="J408" s="1">
+        <v>43870</v>
+      </c>
+      <c r="K408" t="s">
+        <v>312</v>
+      </c>
+      <c r="L408" t="s">
+        <v>267</v>
+      </c>
+      <c r="M408" t="s">
+        <v>294</v>
+      </c>
+      <c r="N408" t="str">
+        <f t="shared" si="7"/>
+        <v>是</v>
+      </c>
+      <c r="O408" t="s">
+        <v>810</v>
+      </c>
+      <c r="P408" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q408" s="1">
+        <v>43852</v>
+      </c>
+      <c r="S408" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="409" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="B409" t="s">
+        <v>282</v>
+      </c>
+      <c r="C409">
+        <v>38</v>
+      </c>
+      <c r="D409">
+        <v>171</v>
+      </c>
+      <c r="E409" t="s">
+        <v>107</v>
+      </c>
+      <c r="F409" t="s">
+        <v>314</v>
+      </c>
+      <c r="G409"/>
+      <c r="H409"/>
+      <c r="I409" s="1">
+        <v>43860</v>
+      </c>
+      <c r="J409" s="1">
+        <v>43875</v>
+      </c>
+      <c r="K409" t="s">
+        <v>312</v>
+      </c>
+      <c r="L409" t="s">
+        <v>267</v>
+      </c>
+      <c r="M409" t="s">
+        <v>279</v>
+      </c>
+      <c r="N409" t="str">
+        <f t="shared" si="7"/>
+        <v>否</v>
+      </c>
+      <c r="O409" t="s">
+        <v>821</v>
+      </c>
+      <c r="P409" t="s">
+        <v>286</v>
+      </c>
+      <c r="S409" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="410" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>409</v>
+      </c>
+      <c r="B410" t="s">
+        <v>282</v>
+      </c>
+      <c r="C410">
+        <v>33</v>
+      </c>
+      <c r="D410">
+        <v>179</v>
+      </c>
+      <c r="E410" t="s">
+        <v>288</v>
+      </c>
+      <c r="F410" t="s">
+        <v>314</v>
+      </c>
+      <c r="G410"/>
+      <c r="H410" s="1">
+        <v>43854</v>
+      </c>
+      <c r="I410" s="1">
+        <v>43875</v>
+      </c>
+      <c r="J410" s="1">
+        <v>43875</v>
+      </c>
+      <c r="K410" t="s">
+        <v>312</v>
+      </c>
+      <c r="L410" t="s">
+        <v>267</v>
+      </c>
+      <c r="M410" t="s">
+        <v>297</v>
+      </c>
+      <c r="N410" t="str">
+        <f t="shared" si="7"/>
+        <v>是</v>
+      </c>
+      <c r="O410" t="s">
+        <v>810</v>
+      </c>
+      <c r="P410" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q410" s="1">
+        <v>43852</v>
+      </c>
+      <c r="S410" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="411" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>410</v>
+      </c>
+      <c r="B411" t="s">
+        <v>282</v>
+      </c>
+      <c r="C411">
+        <v>59</v>
+      </c>
+      <c r="D411">
+        <v>304</v>
+      </c>
+      <c r="E411" t="s">
+        <v>171</v>
+      </c>
+      <c r="F411" t="s">
+        <v>314</v>
+      </c>
+      <c r="G411"/>
+      <c r="H411" s="1">
+        <v>43852</v>
+      </c>
+      <c r="I411" s="1">
+        <v>43873</v>
+      </c>
+      <c r="J411" s="1">
+        <v>43873</v>
+      </c>
+      <c r="K411" t="s">
+        <v>272</v>
+      </c>
+      <c r="L411" t="s">
+        <v>827</v>
+      </c>
+      <c r="N411" t="str">
+        <f t="shared" si="7"/>
+        <v>是</v>
+      </c>
+      <c r="O411" t="s">
+        <v>755</v>
+      </c>
+      <c r="P411" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q411" s="1">
+        <v>43852</v>
+      </c>
+      <c r="S411" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="412" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>411</v>
+      </c>
+      <c r="B412" t="s">
+        <v>282</v>
+      </c>
+      <c r="C412">
+        <v>44</v>
+      </c>
+      <c r="G412"/>
+      <c r="H412" s="1">
+        <v>43855</v>
+      </c>
+      <c r="I412" s="1">
+        <v>43874</v>
+      </c>
+      <c r="J412" s="1">
+        <v>43875</v>
+      </c>
+      <c r="K412" t="s">
+        <v>312</v>
+      </c>
+      <c r="L412" t="s">
+        <v>267</v>
+      </c>
+      <c r="M412" t="s">
+        <v>279</v>
+      </c>
+      <c r="N412" t="str">
+        <f t="shared" si="7"/>
+        <v>是</v>
+      </c>
+      <c r="O412" t="s">
+        <v>810</v>
+      </c>
+      <c r="P412" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q412" s="1">
+        <v>43851</v>
+      </c>
+      <c r="S412" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="413" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>412</v>
+      </c>
+      <c r="B413" t="s">
+        <v>282</v>
+      </c>
+      <c r="C413">
+        <v>65</v>
+      </c>
+      <c r="G413"/>
+      <c r="H413" s="1">
+        <v>43853</v>
+      </c>
+      <c r="I413" s="1">
+        <v>43875</v>
+      </c>
+      <c r="J413" s="1">
+        <v>43875</v>
+      </c>
+      <c r="K413" t="s">
+        <v>272</v>
+      </c>
+      <c r="L413" t="s">
+        <v>268</v>
+      </c>
+      <c r="N413" t="str">
+        <f t="shared" si="7"/>
+        <v>是</v>
+      </c>
+      <c r="O413" t="s">
+        <v>750</v>
+      </c>
+      <c r="P413" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q413" s="1">
+        <v>43873</v>
+      </c>
+      <c r="S413" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="414" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>413</v>
+      </c>
+      <c r="B414" t="s">
+        <v>282</v>
+      </c>
+      <c r="C414">
+        <v>53</v>
+      </c>
+      <c r="G414"/>
+      <c r="H414" s="1">
+        <v>43860</v>
+      </c>
+      <c r="I414" s="1">
+        <v>43857</v>
+      </c>
+      <c r="J414" s="1">
+        <v>43868</v>
+      </c>
+      <c r="K414" t="s">
+        <v>312</v>
+      </c>
+      <c r="L414" t="s">
+        <v>267</v>
+      </c>
+      <c r="M414" t="s">
+        <v>297</v>
+      </c>
+      <c r="N414" t="str">
+        <f t="shared" si="7"/>
+        <v>是</v>
+      </c>
+      <c r="O414" t="s">
+        <v>810</v>
+      </c>
+      <c r="P414" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q414" s="1">
+        <v>43880</v>
+      </c>
+      <c r="S414" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="415" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>414</v>
+      </c>
+      <c r="B415" t="s">
+        <v>281</v>
+      </c>
+      <c r="C415">
+        <v>51</v>
+      </c>
+      <c r="G415"/>
+      <c r="H415" s="1">
+        <v>43855</v>
+      </c>
+      <c r="I415" s="1">
+        <v>43857</v>
+      </c>
+      <c r="J415" s="1">
+        <v>43866</v>
+      </c>
+      <c r="K415" t="s">
+        <v>312</v>
+      </c>
+      <c r="L415" t="s">
+        <v>267</v>
+      </c>
+      <c r="M415" t="s">
+        <v>294</v>
+      </c>
+      <c r="N415" t="str">
+        <f t="shared" si="7"/>
+        <v>是</v>
+      </c>
+      <c r="O415" t="s">
+        <v>810</v>
+      </c>
+      <c r="P415" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q415" s="1">
+        <v>43836</v>
+      </c>
+      <c r="S415" t="s">
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -23111,9 +23607,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0673D1E6-6595-4429-B6E9-D1E808706CBD}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U23" sqref="U23:U24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -24240,11 +24738,11 @@
         <v>24</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M18" si="3">SUM(B18:L18)</f>
+        <f t="shared" ref="M18:M19" si="3">SUM(B18:L18)</f>
         <v>414</v>
       </c>
       <c r="N18">
-        <f t="shared" ref="N18" si="4">M18-M17</f>
+        <f t="shared" ref="N18:N19" si="4">M18-M17</f>
         <v>8</v>
       </c>
       <c r="O18">
@@ -24264,6 +24762,70 @@
       </c>
       <c r="T18">
         <v>541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>43877</v>
+      </c>
+      <c r="B19">
+        <v>87</v>
+      </c>
+      <c r="C19">
+        <v>79</v>
+      </c>
+      <c r="D19">
+        <v>71</v>
+      </c>
+      <c r="E19">
+        <v>62</v>
+      </c>
+      <c r="F19">
+        <v>34</v>
+      </c>
+      <c r="G19">
+        <v>32</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>11</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>24</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>415</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>26</v>
+      </c>
+      <c r="P19">
+        <v>8</v>
+      </c>
+      <c r="Q19">
+        <v>131</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>282</v>
+      </c>
+      <c r="T19">
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -24274,9 +24836,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9D6FEA-175F-4C98-96B4-DF3F2D772A0A}">
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="G171" sqref="G171"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -26693,6 +27257,62 @@
         <v>846</v>
       </c>
     </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1">
+        <v>43877</v>
+      </c>
+      <c r="C173" t="s">
+        <v>280</v>
+      </c>
+      <c r="D173" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1">
+        <v>43877</v>
+      </c>
+      <c r="C174" t="s">
+        <v>279</v>
+      </c>
+      <c r="D174" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1">
+        <v>43877</v>
+      </c>
+      <c r="C175" t="s">
+        <v>297</v>
+      </c>
+      <c r="D175" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1">
+        <v>43877</v>
+      </c>
+      <c r="C176" t="s">
+        <v>294</v>
+      </c>
+      <c r="D176" t="s">
+        <v>857</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Shenzhen_WJW/2019nCov_Shenzhen_new_cases.xlsx
+++ b/Shenzhen_WJW/2019nCov_Shenzhen_new_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Shenzhen_WJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2429" documentId="8_{518E5CB1-397D-479F-A002-9F80F41B7951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BC2DBB5A-B29B-482F-B3F5-09A1652D45DF}"/>
+  <xr:revisionPtr revIDLastSave="2463" documentId="8_{518E5CB1-397D-479F-A002-9F80F41B7951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4896E2AC-BFAD-4E46-82DE-0B0859006767}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3829" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3841" uniqueCount="868">
   <si>
     <t>Sex</t>
   </si>
@@ -2778,6 +2778,13 @@
   </si>
   <si>
     <t>51岁男性患者，常住于深圳龙岗。1月6日自驾前往湖北宜昌探亲，25日自驾返回深圳。1月27日发病，2月5日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>病例397父亲
+　　69岁男性患者，常住于深圳福田。2019年11月1日前往湖北武汉探亲，2020年1月20日返回深圳。2月9日发病，10日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>2019/11/1——2020/1/20</t>
   </si>
 </sst>
 </file>
@@ -3121,11 +3128,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U415"/>
+  <dimension ref="A1:U416"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q416" sqref="Q416"/>
+      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R408" sqref="R408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22935,7 +22942,7 @@
         <v>294</v>
       </c>
       <c r="N402" t="str">
-        <f t="shared" ref="N402:N415" si="7">IF(H402="","否","是")</f>
+        <f t="shared" ref="N402:N416" si="7">IF(H402="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O402" t="s">
@@ -23597,6 +23604,60 @@
       </c>
       <c r="S415" t="s">
         <v>865</v>
+      </c>
+    </row>
+    <row r="416" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>415</v>
+      </c>
+      <c r="B416" t="s">
+        <v>281</v>
+      </c>
+      <c r="C416">
+        <v>69</v>
+      </c>
+      <c r="D416">
+        <v>397</v>
+      </c>
+      <c r="E416" t="s">
+        <v>161</v>
+      </c>
+      <c r="F416" t="s">
+        <v>314</v>
+      </c>
+      <c r="G416" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="H416" s="1">
+        <v>43850</v>
+      </c>
+      <c r="I416" s="1">
+        <v>43870</v>
+      </c>
+      <c r="J416" s="1">
+        <v>43871</v>
+      </c>
+      <c r="K416" t="s">
+        <v>312</v>
+      </c>
+      <c r="L416" t="s">
+        <v>267</v>
+      </c>
+      <c r="M416" t="s">
+        <v>280</v>
+      </c>
+      <c r="N416" t="str">
+        <f t="shared" si="7"/>
+        <v>是</v>
+      </c>
+      <c r="O416" t="s">
+        <v>761</v>
+      </c>
+      <c r="P416" t="s">
+        <v>286</v>
+      </c>
+      <c r="S416" s="3" t="s">
+        <v>866</v>
       </c>
     </row>
   </sheetData>
@@ -23607,11 +23668,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0673D1E6-6595-4429-B6E9-D1E808706CBD}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U23" sqref="U23:U24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -24738,11 +24797,11 @@
         <v>24</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M18:M19" si="3">SUM(B18:L18)</f>
+        <f t="shared" ref="M18:M20" si="3">SUM(B18:L18)</f>
         <v>414</v>
       </c>
       <c r="N18">
-        <f t="shared" ref="N18:N19" si="4">M18-M17</f>
+        <f t="shared" ref="N18:N20" si="4">M18-M17</f>
         <v>8</v>
       </c>
       <c r="O18">
@@ -24826,6 +24885,70 @@
       </c>
       <c r="T19">
         <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>43878</v>
+      </c>
+      <c r="B20">
+        <v>87</v>
+      </c>
+      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="D20">
+        <v>71</v>
+      </c>
+      <c r="E20">
+        <v>62</v>
+      </c>
+      <c r="F20">
+        <v>34</v>
+      </c>
+      <c r="G20">
+        <v>32</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <v>11</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>24</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>416</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>22</v>
+      </c>
+      <c r="P20">
+        <v>7</v>
+      </c>
+      <c r="Q20">
+        <v>152</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>262</v>
+      </c>
+      <c r="T20">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -24836,10 +24959,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9D6FEA-175F-4C98-96B4-DF3F2D772A0A}">
-  <dimension ref="A1:D176"/>
+  <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="G171" sqref="G171"/>
+    <sheetView topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="A178" sqref="A178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27313,6 +27436,20 @@
         <v>857</v>
       </c>
     </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1">
+        <v>43878</v>
+      </c>
+      <c r="C177" t="s">
+        <v>280</v>
+      </c>
+      <c r="D177" t="s">
+        <v>837</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Shenzhen_WJW/2019nCov_Shenzhen_new_cases.xlsx
+++ b/Shenzhen_WJW/2019nCov_Shenzhen_new_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Shenzhen_WJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2463" documentId="8_{518E5CB1-397D-479F-A002-9F80F41B7951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4896E2AC-BFAD-4E46-82DE-0B0859006767}"/>
+  <xr:revisionPtr revIDLastSave="2549" documentId="8_{518E5CB1-397D-479F-A002-9F80F41B7951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{200C17DD-7121-4111-935C-266EFFC8F936}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Places" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cases!$A$1:$S$407</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cases!$A$1:$S$417</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3841" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3848" uniqueCount="869">
   <si>
     <t>Sex</t>
   </si>
@@ -2785,6 +2785,9 @@
   </si>
   <si>
     <t>2019/11/1——2020/1/20</t>
+  </si>
+  <si>
+    <t>44岁男性患者，常住深圳福田。1月19日自驾到湖北鄂州过年，21日前往黄冈探亲。2月12日出现胸口不适，14日自驾从鄂州返回深圳，并直接入住湖北返深人员集中隔离点，16日因新冠病毒核酸筛查阳性入院就诊，目前病情稳定。</t>
   </si>
 </sst>
 </file>
@@ -3128,11 +3131,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U416"/>
+  <dimension ref="A1:U417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R408" sqref="R408"/>
+      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3236,7 +3239,7 @@
         <v>279</v>
       </c>
       <c r="N2" t="str">
-        <f t="shared" ref="N2:N65" si="0">IF(H2="","否","是")</f>
+        <f>IF(H2="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O2" t="s">
@@ -3293,7 +3296,7 @@
         <v>279</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H3="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O3" t="s">
@@ -3347,7 +3350,7 @@
         <v>266</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H4="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O4" t="s">
@@ -3401,7 +3404,7 @@
         <v>266</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H5="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O5" t="s">
@@ -3456,7 +3459,7 @@
         <v>267</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H6="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O6" t="s">
@@ -3504,7 +3507,7 @@
         <v>267</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H7="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O7" t="s">
@@ -3549,7 +3552,7 @@
         <v>268</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H8="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O8" t="s">
@@ -3591,7 +3594,7 @@
         <v>268</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H9="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O9" t="s">
@@ -3636,7 +3639,7 @@
         <v>268</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H10="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O10" t="s">
@@ -3681,7 +3684,7 @@
         <v>268</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H11="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O11" t="s">
@@ -3726,7 +3729,7 @@
         <v>268</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H12="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O12" t="s">
@@ -3780,7 +3783,7 @@
         <v>268</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H13="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O13" t="s">
@@ -3825,7 +3828,7 @@
         <v>268</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H14="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O14" t="s">
@@ -3876,7 +3879,7 @@
         <v>268</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H15="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O15" t="s">
@@ -3918,7 +3921,7 @@
         <v>275</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H16="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O16" t="s">
@@ -3972,7 +3975,7 @@
         <v>268</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H17="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O17" t="s">
@@ -4020,7 +4023,7 @@
         <v>268</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H18="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O18" t="s">
@@ -4062,7 +4065,7 @@
         <v>268</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H19="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O19" t="s">
@@ -4107,7 +4110,7 @@
         <v>283</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H20="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O20" t="s">
@@ -4155,7 +4158,7 @@
         <v>284</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H21="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O21" t="s">
@@ -4200,7 +4203,7 @@
         <v>269</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H22="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O22" t="s">
@@ -4248,7 +4251,7 @@
         <v>268</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H23="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O23" t="s">
@@ -4256,6 +4259,9 @@
       </c>
       <c r="P23" t="s">
         <v>286</v>
+      </c>
+      <c r="R23" s="1">
+        <v>43880</v>
       </c>
       <c r="S23" t="s">
         <v>35</v>
@@ -4290,7 +4296,7 @@
         <v>268</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H24="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O24" t="s">
@@ -4332,7 +4338,7 @@
         <v>268</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H25="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O25" t="s">
@@ -4374,7 +4380,7 @@
         <v>268</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H26="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O26" t="s">
@@ -4419,7 +4425,7 @@
         <v>268</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H27="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O27" t="s">
@@ -4464,7 +4470,7 @@
         <v>268</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H28="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O28" t="s">
@@ -4509,7 +4515,7 @@
         <v>268</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H29="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O29" t="s">
@@ -4555,7 +4561,7 @@
         <v>268</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H30="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O30" t="s">
@@ -4600,7 +4606,7 @@
         <v>268</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H31="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O31" t="s">
@@ -4645,7 +4651,7 @@
         <v>268</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H32="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O32" t="s">
@@ -4690,7 +4696,7 @@
         <v>268</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H33="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O33" t="s">
@@ -4735,7 +4741,7 @@
         <v>268</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H34="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O34" t="s">
@@ -4777,7 +4783,7 @@
         <v>268</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H35="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O35" t="s">
@@ -4822,7 +4828,7 @@
         <v>277</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H36="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O36" t="s">
@@ -4867,7 +4873,7 @@
         <v>268</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H37="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O37" t="s">
@@ -4875,6 +4881,9 @@
       </c>
       <c r="P37" t="s">
         <v>286</v>
+      </c>
+      <c r="R37" s="1">
+        <v>43879</v>
       </c>
       <c r="S37" t="s">
         <v>49</v>
@@ -4912,7 +4921,7 @@
         <v>297</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H38="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O38" t="s">
@@ -4969,7 +4978,7 @@
         <v>268</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H39="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O39" t="s">
@@ -5024,7 +5033,7 @@
         <v>294</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H40="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O40" t="s">
@@ -5072,7 +5081,7 @@
         <v>268</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H41="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O41" t="s">
@@ -5114,7 +5123,7 @@
         <v>268</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H42="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O42" t="s">
@@ -5159,7 +5168,7 @@
         <v>268</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H43="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O43" t="s">
@@ -5207,7 +5216,7 @@
         <v>279</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H44="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O44" t="s">
@@ -5255,7 +5264,7 @@
         <v>268</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H45="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O45" t="s">
@@ -5297,7 +5306,7 @@
         <v>268</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H46="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O46" t="s">
@@ -5339,7 +5348,7 @@
         <v>268</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H47="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O47" t="s">
@@ -5393,7 +5402,7 @@
         <v>268</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H48="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O48" t="s">
@@ -5438,7 +5447,7 @@
         <v>268</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H49="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O49" t="s">
@@ -5483,7 +5492,7 @@
         <v>279</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H50="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O50" t="s">
@@ -5528,7 +5537,7 @@
         <v>268</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H51="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O51" t="s">
@@ -5573,7 +5582,7 @@
         <v>268</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H52="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O52" t="s">
@@ -5615,7 +5624,7 @@
         <v>302</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H53="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O53" t="s">
@@ -5663,7 +5672,7 @@
         <v>297</v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H54="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O54" t="s">
@@ -5711,7 +5720,7 @@
         <v>268</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H55="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O55" t="s">
@@ -5756,7 +5765,7 @@
         <v>268</v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H56="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O56" t="s">
@@ -5798,7 +5807,7 @@
         <v>268</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H57="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O57" t="s">
@@ -5846,7 +5855,7 @@
         <v>279</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H58="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O58" t="s">
@@ -5897,7 +5906,7 @@
         <v>297</v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H59="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O59" t="s">
@@ -5945,7 +5954,7 @@
         <v>300</v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H60="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O60" t="s">
@@ -5987,7 +5996,7 @@
         <v>268</v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H61="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O61" t="s">
@@ -6032,7 +6041,7 @@
         <v>268</v>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H62="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O62" t="s">
@@ -6077,7 +6086,7 @@
         <v>268</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H63="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O63" t="s">
@@ -6128,7 +6137,7 @@
         <v>268</v>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H64="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O64" t="s">
@@ -6170,7 +6179,7 @@
         <v>268</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H65="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O65" t="s">
@@ -6218,7 +6227,7 @@
         <v>299</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" ref="N66:N129" si="1">IF(H66="","否","是")</f>
+        <f>IF(H66="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O66" t="s">
@@ -6275,7 +6284,7 @@
         <v>299</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H67="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O67" t="s">
@@ -6332,7 +6341,7 @@
         <v>284</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H68="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O68" t="s">
@@ -6384,7 +6393,7 @@
         <v>294</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H69="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O69" t="s">
@@ -6439,7 +6448,7 @@
         <v>294</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H70="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O70" t="s">
@@ -6447,6 +6456,9 @@
       </c>
       <c r="P70" t="s">
         <v>286</v>
+      </c>
+      <c r="R70" s="1">
+        <v>43880</v>
       </c>
       <c r="S70" t="s">
         <v>82</v>
@@ -6481,7 +6493,7 @@
         <v>268</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H71="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O71" t="s">
@@ -6529,7 +6541,7 @@
         <v>299</v>
       </c>
       <c r="N72" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H72="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O72" t="s">
@@ -6574,7 +6586,7 @@
         <v>268</v>
       </c>
       <c r="N73" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H73="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O73" t="s">
@@ -6616,7 +6628,7 @@
         <v>268</v>
       </c>
       <c r="N74" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H74="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O74" t="s">
@@ -6673,7 +6685,7 @@
         <v>280</v>
       </c>
       <c r="N75" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H75="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O75" t="s">
@@ -6724,7 +6736,7 @@
         <v>297</v>
       </c>
       <c r="N76" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H76="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O76" t="s">
@@ -6772,7 +6784,7 @@
         <v>268</v>
       </c>
       <c r="N77" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H77="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O77" t="s">
@@ -6780,6 +6792,9 @@
       </c>
       <c r="P77" t="s">
         <v>286</v>
+      </c>
+      <c r="R77" s="1">
+        <v>43881</v>
       </c>
       <c r="S77" t="s">
         <v>89</v>
@@ -6817,7 +6832,7 @@
         <v>294</v>
       </c>
       <c r="N78" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H78="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O78" t="s">
@@ -6865,7 +6880,7 @@
         <v>268</v>
       </c>
       <c r="N79" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H79="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O79" t="s">
@@ -6910,7 +6925,7 @@
         <v>280</v>
       </c>
       <c r="N80" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H80="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O80" t="s">
@@ -6967,7 +6982,7 @@
         <v>268</v>
       </c>
       <c r="N81" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H81="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O81" t="s">
@@ -7012,7 +7027,7 @@
         <v>268</v>
       </c>
       <c r="N82" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H82="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O82" t="s">
@@ -7060,7 +7075,7 @@
         <v>279</v>
       </c>
       <c r="N83" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H83="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O83" t="s">
@@ -7108,7 +7123,7 @@
         <v>279</v>
       </c>
       <c r="N84" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H84="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O84" t="s">
@@ -7159,7 +7174,7 @@
         <v>299</v>
       </c>
       <c r="N85" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H85="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O85" t="s">
@@ -7210,7 +7225,7 @@
         <v>279</v>
       </c>
       <c r="N86" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H86="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O86" t="s">
@@ -7255,7 +7270,7 @@
         <v>300</v>
       </c>
       <c r="N87" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H87="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O87" t="s">
@@ -7300,7 +7315,7 @@
         <v>268</v>
       </c>
       <c r="N88" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H88="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O88" t="s">
@@ -7342,7 +7357,7 @@
         <v>296</v>
       </c>
       <c r="N89" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H89="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O89" t="s">
@@ -7387,7 +7402,7 @@
         <v>268</v>
       </c>
       <c r="N90" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H90="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O90" t="s">
@@ -7432,7 +7447,7 @@
         <v>294</v>
       </c>
       <c r="N91" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H91="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O91" t="s">
@@ -7478,7 +7493,7 @@
         <v>280</v>
       </c>
       <c r="N92" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H92="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O92" t="s">
@@ -7486,6 +7501,9 @@
       </c>
       <c r="P92" t="s">
         <v>286</v>
+      </c>
+      <c r="R92" s="1">
+        <v>43881</v>
       </c>
       <c r="S92" t="s">
         <v>333</v>
@@ -7519,7 +7537,7 @@
         <v>280</v>
       </c>
       <c r="N93" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H93="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O93" t="s">
@@ -7561,7 +7579,7 @@
         <v>268</v>
       </c>
       <c r="N94" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H94="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O94" t="s">
@@ -7606,7 +7624,7 @@
         <v>280</v>
       </c>
       <c r="N95" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H95="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O95" t="s">
@@ -7663,7 +7681,7 @@
         <v>280</v>
       </c>
       <c r="N96" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H96="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O96" t="s">
@@ -7711,7 +7729,7 @@
         <v>268</v>
       </c>
       <c r="N97" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H97="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O97" t="s">
@@ -7753,7 +7771,7 @@
         <v>311</v>
       </c>
       <c r="N98" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H98="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O98" t="s">
@@ -7805,7 +7823,7 @@
         <v>294</v>
       </c>
       <c r="N99" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H99="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O99" t="s">
@@ -7851,7 +7869,7 @@
         <v>268</v>
       </c>
       <c r="N100" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H100="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O100" t="s">
@@ -7906,7 +7924,7 @@
         <v>279</v>
       </c>
       <c r="N101" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H101="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O101" t="s">
@@ -7961,7 +7979,7 @@
         <v>279</v>
       </c>
       <c r="N102" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H102="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O102" t="s">
@@ -8016,7 +8034,7 @@
         <v>279</v>
       </c>
       <c r="N103" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H103="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O103" t="s">
@@ -8064,7 +8082,7 @@
         <v>280</v>
       </c>
       <c r="N104" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H104="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O104" t="s">
@@ -8115,7 +8133,7 @@
         <v>279</v>
       </c>
       <c r="N105" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H105="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O105" t="s">
@@ -8166,7 +8184,7 @@
         <v>298</v>
       </c>
       <c r="N106" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H106="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O106" t="s">
@@ -8226,7 +8244,7 @@
         <v>298</v>
       </c>
       <c r="N107" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H107="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O107" t="s">
@@ -8283,7 +8301,7 @@
         <v>298</v>
       </c>
       <c r="N108" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H108="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O108" t="s">
@@ -8338,7 +8356,7 @@
         <v>297</v>
       </c>
       <c r="N109" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H109="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O109" t="s">
@@ -8390,7 +8408,7 @@
         <v>302</v>
       </c>
       <c r="N110" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H110="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O110" t="s">
@@ -8442,7 +8460,7 @@
         <v>268</v>
       </c>
       <c r="N111" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H111="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O111" t="s">
@@ -8487,7 +8505,7 @@
         <v>268</v>
       </c>
       <c r="N112" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H112="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O112" t="s">
@@ -8532,7 +8550,7 @@
         <v>268</v>
       </c>
       <c r="N113" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H113="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O113" t="s">
@@ -8577,7 +8595,7 @@
         <v>268</v>
       </c>
       <c r="N114" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H114="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O114" t="s">
@@ -8625,7 +8643,7 @@
         <v>299</v>
       </c>
       <c r="N115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H115="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O115" t="s">
@@ -8670,7 +8688,7 @@
         <v>268</v>
       </c>
       <c r="N116" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H116="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O116" t="s">
@@ -8712,7 +8730,7 @@
         <v>268</v>
       </c>
       <c r="N117" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H117="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O117" t="s">
@@ -8760,7 +8778,7 @@
         <v>299</v>
       </c>
       <c r="N118" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H118="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O118" t="s">
@@ -8771,6 +8789,9 @@
       </c>
       <c r="Q118" s="1">
         <v>43843</v>
+      </c>
+      <c r="R118" s="1">
+        <v>43879</v>
       </c>
       <c r="S118" t="s">
         <v>132</v>
@@ -8808,7 +8829,7 @@
         <v>280</v>
       </c>
       <c r="N119" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H119="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O119" t="s">
@@ -8856,7 +8877,7 @@
         <v>268</v>
       </c>
       <c r="N120" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H120="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O120" t="s">
@@ -8911,7 +8932,7 @@
         <v>279</v>
       </c>
       <c r="N121" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H121="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O121" t="s">
@@ -8966,7 +8987,7 @@
         <v>279</v>
       </c>
       <c r="N122" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H122="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O122" t="s">
@@ -8976,6 +8997,9 @@
         <v>286</v>
       </c>
       <c r="Q122" s="1">
+        <v>43878</v>
+      </c>
+      <c r="R122" s="1">
         <v>43878</v>
       </c>
       <c r="S122" t="s">
@@ -9011,7 +9035,7 @@
         <v>301</v>
       </c>
       <c r="N123" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H123="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O123" t="s">
@@ -9063,7 +9087,7 @@
         <v>311</v>
       </c>
       <c r="N124" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H124="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O124" t="s">
@@ -9071,6 +9095,9 @@
       </c>
       <c r="P124" t="s">
         <v>286</v>
+      </c>
+      <c r="R124" s="1">
+        <v>43880</v>
       </c>
       <c r="S124" t="s">
         <v>138</v>
@@ -9115,7 +9142,7 @@
         <v>294</v>
       </c>
       <c r="N125" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H125="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O125" t="s">
@@ -9173,7 +9200,7 @@
         <v>294</v>
       </c>
       <c r="N126" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H126="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O126" t="s">
@@ -9221,7 +9248,7 @@
         <v>301</v>
       </c>
       <c r="N127" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H127="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O127" t="s">
@@ -9266,7 +9293,7 @@
         <v>268</v>
       </c>
       <c r="N128" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H128="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O128" t="s">
@@ -9311,7 +9338,7 @@
         <v>280</v>
       </c>
       <c r="N129" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H129="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O129" t="s">
@@ -9360,7 +9387,7 @@
         <v>280</v>
       </c>
       <c r="N130" t="str">
-        <f t="shared" ref="N130:N193" si="2">IF(H130="","否","是")</f>
+        <f>IF(H130="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O130" t="s">
@@ -9405,7 +9432,7 @@
         <v>268</v>
       </c>
       <c r="N131" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H131="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O131" t="s">
@@ -9450,7 +9477,7 @@
         <v>268</v>
       </c>
       <c r="N132" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H132="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O132" t="s">
@@ -9498,7 +9525,7 @@
         <v>299</v>
       </c>
       <c r="N133" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H133="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O133" t="s">
@@ -9556,7 +9583,7 @@
         <v>280</v>
       </c>
       <c r="N134" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H134="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O134" t="s">
@@ -9564,6 +9591,9 @@
       </c>
       <c r="P134" t="s">
         <v>285</v>
+      </c>
+      <c r="R134" s="1">
+        <v>43879</v>
       </c>
       <c r="S134" t="s">
         <v>148</v>
@@ -9608,7 +9638,7 @@
         <v>280</v>
       </c>
       <c r="N135" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H135="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O135" t="s">
@@ -9650,7 +9680,7 @@
         <v>270</v>
       </c>
       <c r="N136" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H136="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O136" t="s">
@@ -9697,7 +9727,7 @@
         <v>311</v>
       </c>
       <c r="N137" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H137="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O137" t="s">
@@ -9742,7 +9772,7 @@
         <v>268</v>
       </c>
       <c r="N138" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H138="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O138" t="s">
@@ -9787,7 +9817,7 @@
         <v>299</v>
       </c>
       <c r="N139" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H139="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O139" t="s">
@@ -9798,6 +9828,9 @@
       </c>
       <c r="Q139" s="1">
         <v>43846</v>
+      </c>
+      <c r="R139" s="1">
+        <v>43880</v>
       </c>
       <c r="S139" t="s">
         <v>153</v>
@@ -9844,7 +9877,7 @@
         <v>299</v>
       </c>
       <c r="N140" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H140="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O140" t="s">
@@ -9889,7 +9922,7 @@
         <v>268</v>
       </c>
       <c r="N141" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H141="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O141" t="s">
@@ -9897,6 +9930,9 @@
       </c>
       <c r="P141" t="s">
         <v>286</v>
+      </c>
+      <c r="R141" s="1">
+        <v>43880</v>
       </c>
       <c r="S141" t="s">
         <v>155</v>
@@ -9931,7 +9967,7 @@
         <v>268</v>
       </c>
       <c r="N142" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H142="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O142" t="s">
@@ -9976,7 +10012,7 @@
         <v>268</v>
       </c>
       <c r="N143" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H143="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O143" t="s">
@@ -10021,7 +10057,7 @@
         <v>279</v>
       </c>
       <c r="N144" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H144="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O144" t="s">
@@ -10072,7 +10108,7 @@
         <v>279</v>
       </c>
       <c r="N145" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H145="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O145" t="s">
@@ -10123,7 +10159,7 @@
         <v>279</v>
       </c>
       <c r="N146" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H146="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O146" t="s">
@@ -10134,6 +10170,9 @@
       </c>
       <c r="Q146" s="1">
         <v>43843</v>
+      </c>
+      <c r="R146" s="1">
+        <v>43881</v>
       </c>
       <c r="S146" t="s">
         <v>160</v>
@@ -10177,7 +10216,7 @@
         <v>268</v>
       </c>
       <c r="N147" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H147="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O147" t="s">
@@ -10232,7 +10271,7 @@
         <v>298</v>
       </c>
       <c r="N148" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H148="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O148" t="s">
@@ -10281,7 +10320,7 @@
         <v>280</v>
       </c>
       <c r="N149" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H149="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O149" t="s">
@@ -10329,7 +10368,7 @@
         <v>280</v>
       </c>
       <c r="N150" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H150="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O150" t="s">
@@ -10380,7 +10419,7 @@
         <v>299</v>
       </c>
       <c r="N151" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H151="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O151" t="s">
@@ -10431,7 +10470,7 @@
         <v>299</v>
       </c>
       <c r="N152" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H152="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O152" t="s">
@@ -10479,7 +10518,7 @@
         <v>306</v>
       </c>
       <c r="N153" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H153="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O153" t="s">
@@ -10529,7 +10568,7 @@
         <v>299</v>
       </c>
       <c r="N154" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H154="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O154" t="s">
@@ -10583,7 +10622,7 @@
         <v>299</v>
       </c>
       <c r="N155" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H155="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O155" t="s">
@@ -10643,7 +10682,7 @@
         <v>299</v>
       </c>
       <c r="N156" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H156="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O156" t="s">
@@ -10654,6 +10693,9 @@
       </c>
       <c r="Q156" s="1">
         <v>43846</v>
+      </c>
+      <c r="R156" s="1">
+        <v>43879</v>
       </c>
       <c r="S156" t="s">
         <v>172</v>
@@ -10688,7 +10730,7 @@
         <v>304</v>
       </c>
       <c r="N157" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H157="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O157" t="s">
@@ -10736,7 +10778,7 @@
         <v>294</v>
       </c>
       <c r="N158" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H158="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O158" t="s">
@@ -10747,6 +10789,9 @@
       </c>
       <c r="Q158" s="1">
         <v>43847</v>
+      </c>
+      <c r="R158" s="1">
+        <v>43880</v>
       </c>
       <c r="S158" t="s">
         <v>174</v>
@@ -10779,7 +10824,7 @@
         <v>268</v>
       </c>
       <c r="N159" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H159="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O159" t="s">
@@ -10787,6 +10832,9 @@
       </c>
       <c r="P159" t="s">
         <v>286</v>
+      </c>
+      <c r="R159" s="1">
+        <v>43880</v>
       </c>
       <c r="S159" t="s">
         <v>175</v>
@@ -10821,7 +10869,7 @@
         <v>268</v>
       </c>
       <c r="N160" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H160="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O160" t="s">
@@ -10866,7 +10914,7 @@
         <v>268</v>
       </c>
       <c r="N161" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H161="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O161" t="s">
@@ -10909,7 +10957,7 @@
         <v>294</v>
       </c>
       <c r="N162" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H162="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O162" t="s">
@@ -10957,7 +11005,7 @@
         <v>294</v>
       </c>
       <c r="N163" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H163="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O163" t="s">
@@ -11017,7 +11065,7 @@
         <v>294</v>
       </c>
       <c r="N164" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H164="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O164" t="s">
@@ -11028,6 +11076,9 @@
       </c>
       <c r="Q164" s="1">
         <v>43840</v>
+      </c>
+      <c r="R164" s="1">
+        <v>43880</v>
       </c>
       <c r="S164" t="s">
         <v>180</v>
@@ -11062,7 +11113,7 @@
         <v>268</v>
       </c>
       <c r="N165" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H165="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O165" t="s">
@@ -11116,7 +11167,7 @@
         <v>299</v>
       </c>
       <c r="N166" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H166="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O166" t="s">
@@ -11167,7 +11218,7 @@
         <v>299</v>
       </c>
       <c r="N167" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H167="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O167" t="s">
@@ -11215,7 +11266,7 @@
         <v>299</v>
       </c>
       <c r="N168" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H168="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O168" t="s">
@@ -11226,6 +11277,9 @@
       </c>
       <c r="Q168" s="1">
         <v>43854</v>
+      </c>
+      <c r="R168" s="1">
+        <v>43881</v>
       </c>
       <c r="S168" t="s">
         <v>185</v>
@@ -11269,7 +11323,7 @@
         <v>268</v>
       </c>
       <c r="N169" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H169="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O169" t="s">
@@ -11321,7 +11375,7 @@
         <v>294</v>
       </c>
       <c r="N170" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H170="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O170" t="s">
@@ -11366,7 +11420,7 @@
         <v>294</v>
       </c>
       <c r="N171" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H171="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O171" t="s">
@@ -11415,7 +11469,7 @@
         <v>279</v>
       </c>
       <c r="N172" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H172="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O172" t="s">
@@ -11457,7 +11511,7 @@
         <v>268</v>
       </c>
       <c r="N173" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H173="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O173" t="s">
@@ -11514,7 +11568,7 @@
         <v>299</v>
       </c>
       <c r="N174" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H174="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O174" t="s">
@@ -11571,7 +11625,7 @@
         <v>307</v>
       </c>
       <c r="N175" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H175="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O175" t="s">
@@ -11582,6 +11636,9 @@
       </c>
       <c r="Q175" s="1">
         <v>43847</v>
+      </c>
+      <c r="R175" s="1">
+        <v>43880</v>
       </c>
       <c r="S175" t="s">
         <v>192</v>
@@ -11619,7 +11676,7 @@
         <v>279</v>
       </c>
       <c r="N176" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H176="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O176" t="s">
@@ -11667,7 +11724,7 @@
         <v>268</v>
       </c>
       <c r="N177" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H177="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O177" t="s">
@@ -11712,7 +11769,7 @@
         <v>280</v>
       </c>
       <c r="N178" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H178="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O178" t="s">
@@ -11723,6 +11780,9 @@
       </c>
       <c r="Q178" s="1">
         <v>43850</v>
+      </c>
+      <c r="R178" s="1">
+        <v>43881</v>
       </c>
       <c r="S178" t="s">
         <v>195</v>
@@ -11769,7 +11829,7 @@
         <v>280</v>
       </c>
       <c r="N179" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H179="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O179" t="s">
@@ -11817,7 +11877,7 @@
         <v>297</v>
       </c>
       <c r="N180" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H180="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O180" t="s">
@@ -11868,7 +11928,7 @@
         <v>297</v>
       </c>
       <c r="N181" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H181="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O181" t="s">
@@ -11879,6 +11939,9 @@
       </c>
       <c r="Q181" s="1">
         <v>43847</v>
+      </c>
+      <c r="R181" s="1">
+        <v>43881</v>
       </c>
       <c r="S181" t="s">
         <v>198</v>
@@ -11914,7 +11977,7 @@
         <v>294</v>
       </c>
       <c r="N182" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H182="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O182" t="s">
@@ -11962,7 +12025,7 @@
         <v>294</v>
       </c>
       <c r="N183" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H183="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O183" t="s">
@@ -12011,7 +12074,7 @@
         <v>280</v>
       </c>
       <c r="N184" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H184="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O184" t="s">
@@ -12068,7 +12131,7 @@
         <v>297</v>
       </c>
       <c r="N185" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H185="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O185" t="s">
@@ -12079,6 +12142,9 @@
       </c>
       <c r="Q185" s="1">
         <v>43850</v>
+      </c>
+      <c r="R185" s="1">
+        <v>43881</v>
       </c>
       <c r="S185" t="s">
         <v>202</v>
@@ -12116,7 +12182,7 @@
         <v>280</v>
       </c>
       <c r="N186" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H186="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O186" t="s">
@@ -12164,7 +12230,7 @@
         <v>294</v>
       </c>
       <c r="N187" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H187="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O187" t="s">
@@ -12212,7 +12278,7 @@
         <v>279</v>
       </c>
       <c r="N188" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H188="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O188" t="s">
@@ -12267,7 +12333,7 @@
         <v>279</v>
       </c>
       <c r="N189" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H189="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O189" t="s">
@@ -12309,7 +12375,7 @@
         <v>268</v>
       </c>
       <c r="N190" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H190="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O190" t="s">
@@ -12351,7 +12417,7 @@
         <v>268</v>
       </c>
       <c r="N191" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H191="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O191" t="s">
@@ -12402,7 +12468,7 @@
         <v>268</v>
       </c>
       <c r="N192" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H192="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O192" t="s">
@@ -12447,7 +12513,7 @@
         <v>268</v>
       </c>
       <c r="N193" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H193="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O193" t="s">
@@ -12495,7 +12561,7 @@
         <v>297</v>
       </c>
       <c r="N194" t="str">
-        <f t="shared" ref="N194:N257" si="3">IF(H194="","否","是")</f>
+        <f>IF(H194="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O194" t="s">
@@ -12543,7 +12609,7 @@
         <v>308</v>
       </c>
       <c r="N195" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H195="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O195" t="s">
@@ -12597,7 +12663,7 @@
         <v>297</v>
       </c>
       <c r="N196" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H196="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O196" t="s">
@@ -12640,7 +12706,7 @@
         <v>271</v>
       </c>
       <c r="N197" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H197="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O197" t="s">
@@ -12694,7 +12760,7 @@
         <v>268</v>
       </c>
       <c r="N198" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H198="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O198" t="s">
@@ -12739,7 +12805,7 @@
         <v>307</v>
       </c>
       <c r="N199" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H199="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O199" t="s">
@@ -12787,7 +12853,7 @@
         <v>297</v>
       </c>
       <c r="N200" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H200="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O200" t="s">
@@ -12832,7 +12898,7 @@
         <v>268</v>
       </c>
       <c r="N201" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H201="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O201" t="s">
@@ -12877,7 +12943,7 @@
         <v>268</v>
       </c>
       <c r="N202" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H202="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O202" t="s">
@@ -12928,7 +12994,7 @@
         <v>268</v>
       </c>
       <c r="N203" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H203="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O203" t="s">
@@ -12982,7 +13048,7 @@
         <v>297</v>
       </c>
       <c r="N204" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H204="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O204" t="s">
@@ -13039,7 +13105,7 @@
         <v>297</v>
       </c>
       <c r="N205" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H205="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O205" t="s">
@@ -13099,7 +13165,7 @@
         <v>297</v>
       </c>
       <c r="N206" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H206="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O206" t="s">
@@ -13144,7 +13210,7 @@
         <v>268</v>
       </c>
       <c r="N207" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H207="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O207" t="s">
@@ -13192,7 +13258,7 @@
         <v>307</v>
       </c>
       <c r="N208" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H208="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O208" t="s">
@@ -13203,6 +13269,9 @@
       </c>
       <c r="Q208" s="1">
         <v>43850</v>
+      </c>
+      <c r="R208" s="1">
+        <v>43881</v>
       </c>
       <c r="S208" t="s">
         <v>225</v>
@@ -13240,7 +13309,7 @@
         <v>297</v>
       </c>
       <c r="N209" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H209="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O209" t="s">
@@ -13288,7 +13357,7 @@
         <v>310</v>
       </c>
       <c r="N210" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H210="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O210" t="s">
@@ -13333,7 +13402,7 @@
         <v>279</v>
       </c>
       <c r="N211" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H211="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O211" t="s">
@@ -13384,7 +13453,7 @@
         <v>297</v>
       </c>
       <c r="N212" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H212="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O212" t="s">
@@ -13395,6 +13464,9 @@
       </c>
       <c r="Q212" s="1">
         <v>43851</v>
+      </c>
+      <c r="R212" s="1">
+        <v>43879</v>
       </c>
       <c r="S212" t="s">
         <v>229</v>
@@ -13429,7 +13501,7 @@
         <v>268</v>
       </c>
       <c r="N213" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H213="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O213" t="s">
@@ -13474,7 +13546,7 @@
         <v>268</v>
       </c>
       <c r="N214" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H214="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O214" t="s">
@@ -13519,7 +13591,7 @@
         <v>300</v>
       </c>
       <c r="N215" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H215="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O215" t="s">
@@ -13562,7 +13634,7 @@
         <v>280</v>
       </c>
       <c r="N216" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H216="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O216" t="s">
@@ -13617,7 +13689,7 @@
         <v>280</v>
       </c>
       <c r="N217" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H217="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O217" t="s">
@@ -13662,7 +13734,7 @@
         <v>280</v>
       </c>
       <c r="N218" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H218="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O218" t="s">
@@ -13719,7 +13791,7 @@
         <v>268</v>
       </c>
       <c r="N219" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H219="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O219" t="s">
@@ -13770,7 +13842,7 @@
         <v>284</v>
       </c>
       <c r="N220" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H220="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O220" t="s">
@@ -13818,7 +13890,7 @@
         <v>280</v>
       </c>
       <c r="N221" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H221="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O221" t="s">
@@ -13875,7 +13947,7 @@
         <v>280</v>
       </c>
       <c r="N222" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H222="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O222" t="s">
@@ -13929,7 +14001,7 @@
         <v>268</v>
       </c>
       <c r="N223" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H223="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O223" t="s">
@@ -13983,7 +14055,7 @@
         <v>280</v>
       </c>
       <c r="N224" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H224="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O224" t="s">
@@ -14043,7 +14115,7 @@
         <v>298</v>
       </c>
       <c r="N225" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H225="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O225" t="s">
@@ -14100,7 +14172,7 @@
         <v>298</v>
       </c>
       <c r="N226" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H226="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O226" t="s">
@@ -14148,7 +14220,7 @@
         <v>294</v>
       </c>
       <c r="N227" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H227="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O227" t="s">
@@ -14205,7 +14277,7 @@
         <v>280</v>
       </c>
       <c r="N228" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H228="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O228" t="s">
@@ -14216,6 +14288,9 @@
       </c>
       <c r="Q228" s="1">
         <v>43853</v>
+      </c>
+      <c r="R228" s="1">
+        <v>43880</v>
       </c>
       <c r="S228" t="s">
         <v>245</v>
@@ -14262,7 +14337,7 @@
         <v>297</v>
       </c>
       <c r="N229" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H229="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O229" t="s">
@@ -14311,7 +14386,7 @@
         <v>294</v>
       </c>
       <c r="N230" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H230="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O230" t="s">
@@ -14365,7 +14440,7 @@
         <v>307</v>
       </c>
       <c r="N231" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H231="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O231" t="s">
@@ -14425,7 +14500,7 @@
         <v>299</v>
       </c>
       <c r="N232" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H232="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O232" t="s">
@@ -14436,6 +14511,9 @@
       </c>
       <c r="Q232" s="1">
         <v>43848</v>
+      </c>
+      <c r="R232" s="1">
+        <v>43879</v>
       </c>
       <c r="S232" t="s">
         <v>250</v>
@@ -14479,7 +14557,7 @@
         <v>268</v>
       </c>
       <c r="N233" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H233="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O233" t="s">
@@ -14487,6 +14565,9 @@
       </c>
       <c r="P233" t="s">
         <v>286</v>
+      </c>
+      <c r="R233" s="1">
+        <v>43881</v>
       </c>
       <c r="S233" t="s">
         <v>252</v>
@@ -14530,7 +14611,7 @@
         <v>268</v>
       </c>
       <c r="N234" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H234="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O234" t="s">
@@ -14578,7 +14659,7 @@
         <v>280</v>
       </c>
       <c r="N235" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H235="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O235" t="s">
@@ -14589,6 +14670,9 @@
       </c>
       <c r="Q235" s="1">
         <v>43853</v>
+      </c>
+      <c r="R235" s="1">
+        <v>43879</v>
       </c>
       <c r="S235" t="s">
         <v>254</v>
@@ -14623,7 +14707,7 @@
         <v>268</v>
       </c>
       <c r="N236" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H236="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O236" t="s">
@@ -14669,7 +14753,7 @@
         <v>307</v>
       </c>
       <c r="N237" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H237="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O237" t="s">
@@ -14721,7 +14805,7 @@
         <v>279</v>
       </c>
       <c r="N238" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H238="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O238" t="s">
@@ -14775,7 +14859,7 @@
         <v>280</v>
       </c>
       <c r="N239" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H239="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O239" t="s">
@@ -14823,7 +14907,7 @@
         <v>298</v>
       </c>
       <c r="N240" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H240="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O240" t="s">
@@ -14874,7 +14958,7 @@
         <v>298</v>
       </c>
       <c r="N241" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H241="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O241" t="s">
@@ -14925,7 +15009,7 @@
         <v>297</v>
       </c>
       <c r="N242" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H242="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O242" t="s">
@@ -14982,7 +15066,7 @@
         <v>299</v>
       </c>
       <c r="N243" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H243="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O243" t="s">
@@ -15030,7 +15114,7 @@
         <v>309</v>
       </c>
       <c r="N244" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H244="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O244" t="s">
@@ -15084,7 +15168,7 @@
         <v>299</v>
       </c>
       <c r="N245" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H245="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O245" t="s">
@@ -15132,7 +15216,7 @@
         <v>279</v>
       </c>
       <c r="N246" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H246="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O246" t="s">
@@ -15180,7 +15264,7 @@
         <v>294</v>
       </c>
       <c r="N247" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H247="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O247" t="s">
@@ -15191,6 +15275,9 @@
       </c>
       <c r="Q247" s="1">
         <v>43843</v>
+      </c>
+      <c r="R247" s="1">
+        <v>43879</v>
       </c>
       <c r="S247" t="s">
         <v>332</v>
@@ -15234,7 +15321,7 @@
         <v>268</v>
       </c>
       <c r="N248" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H248="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O248" t="s">
@@ -15242,6 +15329,9 @@
       </c>
       <c r="P248" t="s">
         <v>286</v>
+      </c>
+      <c r="R248" s="1">
+        <v>43881</v>
       </c>
       <c r="S248" t="s">
         <v>338</v>
@@ -15285,7 +15375,7 @@
         <v>268</v>
       </c>
       <c r="N249" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H249="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O249" t="s">
@@ -15342,7 +15432,7 @@
         <v>280</v>
       </c>
       <c r="N250" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H250="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O250" t="s">
@@ -15390,7 +15480,7 @@
         <v>294</v>
       </c>
       <c r="N251" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H251="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O251" t="s">
@@ -15401,6 +15491,9 @@
       </c>
       <c r="Q251" s="1">
         <v>43853</v>
+      </c>
+      <c r="R251" s="1">
+        <v>43881</v>
       </c>
       <c r="S251" t="s">
         <v>341</v>
@@ -15438,7 +15531,7 @@
         <v>299</v>
       </c>
       <c r="N252" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H252="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O252" t="s">
@@ -15486,7 +15579,7 @@
         <v>299</v>
       </c>
       <c r="N253" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H253="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O253" t="s">
@@ -15541,7 +15634,7 @@
         <v>297</v>
       </c>
       <c r="N254" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H254="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O254" t="s">
@@ -15589,7 +15682,7 @@
         <v>297</v>
       </c>
       <c r="N255" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H255="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O255" t="s">
@@ -15647,7 +15740,7 @@
         <v>280</v>
       </c>
       <c r="N256" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H256="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O256" t="s">
@@ -15704,7 +15797,7 @@
         <v>299</v>
       </c>
       <c r="N257" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(H257="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O257" t="s">
@@ -15761,7 +15854,7 @@
         <v>301</v>
       </c>
       <c r="N258" t="str">
-        <f t="shared" ref="N258:N321" si="4">IF(H258="","否","是")</f>
+        <f>IF(H258="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O258" t="s">
@@ -15769,6 +15862,9 @@
       </c>
       <c r="P258" t="s">
         <v>286</v>
+      </c>
+      <c r="R258" s="1">
+        <v>43881</v>
       </c>
       <c r="S258" t="s">
         <v>348</v>
@@ -15803,7 +15899,7 @@
         <v>268</v>
       </c>
       <c r="N259" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H259="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O259" t="s">
@@ -15851,7 +15947,7 @@
         <v>280</v>
       </c>
       <c r="N260" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H260="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O260" t="s">
@@ -15900,7 +15996,7 @@
         <v>280</v>
       </c>
       <c r="N261" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H261="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O261" t="s">
@@ -15955,7 +16051,7 @@
         <v>280</v>
       </c>
       <c r="N262" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H262="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O262" t="s">
@@ -16000,7 +16096,7 @@
         <v>280</v>
       </c>
       <c r="N263" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H263="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O263" t="s">
@@ -16043,7 +16139,7 @@
         <v>336</v>
       </c>
       <c r="N264" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H264="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O264" t="s">
@@ -16098,7 +16194,7 @@
         <v>280</v>
       </c>
       <c r="N265" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H265="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O265" t="s">
@@ -16143,7 +16239,7 @@
         <v>335</v>
       </c>
       <c r="N266" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H266="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O266" t="s">
@@ -16191,7 +16287,7 @@
         <v>297</v>
       </c>
       <c r="N267" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H267="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O267" t="s">
@@ -16249,7 +16345,7 @@
         <v>280</v>
       </c>
       <c r="N268" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H268="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O268" t="s">
@@ -16292,7 +16388,7 @@
         <v>298</v>
       </c>
       <c r="N269" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H269="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O269" t="s">
@@ -16334,7 +16430,7 @@
         <v>268</v>
       </c>
       <c r="N270" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H270="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O270" t="s">
@@ -16380,7 +16476,7 @@
         <v>279</v>
       </c>
       <c r="N271" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H271="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O271" t="s">
@@ -16425,7 +16521,7 @@
         <v>298</v>
       </c>
       <c r="N272" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H272="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O272" t="s">
@@ -16473,7 +16569,7 @@
         <v>297</v>
       </c>
       <c r="N273" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H273="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O273" t="s">
@@ -16524,7 +16620,7 @@
         <v>294</v>
       </c>
       <c r="N274" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H274="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O274" t="s">
@@ -16535,6 +16631,9 @@
       </c>
       <c r="Q274" s="1">
         <v>43848</v>
+      </c>
+      <c r="R274" s="1">
+        <v>43881</v>
       </c>
       <c r="S274" t="s">
         <v>365</v>
@@ -16578,7 +16677,7 @@
         <v>300</v>
       </c>
       <c r="N275" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H275="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O275" t="s">
@@ -16630,7 +16729,7 @@
         <v>294</v>
       </c>
       <c r="N276" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H276="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O276" t="s">
@@ -16675,7 +16774,7 @@
         <v>280</v>
       </c>
       <c r="N277" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H277="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O277" t="s">
@@ -16686,6 +16785,9 @@
       </c>
       <c r="Q277" s="1">
         <v>43847</v>
+      </c>
+      <c r="R277" s="1">
+        <v>43880</v>
       </c>
       <c r="S277" t="s">
         <v>368</v>
@@ -16723,7 +16825,7 @@
         <v>294</v>
       </c>
       <c r="N278" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H278="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O278" t="s">
@@ -16768,7 +16870,7 @@
         <v>268</v>
       </c>
       <c r="N279" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H279="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O279" t="s">
@@ -16813,7 +16915,7 @@
         <v>268</v>
       </c>
       <c r="N280" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H280="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O280" t="s">
@@ -16861,7 +16963,7 @@
         <v>279</v>
       </c>
       <c r="N281" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H281="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O281" t="s">
@@ -16921,7 +17023,7 @@
         <v>279</v>
       </c>
       <c r="N282" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H282="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O282" t="s">
@@ -16978,7 +17080,7 @@
         <v>279</v>
       </c>
       <c r="N283" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H283="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O283" t="s">
@@ -17033,7 +17135,7 @@
         <v>279</v>
       </c>
       <c r="N284" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H284="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O284" t="s">
@@ -17084,7 +17186,7 @@
         <v>268</v>
       </c>
       <c r="N285" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H285="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O285" t="s">
@@ -17138,7 +17240,7 @@
         <v>294</v>
       </c>
       <c r="N286" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H286="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O286" t="s">
@@ -17150,6 +17252,9 @@
       <c r="Q286" s="1">
         <v>43847</v>
       </c>
+      <c r="R286" s="1">
+        <v>43881</v>
+      </c>
       <c r="S286" t="s">
         <v>377</v>
       </c>
@@ -17186,7 +17291,7 @@
         <v>307</v>
       </c>
       <c r="N287" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H287="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O287" t="s">
@@ -17234,7 +17339,7 @@
         <v>297</v>
       </c>
       <c r="N288" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H288="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O288" t="s">
@@ -17280,7 +17385,7 @@
         <v>279</v>
       </c>
       <c r="N289" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H289="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O289" t="s">
@@ -17325,7 +17430,7 @@
         <v>294</v>
       </c>
       <c r="N290" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H290="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O290" t="s">
@@ -17370,7 +17475,7 @@
         <v>268</v>
       </c>
       <c r="N291" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H291="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O291" t="s">
@@ -17378,6 +17483,9 @@
       </c>
       <c r="P291" t="s">
         <v>286</v>
+      </c>
+      <c r="R291" s="1">
+        <v>43880</v>
       </c>
       <c r="S291" t="s">
         <v>382</v>
@@ -17413,7 +17521,7 @@
         <v>279</v>
       </c>
       <c r="N292" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H292="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O292" t="s">
@@ -17455,7 +17563,7 @@
         <v>411</v>
       </c>
       <c r="N293" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H293="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O293" t="s">
@@ -17497,7 +17605,7 @@
         <v>268</v>
       </c>
       <c r="N294" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H294="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O294" t="s">
@@ -17542,7 +17650,7 @@
         <v>294</v>
       </c>
       <c r="N295" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H295="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O295" t="s">
@@ -17590,7 +17698,7 @@
         <v>294</v>
       </c>
       <c r="N296" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H296="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O296" t="s">
@@ -17638,7 +17746,7 @@
         <v>297</v>
       </c>
       <c r="N297" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H297="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O297" t="s">
@@ -17686,7 +17794,7 @@
         <v>294</v>
       </c>
       <c r="N298" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H298="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O298" t="s">
@@ -17731,7 +17839,7 @@
         <v>268</v>
       </c>
       <c r="N299" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H299="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O299" t="s">
@@ -17779,7 +17887,7 @@
         <v>297</v>
       </c>
       <c r="N300" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H300="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O300" t="s">
@@ -17839,7 +17947,7 @@
         <v>297</v>
       </c>
       <c r="N301" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H301="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O301" t="s">
@@ -17850,6 +17958,9 @@
       </c>
       <c r="Q301" s="1">
         <v>43857</v>
+      </c>
+      <c r="R301" s="1">
+        <v>43880</v>
       </c>
       <c r="S301" t="s">
         <v>392</v>
@@ -17887,7 +17998,7 @@
         <v>279</v>
       </c>
       <c r="N302" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H302="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O302" t="s">
@@ -17935,7 +18046,7 @@
         <v>279</v>
       </c>
       <c r="N303" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H303="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O303" t="s">
@@ -17983,7 +18094,7 @@
         <v>410</v>
       </c>
       <c r="N304" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H304="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O304" t="s">
@@ -18026,7 +18137,7 @@
         <v>297</v>
       </c>
       <c r="N305" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H305="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O305" t="s">
@@ -18071,7 +18182,7 @@
         <v>298</v>
       </c>
       <c r="N306" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H306="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O306" t="s">
@@ -18119,7 +18230,7 @@
         <v>268</v>
       </c>
       <c r="N307" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H307="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O307" t="s">
@@ -18127,6 +18238,9 @@
       </c>
       <c r="P307" t="s">
         <v>286</v>
+      </c>
+      <c r="R307" s="1">
+        <v>43880</v>
       </c>
       <c r="S307" t="s">
         <v>398</v>
@@ -18164,7 +18278,7 @@
         <v>298</v>
       </c>
       <c r="N308" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H308="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O308" t="s">
@@ -18212,7 +18326,7 @@
         <v>280</v>
       </c>
       <c r="N309" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H309="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O309" t="s">
@@ -18260,7 +18374,7 @@
         <v>280</v>
       </c>
       <c r="N310" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H310="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O310" t="s">
@@ -18317,7 +18431,7 @@
         <v>280</v>
       </c>
       <c r="N311" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H311="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O311" t="s">
@@ -18374,7 +18488,7 @@
         <v>279</v>
       </c>
       <c r="N312" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H312="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O312" t="s">
@@ -18431,7 +18545,7 @@
         <v>279</v>
       </c>
       <c r="N313" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H313="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O313" t="s">
@@ -18486,7 +18600,7 @@
         <v>298</v>
       </c>
       <c r="N314" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H314="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O314" t="s">
@@ -18540,7 +18654,7 @@
         <v>280</v>
       </c>
       <c r="N315" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H315="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O315" t="s">
@@ -18588,7 +18702,7 @@
         <v>294</v>
       </c>
       <c r="N316" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H316="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O316" t="s">
@@ -18645,7 +18759,7 @@
         <v>294</v>
       </c>
       <c r="N317" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H317="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O317" t="s">
@@ -18702,7 +18816,7 @@
         <v>297</v>
       </c>
       <c r="N318" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H318="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O318" t="s">
@@ -18750,7 +18864,7 @@
         <v>279</v>
       </c>
       <c r="N319" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H319="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O319" t="s">
@@ -18761,6 +18875,9 @@
       </c>
       <c r="Q319" s="1">
         <v>43849</v>
+      </c>
+      <c r="R319" s="1">
+        <v>43879</v>
       </c>
       <c r="S319" t="s">
         <v>557</v>
@@ -18804,7 +18921,7 @@
         <v>579</v>
       </c>
       <c r="N320" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H320="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O320" t="s">
@@ -18856,7 +18973,7 @@
         <v>279</v>
       </c>
       <c r="N321" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H321="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O321" t="s">
@@ -18910,7 +19027,7 @@
         <v>580</v>
       </c>
       <c r="N322" t="str">
-        <f t="shared" ref="N322:N385" si="5">IF(H322="","否","是")</f>
+        <f>IF(H322="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O322" t="s">
@@ -18961,7 +19078,7 @@
         <v>580</v>
       </c>
       <c r="N323" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H323="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O323" t="s">
@@ -18969,6 +19086,9 @@
       </c>
       <c r="P323" t="s">
         <v>286</v>
+      </c>
+      <c r="R323" s="1">
+        <v>43880</v>
       </c>
       <c r="S323" t="s">
         <v>561</v>
@@ -19013,7 +19133,7 @@
         <v>279</v>
       </c>
       <c r="N324" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H324="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O324" t="s">
@@ -19067,7 +19187,7 @@
         <v>294</v>
       </c>
       <c r="N325" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H325="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O325" t="s">
@@ -19078,6 +19198,9 @@
       </c>
       <c r="Q325" s="1">
         <v>43853</v>
+      </c>
+      <c r="R325" s="1">
+        <v>43881</v>
       </c>
       <c r="S325" t="s">
         <v>563</v>
@@ -19124,7 +19247,7 @@
         <v>294</v>
       </c>
       <c r="N326" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H326="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O326" t="s">
@@ -19181,7 +19304,7 @@
         <v>280</v>
       </c>
       <c r="N327" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H327="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O327" t="s">
@@ -19236,7 +19359,7 @@
         <v>279</v>
       </c>
       <c r="N328" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H328="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O328" t="s">
@@ -19287,7 +19410,7 @@
         <v>280</v>
       </c>
       <c r="N329" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H329="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O329" t="s">
@@ -19335,7 +19458,7 @@
         <v>279</v>
       </c>
       <c r="N330" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H330="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O330" t="s">
@@ -19380,7 +19503,7 @@
         <v>268</v>
       </c>
       <c r="N331" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H331="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O331" t="s">
@@ -19423,7 +19546,7 @@
         <v>297</v>
       </c>
       <c r="N332" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H332="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O332" t="s">
@@ -19465,7 +19588,7 @@
         <v>268</v>
       </c>
       <c r="N333" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H333="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O333" t="s">
@@ -19513,7 +19636,7 @@
         <v>297</v>
       </c>
       <c r="N334" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H334="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O334" t="s">
@@ -19570,7 +19693,7 @@
         <v>297</v>
       </c>
       <c r="N335" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H335="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O335" t="s">
@@ -19616,7 +19739,7 @@
         <v>279</v>
       </c>
       <c r="N336" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H336="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O336" t="s">
@@ -19664,7 +19787,7 @@
         <v>297</v>
       </c>
       <c r="N337" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H337="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O337" t="s">
@@ -19712,7 +19835,7 @@
         <v>298</v>
       </c>
       <c r="N338" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H338="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O338" t="s">
@@ -19769,7 +19892,7 @@
         <v>298</v>
       </c>
       <c r="N339" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H339="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O339" t="s">
@@ -19826,7 +19949,7 @@
         <v>298</v>
       </c>
       <c r="N340" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H340="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O340" t="s">
@@ -19881,7 +20004,7 @@
         <v>297</v>
       </c>
       <c r="N341" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H341="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O341" t="s">
@@ -19889,6 +20012,9 @@
       </c>
       <c r="P341" t="s">
         <v>286</v>
+      </c>
+      <c r="R341" s="1">
+        <v>43880</v>
       </c>
       <c r="S341" t="s">
         <v>581</v>
@@ -19935,7 +20061,7 @@
         <v>279</v>
       </c>
       <c r="N342" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H342="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O342" t="s">
@@ -19981,7 +20107,7 @@
         <v>279</v>
       </c>
       <c r="N343" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H343="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O343" t="s">
@@ -20036,7 +20162,7 @@
         <v>279</v>
       </c>
       <c r="N344" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H344="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O344" t="s">
@@ -20091,7 +20217,7 @@
         <v>297</v>
       </c>
       <c r="N345" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H345="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O345" t="s">
@@ -20102,6 +20228,9 @@
       </c>
       <c r="Q345" s="1">
         <v>43850</v>
+      </c>
+      <c r="R345" s="1">
+        <v>43880</v>
       </c>
       <c r="S345" t="s">
         <v>585</v>
@@ -20145,7 +20274,7 @@
         <v>268</v>
       </c>
       <c r="N346" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H346="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O346" t="s">
@@ -20188,7 +20317,7 @@
         <v>279</v>
       </c>
       <c r="N347" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H347="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O347" t="s">
@@ -20236,7 +20365,7 @@
         <v>294</v>
       </c>
       <c r="N348" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H348="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O348" t="s">
@@ -20247,6 +20376,9 @@
       </c>
       <c r="Q348" s="1">
         <v>43849</v>
+      </c>
+      <c r="R348" s="1">
+        <v>43879</v>
       </c>
       <c r="S348" t="s">
         <v>588</v>
@@ -20281,7 +20413,7 @@
         <v>411</v>
       </c>
       <c r="N349" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H349="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O349" t="s">
@@ -20326,7 +20458,7 @@
         <v>298</v>
       </c>
       <c r="N350" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H350="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O350" t="s">
@@ -20371,7 +20503,7 @@
         <v>598</v>
       </c>
       <c r="N351" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H351="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O351" t="s">
@@ -20416,7 +20548,7 @@
         <v>294</v>
       </c>
       <c r="N352" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H352="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O352" t="s">
@@ -20464,7 +20596,7 @@
         <v>297</v>
       </c>
       <c r="N353" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H353="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O353" t="s">
@@ -20474,6 +20606,9 @@
         <v>286</v>
       </c>
       <c r="Q353" s="1"/>
+      <c r="R353" s="1">
+        <v>43879</v>
+      </c>
       <c r="S353" t="s">
         <v>593</v>
       </c>
@@ -20519,7 +20654,7 @@
         <v>279</v>
       </c>
       <c r="N354" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H354="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O354" t="s">
@@ -20530,6 +20665,9 @@
       </c>
       <c r="Q354" s="1">
         <v>43841</v>
+      </c>
+      <c r="R354" s="1">
+        <v>43880</v>
       </c>
       <c r="S354" t="s">
         <v>594</v>
@@ -20574,7 +20712,7 @@
         <v>279</v>
       </c>
       <c r="N355" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H355="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O355" t="s">
@@ -20619,7 +20757,7 @@
         <v>279</v>
       </c>
       <c r="N356" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H356="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O356" t="s">
@@ -20666,7 +20804,7 @@
         <v>268</v>
       </c>
       <c r="N357" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H357="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O357" t="s">
@@ -20722,7 +20860,7 @@
         <v>294</v>
       </c>
       <c r="N358" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H358="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O358" t="s">
@@ -20769,7 +20907,7 @@
         <v>300</v>
       </c>
       <c r="N359" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H359="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O359" t="s">
@@ -20814,7 +20952,7 @@
         <v>298</v>
       </c>
       <c r="N360" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H360="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O360" t="s">
@@ -20870,7 +21008,7 @@
         <v>298</v>
       </c>
       <c r="N361" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H361="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O361" t="s">
@@ -20882,7 +21020,9 @@
       <c r="Q361" s="1">
         <v>43849</v>
       </c>
-      <c r="R361"/>
+      <c r="R361" s="1">
+        <v>43881</v>
+      </c>
       <c r="S361" t="s">
         <v>613</v>
       </c>
@@ -20920,7 +21060,7 @@
         <v>280</v>
       </c>
       <c r="N362" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H362="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O362" t="s">
@@ -20977,7 +21117,7 @@
         <v>279</v>
       </c>
       <c r="N363" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H363="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O363" t="s">
@@ -21027,7 +21167,7 @@
         <v>280</v>
       </c>
       <c r="N364" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H364="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O364" t="s">
@@ -21078,7 +21218,7 @@
         <v>280</v>
       </c>
       <c r="N365" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H365="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O365" t="s">
@@ -21135,7 +21275,7 @@
         <v>279</v>
       </c>
       <c r="N366" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H366="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O366" t="s">
@@ -21146,6 +21286,9 @@
       </c>
       <c r="Q366" s="1">
         <v>43851</v>
+      </c>
+      <c r="R366" s="1">
+        <v>43880</v>
       </c>
       <c r="S366" t="s">
         <v>617</v>
@@ -21183,7 +21326,7 @@
         <v>294</v>
       </c>
       <c r="N367" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H367="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O367" t="s">
@@ -21237,7 +21380,7 @@
         <v>300</v>
       </c>
       <c r="N368" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H368="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O368" t="s">
@@ -21289,7 +21432,7 @@
         <v>279</v>
       </c>
       <c r="N369" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H369="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O369" t="s">
@@ -21331,7 +21474,7 @@
         <v>604</v>
       </c>
       <c r="N370" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H370="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O370" t="s">
@@ -21385,7 +21528,7 @@
         <v>294</v>
       </c>
       <c r="N371" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H371="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O371" t="s">
@@ -21443,7 +21586,7 @@
         <v>280</v>
       </c>
       <c r="N372" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H372="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O372" t="s">
@@ -21455,7 +21598,9 @@
       <c r="Q372" s="1">
         <v>43848</v>
       </c>
-      <c r="R372"/>
+      <c r="R372" s="1">
+        <v>43881</v>
+      </c>
       <c r="S372" t="s">
         <v>620</v>
       </c>
@@ -21490,7 +21635,7 @@
         <v>297</v>
       </c>
       <c r="N373" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H373="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O373" t="s">
@@ -21546,7 +21691,7 @@
         <v>297</v>
       </c>
       <c r="N374" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H374="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O374" t="s">
@@ -21595,7 +21740,7 @@
         <v>280</v>
       </c>
       <c r="N375" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H375="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O375" t="s">
@@ -21653,7 +21798,7 @@
         <v>280</v>
       </c>
       <c r="N376" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H376="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O376" t="s">
@@ -21702,7 +21847,7 @@
         <v>431</v>
       </c>
       <c r="N377" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H377="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O377" t="s">
@@ -21759,7 +21904,7 @@
         <v>431</v>
       </c>
       <c r="N378" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H378="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O378" t="s">
@@ -21807,7 +21952,7 @@
         <v>279</v>
       </c>
       <c r="N379" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H379="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O379" t="s">
@@ -21855,7 +22000,7 @@
         <v>297</v>
       </c>
       <c r="N380" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H380="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O380" t="s">
@@ -21912,7 +22057,7 @@
         <v>294</v>
       </c>
       <c r="N381" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H381="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O381" t="s">
@@ -21958,7 +22103,7 @@
         <v>335</v>
       </c>
       <c r="N382" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H382="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O382" t="s">
@@ -22003,7 +22148,7 @@
         <v>277</v>
       </c>
       <c r="N383" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H383="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O383" t="s">
@@ -22048,7 +22193,7 @@
         <v>294</v>
       </c>
       <c r="N384" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H384="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O384" t="s">
@@ -22102,7 +22247,7 @@
         <v>644</v>
       </c>
       <c r="N385" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H385="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O385" t="s">
@@ -22147,7 +22292,7 @@
         <v>280</v>
       </c>
       <c r="N386" t="str">
-        <f t="shared" ref="N386:N401" si="6">IF(H386="","否","是")</f>
+        <f>IF(H386="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O386" t="s">
@@ -22195,7 +22340,7 @@
         <v>294</v>
       </c>
       <c r="N387" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(H387="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O387" t="s">
@@ -22249,7 +22394,7 @@
         <v>268</v>
       </c>
       <c r="N388" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(H388="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O388" t="s">
@@ -22291,7 +22436,7 @@
         <v>268</v>
       </c>
       <c r="N389" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(H389="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O389" t="s">
@@ -22336,7 +22481,7 @@
         <v>297</v>
       </c>
       <c r="N390" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(H390="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O390" t="s">
@@ -22384,7 +22529,7 @@
         <v>299</v>
       </c>
       <c r="N391" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(H391="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O391" t="s">
@@ -22432,7 +22577,7 @@
         <v>299</v>
       </c>
       <c r="N392" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(H392="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O392" t="s">
@@ -22487,7 +22632,7 @@
         <v>298</v>
       </c>
       <c r="N393" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(H393="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O393" t="s">
@@ -22538,7 +22683,7 @@
         <v>827</v>
       </c>
       <c r="N394" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(H394="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O394" t="s">
@@ -22590,7 +22735,7 @@
         <v>279</v>
       </c>
       <c r="N395" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(H395="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O395" t="s">
@@ -22642,7 +22787,7 @@
         <v>298</v>
       </c>
       <c r="N396" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(H396="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O396" t="s">
@@ -22687,7 +22832,7 @@
         <v>294</v>
       </c>
       <c r="N397" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(H397="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O397" t="s">
@@ -22733,7 +22878,7 @@
         <v>280</v>
       </c>
       <c r="N398" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(H398="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O398" t="s">
@@ -22788,7 +22933,7 @@
         <v>280</v>
       </c>
       <c r="N399" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(H399="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O399" t="s">
@@ -22840,7 +22985,7 @@
         <v>297</v>
       </c>
       <c r="N400" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(H400="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O400" t="s">
@@ -22885,7 +23030,7 @@
         <v>826</v>
       </c>
       <c r="N401" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(H401="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O401" t="s">
@@ -22942,7 +23087,7 @@
         <v>294</v>
       </c>
       <c r="N402" t="str">
-        <f t="shared" ref="N402:N416" si="7">IF(H402="","否","是")</f>
+        <f>IF(H402="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O402" t="s">
@@ -22999,7 +23144,7 @@
         <v>280</v>
       </c>
       <c r="N403" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H403="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O403" t="s">
@@ -23044,7 +23189,7 @@
         <v>280</v>
       </c>
       <c r="N404" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H404="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O404" t="s">
@@ -23092,7 +23237,7 @@
         <v>279</v>
       </c>
       <c r="N405" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H405="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O405" t="s">
@@ -23140,7 +23285,7 @@
         <v>297</v>
       </c>
       <c r="N406" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H406="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O406" t="s">
@@ -23197,7 +23342,7 @@
         <v>307</v>
       </c>
       <c r="N407" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H407="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O407" t="s">
@@ -23252,7 +23397,7 @@
         <v>294</v>
       </c>
       <c r="N408" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H408="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O408" t="s">
@@ -23305,7 +23450,7 @@
         <v>279</v>
       </c>
       <c r="N409" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H409="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O409" t="s">
@@ -23357,7 +23502,7 @@
         <v>297</v>
       </c>
       <c r="N410" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H410="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O410" t="s">
@@ -23409,7 +23554,7 @@
         <v>827</v>
       </c>
       <c r="N411" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H411="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O411" t="s">
@@ -23455,7 +23600,7 @@
         <v>279</v>
       </c>
       <c r="N412" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H412="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O412" t="s">
@@ -23498,7 +23643,7 @@
         <v>268</v>
       </c>
       <c r="N413" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H413="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O413" t="s">
@@ -23544,7 +23689,7 @@
         <v>297</v>
       </c>
       <c r="N414" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H414="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O414" t="s">
@@ -23590,7 +23735,7 @@
         <v>294</v>
       </c>
       <c r="N415" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H415="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O415" t="s">
@@ -23647,7 +23792,7 @@
         <v>280</v>
       </c>
       <c r="N416" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H416="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O416" t="s">
@@ -23660,7 +23805,57 @@
         <v>866</v>
       </c>
     </row>
+    <row r="417" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>416</v>
+      </c>
+      <c r="B417" t="s">
+        <v>281</v>
+      </c>
+      <c r="C417">
+        <v>44</v>
+      </c>
+      <c r="H417" s="1">
+        <v>43875</v>
+      </c>
+      <c r="I417" s="1">
+        <v>43873</v>
+      </c>
+      <c r="J417" s="1">
+        <v>43877</v>
+      </c>
+      <c r="K417" t="s">
+        <v>312</v>
+      </c>
+      <c r="L417" t="s">
+        <v>267</v>
+      </c>
+      <c r="M417" t="s">
+        <v>280</v>
+      </c>
+      <c r="N417" t="str">
+        <f>IF(H417="","否","是")</f>
+        <v>是</v>
+      </c>
+      <c r="O417" t="s">
+        <v>810</v>
+      </c>
+      <c r="P417" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q417" s="1">
+        <v>43851</v>
+      </c>
+      <c r="S417" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:S417" xr:uid="{948862E4-113B-4C43-A3E9-223495D66150}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S417">
+      <sortCondition ref="A1:A417"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -23668,7 +23863,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0673D1E6-6595-4429-B6E9-D1E808706CBD}">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24797,11 +24992,11 @@
         <v>24</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M18:M20" si="3">SUM(B18:L18)</f>
+        <f t="shared" ref="M18:M23" si="3">SUM(B18:L18)</f>
         <v>414</v>
       </c>
       <c r="N18">
-        <f t="shared" ref="N18:N20" si="4">M18-M17</f>
+        <f t="shared" ref="N18:N23" si="4">M18-M17</f>
         <v>8</v>
       </c>
       <c r="O18">
@@ -24949,6 +25144,198 @@
       </c>
       <c r="T20">
         <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>43879</v>
+      </c>
+      <c r="B21">
+        <v>87</v>
+      </c>
+      <c r="C21">
+        <v>80</v>
+      </c>
+      <c r="D21">
+        <v>71</v>
+      </c>
+      <c r="E21">
+        <v>62</v>
+      </c>
+      <c r="F21">
+        <v>34</v>
+      </c>
+      <c r="G21">
+        <v>32</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>11</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>24</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>416</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>15</v>
+      </c>
+      <c r="P21">
+        <v>9</v>
+      </c>
+      <c r="Q21">
+        <v>163</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>251</v>
+      </c>
+      <c r="T21">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>43880</v>
+      </c>
+      <c r="B22">
+        <v>87</v>
+      </c>
+      <c r="C22">
+        <v>80</v>
+      </c>
+      <c r="D22">
+        <v>71</v>
+      </c>
+      <c r="E22">
+        <v>62</v>
+      </c>
+      <c r="F22">
+        <v>34</v>
+      </c>
+      <c r="G22">
+        <v>32</v>
+      </c>
+      <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="I22">
+        <v>11</v>
+      </c>
+      <c r="J22">
+        <v>6</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>24</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>416</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>10</v>
+      </c>
+      <c r="P22">
+        <v>10</v>
+      </c>
+      <c r="Q22">
+        <v>182</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>232</v>
+      </c>
+      <c r="T22">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>43881</v>
+      </c>
+      <c r="B23">
+        <v>87</v>
+      </c>
+      <c r="C23">
+        <v>80</v>
+      </c>
+      <c r="D23">
+        <v>71</v>
+      </c>
+      <c r="E23">
+        <v>62</v>
+      </c>
+      <c r="F23">
+        <v>34</v>
+      </c>
+      <c r="G23">
+        <v>32</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>11</v>
+      </c>
+      <c r="J23">
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>24</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>416</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>10</v>
+      </c>
+      <c r="P23">
+        <v>9</v>
+      </c>
+      <c r="Q23">
+        <v>199</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>215</v>
+      </c>
+      <c r="T23">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -24961,9 +25348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9D6FEA-175F-4C98-96B4-DF3F2D772A0A}">
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="A178" sqref="A178"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Shenzhen_WJW/2019nCov_Shenzhen_new_cases.xlsx
+++ b/Shenzhen_WJW/2019nCov_Shenzhen_new_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Shenzhen_WJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2549" documentId="8_{518E5CB1-397D-479F-A002-9F80F41B7951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{200C17DD-7121-4111-935C-266EFFC8F936}"/>
+  <xr:revisionPtr revIDLastSave="2575" documentId="8_{518E5CB1-397D-479F-A002-9F80F41B7951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9C4B1255-7307-4132-9C79-7B93C74FE299}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3848" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3857" uniqueCount="872">
   <si>
     <t>Sex</t>
   </si>
@@ -2788,6 +2788,15 @@
   </si>
   <si>
     <t>44岁男性患者，常住深圳福田。1月19日自驾到湖北鄂州过年，21日前往黄冈探亲。2月12日出现胸口不适，14日自驾从鄂州返回深圳，并直接入住湖北返深人员集中隔离点，16日因新冠病毒核酸筛查阳性入院就诊，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>23岁女性患者，常住深圳福田。1月23日前往四川成都过年，自诉其家人接触过武汉亲属，31日返回深圳。2月12日发病，16日入院，目前病情稳定。</t>
+  </si>
+  <si>
+    <t>水围九街</t>
+  </si>
+  <si>
+    <t>其家人接触过武汉亲属</t>
   </si>
 </sst>
 </file>
@@ -3131,10 +3140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U417"/>
+  <dimension ref="A1:U418"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -3239,7 +3248,7 @@
         <v>279</v>
       </c>
       <c r="N2" t="str">
-        <f>IF(H2="","否","是")</f>
+        <f t="shared" ref="N2:N65" si="0">IF(H2="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O2" t="s">
@@ -3296,7 +3305,7 @@
         <v>279</v>
       </c>
       <c r="N3" t="str">
-        <f>IF(H3="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O3" t="s">
@@ -3350,7 +3359,7 @@
         <v>266</v>
       </c>
       <c r="N4" t="str">
-        <f>IF(H4="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O4" t="s">
@@ -3404,7 +3413,7 @@
         <v>266</v>
       </c>
       <c r="N5" t="str">
-        <f>IF(H5="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O5" t="s">
@@ -3459,7 +3468,7 @@
         <v>267</v>
       </c>
       <c r="N6" t="str">
-        <f>IF(H6="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>否</v>
       </c>
       <c r="O6" t="s">
@@ -3507,7 +3516,7 @@
         <v>267</v>
       </c>
       <c r="N7" t="str">
-        <f>IF(H7="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O7" t="s">
@@ -3552,7 +3561,7 @@
         <v>268</v>
       </c>
       <c r="N8" t="str">
-        <f>IF(H8="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O8" t="s">
@@ -3594,7 +3603,7 @@
         <v>268</v>
       </c>
       <c r="N9" t="str">
-        <f>IF(H9="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O9" t="s">
@@ -3639,7 +3648,7 @@
         <v>268</v>
       </c>
       <c r="N10" t="str">
-        <f>IF(H10="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O10" t="s">
@@ -3684,7 +3693,7 @@
         <v>268</v>
       </c>
       <c r="N11" t="str">
-        <f>IF(H11="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O11" t="s">
@@ -3729,7 +3738,7 @@
         <v>268</v>
       </c>
       <c r="N12" t="str">
-        <f>IF(H12="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O12" t="s">
@@ -3783,7 +3792,7 @@
         <v>268</v>
       </c>
       <c r="N13" t="str">
-        <f>IF(H13="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O13" t="s">
@@ -3828,7 +3837,7 @@
         <v>268</v>
       </c>
       <c r="N14" t="str">
-        <f>IF(H14="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O14" t="s">
@@ -3879,7 +3888,7 @@
         <v>268</v>
       </c>
       <c r="N15" t="str">
-        <f>IF(H15="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O15" t="s">
@@ -3921,7 +3930,7 @@
         <v>275</v>
       </c>
       <c r="N16" t="str">
-        <f>IF(H16="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O16" t="s">
@@ -3975,7 +3984,7 @@
         <v>268</v>
       </c>
       <c r="N17" t="str">
-        <f>IF(H17="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O17" t="s">
@@ -4023,7 +4032,7 @@
         <v>268</v>
       </c>
       <c r="N18" t="str">
-        <f>IF(H18="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O18" t="s">
@@ -4065,7 +4074,7 @@
         <v>268</v>
       </c>
       <c r="N19" t="str">
-        <f>IF(H19="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O19" t="s">
@@ -4110,7 +4119,7 @@
         <v>283</v>
       </c>
       <c r="N20" t="str">
-        <f>IF(H20="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O20" t="s">
@@ -4158,7 +4167,7 @@
         <v>284</v>
       </c>
       <c r="N21" t="str">
-        <f>IF(H21="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O21" t="s">
@@ -4203,7 +4212,7 @@
         <v>269</v>
       </c>
       <c r="N22" t="str">
-        <f>IF(H22="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O22" t="s">
@@ -4251,7 +4260,7 @@
         <v>268</v>
       </c>
       <c r="N23" t="str">
-        <f>IF(H23="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O23" t="s">
@@ -4296,7 +4305,7 @@
         <v>268</v>
       </c>
       <c r="N24" t="str">
-        <f>IF(H24="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O24" t="s">
@@ -4338,7 +4347,7 @@
         <v>268</v>
       </c>
       <c r="N25" t="str">
-        <f>IF(H25="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O25" t="s">
@@ -4380,7 +4389,7 @@
         <v>268</v>
       </c>
       <c r="N26" t="str">
-        <f>IF(H26="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O26" t="s">
@@ -4425,7 +4434,7 @@
         <v>268</v>
       </c>
       <c r="N27" t="str">
-        <f>IF(H27="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O27" t="s">
@@ -4470,7 +4479,7 @@
         <v>268</v>
       </c>
       <c r="N28" t="str">
-        <f>IF(H28="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O28" t="s">
@@ -4515,7 +4524,7 @@
         <v>268</v>
       </c>
       <c r="N29" t="str">
-        <f>IF(H29="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O29" t="s">
@@ -4561,7 +4570,7 @@
         <v>268</v>
       </c>
       <c r="N30" t="str">
-        <f>IF(H30="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O30" t="s">
@@ -4606,7 +4615,7 @@
         <v>268</v>
       </c>
       <c r="N31" t="str">
-        <f>IF(H31="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O31" t="s">
@@ -4651,7 +4660,7 @@
         <v>268</v>
       </c>
       <c r="N32" t="str">
-        <f>IF(H32="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O32" t="s">
@@ -4696,7 +4705,7 @@
         <v>268</v>
       </c>
       <c r="N33" t="str">
-        <f>IF(H33="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O33" t="s">
@@ -4741,7 +4750,7 @@
         <v>268</v>
       </c>
       <c r="N34" t="str">
-        <f>IF(H34="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O34" t="s">
@@ -4783,7 +4792,7 @@
         <v>268</v>
       </c>
       <c r="N35" t="str">
-        <f>IF(H35="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O35" t="s">
@@ -4828,7 +4837,7 @@
         <v>277</v>
       </c>
       <c r="N36" t="str">
-        <f>IF(H36="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O36" t="s">
@@ -4873,7 +4882,7 @@
         <v>268</v>
       </c>
       <c r="N37" t="str">
-        <f>IF(H37="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O37" t="s">
@@ -4921,7 +4930,7 @@
         <v>297</v>
       </c>
       <c r="N38" t="str">
-        <f>IF(H38="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O38" t="s">
@@ -4978,7 +4987,7 @@
         <v>268</v>
       </c>
       <c r="N39" t="str">
-        <f>IF(H39="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O39" t="s">
@@ -5033,7 +5042,7 @@
         <v>294</v>
       </c>
       <c r="N40" t="str">
-        <f>IF(H40="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>否</v>
       </c>
       <c r="O40" t="s">
@@ -5081,7 +5090,7 @@
         <v>268</v>
       </c>
       <c r="N41" t="str">
-        <f>IF(H41="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O41" t="s">
@@ -5123,7 +5132,7 @@
         <v>268</v>
       </c>
       <c r="N42" t="str">
-        <f>IF(H42="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O42" t="s">
@@ -5168,7 +5177,7 @@
         <v>268</v>
       </c>
       <c r="N43" t="str">
-        <f>IF(H43="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O43" t="s">
@@ -5216,7 +5225,7 @@
         <v>279</v>
       </c>
       <c r="N44" t="str">
-        <f>IF(H44="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O44" t="s">
@@ -5264,7 +5273,7 @@
         <v>268</v>
       </c>
       <c r="N45" t="str">
-        <f>IF(H45="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O45" t="s">
@@ -5306,7 +5315,7 @@
         <v>268</v>
       </c>
       <c r="N46" t="str">
-        <f>IF(H46="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O46" t="s">
@@ -5348,7 +5357,7 @@
         <v>268</v>
       </c>
       <c r="N47" t="str">
-        <f>IF(H47="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O47" t="s">
@@ -5402,7 +5411,7 @@
         <v>268</v>
       </c>
       <c r="N48" t="str">
-        <f>IF(H48="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O48" t="s">
@@ -5447,7 +5456,7 @@
         <v>268</v>
       </c>
       <c r="N49" t="str">
-        <f>IF(H49="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O49" t="s">
@@ -5492,7 +5501,7 @@
         <v>279</v>
       </c>
       <c r="N50" t="str">
-        <f>IF(H50="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O50" t="s">
@@ -5537,7 +5546,7 @@
         <v>268</v>
       </c>
       <c r="N51" t="str">
-        <f>IF(H51="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O51" t="s">
@@ -5582,7 +5591,7 @@
         <v>268</v>
       </c>
       <c r="N52" t="str">
-        <f>IF(H52="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O52" t="s">
@@ -5624,7 +5633,7 @@
         <v>302</v>
       </c>
       <c r="N53" t="str">
-        <f>IF(H53="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O53" t="s">
@@ -5672,7 +5681,7 @@
         <v>297</v>
       </c>
       <c r="N54" t="str">
-        <f>IF(H54="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O54" t="s">
@@ -5720,7 +5729,7 @@
         <v>268</v>
       </c>
       <c r="N55" t="str">
-        <f>IF(H55="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O55" t="s">
@@ -5765,7 +5774,7 @@
         <v>268</v>
       </c>
       <c r="N56" t="str">
-        <f>IF(H56="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O56" t="s">
@@ -5807,7 +5816,7 @@
         <v>268</v>
       </c>
       <c r="N57" t="str">
-        <f>IF(H57="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O57" t="s">
@@ -5855,7 +5864,7 @@
         <v>279</v>
       </c>
       <c r="N58" t="str">
-        <f>IF(H58="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O58" t="s">
@@ -5906,7 +5915,7 @@
         <v>297</v>
       </c>
       <c r="N59" t="str">
-        <f>IF(H59="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O59" t="s">
@@ -5954,7 +5963,7 @@
         <v>300</v>
       </c>
       <c r="N60" t="str">
-        <f>IF(H60="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O60" t="s">
@@ -5996,7 +6005,7 @@
         <v>268</v>
       </c>
       <c r="N61" t="str">
-        <f>IF(H61="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O61" t="s">
@@ -6041,7 +6050,7 @@
         <v>268</v>
       </c>
       <c r="N62" t="str">
-        <f>IF(H62="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O62" t="s">
@@ -6086,7 +6095,7 @@
         <v>268</v>
       </c>
       <c r="N63" t="str">
-        <f>IF(H63="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O63" t="s">
@@ -6137,7 +6146,7 @@
         <v>268</v>
       </c>
       <c r="N64" t="str">
-        <f>IF(H64="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O64" t="s">
@@ -6179,7 +6188,7 @@
         <v>268</v>
       </c>
       <c r="N65" t="str">
-        <f>IF(H65="","否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="O65" t="s">
@@ -6227,7 +6236,7 @@
         <v>299</v>
       </c>
       <c r="N66" t="str">
-        <f>IF(H66="","否","是")</f>
+        <f t="shared" ref="N66:N129" si="1">IF(H66="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O66" t="s">
@@ -6284,7 +6293,7 @@
         <v>299</v>
       </c>
       <c r="N67" t="str">
-        <f>IF(H67="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O67" t="s">
@@ -6341,7 +6350,7 @@
         <v>284</v>
       </c>
       <c r="N68" t="str">
-        <f>IF(H68="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O68" t="s">
@@ -6393,7 +6402,7 @@
         <v>294</v>
       </c>
       <c r="N69" t="str">
-        <f>IF(H69="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="O69" t="s">
@@ -6448,7 +6457,7 @@
         <v>294</v>
       </c>
       <c r="N70" t="str">
-        <f>IF(H70="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="O70" t="s">
@@ -6493,7 +6502,7 @@
         <v>268</v>
       </c>
       <c r="N71" t="str">
-        <f>IF(H71="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O71" t="s">
@@ -6541,7 +6550,7 @@
         <v>299</v>
       </c>
       <c r="N72" t="str">
-        <f>IF(H72="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O72" t="s">
@@ -6586,7 +6595,7 @@
         <v>268</v>
       </c>
       <c r="N73" t="str">
-        <f>IF(H73="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O73" t="s">
@@ -6628,7 +6637,7 @@
         <v>268</v>
       </c>
       <c r="N74" t="str">
-        <f>IF(H74="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O74" t="s">
@@ -6685,7 +6694,7 @@
         <v>280</v>
       </c>
       <c r="N75" t="str">
-        <f>IF(H75="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O75" t="s">
@@ -6736,7 +6745,7 @@
         <v>297</v>
       </c>
       <c r="N76" t="str">
-        <f>IF(H76="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O76" t="s">
@@ -6784,7 +6793,7 @@
         <v>268</v>
       </c>
       <c r="N77" t="str">
-        <f>IF(H77="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O77" t="s">
@@ -6832,7 +6841,7 @@
         <v>294</v>
       </c>
       <c r="N78" t="str">
-        <f>IF(H78="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O78" t="s">
@@ -6880,7 +6889,7 @@
         <v>268</v>
       </c>
       <c r="N79" t="str">
-        <f>IF(H79="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O79" t="s">
@@ -6925,7 +6934,7 @@
         <v>280</v>
       </c>
       <c r="N80" t="str">
-        <f>IF(H80="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O80" t="s">
@@ -6982,7 +6991,7 @@
         <v>268</v>
       </c>
       <c r="N81" t="str">
-        <f>IF(H81="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O81" t="s">
@@ -7027,7 +7036,7 @@
         <v>268</v>
       </c>
       <c r="N82" t="str">
-        <f>IF(H82="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O82" t="s">
@@ -7075,7 +7084,7 @@
         <v>279</v>
       </c>
       <c r="N83" t="str">
-        <f>IF(H83="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O83" t="s">
@@ -7123,7 +7132,7 @@
         <v>279</v>
       </c>
       <c r="N84" t="str">
-        <f>IF(H84="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O84" t="s">
@@ -7174,7 +7183,7 @@
         <v>299</v>
       </c>
       <c r="N85" t="str">
-        <f>IF(H85="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O85" t="s">
@@ -7225,7 +7234,7 @@
         <v>279</v>
       </c>
       <c r="N86" t="str">
-        <f>IF(H86="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O86" t="s">
@@ -7270,7 +7279,7 @@
         <v>300</v>
       </c>
       <c r="N87" t="str">
-        <f>IF(H87="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O87" t="s">
@@ -7315,7 +7324,7 @@
         <v>268</v>
       </c>
       <c r="N88" t="str">
-        <f>IF(H88="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O88" t="s">
@@ -7357,7 +7366,7 @@
         <v>296</v>
       </c>
       <c r="N89" t="str">
-        <f>IF(H89="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O89" t="s">
@@ -7402,7 +7411,7 @@
         <v>268</v>
       </c>
       <c r="N90" t="str">
-        <f>IF(H90="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O90" t="s">
@@ -7447,7 +7456,7 @@
         <v>294</v>
       </c>
       <c r="N91" t="str">
-        <f>IF(H91="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O91" t="s">
@@ -7493,7 +7502,7 @@
         <v>280</v>
       </c>
       <c r="N92" t="str">
-        <f>IF(H92="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="O92" t="s">
@@ -7537,7 +7546,7 @@
         <v>280</v>
       </c>
       <c r="N93" t="str">
-        <f>IF(H93="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="O93" t="s">
@@ -7579,7 +7588,7 @@
         <v>268</v>
       </c>
       <c r="N94" t="str">
-        <f>IF(H94="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O94" t="s">
@@ -7624,7 +7633,7 @@
         <v>280</v>
       </c>
       <c r="N95" t="str">
-        <f>IF(H95="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O95" t="s">
@@ -7681,7 +7690,7 @@
         <v>280</v>
       </c>
       <c r="N96" t="str">
-        <f>IF(H96="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O96" t="s">
@@ -7729,7 +7738,7 @@
         <v>268</v>
       </c>
       <c r="N97" t="str">
-        <f>IF(H97="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O97" t="s">
@@ -7771,7 +7780,7 @@
         <v>311</v>
       </c>
       <c r="N98" t="str">
-        <f>IF(H98="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O98" t="s">
@@ -7823,7 +7832,7 @@
         <v>294</v>
       </c>
       <c r="N99" t="str">
-        <f>IF(H99="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="O99" t="s">
@@ -7869,7 +7878,7 @@
         <v>268</v>
       </c>
       <c r="N100" t="str">
-        <f>IF(H100="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O100" t="s">
@@ -7924,7 +7933,7 @@
         <v>279</v>
       </c>
       <c r="N101" t="str">
-        <f>IF(H101="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="O101" t="s">
@@ -7979,7 +7988,7 @@
         <v>279</v>
       </c>
       <c r="N102" t="str">
-        <f>IF(H102="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="O102" t="s">
@@ -8034,7 +8043,7 @@
         <v>279</v>
       </c>
       <c r="N103" t="str">
-        <f>IF(H103="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="O103" t="s">
@@ -8082,7 +8091,7 @@
         <v>280</v>
       </c>
       <c r="N104" t="str">
-        <f>IF(H104="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O104" t="s">
@@ -8133,7 +8142,7 @@
         <v>279</v>
       </c>
       <c r="N105" t="str">
-        <f>IF(H105="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O105" t="s">
@@ -8184,7 +8193,7 @@
         <v>298</v>
       </c>
       <c r="N106" t="str">
-        <f>IF(H106="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O106" t="s">
@@ -8244,7 +8253,7 @@
         <v>298</v>
       </c>
       <c r="N107" t="str">
-        <f>IF(H107="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O107" t="s">
@@ -8301,7 +8310,7 @@
         <v>298</v>
       </c>
       <c r="N108" t="str">
-        <f>IF(H108="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O108" t="s">
@@ -8356,7 +8365,7 @@
         <v>297</v>
       </c>
       <c r="N109" t="str">
-        <f>IF(H109="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="O109" t="s">
@@ -8408,7 +8417,7 @@
         <v>302</v>
       </c>
       <c r="N110" t="str">
-        <f>IF(H110="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O110" t="s">
@@ -8460,7 +8469,7 @@
         <v>268</v>
       </c>
       <c r="N111" t="str">
-        <f>IF(H111="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O111" t="s">
@@ -8505,7 +8514,7 @@
         <v>268</v>
       </c>
       <c r="N112" t="str">
-        <f>IF(H112="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O112" t="s">
@@ -8550,7 +8559,7 @@
         <v>268</v>
       </c>
       <c r="N113" t="str">
-        <f>IF(H113="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O113" t="s">
@@ -8595,7 +8604,7 @@
         <v>268</v>
       </c>
       <c r="N114" t="str">
-        <f>IF(H114="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O114" t="s">
@@ -8643,7 +8652,7 @@
         <v>299</v>
       </c>
       <c r="N115" t="str">
-        <f>IF(H115="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O115" t="s">
@@ -8688,7 +8697,7 @@
         <v>268</v>
       </c>
       <c r="N116" t="str">
-        <f>IF(H116="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O116" t="s">
@@ -8730,7 +8739,7 @@
         <v>268</v>
       </c>
       <c r="N117" t="str">
-        <f>IF(H117="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O117" t="s">
@@ -8778,7 +8787,7 @@
         <v>299</v>
       </c>
       <c r="N118" t="str">
-        <f>IF(H118="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O118" t="s">
@@ -8829,7 +8838,7 @@
         <v>280</v>
       </c>
       <c r="N119" t="str">
-        <f>IF(H119="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O119" t="s">
@@ -8877,7 +8886,7 @@
         <v>268</v>
       </c>
       <c r="N120" t="str">
-        <f>IF(H120="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O120" t="s">
@@ -8932,7 +8941,7 @@
         <v>279</v>
       </c>
       <c r="N121" t="str">
-        <f>IF(H121="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="O121" t="s">
@@ -8987,7 +8996,7 @@
         <v>279</v>
       </c>
       <c r="N122" t="str">
-        <f>IF(H122="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="O122" t="s">
@@ -9035,7 +9044,7 @@
         <v>301</v>
       </c>
       <c r="N123" t="str">
-        <f>IF(H123="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O123" t="s">
@@ -9087,7 +9096,7 @@
         <v>311</v>
       </c>
       <c r="N124" t="str">
-        <f>IF(H124="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O124" t="s">
@@ -9142,7 +9151,7 @@
         <v>294</v>
       </c>
       <c r="N125" t="str">
-        <f>IF(H125="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O125" t="s">
@@ -9200,7 +9209,7 @@
         <v>294</v>
       </c>
       <c r="N126" t="str">
-        <f>IF(H126="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O126" t="s">
@@ -9248,7 +9257,7 @@
         <v>301</v>
       </c>
       <c r="N127" t="str">
-        <f>IF(H127="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O127" t="s">
@@ -9293,7 +9302,7 @@
         <v>268</v>
       </c>
       <c r="N128" t="str">
-        <f>IF(H128="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O128" t="s">
@@ -9338,7 +9347,7 @@
         <v>280</v>
       </c>
       <c r="N129" t="str">
-        <f>IF(H129="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="O129" t="s">
@@ -9387,7 +9396,7 @@
         <v>280</v>
       </c>
       <c r="N130" t="str">
-        <f>IF(H130="","否","是")</f>
+        <f t="shared" ref="N130:N193" si="2">IF(H130="","否","是")</f>
         <v>否</v>
       </c>
       <c r="O130" t="s">
@@ -9432,7 +9441,7 @@
         <v>268</v>
       </c>
       <c r="N131" t="str">
-        <f>IF(H131="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O131" t="s">
@@ -9477,7 +9486,7 @@
         <v>268</v>
       </c>
       <c r="N132" t="str">
-        <f>IF(H132="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O132" t="s">
@@ -9525,7 +9534,7 @@
         <v>299</v>
       </c>
       <c r="N133" t="str">
-        <f>IF(H133="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O133" t="s">
@@ -9583,7 +9592,7 @@
         <v>280</v>
       </c>
       <c r="N134" t="str">
-        <f>IF(H134="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="O134" t="s">
@@ -9638,7 +9647,7 @@
         <v>280</v>
       </c>
       <c r="N135" t="str">
-        <f>IF(H135="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="O135" t="s">
@@ -9680,7 +9689,7 @@
         <v>270</v>
       </c>
       <c r="N136" t="str">
-        <f>IF(H136="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O136" t="s">
@@ -9727,7 +9736,7 @@
         <v>311</v>
       </c>
       <c r="N137" t="str">
-        <f>IF(H137="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="O137" t="s">
@@ -9772,7 +9781,7 @@
         <v>268</v>
       </c>
       <c r="N138" t="str">
-        <f>IF(H138="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O138" t="s">
@@ -9817,7 +9826,7 @@
         <v>299</v>
       </c>
       <c r="N139" t="str">
-        <f>IF(H139="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O139" t="s">
@@ -9877,7 +9886,7 @@
         <v>299</v>
       </c>
       <c r="N140" t="str">
-        <f>IF(H140="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O140" t="s">
@@ -9922,7 +9931,7 @@
         <v>268</v>
       </c>
       <c r="N141" t="str">
-        <f>IF(H141="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O141" t="s">
@@ -9967,7 +9976,7 @@
         <v>268</v>
       </c>
       <c r="N142" t="str">
-        <f>IF(H142="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O142" t="s">
@@ -10012,7 +10021,7 @@
         <v>268</v>
       </c>
       <c r="N143" t="str">
-        <f>IF(H143="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O143" t="s">
@@ -10057,7 +10066,7 @@
         <v>279</v>
       </c>
       <c r="N144" t="str">
-        <f>IF(H144="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O144" t="s">
@@ -10108,7 +10117,7 @@
         <v>279</v>
       </c>
       <c r="N145" t="str">
-        <f>IF(H145="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O145" t="s">
@@ -10159,7 +10168,7 @@
         <v>279</v>
       </c>
       <c r="N146" t="str">
-        <f>IF(H146="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O146" t="s">
@@ -10216,7 +10225,7 @@
         <v>268</v>
       </c>
       <c r="N147" t="str">
-        <f>IF(H147="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O147" t="s">
@@ -10271,7 +10280,7 @@
         <v>298</v>
       </c>
       <c r="N148" t="str">
-        <f>IF(H148="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O148" t="s">
@@ -10320,7 +10329,7 @@
         <v>280</v>
       </c>
       <c r="N149" t="str">
-        <f>IF(H149="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="O149" t="s">
@@ -10368,7 +10377,7 @@
         <v>280</v>
       </c>
       <c r="N150" t="str">
-        <f>IF(H150="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O150" t="s">
@@ -10419,7 +10428,7 @@
         <v>299</v>
       </c>
       <c r="N151" t="str">
-        <f>IF(H151="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O151" t="s">
@@ -10470,7 +10479,7 @@
         <v>299</v>
       </c>
       <c r="N152" t="str">
-        <f>IF(H152="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O152" t="s">
@@ -10518,7 +10527,7 @@
         <v>306</v>
       </c>
       <c r="N153" t="str">
-        <f>IF(H153="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O153" t="s">
@@ -10568,7 +10577,7 @@
         <v>299</v>
       </c>
       <c r="N154" t="str">
-        <f>IF(H154="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="O154" t="s">
@@ -10622,7 +10631,7 @@
         <v>299</v>
       </c>
       <c r="N155" t="str">
-        <f>IF(H155="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O155" t="s">
@@ -10682,7 +10691,7 @@
         <v>299</v>
       </c>
       <c r="N156" t="str">
-        <f>IF(H156="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O156" t="s">
@@ -10730,7 +10739,7 @@
         <v>304</v>
       </c>
       <c r="N157" t="str">
-        <f>IF(H157="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O157" t="s">
@@ -10778,7 +10787,7 @@
         <v>294</v>
       </c>
       <c r="N158" t="str">
-        <f>IF(H158="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O158" t="s">
@@ -10824,7 +10833,7 @@
         <v>268</v>
       </c>
       <c r="N159" t="str">
-        <f>IF(H159="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="O159" t="s">
@@ -10869,7 +10878,7 @@
         <v>268</v>
       </c>
       <c r="N160" t="str">
-        <f>IF(H160="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O160" t="s">
@@ -10914,7 +10923,7 @@
         <v>268</v>
       </c>
       <c r="N161" t="str">
-        <f>IF(H161="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O161" t="s">
@@ -10957,7 +10966,7 @@
         <v>294</v>
       </c>
       <c r="N162" t="str">
-        <f>IF(H162="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="O162" t="s">
@@ -11005,7 +11014,7 @@
         <v>294</v>
       </c>
       <c r="N163" t="str">
-        <f>IF(H163="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O163" t="s">
@@ -11065,7 +11074,7 @@
         <v>294</v>
       </c>
       <c r="N164" t="str">
-        <f>IF(H164="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O164" t="s">
@@ -11113,7 +11122,7 @@
         <v>268</v>
       </c>
       <c r="N165" t="str">
-        <f>IF(H165="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O165" t="s">
@@ -11167,7 +11176,7 @@
         <v>299</v>
       </c>
       <c r="N166" t="str">
-        <f>IF(H166="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O166" t="s">
@@ -11218,7 +11227,7 @@
         <v>299</v>
       </c>
       <c r="N167" t="str">
-        <f>IF(H167="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O167" t="s">
@@ -11266,7 +11275,7 @@
         <v>299</v>
       </c>
       <c r="N168" t="str">
-        <f>IF(H168="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O168" t="s">
@@ -11323,7 +11332,7 @@
         <v>268</v>
       </c>
       <c r="N169" t="str">
-        <f>IF(H169="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O169" t="s">
@@ -11375,7 +11384,7 @@
         <v>294</v>
       </c>
       <c r="N170" t="str">
-        <f>IF(H170="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="O170" t="s">
@@ -11420,7 +11429,7 @@
         <v>294</v>
       </c>
       <c r="N171" t="str">
-        <f>IF(H171="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O171" t="s">
@@ -11469,7 +11478,7 @@
         <v>279</v>
       </c>
       <c r="N172" t="str">
-        <f>IF(H172="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="O172" t="s">
@@ -11511,7 +11520,7 @@
         <v>268</v>
       </c>
       <c r="N173" t="str">
-        <f>IF(H173="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O173" t="s">
@@ -11568,7 +11577,7 @@
         <v>299</v>
       </c>
       <c r="N174" t="str">
-        <f>IF(H174="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O174" t="s">
@@ -11625,7 +11634,7 @@
         <v>307</v>
       </c>
       <c r="N175" t="str">
-        <f>IF(H175="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O175" t="s">
@@ -11676,7 +11685,7 @@
         <v>279</v>
       </c>
       <c r="N176" t="str">
-        <f>IF(H176="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O176" t="s">
@@ -11724,7 +11733,7 @@
         <v>268</v>
       </c>
       <c r="N177" t="str">
-        <f>IF(H177="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O177" t="s">
@@ -11769,7 +11778,7 @@
         <v>280</v>
       </c>
       <c r="N178" t="str">
-        <f>IF(H178="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O178" t="s">
@@ -11829,7 +11838,7 @@
         <v>280</v>
       </c>
       <c r="N179" t="str">
-        <f>IF(H179="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O179" t="s">
@@ -11877,7 +11886,7 @@
         <v>297</v>
       </c>
       <c r="N180" t="str">
-        <f>IF(H180="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O180" t="s">
@@ -11928,7 +11937,7 @@
         <v>297</v>
       </c>
       <c r="N181" t="str">
-        <f>IF(H181="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O181" t="s">
@@ -11977,7 +11986,7 @@
         <v>294</v>
       </c>
       <c r="N182" t="str">
-        <f>IF(H182="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="O182" t="s">
@@ -12025,7 +12034,7 @@
         <v>294</v>
       </c>
       <c r="N183" t="str">
-        <f>IF(H183="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O183" t="s">
@@ -12074,7 +12083,7 @@
         <v>280</v>
       </c>
       <c r="N184" t="str">
-        <f>IF(H184="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O184" t="s">
@@ -12131,7 +12140,7 @@
         <v>297</v>
       </c>
       <c r="N185" t="str">
-        <f>IF(H185="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O185" t="s">
@@ -12182,7 +12191,7 @@
         <v>280</v>
       </c>
       <c r="N186" t="str">
-        <f>IF(H186="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O186" t="s">
@@ -12230,7 +12239,7 @@
         <v>294</v>
       </c>
       <c r="N187" t="str">
-        <f>IF(H187="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O187" t="s">
@@ -12278,7 +12287,7 @@
         <v>279</v>
       </c>
       <c r="N188" t="str">
-        <f>IF(H188="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O188" t="s">
@@ -12333,7 +12342,7 @@
         <v>279</v>
       </c>
       <c r="N189" t="str">
-        <f>IF(H189="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="O189" t="s">
@@ -12375,7 +12384,7 @@
         <v>268</v>
       </c>
       <c r="N190" t="str">
-        <f>IF(H190="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O190" t="s">
@@ -12417,7 +12426,7 @@
         <v>268</v>
       </c>
       <c r="N191" t="str">
-        <f>IF(H191="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O191" t="s">
@@ -12468,7 +12477,7 @@
         <v>268</v>
       </c>
       <c r="N192" t="str">
-        <f>IF(H192="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O192" t="s">
@@ -12513,7 +12522,7 @@
         <v>268</v>
       </c>
       <c r="N193" t="str">
-        <f>IF(H193="","否","是")</f>
+        <f t="shared" si="2"/>
         <v>是</v>
       </c>
       <c r="O193" t="s">
@@ -12561,7 +12570,7 @@
         <v>297</v>
       </c>
       <c r="N194" t="str">
-        <f>IF(H194="","否","是")</f>
+        <f t="shared" ref="N194:N257" si="3">IF(H194="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O194" t="s">
@@ -12609,7 +12618,7 @@
         <v>308</v>
       </c>
       <c r="N195" t="str">
-        <f>IF(H195="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O195" t="s">
@@ -12663,7 +12672,7 @@
         <v>297</v>
       </c>
       <c r="N196" t="str">
-        <f>IF(H196="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O196" t="s">
@@ -12706,7 +12715,7 @@
         <v>271</v>
       </c>
       <c r="N197" t="str">
-        <f>IF(H197="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O197" t="s">
@@ -12760,7 +12769,7 @@
         <v>268</v>
       </c>
       <c r="N198" t="str">
-        <f>IF(H198="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O198" t="s">
@@ -12805,7 +12814,7 @@
         <v>307</v>
       </c>
       <c r="N199" t="str">
-        <f>IF(H199="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O199" t="s">
@@ -12853,7 +12862,7 @@
         <v>297</v>
       </c>
       <c r="N200" t="str">
-        <f>IF(H200="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O200" t="s">
@@ -12898,7 +12907,7 @@
         <v>268</v>
       </c>
       <c r="N201" t="str">
-        <f>IF(H201="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O201" t="s">
@@ -12943,7 +12952,7 @@
         <v>268</v>
       </c>
       <c r="N202" t="str">
-        <f>IF(H202="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O202" t="s">
@@ -12994,7 +13003,7 @@
         <v>268</v>
       </c>
       <c r="N203" t="str">
-        <f>IF(H203="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O203" t="s">
@@ -13048,7 +13057,7 @@
         <v>297</v>
       </c>
       <c r="N204" t="str">
-        <f>IF(H204="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O204" t="s">
@@ -13105,7 +13114,7 @@
         <v>297</v>
       </c>
       <c r="N205" t="str">
-        <f>IF(H205="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O205" t="s">
@@ -13165,7 +13174,7 @@
         <v>297</v>
       </c>
       <c r="N206" t="str">
-        <f>IF(H206="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O206" t="s">
@@ -13210,7 +13219,7 @@
         <v>268</v>
       </c>
       <c r="N207" t="str">
-        <f>IF(H207="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O207" t="s">
@@ -13258,7 +13267,7 @@
         <v>307</v>
       </c>
       <c r="N208" t="str">
-        <f>IF(H208="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O208" t="s">
@@ -13309,7 +13318,7 @@
         <v>297</v>
       </c>
       <c r="N209" t="str">
-        <f>IF(H209="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O209" t="s">
@@ -13357,7 +13366,7 @@
         <v>310</v>
       </c>
       <c r="N210" t="str">
-        <f>IF(H210="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O210" t="s">
@@ -13402,7 +13411,7 @@
         <v>279</v>
       </c>
       <c r="N211" t="str">
-        <f>IF(H211="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O211" t="s">
@@ -13453,7 +13462,7 @@
         <v>297</v>
       </c>
       <c r="N212" t="str">
-        <f>IF(H212="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O212" t="s">
@@ -13501,7 +13510,7 @@
         <v>268</v>
       </c>
       <c r="N213" t="str">
-        <f>IF(H213="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O213" t="s">
@@ -13546,7 +13555,7 @@
         <v>268</v>
       </c>
       <c r="N214" t="str">
-        <f>IF(H214="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O214" t="s">
@@ -13591,7 +13600,7 @@
         <v>300</v>
       </c>
       <c r="N215" t="str">
-        <f>IF(H215="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O215" t="s">
@@ -13634,7 +13643,7 @@
         <v>280</v>
       </c>
       <c r="N216" t="str">
-        <f>IF(H216="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O216" t="s">
@@ -13689,7 +13698,7 @@
         <v>280</v>
       </c>
       <c r="N217" t="str">
-        <f>IF(H217="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O217" t="s">
@@ -13734,7 +13743,7 @@
         <v>280</v>
       </c>
       <c r="N218" t="str">
-        <f>IF(H218="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O218" t="s">
@@ -13791,7 +13800,7 @@
         <v>268</v>
       </c>
       <c r="N219" t="str">
-        <f>IF(H219="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O219" t="s">
@@ -13842,7 +13851,7 @@
         <v>284</v>
       </c>
       <c r="N220" t="str">
-        <f>IF(H220="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O220" t="s">
@@ -13890,7 +13899,7 @@
         <v>280</v>
       </c>
       <c r="N221" t="str">
-        <f>IF(H221="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O221" t="s">
@@ -13947,7 +13956,7 @@
         <v>280</v>
       </c>
       <c r="N222" t="str">
-        <f>IF(H222="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O222" t="s">
@@ -14001,7 +14010,7 @@
         <v>268</v>
       </c>
       <c r="N223" t="str">
-        <f>IF(H223="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O223" t="s">
@@ -14055,7 +14064,7 @@
         <v>280</v>
       </c>
       <c r="N224" t="str">
-        <f>IF(H224="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O224" t="s">
@@ -14115,7 +14124,7 @@
         <v>298</v>
       </c>
       <c r="N225" t="str">
-        <f>IF(H225="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O225" t="s">
@@ -14172,7 +14181,7 @@
         <v>298</v>
       </c>
       <c r="N226" t="str">
-        <f>IF(H226="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O226" t="s">
@@ -14220,7 +14229,7 @@
         <v>294</v>
       </c>
       <c r="N227" t="str">
-        <f>IF(H227="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O227" t="s">
@@ -14277,7 +14286,7 @@
         <v>280</v>
       </c>
       <c r="N228" t="str">
-        <f>IF(H228="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O228" t="s">
@@ -14337,7 +14346,7 @@
         <v>297</v>
       </c>
       <c r="N229" t="str">
-        <f>IF(H229="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O229" t="s">
@@ -14386,7 +14395,7 @@
         <v>294</v>
       </c>
       <c r="N230" t="str">
-        <f>IF(H230="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O230" t="s">
@@ -14440,7 +14449,7 @@
         <v>307</v>
       </c>
       <c r="N231" t="str">
-        <f>IF(H231="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O231" t="s">
@@ -14500,7 +14509,7 @@
         <v>299</v>
       </c>
       <c r="N232" t="str">
-        <f>IF(H232="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O232" t="s">
@@ -14557,7 +14566,7 @@
         <v>268</v>
       </c>
       <c r="N233" t="str">
-        <f>IF(H233="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O233" t="s">
@@ -14611,7 +14620,7 @@
         <v>268</v>
       </c>
       <c r="N234" t="str">
-        <f>IF(H234="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O234" t="s">
@@ -14659,7 +14668,7 @@
         <v>280</v>
       </c>
       <c r="N235" t="str">
-        <f>IF(H235="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O235" t="s">
@@ -14707,7 +14716,7 @@
         <v>268</v>
       </c>
       <c r="N236" t="str">
-        <f>IF(H236="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O236" t="s">
@@ -14753,7 +14762,7 @@
         <v>307</v>
       </c>
       <c r="N237" t="str">
-        <f>IF(H237="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O237" t="s">
@@ -14805,7 +14814,7 @@
         <v>279</v>
       </c>
       <c r="N238" t="str">
-        <f>IF(H238="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O238" t="s">
@@ -14859,7 +14868,7 @@
         <v>280</v>
       </c>
       <c r="N239" t="str">
-        <f>IF(H239="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O239" t="s">
@@ -14907,7 +14916,7 @@
         <v>298</v>
       </c>
       <c r="N240" t="str">
-        <f>IF(H240="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O240" t="s">
@@ -14958,7 +14967,7 @@
         <v>298</v>
       </c>
       <c r="N241" t="str">
-        <f>IF(H241="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O241" t="s">
@@ -15009,7 +15018,7 @@
         <v>297</v>
       </c>
       <c r="N242" t="str">
-        <f>IF(H242="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O242" t="s">
@@ -15066,7 +15075,7 @@
         <v>299</v>
       </c>
       <c r="N243" t="str">
-        <f>IF(H243="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O243" t="s">
@@ -15114,7 +15123,7 @@
         <v>309</v>
       </c>
       <c r="N244" t="str">
-        <f>IF(H244="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O244" t="s">
@@ -15168,7 +15177,7 @@
         <v>299</v>
       </c>
       <c r="N245" t="str">
-        <f>IF(H245="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O245" t="s">
@@ -15216,7 +15225,7 @@
         <v>279</v>
       </c>
       <c r="N246" t="str">
-        <f>IF(H246="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O246" t="s">
@@ -15264,7 +15273,7 @@
         <v>294</v>
       </c>
       <c r="N247" t="str">
-        <f>IF(H247="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O247" t="s">
@@ -15321,7 +15330,7 @@
         <v>268</v>
       </c>
       <c r="N248" t="str">
-        <f>IF(H248="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O248" t="s">
@@ -15375,7 +15384,7 @@
         <v>268</v>
       </c>
       <c r="N249" t="str">
-        <f>IF(H249="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O249" t="s">
@@ -15432,7 +15441,7 @@
         <v>280</v>
       </c>
       <c r="N250" t="str">
-        <f>IF(H250="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O250" t="s">
@@ -15480,7 +15489,7 @@
         <v>294</v>
       </c>
       <c r="N251" t="str">
-        <f>IF(H251="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O251" t="s">
@@ -15531,7 +15540,7 @@
         <v>299</v>
       </c>
       <c r="N252" t="str">
-        <f>IF(H252="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O252" t="s">
@@ -15579,7 +15588,7 @@
         <v>299</v>
       </c>
       <c r="N253" t="str">
-        <f>IF(H253="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O253" t="s">
@@ -15634,7 +15643,7 @@
         <v>297</v>
       </c>
       <c r="N254" t="str">
-        <f>IF(H254="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O254" t="s">
@@ -15682,7 +15691,7 @@
         <v>297</v>
       </c>
       <c r="N255" t="str">
-        <f>IF(H255="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O255" t="s">
@@ -15740,7 +15749,7 @@
         <v>280</v>
       </c>
       <c r="N256" t="str">
-        <f>IF(H256="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O256" t="s">
@@ -15797,7 +15806,7 @@
         <v>299</v>
       </c>
       <c r="N257" t="str">
-        <f>IF(H257="","否","是")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="O257" t="s">
@@ -15854,7 +15863,7 @@
         <v>301</v>
       </c>
       <c r="N258" t="str">
-        <f>IF(H258="","否","是")</f>
+        <f t="shared" ref="N258:N321" si="4">IF(H258="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O258" t="s">
@@ -15899,7 +15908,7 @@
         <v>268</v>
       </c>
       <c r="N259" t="str">
-        <f>IF(H259="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O259" t="s">
@@ -15947,7 +15956,7 @@
         <v>280</v>
       </c>
       <c r="N260" t="str">
-        <f>IF(H260="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O260" t="s">
@@ -15996,7 +16005,7 @@
         <v>280</v>
       </c>
       <c r="N261" t="str">
-        <f>IF(H261="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O261" t="s">
@@ -16051,7 +16060,7 @@
         <v>280</v>
       </c>
       <c r="N262" t="str">
-        <f>IF(H262="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O262" t="s">
@@ -16096,7 +16105,7 @@
         <v>280</v>
       </c>
       <c r="N263" t="str">
-        <f>IF(H263="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O263" t="s">
@@ -16139,7 +16148,7 @@
         <v>336</v>
       </c>
       <c r="N264" t="str">
-        <f>IF(H264="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O264" t="s">
@@ -16194,7 +16203,7 @@
         <v>280</v>
       </c>
       <c r="N265" t="str">
-        <f>IF(H265="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O265" t="s">
@@ -16239,7 +16248,7 @@
         <v>335</v>
       </c>
       <c r="N266" t="str">
-        <f>IF(H266="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O266" t="s">
@@ -16287,7 +16296,7 @@
         <v>297</v>
       </c>
       <c r="N267" t="str">
-        <f>IF(H267="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O267" t="s">
@@ -16345,7 +16354,7 @@
         <v>280</v>
       </c>
       <c r="N268" t="str">
-        <f>IF(H268="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O268" t="s">
@@ -16388,7 +16397,7 @@
         <v>298</v>
       </c>
       <c r="N269" t="str">
-        <f>IF(H269="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O269" t="s">
@@ -16430,7 +16439,7 @@
         <v>268</v>
       </c>
       <c r="N270" t="str">
-        <f>IF(H270="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O270" t="s">
@@ -16476,7 +16485,7 @@
         <v>279</v>
       </c>
       <c r="N271" t="str">
-        <f>IF(H271="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O271" t="s">
@@ -16521,7 +16530,7 @@
         <v>298</v>
       </c>
       <c r="N272" t="str">
-        <f>IF(H272="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O272" t="s">
@@ -16569,7 +16578,7 @@
         <v>297</v>
       </c>
       <c r="N273" t="str">
-        <f>IF(H273="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O273" t="s">
@@ -16620,7 +16629,7 @@
         <v>294</v>
       </c>
       <c r="N274" t="str">
-        <f>IF(H274="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O274" t="s">
@@ -16677,7 +16686,7 @@
         <v>300</v>
       </c>
       <c r="N275" t="str">
-        <f>IF(H275="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O275" t="s">
@@ -16729,7 +16738,7 @@
         <v>294</v>
       </c>
       <c r="N276" t="str">
-        <f>IF(H276="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O276" t="s">
@@ -16774,7 +16783,7 @@
         <v>280</v>
       </c>
       <c r="N277" t="str">
-        <f>IF(H277="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O277" t="s">
@@ -16825,7 +16834,7 @@
         <v>294</v>
       </c>
       <c r="N278" t="str">
-        <f>IF(H278="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O278" t="s">
@@ -16870,7 +16879,7 @@
         <v>268</v>
       </c>
       <c r="N279" t="str">
-        <f>IF(H279="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O279" t="s">
@@ -16915,7 +16924,7 @@
         <v>268</v>
       </c>
       <c r="N280" t="str">
-        <f>IF(H280="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O280" t="s">
@@ -16963,7 +16972,7 @@
         <v>279</v>
       </c>
       <c r="N281" t="str">
-        <f>IF(H281="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O281" t="s">
@@ -17023,7 +17032,7 @@
         <v>279</v>
       </c>
       <c r="N282" t="str">
-        <f>IF(H282="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O282" t="s">
@@ -17080,7 +17089,7 @@
         <v>279</v>
       </c>
       <c r="N283" t="str">
-        <f>IF(H283="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O283" t="s">
@@ -17135,7 +17144,7 @@
         <v>279</v>
       </c>
       <c r="N284" t="str">
-        <f>IF(H284="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O284" t="s">
@@ -17186,7 +17195,7 @@
         <v>268</v>
       </c>
       <c r="N285" t="str">
-        <f>IF(H285="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O285" t="s">
@@ -17240,7 +17249,7 @@
         <v>294</v>
       </c>
       <c r="N286" t="str">
-        <f>IF(H286="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O286" t="s">
@@ -17291,7 +17300,7 @@
         <v>307</v>
       </c>
       <c r="N287" t="str">
-        <f>IF(H287="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O287" t="s">
@@ -17339,7 +17348,7 @@
         <v>297</v>
       </c>
       <c r="N288" t="str">
-        <f>IF(H288="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O288" t="s">
@@ -17385,7 +17394,7 @@
         <v>279</v>
       </c>
       <c r="N289" t="str">
-        <f>IF(H289="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O289" t="s">
@@ -17430,7 +17439,7 @@
         <v>294</v>
       </c>
       <c r="N290" t="str">
-        <f>IF(H290="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O290" t="s">
@@ -17475,7 +17484,7 @@
         <v>268</v>
       </c>
       <c r="N291" t="str">
-        <f>IF(H291="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O291" t="s">
@@ -17521,7 +17530,7 @@
         <v>279</v>
       </c>
       <c r="N292" t="str">
-        <f>IF(H292="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O292" t="s">
@@ -17563,7 +17572,7 @@
         <v>411</v>
       </c>
       <c r="N293" t="str">
-        <f>IF(H293="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O293" t="s">
@@ -17605,7 +17614,7 @@
         <v>268</v>
       </c>
       <c r="N294" t="str">
-        <f>IF(H294="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O294" t="s">
@@ -17650,7 +17659,7 @@
         <v>294</v>
       </c>
       <c r="N295" t="str">
-        <f>IF(H295="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O295" t="s">
@@ -17698,7 +17707,7 @@
         <v>294</v>
       </c>
       <c r="N296" t="str">
-        <f>IF(H296="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O296" t="s">
@@ -17746,7 +17755,7 @@
         <v>297</v>
       </c>
       <c r="N297" t="str">
-        <f>IF(H297="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O297" t="s">
@@ -17794,7 +17803,7 @@
         <v>294</v>
       </c>
       <c r="N298" t="str">
-        <f>IF(H298="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O298" t="s">
@@ -17839,7 +17848,7 @@
         <v>268</v>
       </c>
       <c r="N299" t="str">
-        <f>IF(H299="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O299" t="s">
@@ -17887,7 +17896,7 @@
         <v>297</v>
       </c>
       <c r="N300" t="str">
-        <f>IF(H300="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O300" t="s">
@@ -17947,7 +17956,7 @@
         <v>297</v>
       </c>
       <c r="N301" t="str">
-        <f>IF(H301="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O301" t="s">
@@ -17998,7 +18007,7 @@
         <v>279</v>
       </c>
       <c r="N302" t="str">
-        <f>IF(H302="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O302" t="s">
@@ -18046,7 +18055,7 @@
         <v>279</v>
       </c>
       <c r="N303" t="str">
-        <f>IF(H303="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O303" t="s">
@@ -18094,7 +18103,7 @@
         <v>410</v>
       </c>
       <c r="N304" t="str">
-        <f>IF(H304="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O304" t="s">
@@ -18137,7 +18146,7 @@
         <v>297</v>
       </c>
       <c r="N305" t="str">
-        <f>IF(H305="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O305" t="s">
@@ -18182,7 +18191,7 @@
         <v>298</v>
       </c>
       <c r="N306" t="str">
-        <f>IF(H306="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O306" t="s">
@@ -18230,7 +18239,7 @@
         <v>268</v>
       </c>
       <c r="N307" t="str">
-        <f>IF(H307="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O307" t="s">
@@ -18278,7 +18287,7 @@
         <v>298</v>
       </c>
       <c r="N308" t="str">
-        <f>IF(H308="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O308" t="s">
@@ -18326,7 +18335,7 @@
         <v>280</v>
       </c>
       <c r="N309" t="str">
-        <f>IF(H309="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O309" t="s">
@@ -18374,7 +18383,7 @@
         <v>280</v>
       </c>
       <c r="N310" t="str">
-        <f>IF(H310="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O310" t="s">
@@ -18431,7 +18440,7 @@
         <v>280</v>
       </c>
       <c r="N311" t="str">
-        <f>IF(H311="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O311" t="s">
@@ -18488,7 +18497,7 @@
         <v>279</v>
       </c>
       <c r="N312" t="str">
-        <f>IF(H312="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O312" t="s">
@@ -18545,7 +18554,7 @@
         <v>279</v>
       </c>
       <c r="N313" t="str">
-        <f>IF(H313="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O313" t="s">
@@ -18600,7 +18609,7 @@
         <v>298</v>
       </c>
       <c r="N314" t="str">
-        <f>IF(H314="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O314" t="s">
@@ -18654,7 +18663,7 @@
         <v>280</v>
       </c>
       <c r="N315" t="str">
-        <f>IF(H315="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O315" t="s">
@@ -18702,7 +18711,7 @@
         <v>294</v>
       </c>
       <c r="N316" t="str">
-        <f>IF(H316="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O316" t="s">
@@ -18759,7 +18768,7 @@
         <v>294</v>
       </c>
       <c r="N317" t="str">
-        <f>IF(H317="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O317" t="s">
@@ -18816,7 +18825,7 @@
         <v>297</v>
       </c>
       <c r="N318" t="str">
-        <f>IF(H318="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O318" t="s">
@@ -18864,7 +18873,7 @@
         <v>279</v>
       </c>
       <c r="N319" t="str">
-        <f>IF(H319="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O319" t="s">
@@ -18921,7 +18930,7 @@
         <v>579</v>
       </c>
       <c r="N320" t="str">
-        <f>IF(H320="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="O320" t="s">
@@ -18973,7 +18982,7 @@
         <v>279</v>
       </c>
       <c r="N321" t="str">
-        <f>IF(H321="","否","是")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="O321" t="s">
@@ -19027,7 +19036,7 @@
         <v>580</v>
       </c>
       <c r="N322" t="str">
-        <f>IF(H322="","否","是")</f>
+        <f t="shared" ref="N322:N385" si="5">IF(H322="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O322" t="s">
@@ -19078,7 +19087,7 @@
         <v>580</v>
       </c>
       <c r="N323" t="str">
-        <f>IF(H323="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O323" t="s">
@@ -19133,7 +19142,7 @@
         <v>279</v>
       </c>
       <c r="N324" t="str">
-        <f>IF(H324="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O324" t="s">
@@ -19187,7 +19196,7 @@
         <v>294</v>
       </c>
       <c r="N325" t="str">
-        <f>IF(H325="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O325" t="s">
@@ -19247,7 +19256,7 @@
         <v>294</v>
       </c>
       <c r="N326" t="str">
-        <f>IF(H326="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O326" t="s">
@@ -19304,7 +19313,7 @@
         <v>280</v>
       </c>
       <c r="N327" t="str">
-        <f>IF(H327="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O327" t="s">
@@ -19359,7 +19368,7 @@
         <v>279</v>
       </c>
       <c r="N328" t="str">
-        <f>IF(H328="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O328" t="s">
@@ -19410,7 +19419,7 @@
         <v>280</v>
       </c>
       <c r="N329" t="str">
-        <f>IF(H329="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O329" t="s">
@@ -19458,7 +19467,7 @@
         <v>279</v>
       </c>
       <c r="N330" t="str">
-        <f>IF(H330="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O330" t="s">
@@ -19503,7 +19512,7 @@
         <v>268</v>
       </c>
       <c r="N331" t="str">
-        <f>IF(H331="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O331" t="s">
@@ -19546,7 +19555,7 @@
         <v>297</v>
       </c>
       <c r="N332" t="str">
-        <f>IF(H332="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O332" t="s">
@@ -19588,7 +19597,7 @@
         <v>268</v>
       </c>
       <c r="N333" t="str">
-        <f>IF(H333="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O333" t="s">
@@ -19636,7 +19645,7 @@
         <v>297</v>
       </c>
       <c r="N334" t="str">
-        <f>IF(H334="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O334" t="s">
@@ -19693,7 +19702,7 @@
         <v>297</v>
       </c>
       <c r="N335" t="str">
-        <f>IF(H335="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O335" t="s">
@@ -19739,7 +19748,7 @@
         <v>279</v>
       </c>
       <c r="N336" t="str">
-        <f>IF(H336="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O336" t="s">
@@ -19787,7 +19796,7 @@
         <v>297</v>
       </c>
       <c r="N337" t="str">
-        <f>IF(H337="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O337" t="s">
@@ -19835,7 +19844,7 @@
         <v>298</v>
       </c>
       <c r="N338" t="str">
-        <f>IF(H338="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O338" t="s">
@@ -19892,7 +19901,7 @@
         <v>298</v>
       </c>
       <c r="N339" t="str">
-        <f>IF(H339="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O339" t="s">
@@ -19949,7 +19958,7 @@
         <v>298</v>
       </c>
       <c r="N340" t="str">
-        <f>IF(H340="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O340" t="s">
@@ -20004,7 +20013,7 @@
         <v>297</v>
       </c>
       <c r="N341" t="str">
-        <f>IF(H341="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O341" t="s">
@@ -20061,7 +20070,7 @@
         <v>279</v>
       </c>
       <c r="N342" t="str">
-        <f>IF(H342="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O342" t="s">
@@ -20107,7 +20116,7 @@
         <v>279</v>
       </c>
       <c r="N343" t="str">
-        <f>IF(H343="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O343" t="s">
@@ -20162,7 +20171,7 @@
         <v>279</v>
       </c>
       <c r="N344" t="str">
-        <f>IF(H344="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O344" t="s">
@@ -20217,7 +20226,7 @@
         <v>297</v>
       </c>
       <c r="N345" t="str">
-        <f>IF(H345="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O345" t="s">
@@ -20274,7 +20283,7 @@
         <v>268</v>
       </c>
       <c r="N346" t="str">
-        <f>IF(H346="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O346" t="s">
@@ -20317,7 +20326,7 @@
         <v>279</v>
       </c>
       <c r="N347" t="str">
-        <f>IF(H347="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O347" t="s">
@@ -20365,7 +20374,7 @@
         <v>294</v>
       </c>
       <c r="N348" t="str">
-        <f>IF(H348="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O348" t="s">
@@ -20413,7 +20422,7 @@
         <v>411</v>
       </c>
       <c r="N349" t="str">
-        <f>IF(H349="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O349" t="s">
@@ -20458,7 +20467,7 @@
         <v>298</v>
       </c>
       <c r="N350" t="str">
-        <f>IF(H350="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O350" t="s">
@@ -20503,7 +20512,7 @@
         <v>598</v>
       </c>
       <c r="N351" t="str">
-        <f>IF(H351="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O351" t="s">
@@ -20548,7 +20557,7 @@
         <v>294</v>
       </c>
       <c r="N352" t="str">
-        <f>IF(H352="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O352" t="s">
@@ -20596,7 +20605,7 @@
         <v>297</v>
       </c>
       <c r="N353" t="str">
-        <f>IF(H353="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O353" t="s">
@@ -20654,7 +20663,7 @@
         <v>279</v>
       </c>
       <c r="N354" t="str">
-        <f>IF(H354="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O354" t="s">
@@ -20712,7 +20721,7 @@
         <v>279</v>
       </c>
       <c r="N355" t="str">
-        <f>IF(H355="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O355" t="s">
@@ -20757,7 +20766,7 @@
         <v>279</v>
       </c>
       <c r="N356" t="str">
-        <f>IF(H356="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O356" t="s">
@@ -20804,7 +20813,7 @@
         <v>268</v>
       </c>
       <c r="N357" t="str">
-        <f>IF(H357="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O357" t="s">
@@ -20860,7 +20869,7 @@
         <v>294</v>
       </c>
       <c r="N358" t="str">
-        <f>IF(H358="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O358" t="s">
@@ -20907,7 +20916,7 @@
         <v>300</v>
       </c>
       <c r="N359" t="str">
-        <f>IF(H359="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O359" t="s">
@@ -20952,7 +20961,7 @@
         <v>298</v>
       </c>
       <c r="N360" t="str">
-        <f>IF(H360="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O360" t="s">
@@ -21008,7 +21017,7 @@
         <v>298</v>
       </c>
       <c r="N361" t="str">
-        <f>IF(H361="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O361" t="s">
@@ -21060,7 +21069,7 @@
         <v>280</v>
       </c>
       <c r="N362" t="str">
-        <f>IF(H362="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O362" t="s">
@@ -21117,7 +21126,7 @@
         <v>279</v>
       </c>
       <c r="N363" t="str">
-        <f>IF(H363="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O363" t="s">
@@ -21167,7 +21176,7 @@
         <v>280</v>
       </c>
       <c r="N364" t="str">
-        <f>IF(H364="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O364" t="s">
@@ -21218,7 +21227,7 @@
         <v>280</v>
       </c>
       <c r="N365" t="str">
-        <f>IF(H365="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O365" t="s">
@@ -21275,7 +21284,7 @@
         <v>279</v>
       </c>
       <c r="N366" t="str">
-        <f>IF(H366="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O366" t="s">
@@ -21326,7 +21335,7 @@
         <v>294</v>
       </c>
       <c r="N367" t="str">
-        <f>IF(H367="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O367" t="s">
@@ -21380,7 +21389,7 @@
         <v>300</v>
       </c>
       <c r="N368" t="str">
-        <f>IF(H368="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O368" t="s">
@@ -21432,7 +21441,7 @@
         <v>279</v>
       </c>
       <c r="N369" t="str">
-        <f>IF(H369="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O369" t="s">
@@ -21474,7 +21483,7 @@
         <v>604</v>
       </c>
       <c r="N370" t="str">
-        <f>IF(H370="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O370" t="s">
@@ -21528,7 +21537,7 @@
         <v>294</v>
       </c>
       <c r="N371" t="str">
-        <f>IF(H371="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O371" t="s">
@@ -21586,7 +21595,7 @@
         <v>280</v>
       </c>
       <c r="N372" t="str">
-        <f>IF(H372="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O372" t="s">
@@ -21635,7 +21644,7 @@
         <v>297</v>
       </c>
       <c r="N373" t="str">
-        <f>IF(H373="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O373" t="s">
@@ -21691,7 +21700,7 @@
         <v>297</v>
       </c>
       <c r="N374" t="str">
-        <f>IF(H374="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O374" t="s">
@@ -21740,7 +21749,7 @@
         <v>280</v>
       </c>
       <c r="N375" t="str">
-        <f>IF(H375="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O375" t="s">
@@ -21798,7 +21807,7 @@
         <v>280</v>
       </c>
       <c r="N376" t="str">
-        <f>IF(H376="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O376" t="s">
@@ -21847,7 +21856,7 @@
         <v>431</v>
       </c>
       <c r="N377" t="str">
-        <f>IF(H377="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O377" t="s">
@@ -21904,7 +21913,7 @@
         <v>431</v>
       </c>
       <c r="N378" t="str">
-        <f>IF(H378="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O378" t="s">
@@ -21952,7 +21961,7 @@
         <v>279</v>
       </c>
       <c r="N379" t="str">
-        <f>IF(H379="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O379" t="s">
@@ -22000,7 +22009,7 @@
         <v>297</v>
       </c>
       <c r="N380" t="str">
-        <f>IF(H380="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O380" t="s">
@@ -22057,7 +22066,7 @@
         <v>294</v>
       </c>
       <c r="N381" t="str">
-        <f>IF(H381="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O381" t="s">
@@ -22103,7 +22112,7 @@
         <v>335</v>
       </c>
       <c r="N382" t="str">
-        <f>IF(H382="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>否</v>
       </c>
       <c r="O382" t="s">
@@ -22148,7 +22157,7 @@
         <v>277</v>
       </c>
       <c r="N383" t="str">
-        <f>IF(H383="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O383" t="s">
@@ -22193,7 +22202,7 @@
         <v>294</v>
       </c>
       <c r="N384" t="str">
-        <f>IF(H384="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O384" t="s">
@@ -22247,7 +22256,7 @@
         <v>644</v>
       </c>
       <c r="N385" t="str">
-        <f>IF(H385="","否","是")</f>
+        <f t="shared" si="5"/>
         <v>是</v>
       </c>
       <c r="O385" t="s">
@@ -22292,7 +22301,7 @@
         <v>280</v>
       </c>
       <c r="N386" t="str">
-        <f>IF(H386="","否","是")</f>
+        <f t="shared" ref="N386:N418" si="6">IF(H386="","否","是")</f>
         <v>是</v>
       </c>
       <c r="O386" t="s">
@@ -22340,7 +22349,7 @@
         <v>294</v>
       </c>
       <c r="N387" t="str">
-        <f>IF(H387="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O387" t="s">
@@ -22394,7 +22403,7 @@
         <v>268</v>
       </c>
       <c r="N388" t="str">
-        <f>IF(H388="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O388" t="s">
@@ -22436,7 +22445,7 @@
         <v>268</v>
       </c>
       <c r="N389" t="str">
-        <f>IF(H389="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O389" t="s">
@@ -22481,7 +22490,7 @@
         <v>297</v>
       </c>
       <c r="N390" t="str">
-        <f>IF(H390="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O390" t="s">
@@ -22529,7 +22538,7 @@
         <v>299</v>
       </c>
       <c r="N391" t="str">
-        <f>IF(H391="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O391" t="s">
@@ -22577,7 +22586,7 @@
         <v>299</v>
       </c>
       <c r="N392" t="str">
-        <f>IF(H392="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O392" t="s">
@@ -22632,7 +22641,7 @@
         <v>298</v>
       </c>
       <c r="N393" t="str">
-        <f>IF(H393="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>否</v>
       </c>
       <c r="O393" t="s">
@@ -22683,7 +22692,7 @@
         <v>827</v>
       </c>
       <c r="N394" t="str">
-        <f>IF(H394="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O394" t="s">
@@ -22735,7 +22744,7 @@
         <v>279</v>
       </c>
       <c r="N395" t="str">
-        <f>IF(H395="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>否</v>
       </c>
       <c r="O395" t="s">
@@ -22787,7 +22796,7 @@
         <v>298</v>
       </c>
       <c r="N396" t="str">
-        <f>IF(H396="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>否</v>
       </c>
       <c r="O396" t="s">
@@ -22832,7 +22841,7 @@
         <v>294</v>
       </c>
       <c r="N397" t="str">
-        <f>IF(H397="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O397" t="s">
@@ -22878,7 +22887,7 @@
         <v>280</v>
       </c>
       <c r="N398" t="str">
-        <f>IF(H398="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>否</v>
       </c>
       <c r="O398" t="s">
@@ -22933,7 +22942,7 @@
         <v>280</v>
       </c>
       <c r="N399" t="str">
-        <f>IF(H399="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>否</v>
       </c>
       <c r="O399" t="s">
@@ -22985,7 +22994,7 @@
         <v>297</v>
       </c>
       <c r="N400" t="str">
-        <f>IF(H400="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>否</v>
       </c>
       <c r="O400" t="s">
@@ -23030,7 +23039,7 @@
         <v>826</v>
       </c>
       <c r="N401" t="str">
-        <f>IF(H401="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O401" t="s">
@@ -23087,7 +23096,7 @@
         <v>294</v>
       </c>
       <c r="N402" t="str">
-        <f>IF(H402="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O402" t="s">
@@ -23144,7 +23153,7 @@
         <v>280</v>
       </c>
       <c r="N403" t="str">
-        <f>IF(H403="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O403" t="s">
@@ -23189,7 +23198,7 @@
         <v>280</v>
       </c>
       <c r="N404" t="str">
-        <f>IF(H404="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>否</v>
       </c>
       <c r="O404" t="s">
@@ -23237,7 +23246,7 @@
         <v>279</v>
       </c>
       <c r="N405" t="str">
-        <f>IF(H405="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O405" t="s">
@@ -23285,7 +23294,7 @@
         <v>297</v>
       </c>
       <c r="N406" t="str">
-        <f>IF(H406="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O406" t="s">
@@ -23342,7 +23351,7 @@
         <v>307</v>
       </c>
       <c r="N407" t="str">
-        <f>IF(H407="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O407" t="s">
@@ -23397,7 +23406,7 @@
         <v>294</v>
       </c>
       <c r="N408" t="str">
-        <f>IF(H408="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O408" t="s">
@@ -23450,7 +23459,7 @@
         <v>279</v>
       </c>
       <c r="N409" t="str">
-        <f>IF(H409="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>否</v>
       </c>
       <c r="O409" t="s">
@@ -23502,7 +23511,7 @@
         <v>297</v>
       </c>
       <c r="N410" t="str">
-        <f>IF(H410="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O410" t="s">
@@ -23554,7 +23563,7 @@
         <v>827</v>
       </c>
       <c r="N411" t="str">
-        <f>IF(H411="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O411" t="s">
@@ -23600,7 +23609,7 @@
         <v>279</v>
       </c>
       <c r="N412" t="str">
-        <f>IF(H412="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O412" t="s">
@@ -23643,7 +23652,7 @@
         <v>268</v>
       </c>
       <c r="N413" t="str">
-        <f>IF(H413="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O413" t="s">
@@ -23689,7 +23698,7 @@
         <v>297</v>
       </c>
       <c r="N414" t="str">
-        <f>IF(H414="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O414" t="s">
@@ -23735,7 +23744,7 @@
         <v>294</v>
       </c>
       <c r="N415" t="str">
-        <f>IF(H415="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O415" t="s">
@@ -23792,7 +23801,7 @@
         <v>280</v>
       </c>
       <c r="N416" t="str">
-        <f>IF(H416="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O416" t="s">
@@ -23834,7 +23843,7 @@
         <v>280</v>
       </c>
       <c r="N417" t="str">
-        <f>IF(H417="","否","是")</f>
+        <f t="shared" si="6"/>
         <v>是</v>
       </c>
       <c r="O417" t="s">
@@ -23848,6 +23857,48 @@
       </c>
       <c r="S417" s="3" t="s">
         <v>868</v>
+      </c>
+    </row>
+    <row r="418" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>417</v>
+      </c>
+      <c r="B418" t="s">
+        <v>282</v>
+      </c>
+      <c r="C418">
+        <v>23</v>
+      </c>
+      <c r="H418" s="1">
+        <v>43861</v>
+      </c>
+      <c r="I418" s="1">
+        <v>43873</v>
+      </c>
+      <c r="J418" s="1">
+        <v>43877</v>
+      </c>
+      <c r="K418" t="s">
+        <v>312</v>
+      </c>
+      <c r="L418" t="s">
+        <v>267</v>
+      </c>
+      <c r="M418" t="s">
+        <v>280</v>
+      </c>
+      <c r="N418" t="str">
+        <f t="shared" si="6"/>
+        <v>是</v>
+      </c>
+      <c r="O418" t="s">
+        <v>871</v>
+      </c>
+      <c r="P418" t="s">
+        <v>286</v>
+      </c>
+      <c r="S418" s="3" t="s">
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -23863,7 +23914,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0673D1E6-6595-4429-B6E9-D1E808706CBD}">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24992,11 +25043,11 @@
         <v>24</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M18:M23" si="3">SUM(B18:L18)</f>
+        <f t="shared" ref="M18:M25" si="3">SUM(B18:L18)</f>
         <v>414</v>
       </c>
       <c r="N18">
-        <f t="shared" ref="N18:N23" si="4">M18-M17</f>
+        <f t="shared" ref="N18:N25" si="4">M18-M17</f>
         <v>8</v>
       </c>
       <c r="O18">
@@ -25336,6 +25387,134 @@
       </c>
       <c r="T23">
         <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B24">
+        <v>87</v>
+      </c>
+      <c r="C24">
+        <v>81</v>
+      </c>
+      <c r="D24">
+        <v>71</v>
+      </c>
+      <c r="E24">
+        <v>62</v>
+      </c>
+      <c r="F24">
+        <v>34</v>
+      </c>
+      <c r="G24">
+        <v>32</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>11</v>
+      </c>
+      <c r="J24">
+        <v>6</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>24</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>417</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>10</v>
+      </c>
+      <c r="P24">
+        <v>9</v>
+      </c>
+      <c r="Q24">
+        <v>222</v>
+      </c>
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>193</v>
+      </c>
+      <c r="T24">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B25">
+        <v>87</v>
+      </c>
+      <c r="C25">
+        <v>81</v>
+      </c>
+      <c r="D25">
+        <v>71</v>
+      </c>
+      <c r="E25">
+        <v>62</v>
+      </c>
+      <c r="F25">
+        <v>34</v>
+      </c>
+      <c r="G25">
+        <v>32</v>
+      </c>
+      <c r="H25">
+        <v>7</v>
+      </c>
+      <c r="I25">
+        <v>11</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>24</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>417</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>7</v>
+      </c>
+      <c r="P25">
+        <v>8</v>
+      </c>
+      <c r="Q25">
+        <v>226</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <v>188</v>
+      </c>
+      <c r="T25">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -25346,9 +25525,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9D6FEA-175F-4C98-96B4-DF3F2D772A0A}">
-  <dimension ref="A1:D177"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="G174" sqref="G174"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -27835,6 +28016,20 @@
         <v>837</v>
       </c>
     </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1">
+        <v>43883</v>
+      </c>
+      <c r="C178" t="s">
+        <v>280</v>
+      </c>
+      <c r="D178" t="s">
+        <v>870</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Shenzhen_WJW/2019nCov_Shenzhen_new_cases.xlsx
+++ b/Shenzhen_WJW/2019nCov_Shenzhen_new_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Shenzhen_WJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2575" documentId="8_{518E5CB1-397D-479F-A002-9F80F41B7951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9C4B1255-7307-4132-9C79-7B93C74FE299}"/>
+  <xr:revisionPtr revIDLastSave="2590" documentId="8_{518E5CB1-397D-479F-A002-9F80F41B7951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8682FCFD-6237-4393-92E1-DEADA2A6BD72}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3857" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4033" uniqueCount="872">
   <si>
     <t>Sex</t>
   </si>
@@ -3142,9 +3142,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U418"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q358" sqref="Q358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3846,6 +3846,9 @@
       <c r="P14" t="s">
         <v>286</v>
       </c>
+      <c r="R14" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S14" t="s">
         <v>26</v>
       </c>
@@ -3897,6 +3900,9 @@
       <c r="P15" t="s">
         <v>286</v>
       </c>
+      <c r="R15" s="1">
+        <v>43884</v>
+      </c>
       <c r="S15" t="s">
         <v>27</v>
       </c>
@@ -4179,6 +4185,9 @@
       <c r="Q21" s="1">
         <v>43849</v>
       </c>
+      <c r="R21" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S21" t="s">
         <v>33</v>
       </c>
@@ -4314,6 +4323,9 @@
       <c r="P24" t="s">
         <v>286</v>
       </c>
+      <c r="R24" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S24" t="s">
         <v>36</v>
       </c>
@@ -4356,6 +4368,9 @@
       <c r="P25" t="s">
         <v>286</v>
       </c>
+      <c r="R25" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S25" t="s">
         <v>37</v>
       </c>
@@ -4759,6 +4774,9 @@
       <c r="P34" t="s">
         <v>285</v>
       </c>
+      <c r="R34" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S34" t="s">
         <v>46</v>
       </c>
@@ -5099,6 +5117,9 @@
       <c r="P41" t="s">
         <v>286</v>
       </c>
+      <c r="R41" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S41" t="s">
         <v>53</v>
       </c>
@@ -5282,6 +5303,9 @@
       <c r="P45" t="s">
         <v>286</v>
       </c>
+      <c r="R45" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S45" t="s">
         <v>57</v>
       </c>
@@ -5324,6 +5348,9 @@
       <c r="P46" t="s">
         <v>286</v>
       </c>
+      <c r="R46" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S46" t="s">
         <v>58</v>
       </c>
@@ -5465,6 +5492,9 @@
       <c r="P49" t="s">
         <v>286</v>
       </c>
+      <c r="R49" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S49" t="s">
         <v>61</v>
       </c>
@@ -5600,6 +5630,9 @@
       <c r="P52" t="s">
         <v>286</v>
       </c>
+      <c r="R52" s="1">
+        <v>43882</v>
+      </c>
       <c r="S52" t="s">
         <v>64</v>
       </c>
@@ -5783,6 +5816,9 @@
       <c r="P56" t="s">
         <v>286</v>
       </c>
+      <c r="R56" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S56" t="s">
         <v>68</v>
       </c>
@@ -5972,6 +6008,9 @@
       <c r="P60" t="s">
         <v>286</v>
       </c>
+      <c r="R60" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S60" t="s">
         <v>72</v>
       </c>
@@ -6104,6 +6143,9 @@
       <c r="P63" t="s">
         <v>286</v>
       </c>
+      <c r="R63" s="1">
+        <v>43882</v>
+      </c>
       <c r="S63" t="s">
         <v>75</v>
       </c>
@@ -6155,6 +6197,9 @@
       <c r="P64" t="s">
         <v>286</v>
       </c>
+      <c r="R64" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S64" t="s">
         <v>76</v>
       </c>
@@ -6248,6 +6293,9 @@
       <c r="Q66" s="1">
         <v>43847</v>
       </c>
+      <c r="R66" s="1">
+        <v>43883</v>
+      </c>
       <c r="S66" t="s">
         <v>78</v>
       </c>
@@ -6359,6 +6407,9 @@
       <c r="P68" t="s">
         <v>286</v>
       </c>
+      <c r="R68" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S68" t="s">
         <v>80</v>
       </c>
@@ -6562,6 +6613,9 @@
       <c r="Q72" s="1">
         <v>43849</v>
       </c>
+      <c r="R72" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S72" t="s">
         <v>84</v>
       </c>
@@ -6604,6 +6658,9 @@
       <c r="P73" t="s">
         <v>286</v>
       </c>
+      <c r="R73" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S73" t="s">
         <v>85</v>
       </c>
@@ -6898,6 +6955,9 @@
       <c r="P79" t="s">
         <v>286</v>
       </c>
+      <c r="R79" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S79" t="s">
         <v>91</v>
       </c>
@@ -7096,6 +7156,9 @@
       <c r="Q83" s="1">
         <v>43850</v>
       </c>
+      <c r="R83" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S83" t="s">
         <v>95</v>
       </c>
@@ -7246,6 +7309,9 @@
       <c r="Q86" s="1">
         <v>43839</v>
       </c>
+      <c r="R86" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S86" t="s">
         <v>98</v>
       </c>
@@ -7333,6 +7399,9 @@
       <c r="P88" t="s">
         <v>286</v>
       </c>
+      <c r="R88" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S88" t="s">
         <v>100</v>
       </c>
@@ -7420,6 +7489,9 @@
       <c r="P90" t="s">
         <v>286</v>
       </c>
+      <c r="R90" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S90" t="s">
         <v>102</v>
       </c>
@@ -7467,6 +7539,9 @@
       </c>
       <c r="Q91" s="1">
         <v>43844</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>661</v>
       </c>
       <c r="S91" t="s">
         <v>103</v>
@@ -7555,6 +7630,9 @@
       <c r="P93" t="s">
         <v>286</v>
       </c>
+      <c r="R93" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S93" t="s">
         <v>104</v>
       </c>
@@ -7597,6 +7675,9 @@
       <c r="P94" t="s">
         <v>286</v>
       </c>
+      <c r="R94" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S94" t="s">
         <v>105</v>
       </c>
@@ -7645,6 +7726,9 @@
       <c r="Q95" s="1">
         <v>43838</v>
       </c>
+      <c r="R95" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S95" t="s">
         <v>106</v>
       </c>
@@ -7747,6 +7831,9 @@
       <c r="P97" t="s">
         <v>286</v>
       </c>
+      <c r="R97" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S97" t="s">
         <v>109</v>
       </c>
@@ -7789,6 +7876,9 @@
       <c r="P98" t="s">
         <v>286</v>
       </c>
+      <c r="R98" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S98" t="s">
         <v>110</v>
       </c>
@@ -8265,6 +8355,9 @@
       <c r="Q107" s="1">
         <v>43847</v>
       </c>
+      <c r="R107" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S107" t="s">
         <v>119</v>
       </c>
@@ -8322,6 +8415,9 @@
       <c r="Q108" s="1">
         <v>43842</v>
       </c>
+      <c r="R108" s="1">
+        <v>43884</v>
+      </c>
       <c r="S108" t="s">
         <v>121</v>
       </c>
@@ -8664,6 +8760,9 @@
       <c r="Q115" s="1">
         <v>43846</v>
       </c>
+      <c r="R115" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S115" t="s">
         <v>129</v>
       </c>
@@ -8706,6 +8805,9 @@
       <c r="P116" t="s">
         <v>286</v>
       </c>
+      <c r="R116" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S116" t="s">
         <v>130</v>
       </c>
@@ -8953,6 +9055,9 @@
       <c r="Q121" s="1">
         <v>43852</v>
       </c>
+      <c r="R121" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S121" t="s">
         <v>135</v>
       </c>
@@ -9311,6 +9416,9 @@
       <c r="P128" t="s">
         <v>286</v>
       </c>
+      <c r="R128" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S128" t="s">
         <v>142</v>
       </c>
@@ -9697,6 +9805,9 @@
       </c>
       <c r="P136" t="s">
         <v>286</v>
+      </c>
+      <c r="R136" s="1">
+        <v>43882</v>
       </c>
       <c r="S136" t="s">
         <v>150</v>
@@ -9790,6 +9901,9 @@
       <c r="P138" t="s">
         <v>286</v>
       </c>
+      <c r="R138" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S138" t="s">
         <v>152</v>
       </c>
@@ -9898,6 +10012,9 @@
       <c r="Q140" s="1">
         <v>43846</v>
       </c>
+      <c r="R140" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S140" t="s">
         <v>154</v>
       </c>
@@ -10030,6 +10147,9 @@
       <c r="P143" t="s">
         <v>286</v>
       </c>
+      <c r="R143" s="1">
+        <v>43884</v>
+      </c>
       <c r="S143" t="s">
         <v>157</v>
       </c>
@@ -10341,6 +10461,9 @@
       <c r="Q149" s="1">
         <v>43853</v>
       </c>
+      <c r="R149" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S149" t="s">
         <v>164</v>
       </c>
@@ -10535,6 +10658,9 @@
       </c>
       <c r="P153" t="s">
         <v>286</v>
+      </c>
+      <c r="R153" s="1" t="s">
+        <v>661</v>
       </c>
       <c r="S153" t="s">
         <v>168</v>
@@ -10586,6 +10712,9 @@
       <c r="P154" t="s">
         <v>286</v>
       </c>
+      <c r="R154" s="1">
+        <v>43882</v>
+      </c>
       <c r="S154" t="s">
         <v>169</v>
       </c>
@@ -10932,6 +11061,9 @@
       <c r="P161" t="s">
         <v>286</v>
       </c>
+      <c r="R161" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S161" t="s">
         <v>177</v>
       </c>
@@ -10978,6 +11110,9 @@
       <c r="Q162" s="1">
         <v>43836</v>
       </c>
+      <c r="R162" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S162" t="s">
         <v>178</v>
       </c>
@@ -11131,6 +11266,9 @@
       <c r="P165" t="s">
         <v>286</v>
       </c>
+      <c r="R165" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S165" t="s">
         <v>181</v>
       </c>
@@ -11239,6 +11377,9 @@
       <c r="Q167" s="1">
         <v>43847</v>
       </c>
+      <c r="R167" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S167" t="s">
         <v>184</v>
       </c>
@@ -11341,6 +11482,9 @@
       <c r="P169" t="s">
         <v>286</v>
       </c>
+      <c r="R169" s="1">
+        <v>43884</v>
+      </c>
       <c r="S169" t="s">
         <v>186</v>
       </c>
@@ -11393,6 +11537,9 @@
       <c r="P170" t="s">
         <v>286</v>
       </c>
+      <c r="R170" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S170" t="s">
         <v>187</v>
       </c>
@@ -11487,6 +11634,9 @@
       <c r="P172" t="s">
         <v>285</v>
       </c>
+      <c r="R172" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S172" t="s">
         <v>189</v>
       </c>
@@ -11589,6 +11739,9 @@
       <c r="Q174" s="1">
         <v>43854</v>
       </c>
+      <c r="R174" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S174" t="s">
         <v>191</v>
       </c>
@@ -11742,6 +11895,9 @@
       <c r="P177" t="s">
         <v>286</v>
       </c>
+      <c r="R177" s="1">
+        <v>43883</v>
+      </c>
       <c r="S177" t="s">
         <v>194</v>
       </c>
@@ -12095,6 +12251,9 @@
       <c r="Q184" s="1">
         <v>43851</v>
       </c>
+      <c r="R184" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S184" t="s">
         <v>201</v>
       </c>
@@ -12203,6 +12362,9 @@
       <c r="Q186" s="1">
         <v>43853</v>
       </c>
+      <c r="R186" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S186" t="s">
         <v>203</v>
       </c>
@@ -12251,6 +12413,9 @@
       <c r="Q187" s="1">
         <v>43845</v>
       </c>
+      <c r="R187" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S187" t="s">
         <v>204</v>
       </c>
@@ -12299,6 +12464,9 @@
       <c r="Q188" s="1">
         <v>43852</v>
       </c>
+      <c r="R188" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S188" t="s">
         <v>205</v>
       </c>
@@ -12351,6 +12519,9 @@
       <c r="P189" t="s">
         <v>286</v>
       </c>
+      <c r="R189" s="1">
+        <v>43882</v>
+      </c>
       <c r="S189" t="s">
         <v>206</v>
       </c>
@@ -12393,6 +12564,9 @@
       <c r="P190" t="s">
         <v>286</v>
       </c>
+      <c r="R190" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S190" t="s">
         <v>207</v>
       </c>
@@ -12435,6 +12609,9 @@
       <c r="P191" t="s">
         <v>286</v>
       </c>
+      <c r="R191" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S191" t="s">
         <v>208</v>
       </c>
@@ -12627,6 +12804,9 @@
       <c r="P195" t="s">
         <v>286</v>
       </c>
+      <c r="R195" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S195" t="s">
         <v>212</v>
       </c>
@@ -12684,6 +12864,9 @@
       <c r="Q196" s="1">
         <v>43850</v>
       </c>
+      <c r="R196" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S196" t="s">
         <v>213</v>
       </c>
@@ -12778,6 +12961,9 @@
       <c r="P198" t="s">
         <v>286</v>
       </c>
+      <c r="R198" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S198" t="s">
         <v>215</v>
       </c>
@@ -12826,6 +13012,9 @@
       <c r="Q199" s="1">
         <v>43849</v>
       </c>
+      <c r="R199" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S199" t="s">
         <v>216</v>
       </c>
@@ -12874,6 +13063,9 @@
       <c r="Q200" s="1">
         <v>43841</v>
       </c>
+      <c r="R200" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S200" t="s">
         <v>217</v>
       </c>
@@ -12961,6 +13153,9 @@
       <c r="P202" t="s">
         <v>286</v>
       </c>
+      <c r="R202" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S202" t="s">
         <v>219</v>
       </c>
@@ -13012,6 +13207,9 @@
       <c r="P203" t="s">
         <v>286</v>
       </c>
+      <c r="R203" s="1">
+        <v>43882</v>
+      </c>
       <c r="S203" t="s">
         <v>220</v>
       </c>
@@ -13069,6 +13267,9 @@
       <c r="Q204" s="1">
         <v>43852</v>
       </c>
+      <c r="R204" s="1">
+        <v>43882</v>
+      </c>
       <c r="S204" t="s">
         <v>221</v>
       </c>
@@ -13186,6 +13387,9 @@
       <c r="Q206" s="1">
         <v>43852</v>
       </c>
+      <c r="R206" s="1">
+        <v>43882</v>
+      </c>
       <c r="S206" t="s">
         <v>223</v>
       </c>
@@ -13375,6 +13579,9 @@
       <c r="P210" t="s">
         <v>286</v>
       </c>
+      <c r="R210" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S210" t="s">
         <v>227</v>
       </c>
@@ -13609,6 +13816,9 @@
       <c r="P215" t="s">
         <v>286</v>
       </c>
+      <c r="R215" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S215" t="s">
         <v>232</v>
       </c>
@@ -13655,6 +13865,9 @@
       <c r="Q216" s="1">
         <v>43848</v>
       </c>
+      <c r="R216" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S216" t="s">
         <v>233</v>
       </c>
@@ -13707,6 +13920,9 @@
       <c r="P217" t="s">
         <v>286</v>
       </c>
+      <c r="R217" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S217" t="s">
         <v>234</v>
       </c>
@@ -13809,6 +14025,9 @@
       <c r="P219" t="s">
         <v>286</v>
       </c>
+      <c r="R219" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S219" t="s">
         <v>236</v>
       </c>
@@ -13911,6 +14130,9 @@
       <c r="Q221" s="1">
         <v>43846</v>
       </c>
+      <c r="R221" s="1">
+        <v>43882</v>
+      </c>
       <c r="S221" t="s">
         <v>238</v>
       </c>
@@ -13968,6 +14190,9 @@
       <c r="Q222" s="1">
         <v>43846</v>
       </c>
+      <c r="R222" s="1">
+        <v>43882</v>
+      </c>
       <c r="S222" t="s">
         <v>239</v>
       </c>
@@ -14019,6 +14244,9 @@
       <c r="P223" t="s">
         <v>286</v>
       </c>
+      <c r="R223" s="1">
+        <v>43882</v>
+      </c>
       <c r="S223" t="s">
         <v>240</v>
       </c>
@@ -14136,6 +14364,9 @@
       <c r="Q225" s="1">
         <v>43846</v>
       </c>
+      <c r="R225" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S225" t="s">
         <v>242</v>
       </c>
@@ -14193,6 +14424,9 @@
       <c r="Q226" s="1">
         <v>43846</v>
       </c>
+      <c r="R226" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S226" t="s">
         <v>243</v>
       </c>
@@ -14241,6 +14475,9 @@
       <c r="Q227" s="1">
         <v>43848</v>
       </c>
+      <c r="R227" s="1">
+        <v>43882</v>
+      </c>
       <c r="S227" t="s">
         <v>244</v>
       </c>
@@ -14404,6 +14641,9 @@
       <c r="P230" t="s">
         <v>286</v>
       </c>
+      <c r="R230" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S230" t="s">
         <v>248</v>
       </c>
@@ -14771,6 +15011,9 @@
       <c r="P237" t="s">
         <v>286</v>
       </c>
+      <c r="R237" s="1">
+        <v>43882</v>
+      </c>
       <c r="S237" t="s">
         <v>256</v>
       </c>
@@ -14823,6 +15066,9 @@
       <c r="P238" t="s">
         <v>286</v>
       </c>
+      <c r="R238" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S238" t="s">
         <v>257</v>
       </c>
@@ -14880,6 +15126,9 @@
       <c r="Q239" s="1">
         <v>43846</v>
       </c>
+      <c r="R239" s="1">
+        <v>43883</v>
+      </c>
       <c r="S239" t="s">
         <v>258</v>
       </c>
@@ -15030,6 +15279,9 @@
       <c r="Q242" s="1">
         <v>43848</v>
       </c>
+      <c r="R242" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S242" t="s">
         <v>261</v>
       </c>
@@ -15132,6 +15384,9 @@
       <c r="P244" t="s">
         <v>286</v>
       </c>
+      <c r="R244" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S244" t="s">
         <v>263</v>
       </c>
@@ -15189,6 +15444,9 @@
       <c r="Q245" s="1">
         <v>43846</v>
       </c>
+      <c r="R245" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S245" t="s">
         <v>265</v>
       </c>
@@ -15237,6 +15495,9 @@
       <c r="Q246" s="1">
         <v>43847</v>
       </c>
+      <c r="R246" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S246" t="s">
         <v>842</v>
       </c>
@@ -15453,6 +15714,9 @@
       <c r="Q250" s="1">
         <v>43846</v>
       </c>
+      <c r="R250" s="1">
+        <v>43883</v>
+      </c>
       <c r="S250" t="s">
         <v>340</v>
       </c>
@@ -15552,6 +15816,9 @@
       <c r="Q252" s="1">
         <v>43848</v>
       </c>
+      <c r="R252" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S252" t="s">
         <v>342</v>
       </c>
@@ -15600,6 +15867,9 @@
       <c r="Q253" s="1">
         <v>43846</v>
       </c>
+      <c r="R253" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S253" t="s">
         <v>343</v>
       </c>
@@ -16069,6 +16339,9 @@
       <c r="P262" t="s">
         <v>286</v>
       </c>
+      <c r="R262" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S262" t="s">
         <v>352</v>
       </c>
@@ -16117,6 +16390,9 @@
       <c r="Q263" s="1">
         <v>43844</v>
       </c>
+      <c r="R263" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S263" t="s">
         <v>353</v>
       </c>
@@ -16212,6 +16488,9 @@
       <c r="P265" t="s">
         <v>286</v>
       </c>
+      <c r="R265" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S265" t="s">
         <v>355</v>
       </c>
@@ -16260,6 +16539,9 @@
       <c r="Q266" s="1">
         <v>43845</v>
       </c>
+      <c r="R266" s="1">
+        <v>43882</v>
+      </c>
       <c r="S266" t="s">
         <v>356</v>
       </c>
@@ -16363,6 +16645,9 @@
       <c r="P268" t="s">
         <v>286</v>
       </c>
+      <c r="R268" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S268" t="s">
         <v>358</v>
       </c>
@@ -16406,6 +16691,9 @@
       <c r="P269" t="s">
         <v>286</v>
       </c>
+      <c r="R269" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S269" t="s">
         <v>359</v>
       </c>
@@ -16494,6 +16782,9 @@
       <c r="P271" t="s">
         <v>286</v>
       </c>
+      <c r="R271" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S271" t="s">
         <v>361</v>
       </c>
@@ -16542,6 +16833,9 @@
       <c r="Q272" s="1">
         <v>43852</v>
       </c>
+      <c r="R272" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S272" t="s">
         <v>362</v>
       </c>
@@ -16695,6 +16989,9 @@
       <c r="P275" t="s">
         <v>286</v>
       </c>
+      <c r="R275" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S275" t="s">
         <v>366</v>
       </c>
@@ -16747,6 +17044,9 @@
       <c r="P276" t="s">
         <v>286</v>
       </c>
+      <c r="R276" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S276" t="s">
         <v>367</v>
       </c>
@@ -16846,6 +17146,9 @@
       <c r="Q278" s="1">
         <v>43850</v>
       </c>
+      <c r="R278" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S278" t="s">
         <v>369</v>
       </c>
@@ -17044,6 +17347,9 @@
       <c r="Q282" s="1">
         <v>43850</v>
       </c>
+      <c r="R282" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S282" t="s">
         <v>373</v>
       </c>
@@ -17101,6 +17407,9 @@
       <c r="Q283" s="1">
         <v>43850</v>
       </c>
+      <c r="R283" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S283" t="s">
         <v>374</v>
       </c>
@@ -17153,6 +17462,9 @@
       <c r="P284" t="s">
         <v>286</v>
       </c>
+      <c r="R284" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S284" t="s">
         <v>375</v>
       </c>
@@ -17204,6 +17516,9 @@
       <c r="P285" t="s">
         <v>286</v>
       </c>
+      <c r="R285" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S285" t="s">
         <v>376</v>
       </c>
@@ -17312,6 +17627,9 @@
       <c r="Q287" s="1">
         <v>43849</v>
       </c>
+      <c r="R287" s="1">
+        <v>43882</v>
+      </c>
       <c r="S287" t="s">
         <v>378</v>
       </c>
@@ -17360,6 +17678,9 @@
       <c r="Q288" s="1">
         <v>43850</v>
       </c>
+      <c r="R288" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S288" t="s">
         <v>379</v>
       </c>
@@ -17403,6 +17724,9 @@
       <c r="P289" t="s">
         <v>286</v>
       </c>
+      <c r="R289" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S289" t="s">
         <v>380</v>
       </c>
@@ -17451,6 +17775,9 @@
       <c r="Q290" s="1">
         <v>43833</v>
       </c>
+      <c r="R290" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S290" t="s">
         <v>381</v>
       </c>
@@ -17539,6 +17866,9 @@
       <c r="P292" t="s">
         <v>286</v>
       </c>
+      <c r="R292" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S292" t="s">
         <v>383</v>
       </c>
@@ -17581,6 +17911,9 @@
       <c r="P293" t="s">
         <v>286</v>
       </c>
+      <c r="R293" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S293" t="s">
         <v>384</v>
       </c>
@@ -17623,6 +17956,9 @@
       <c r="P294" t="s">
         <v>286</v>
       </c>
+      <c r="R294" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S294" t="s">
         <v>385</v>
       </c>
@@ -17671,6 +18007,9 @@
       <c r="Q295" s="1">
         <v>43848</v>
       </c>
+      <c r="R295" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S295" t="s">
         <v>386</v>
       </c>
@@ -17719,6 +18058,9 @@
       <c r="Q296" s="1">
         <v>43840</v>
       </c>
+      <c r="R296" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S296" t="s">
         <v>387</v>
       </c>
@@ -17767,6 +18109,9 @@
       <c r="Q297" s="1">
         <v>43840</v>
       </c>
+      <c r="R297" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S297" t="s">
         <v>388</v>
       </c>
@@ -17815,6 +18160,9 @@
       <c r="Q298" s="1">
         <v>43849</v>
       </c>
+      <c r="R298" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S298" t="s">
         <v>389</v>
       </c>
@@ -18019,6 +18367,9 @@
       <c r="Q302" s="1">
         <v>43839</v>
       </c>
+      <c r="R302" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S302" t="s">
         <v>393</v>
       </c>
@@ -18112,6 +18463,9 @@
       <c r="P304" t="s">
         <v>286</v>
       </c>
+      <c r="R304" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S304" t="s">
         <v>395</v>
       </c>
@@ -18155,6 +18509,9 @@
       <c r="P305" t="s">
         <v>286</v>
       </c>
+      <c r="R305" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S305" t="s">
         <v>396</v>
       </c>
@@ -18299,6 +18656,9 @@
       <c r="Q308" s="1">
         <v>43840</v>
       </c>
+      <c r="R308" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S308" t="s">
         <v>399</v>
       </c>
@@ -18347,6 +18707,9 @@
       <c r="Q309" s="1">
         <v>43847</v>
       </c>
+      <c r="R309" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S309" t="s">
         <v>400</v>
       </c>
@@ -18395,6 +18758,9 @@
       <c r="Q310" s="1">
         <v>43849</v>
       </c>
+      <c r="R310" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S310" t="s">
         <v>401</v>
       </c>
@@ -18452,6 +18818,9 @@
       <c r="Q311" s="1">
         <v>43849</v>
       </c>
+      <c r="R311" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S311" t="s">
         <v>402</v>
       </c>
@@ -18509,6 +18878,9 @@
       <c r="Q312" s="1">
         <v>43847</v>
       </c>
+      <c r="R312" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S312" t="s">
         <v>403</v>
       </c>
@@ -18566,6 +18938,9 @@
       <c r="Q313" s="1">
         <v>43847</v>
       </c>
+      <c r="R313" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S313" t="s">
         <v>404</v>
       </c>
@@ -18618,6 +18993,9 @@
       <c r="P314" t="s">
         <v>286</v>
       </c>
+      <c r="R314" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S314" t="s">
         <v>405</v>
       </c>
@@ -18675,6 +19053,9 @@
       <c r="Q315" s="1">
         <v>43847</v>
       </c>
+      <c r="R315" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S315" t="s">
         <v>406</v>
       </c>
@@ -18723,6 +19104,9 @@
       <c r="Q316" s="1">
         <v>43843</v>
       </c>
+      <c r="R316" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S316" t="s">
         <v>407</v>
       </c>
@@ -18780,6 +19164,9 @@
       <c r="Q317" s="1">
         <v>43850</v>
       </c>
+      <c r="R317" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S317" t="s">
         <v>408</v>
       </c>
@@ -18837,6 +19224,9 @@
       <c r="Q318" s="1">
         <v>43846</v>
       </c>
+      <c r="R318" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S318" t="s">
         <v>556</v>
       </c>
@@ -18939,6 +19329,9 @@
       <c r="P320" t="s">
         <v>286</v>
       </c>
+      <c r="R320" s="1">
+        <v>43882</v>
+      </c>
       <c r="S320" t="s">
         <v>558</v>
       </c>
@@ -18994,6 +19387,9 @@
       <c r="Q321" s="1">
         <v>43852</v>
       </c>
+      <c r="R321" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S321" t="s">
         <v>559</v>
       </c>
@@ -19045,6 +19441,9 @@
       <c r="P322" t="s">
         <v>286</v>
       </c>
+      <c r="R322" s="1">
+        <v>43882</v>
+      </c>
       <c r="S322" t="s">
         <v>560</v>
       </c>
@@ -19151,6 +19550,9 @@
       <c r="P324" t="s">
         <v>286</v>
       </c>
+      <c r="R324" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S324" t="s">
         <v>562</v>
       </c>
@@ -19268,6 +19670,9 @@
       <c r="Q326" s="1">
         <v>43853</v>
       </c>
+      <c r="R326" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S326" t="s">
         <v>564</v>
       </c>
@@ -19325,6 +19730,9 @@
       <c r="Q327" s="1">
         <v>43845</v>
       </c>
+      <c r="R327" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S327" t="s">
         <v>565</v>
       </c>
@@ -19431,6 +19839,9 @@
       <c r="Q329" s="1">
         <v>43848</v>
       </c>
+      <c r="R329" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S329" t="s">
         <v>567</v>
       </c>
@@ -19479,6 +19890,9 @@
       <c r="Q330" s="1">
         <v>43852</v>
       </c>
+      <c r="R330" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S330" t="s">
         <v>568</v>
       </c>
@@ -19521,6 +19935,9 @@
       <c r="P331" t="s">
         <v>286</v>
       </c>
+      <c r="R331" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S331" t="s">
         <v>569</v>
       </c>
@@ -19564,6 +19981,9 @@
       <c r="P332" t="s">
         <v>286</v>
       </c>
+      <c r="R332" s="1">
+        <v>43882</v>
+      </c>
       <c r="S332" t="s">
         <v>570</v>
       </c>
@@ -19657,6 +20077,9 @@
       <c r="Q334" s="1">
         <v>43853</v>
       </c>
+      <c r="R334" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S334" t="s">
         <v>572</v>
       </c>
@@ -19714,6 +20137,9 @@
       <c r="Q335" s="1">
         <v>43853</v>
       </c>
+      <c r="R335" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S335" t="s">
         <v>573</v>
       </c>
@@ -19808,6 +20234,9 @@
       <c r="Q337" s="1">
         <v>43851</v>
       </c>
+      <c r="R337" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S337" t="s">
         <v>575</v>
       </c>
@@ -19856,6 +20285,9 @@
       <c r="Q338" s="1">
         <v>43849</v>
       </c>
+      <c r="R338" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S338" t="s">
         <v>576</v>
       </c>
@@ -19913,6 +20345,9 @@
       <c r="Q339" s="1">
         <v>43849</v>
       </c>
+      <c r="R339" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S339" t="s">
         <v>577</v>
       </c>
@@ -19970,6 +20405,9 @@
       <c r="Q340" s="1">
         <v>43849</v>
       </c>
+      <c r="R340" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S340" t="s">
         <v>578</v>
       </c>
@@ -20082,6 +20520,9 @@
       <c r="Q342" s="1">
         <v>43847</v>
       </c>
+      <c r="R342" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S342" t="s">
         <v>582</v>
       </c>
@@ -20128,6 +20569,9 @@
       <c r="Q343" s="1">
         <v>43851</v>
       </c>
+      <c r="R343" s="1">
+        <v>43884</v>
+      </c>
       <c r="S343" t="s">
         <v>583</v>
       </c>
@@ -20183,6 +20627,9 @@
       <c r="Q344" s="1">
         <v>43851</v>
       </c>
+      <c r="R344" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S344" t="s">
         <v>584</v>
       </c>
@@ -20292,6 +20739,9 @@
       <c r="P346" t="s">
         <v>286</v>
       </c>
+      <c r="R346" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S346" t="s">
         <v>586</v>
       </c>
@@ -20338,6 +20788,9 @@
       <c r="Q347" s="1">
         <v>43852</v>
       </c>
+      <c r="R347" s="1">
+        <v>43884</v>
+      </c>
       <c r="S347" t="s">
         <v>587</v>
       </c>
@@ -20431,6 +20884,9 @@
       <c r="P349" t="s">
         <v>286</v>
       </c>
+      <c r="R349" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S349" t="s">
         <v>589</v>
       </c>
@@ -20479,6 +20935,9 @@
       <c r="Q350" s="1">
         <v>43846</v>
       </c>
+      <c r="R350" s="1">
+        <v>43884</v>
+      </c>
       <c r="S350" t="s">
         <v>590</v>
       </c>
@@ -20521,6 +20980,9 @@
       <c r="P351" t="s">
         <v>286</v>
       </c>
+      <c r="R351" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S351" t="s">
         <v>591</v>
       </c>
@@ -20569,6 +21031,9 @@
       <c r="Q352" s="1">
         <v>43852</v>
       </c>
+      <c r="R352" s="1">
+        <v>43882</v>
+      </c>
       <c r="S352" t="s">
         <v>592</v>
       </c>
@@ -20730,6 +21195,9 @@
       <c r="P355" t="s">
         <v>286</v>
       </c>
+      <c r="R355" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S355" t="s">
         <v>596</v>
       </c>
@@ -20778,7 +21246,9 @@
       <c r="Q356" s="1">
         <v>43852</v>
       </c>
-      <c r="R356"/>
+      <c r="R356" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S356" t="s">
         <v>608</v>
       </c>
@@ -20822,7 +21292,9 @@
       <c r="P357" t="s">
         <v>286</v>
       </c>
-      <c r="R357"/>
+      <c r="R357" s="1">
+        <v>43884</v>
+      </c>
       <c r="S357" t="s">
         <v>609</v>
       </c>
@@ -20881,7 +21353,9 @@
       <c r="Q358" s="1">
         <v>43850</v>
       </c>
-      <c r="R358"/>
+      <c r="R358" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S358" t="s">
         <v>610</v>
       </c>
@@ -20925,7 +21399,9 @@
       <c r="P359" t="s">
         <v>286</v>
       </c>
-      <c r="R359"/>
+      <c r="R359" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S359" t="s">
         <v>611</v>
       </c>
@@ -20970,7 +21446,9 @@
       <c r="P360" t="s">
         <v>286</v>
       </c>
-      <c r="R360"/>
+      <c r="R360" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S360" t="s">
         <v>612</v>
       </c>
@@ -21081,7 +21559,9 @@
       <c r="Q362" s="1">
         <v>43845</v>
       </c>
-      <c r="R362"/>
+      <c r="R362" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S362" t="s">
         <v>614</v>
       </c>
@@ -21138,7 +21618,9 @@
       <c r="Q363" s="1">
         <v>43848</v>
       </c>
-      <c r="R363"/>
+      <c r="R363" s="1">
+        <v>43882</v>
+      </c>
       <c r="S363" t="s">
         <v>615</v>
       </c>
@@ -21347,6 +21829,9 @@
       <c r="Q367" s="1">
         <v>43849</v>
       </c>
+      <c r="R367" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S367" t="s">
         <v>618</v>
       </c>
@@ -21398,6 +21883,9 @@
       <c r="P368" t="s">
         <v>286</v>
       </c>
+      <c r="R368" s="1">
+        <v>43884</v>
+      </c>
       <c r="S368" s="3" t="s">
         <v>600</v>
       </c>
@@ -21450,6 +21938,9 @@
       <c r="P369" t="s">
         <v>286</v>
       </c>
+      <c r="R369" s="1">
+        <v>43882</v>
+      </c>
       <c r="S369" s="3" t="s">
         <v>601</v>
       </c>
@@ -21492,6 +21983,9 @@
       <c r="P370" t="s">
         <v>286</v>
       </c>
+      <c r="R370" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S370" t="s">
         <v>602</v>
       </c>
@@ -21549,7 +22043,9 @@
       <c r="Q371" s="1">
         <v>43848</v>
       </c>
-      <c r="R371"/>
+      <c r="R371" s="1">
+        <v>43882</v>
+      </c>
       <c r="S371" t="s">
         <v>619</v>
       </c>
@@ -21656,7 +22152,9 @@
       <c r="Q373" s="1">
         <v>43849</v>
       </c>
-      <c r="R373"/>
+      <c r="R373" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S373" t="s">
         <v>621</v>
       </c>
@@ -21712,7 +22210,9 @@
       <c r="Q374" s="1">
         <v>43849</v>
       </c>
-      <c r="R374"/>
+      <c r="R374" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S374" t="s">
         <v>622</v>
       </c>
@@ -21761,7 +22261,9 @@
       <c r="Q375" s="1">
         <v>43841</v>
       </c>
-      <c r="R375"/>
+      <c r="R375" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S375" t="s">
         <v>623</v>
       </c>
@@ -21819,7 +22321,9 @@
       <c r="Q376" s="1">
         <v>43845</v>
       </c>
-      <c r="R376"/>
+      <c r="R376" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S376" t="s">
         <v>624</v>
       </c>
@@ -21868,6 +22372,9 @@
       <c r="Q377" s="1">
         <v>43850</v>
       </c>
+      <c r="R377" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S377" t="s">
         <v>633</v>
       </c>
@@ -21925,6 +22432,9 @@
       <c r="Q378" s="1">
         <v>43850</v>
       </c>
+      <c r="R378" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S378" t="s">
         <v>634</v>
       </c>
@@ -21973,6 +22483,9 @@
       <c r="Q379" s="1">
         <v>43850</v>
       </c>
+      <c r="R379" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S379" t="s">
         <v>635</v>
       </c>
@@ -22021,6 +22534,9 @@
       <c r="Q380" s="1">
         <v>43848</v>
       </c>
+      <c r="R380" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S380" t="s">
         <v>636</v>
       </c>
@@ -22078,6 +22594,9 @@
       <c r="Q381" s="1">
         <v>43852</v>
       </c>
+      <c r="R381" s="1">
+        <v>43884</v>
+      </c>
       <c r="S381" t="s">
         <v>637</v>
       </c>
@@ -22124,6 +22643,9 @@
       <c r="Q382" s="1">
         <v>43854</v>
       </c>
+      <c r="R382" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S382" t="s">
         <v>638</v>
       </c>
@@ -22166,6 +22688,9 @@
       <c r="P383" t="s">
         <v>286</v>
       </c>
+      <c r="R383" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S383" t="s">
         <v>639</v>
       </c>
@@ -22214,6 +22739,9 @@
       <c r="Q384" s="1">
         <v>43850</v>
       </c>
+      <c r="R384" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S384" t="s">
         <v>640</v>
       </c>
@@ -22265,6 +22793,9 @@
       <c r="P385" t="s">
         <v>286</v>
       </c>
+      <c r="R385" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S385" t="s">
         <v>641</v>
       </c>
@@ -22313,6 +22844,9 @@
       <c r="Q386" s="1">
         <v>43843</v>
       </c>
+      <c r="R386" s="1">
+        <v>43882</v>
+      </c>
       <c r="S386" t="s">
         <v>642</v>
       </c>
@@ -22361,6 +22895,9 @@
       <c r="Q387" s="1">
         <v>43845</v>
       </c>
+      <c r="R387" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S387" t="s">
         <v>643</v>
       </c>
@@ -22412,6 +22949,9 @@
       <c r="P388" t="s">
         <v>286</v>
       </c>
+      <c r="R388" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S388" t="s">
         <v>653</v>
       </c>
@@ -22454,6 +22994,9 @@
       <c r="P389" t="s">
         <v>286</v>
       </c>
+      <c r="R389" s="1">
+        <v>43884</v>
+      </c>
       <c r="S389" t="s">
         <v>654</v>
       </c>
@@ -22502,6 +23045,9 @@
       <c r="Q390" s="1">
         <v>43841</v>
       </c>
+      <c r="R390" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S390" t="s">
         <v>655</v>
       </c>
@@ -22550,6 +23096,9 @@
       <c r="Q391" s="1">
         <v>43850</v>
       </c>
+      <c r="R391" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S391" t="s">
         <v>656</v>
       </c>
@@ -22598,6 +23147,9 @@
       <c r="Q392" s="1">
         <v>43850</v>
       </c>
+      <c r="R392" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S392" t="s">
         <v>657</v>
       </c>
@@ -22650,6 +23202,9 @@
       <c r="P393" t="s">
         <v>286</v>
       </c>
+      <c r="R393" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S393" s="3" t="s">
         <v>828</v>
       </c>
@@ -22701,6 +23256,9 @@
       <c r="P394" t="s">
         <v>286</v>
       </c>
+      <c r="R394" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S394" s="3" t="s">
         <v>829</v>
       </c>
@@ -22753,6 +23311,9 @@
       <c r="P395" t="s">
         <v>286</v>
       </c>
+      <c r="R395" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S395" s="3" t="s">
         <v>830</v>
       </c>
@@ -22805,6 +23366,9 @@
       <c r="P396" t="s">
         <v>286</v>
       </c>
+      <c r="R396" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S396" s="3" t="s">
         <v>831</v>
       </c>
@@ -22853,6 +23417,9 @@
       <c r="Q397" s="1">
         <v>43851</v>
       </c>
+      <c r="R397" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S397" s="3" t="s">
         <v>832</v>
       </c>
@@ -22899,6 +23466,9 @@
       <c r="Q398" s="1">
         <v>43852</v>
       </c>
+      <c r="R398" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S398" s="3" t="s">
         <v>833</v>
       </c>
@@ -22951,6 +23521,9 @@
       <c r="P399" t="s">
         <v>286</v>
       </c>
+      <c r="R399" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S399" s="3" t="s">
         <v>834</v>
       </c>
@@ -23006,6 +23579,9 @@
       <c r="Q400" s="1">
         <v>43849</v>
       </c>
+      <c r="R400" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S400" s="3" t="s">
         <v>835</v>
       </c>
@@ -23051,6 +23627,9 @@
       <c r="Q401" s="1">
         <v>43847</v>
       </c>
+      <c r="R401" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S401" s="3" t="s">
         <v>836</v>
       </c>
@@ -23108,6 +23687,9 @@
       <c r="Q402" s="1">
         <v>43851</v>
       </c>
+      <c r="R402" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S402" s="3" t="s">
         <v>847</v>
       </c>
@@ -23165,6 +23747,9 @@
       <c r="Q403" s="1">
         <v>43850</v>
       </c>
+      <c r="R403" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S403" s="3" t="s">
         <v>848</v>
       </c>
@@ -23210,6 +23795,9 @@
       <c r="Q404" s="1">
         <v>43849</v>
       </c>
+      <c r="R404" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S404" s="3" t="s">
         <v>849</v>
       </c>
@@ -23258,6 +23846,9 @@
       <c r="Q405" s="1">
         <v>43852</v>
       </c>
+      <c r="R405" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S405" s="3" t="s">
         <v>850</v>
       </c>
@@ -23306,6 +23897,9 @@
       <c r="Q406" s="1">
         <v>43855</v>
       </c>
+      <c r="R406" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S406" s="3" t="s">
         <v>851</v>
       </c>
@@ -23363,6 +23957,9 @@
       <c r="Q407" s="1">
         <v>43850</v>
       </c>
+      <c r="R407" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S407" s="3" t="s">
         <v>852</v>
       </c>
@@ -23417,6 +24014,9 @@
       </c>
       <c r="Q408" s="1">
         <v>43852</v>
+      </c>
+      <c r="R408" s="1" t="s">
+        <v>661</v>
       </c>
       <c r="S408" t="s">
         <v>858</v>
@@ -23468,6 +24068,9 @@
       <c r="P409" t="s">
         <v>286</v>
       </c>
+      <c r="R409" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S409" t="s">
         <v>859</v>
       </c>
@@ -23523,6 +24126,9 @@
       <c r="Q410" s="1">
         <v>43852</v>
       </c>
+      <c r="R410" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S410" t="s">
         <v>860</v>
       </c>
@@ -23575,6 +24181,9 @@
       <c r="Q411" s="1">
         <v>43852</v>
       </c>
+      <c r="R411" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S411" t="s">
         <v>861</v>
       </c>
@@ -23621,6 +24230,9 @@
       <c r="Q412" s="1">
         <v>43851</v>
       </c>
+      <c r="R412" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S412" t="s">
         <v>862</v>
       </c>
@@ -23664,6 +24276,9 @@
       <c r="Q413" s="1">
         <v>43873</v>
       </c>
+      <c r="R413" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S413" t="s">
         <v>863</v>
       </c>
@@ -23710,6 +24325,9 @@
       <c r="Q414" s="1">
         <v>43880</v>
       </c>
+      <c r="R414" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S414" t="s">
         <v>864</v>
       </c>
@@ -23756,6 +24374,9 @@
       <c r="Q415" s="1">
         <v>43836</v>
       </c>
+      <c r="R415" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S415" t="s">
         <v>865</v>
       </c>
@@ -23810,6 +24431,9 @@
       <c r="P416" t="s">
         <v>286</v>
       </c>
+      <c r="R416" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S416" s="3" t="s">
         <v>866</v>
       </c>
@@ -23855,6 +24479,9 @@
       <c r="Q417" s="1">
         <v>43851</v>
       </c>
+      <c r="R417" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S417" s="3" t="s">
         <v>868</v>
       </c>
@@ -23896,6 +24523,9 @@
       </c>
       <c r="P418" t="s">
         <v>286</v>
+      </c>
+      <c r="R418" s="1" t="s">
+        <v>661</v>
       </c>
       <c r="S418" s="3" t="s">
         <v>869</v>
@@ -23914,9 +24544,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0673D1E6-6595-4429-B6E9-D1E808706CBD}">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -25043,11 +25675,11 @@
         <v>24</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M18:M25" si="3">SUM(B18:L18)</f>
+        <f t="shared" ref="M18:M26" si="3">SUM(B18:L18)</f>
         <v>414</v>
       </c>
       <c r="N18">
-        <f t="shared" ref="N18:N25" si="4">M18-M17</f>
+        <f t="shared" ref="N18:N26" si="4">M18-M17</f>
         <v>8</v>
       </c>
       <c r="O18">
@@ -25515,6 +26147,70 @@
       </c>
       <c r="T25">
         <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B26">
+        <v>87</v>
+      </c>
+      <c r="C26">
+        <v>81</v>
+      </c>
+      <c r="D26">
+        <v>71</v>
+      </c>
+      <c r="E26">
+        <v>62</v>
+      </c>
+      <c r="F26">
+        <v>34</v>
+      </c>
+      <c r="G26">
+        <v>32</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>11</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>24</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>417</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>5</v>
+      </c>
+      <c r="P26">
+        <v>8</v>
+      </c>
+      <c r="Q26">
+        <v>237</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>177</v>
+      </c>
+      <c r="T26">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -25527,7 +26223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9D6FEA-175F-4C98-96B4-DF3F2D772A0A}">
   <dimension ref="A1:D178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>

--- a/Shenzhen_WJW/2019nCov_Shenzhen_new_cases.xlsx
+++ b/Shenzhen_WJW/2019nCov_Shenzhen_new_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Shenzhen_WJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2590" documentId="8_{518E5CB1-397D-479F-A002-9F80F41B7951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8682FCFD-6237-4393-92E1-DEADA2A6BD72}"/>
+  <xr:revisionPtr revIDLastSave="2601" documentId="8_{518E5CB1-397D-479F-A002-9F80F41B7951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4521DF9D-90D1-4903-A4CB-A4DFF1F6AA4C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4033" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4015" uniqueCount="872">
   <si>
     <t>Sex</t>
   </si>
@@ -3140,11 +3140,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U418"/>
+  <dimension ref="A1:U421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q358" sqref="Q358"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3260,6 +3260,9 @@
       <c r="Q2" s="1">
         <v>43828</v>
       </c>
+      <c r="R2" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S2" t="s">
         <v>9</v>
       </c>
@@ -3528,6 +3531,9 @@
       <c r="Q7" s="1">
         <v>43828</v>
       </c>
+      <c r="R7" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S7" t="s">
         <v>18</v>
       </c>
@@ -3570,6 +3576,9 @@
       <c r="P8" t="s">
         <v>285</v>
       </c>
+      <c r="R8" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="S8" t="s">
         <v>19</v>
       </c>
@@ -4046,6 +4055,9 @@
       </c>
       <c r="P18" t="s">
         <v>286</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>661</v>
       </c>
       <c r="S18" t="s">
         <v>30</v>
@@ -11739,8 +11751,8 @@
       <c r="Q174" s="1">
         <v>43854</v>
       </c>
-      <c r="R174" s="1" t="s">
-        <v>661</v>
+      <c r="R174" s="1">
+        <v>43886</v>
       </c>
       <c r="S174" t="s">
         <v>191</v>
@@ -12251,8 +12263,8 @@
       <c r="Q184" s="1">
         <v>43851</v>
       </c>
-      <c r="R184" s="1" t="s">
-        <v>661</v>
+      <c r="R184" s="1">
+        <v>43885</v>
       </c>
       <c r="S184" t="s">
         <v>201</v>
@@ -12464,8 +12476,8 @@
       <c r="Q188" s="1">
         <v>43852</v>
       </c>
-      <c r="R188" s="1" t="s">
-        <v>661</v>
+      <c r="R188" s="1">
+        <v>43886</v>
       </c>
       <c r="S188" t="s">
         <v>205</v>
@@ -12609,8 +12621,8 @@
       <c r="P191" t="s">
         <v>286</v>
       </c>
-      <c r="R191" s="1" t="s">
-        <v>661</v>
+      <c r="R191" s="1">
+        <v>43886</v>
       </c>
       <c r="S191" t="s">
         <v>208</v>
@@ -13012,8 +13024,8 @@
       <c r="Q199" s="1">
         <v>43849</v>
       </c>
-      <c r="R199" s="1" t="s">
-        <v>661</v>
+      <c r="R199" s="1">
+        <v>43886</v>
       </c>
       <c r="S199" t="s">
         <v>216</v>
@@ -15066,8 +15078,8 @@
       <c r="P238" t="s">
         <v>286</v>
       </c>
-      <c r="R238" s="1" t="s">
-        <v>661</v>
+      <c r="R238" s="1">
+        <v>43885</v>
       </c>
       <c r="S238" t="s">
         <v>257</v>
@@ -15384,8 +15396,8 @@
       <c r="P244" t="s">
         <v>286</v>
       </c>
-      <c r="R244" s="1" t="s">
-        <v>661</v>
+      <c r="R244" s="1">
+        <v>43885</v>
       </c>
       <c r="S244" t="s">
         <v>263</v>
@@ -16989,8 +17001,8 @@
       <c r="P275" t="s">
         <v>286</v>
       </c>
-      <c r="R275" s="1" t="s">
-        <v>661</v>
+      <c r="R275" s="1">
+        <v>43885</v>
       </c>
       <c r="S275" t="s">
         <v>366</v>
@@ -17516,8 +17528,8 @@
       <c r="P285" t="s">
         <v>286</v>
       </c>
-      <c r="R285" s="1" t="s">
-        <v>661</v>
+      <c r="R285" s="1">
+        <v>43886</v>
       </c>
       <c r="S285" t="s">
         <v>376</v>
@@ -17911,8 +17923,8 @@
       <c r="P293" t="s">
         <v>286</v>
       </c>
-      <c r="R293" s="1" t="s">
-        <v>661</v>
+      <c r="R293" s="1">
+        <v>43886</v>
       </c>
       <c r="S293" t="s">
         <v>384</v>
@@ -18007,8 +18019,8 @@
       <c r="Q295" s="1">
         <v>43848</v>
       </c>
-      <c r="R295" s="1" t="s">
-        <v>661</v>
+      <c r="R295" s="1">
+        <v>43885</v>
       </c>
       <c r="S295" t="s">
         <v>386</v>
@@ -19730,8 +19742,8 @@
       <c r="Q327" s="1">
         <v>43845</v>
       </c>
-      <c r="R327" s="1" t="s">
-        <v>661</v>
+      <c r="R327" s="1">
+        <v>43886</v>
       </c>
       <c r="S327" t="s">
         <v>565</v>
@@ -19839,8 +19851,8 @@
       <c r="Q329" s="1">
         <v>43848</v>
       </c>
-      <c r="R329" s="1" t="s">
-        <v>661</v>
+      <c r="R329" s="1">
+        <v>43886</v>
       </c>
       <c r="S329" t="s">
         <v>567</v>
@@ -20234,8 +20246,8 @@
       <c r="Q337" s="1">
         <v>43851</v>
       </c>
-      <c r="R337" s="1" t="s">
-        <v>661</v>
+      <c r="R337" s="1">
+        <v>43885</v>
       </c>
       <c r="S337" t="s">
         <v>575</v>
@@ -20980,8 +20992,8 @@
       <c r="P351" t="s">
         <v>286</v>
       </c>
-      <c r="R351" s="1" t="s">
-        <v>661</v>
+      <c r="R351" s="1">
+        <v>43886</v>
       </c>
       <c r="S351" t="s">
         <v>591</v>
@@ -21829,8 +21841,8 @@
       <c r="Q367" s="1">
         <v>43849</v>
       </c>
-      <c r="R367" s="1" t="s">
-        <v>661</v>
+      <c r="R367" s="1">
+        <v>43886</v>
       </c>
       <c r="S367" t="s">
         <v>618</v>
@@ -22261,8 +22273,8 @@
       <c r="Q375" s="1">
         <v>43841</v>
       </c>
-      <c r="R375" s="1" t="s">
-        <v>661</v>
+      <c r="R375" s="1">
+        <v>43885</v>
       </c>
       <c r="S375" t="s">
         <v>623</v>
@@ -22321,8 +22333,8 @@
       <c r="Q376" s="1">
         <v>43845</v>
       </c>
-      <c r="R376" s="1" t="s">
-        <v>661</v>
+      <c r="R376" s="1">
+        <v>43886</v>
       </c>
       <c r="S376" t="s">
         <v>624</v>
@@ -22688,8 +22700,8 @@
       <c r="P383" t="s">
         <v>286</v>
       </c>
-      <c r="R383" s="1" t="s">
-        <v>661</v>
+      <c r="R383" s="1">
+        <v>43886</v>
       </c>
       <c r="S383" t="s">
         <v>639</v>
@@ -22895,8 +22907,8 @@
       <c r="Q387" s="1">
         <v>43845</v>
       </c>
-      <c r="R387" s="1" t="s">
-        <v>661</v>
+      <c r="R387" s="1">
+        <v>43885</v>
       </c>
       <c r="S387" t="s">
         <v>643</v>
@@ -23147,8 +23159,8 @@
       <c r="Q392" s="1">
         <v>43850</v>
       </c>
-      <c r="R392" s="1" t="s">
-        <v>661</v>
+      <c r="R392" s="1">
+        <v>43885</v>
       </c>
       <c r="S392" t="s">
         <v>657</v>
@@ -23687,8 +23699,8 @@
       <c r="Q402" s="1">
         <v>43851</v>
       </c>
-      <c r="R402" s="1" t="s">
-        <v>661</v>
+      <c r="R402" s="1">
+        <v>43885</v>
       </c>
       <c r="S402" s="3" t="s">
         <v>847</v>
@@ -24015,8 +24027,8 @@
       <c r="Q408" s="1">
         <v>43852</v>
       </c>
-      <c r="R408" s="1" t="s">
-        <v>661</v>
+      <c r="R408" s="1">
+        <v>43886</v>
       </c>
       <c r="S408" t="s">
         <v>858</v>
@@ -24374,8 +24386,8 @@
       <c r="Q415" s="1">
         <v>43836</v>
       </c>
-      <c r="R415" s="1" t="s">
-        <v>661</v>
+      <c r="R415" s="1">
+        <v>43885</v>
       </c>
       <c r="S415" t="s">
         <v>865</v>
@@ -24431,8 +24443,8 @@
       <c r="P416" t="s">
         <v>286</v>
       </c>
-      <c r="R416" s="1" t="s">
-        <v>661</v>
+      <c r="R416" s="1">
+        <v>43885</v>
       </c>
       <c r="S416" s="3" t="s">
         <v>866</v>
@@ -24529,6 +24541,21 @@
       </c>
       <c r="S418" s="3" t="s">
         <v>869</v>
+      </c>
+    </row>
+    <row r="419" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R419" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="420" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R420" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="421" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R421" s="1" t="s">
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -24544,10 +24571,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0673D1E6-6595-4429-B6E9-D1E808706CBD}">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25675,11 +25702,11 @@
         <v>24</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M18:M26" si="3">SUM(B18:L18)</f>
+        <f t="shared" ref="M18:M27" si="3">SUM(B18:L18)</f>
         <v>414</v>
       </c>
       <c r="N18">
-        <f t="shared" ref="N18:N26" si="4">M18-M17</f>
+        <f t="shared" ref="N18:N27" si="4">M18-M17</f>
         <v>8</v>
       </c>
       <c r="O18">
@@ -26211,6 +26238,70 @@
       </c>
       <c r="T26">
         <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>43885</v>
+      </c>
+      <c r="B27">
+        <v>87</v>
+      </c>
+      <c r="C27">
+        <v>81</v>
+      </c>
+      <c r="D27">
+        <v>71</v>
+      </c>
+      <c r="E27">
+        <v>62</v>
+      </c>
+      <c r="F27">
+        <v>34</v>
+      </c>
+      <c r="G27">
+        <v>32</v>
+      </c>
+      <c r="H27">
+        <v>7</v>
+      </c>
+      <c r="I27">
+        <v>11</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>24</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>417</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>7</v>
+      </c>
+      <c r="P27">
+        <v>6</v>
+      </c>
+      <c r="Q27">
+        <v>249</v>
+      </c>
+      <c r="R27">
+        <v>3</v>
+      </c>
+      <c r="S27">
+        <v>165</v>
+      </c>
+      <c r="T27">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -26223,7 +26314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9D6FEA-175F-4C98-96B4-DF3F2D772A0A}">
   <dimension ref="A1:D178"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="A157" workbookViewId="0">
       <selection activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>

--- a/Shenzhen_WJW/2019nCov_Shenzhen_new_cases.xlsx
+++ b/Shenzhen_WJW/2019nCov_Shenzhen_new_cases.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Shenzhen_WJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2601" documentId="8_{518E5CB1-397D-479F-A002-9F80F41B7951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4521DF9D-90D1-4903-A4CB-A4DFF1F6AA4C}"/>
+  <xr:revisionPtr revIDLastSave="2664" documentId="8_{518E5CB1-397D-479F-A002-9F80F41B7951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{22A258E8-42B7-4946-9B4A-85508A713914}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="Daily Summary" sheetId="2" r:id="rId2"/>
-    <sheet name="Places" sheetId="3" r:id="rId3"/>
+    <sheet name="Info" sheetId="4" r:id="rId1"/>
+    <sheet name="Cases" sheetId="1" r:id="rId2"/>
+    <sheet name="Daily Summary" sheetId="2" r:id="rId3"/>
+    <sheet name="Places" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cases!$A$1:$S$417</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cases!$A$1:$S$417</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4015" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4016" uniqueCount="873">
   <si>
     <t>Sex</t>
   </si>
@@ -2797,6 +2798,9 @@
   </si>
   <si>
     <t>其家人接触过武汉亲属</t>
+  </si>
+  <si>
+    <t>Shenzhen WJW/MHC has stopped published case discharge details from 26th Feb 2020</t>
   </si>
 </sst>
 </file>
@@ -3139,12 +3143,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B519BE8-A2B8-44C7-98F6-FE697302CB0E}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24569,12 +24591,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0673D1E6-6595-4429-B6E9-D1E808706CBD}">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25702,11 +25724,11 @@
         <v>24</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M18:M27" si="3">SUM(B18:L18)</f>
+        <f t="shared" ref="M18:M37" si="3">SUM(B18:L18)</f>
         <v>414</v>
       </c>
       <c r="N18">
-        <f t="shared" ref="N18:N27" si="4">M18-M17</f>
+        <f t="shared" ref="N18:N37" si="4">M18-M17</f>
         <v>8</v>
       </c>
       <c r="O18">
@@ -26303,6 +26325,585 @@
       <c r="T27">
         <v>132</v>
       </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B28">
+        <v>87</v>
+      </c>
+      <c r="C28">
+        <v>81</v>
+      </c>
+      <c r="D28">
+        <v>71</v>
+      </c>
+      <c r="E28">
+        <v>62</v>
+      </c>
+      <c r="F28">
+        <v>34</v>
+      </c>
+      <c r="G28">
+        <v>32</v>
+      </c>
+      <c r="H28">
+        <v>7</v>
+      </c>
+      <c r="I28">
+        <v>11</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>24</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>417</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>5</v>
+      </c>
+      <c r="P28">
+        <v>6</v>
+      </c>
+      <c r="Q28">
+        <v>262</v>
+      </c>
+      <c r="R28">
+        <v>3</v>
+      </c>
+      <c r="S28">
+        <v>152</v>
+      </c>
+      <c r="T28">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B29">
+        <v>87</v>
+      </c>
+      <c r="C29">
+        <v>81</v>
+      </c>
+      <c r="D29">
+        <v>71</v>
+      </c>
+      <c r="E29">
+        <v>62</v>
+      </c>
+      <c r="F29">
+        <v>34</v>
+      </c>
+      <c r="G29">
+        <v>32</v>
+      </c>
+      <c r="H29">
+        <v>7</v>
+      </c>
+      <c r="I29">
+        <v>11</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>24</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>417</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>4</v>
+      </c>
+      <c r="P29">
+        <v>4</v>
+      </c>
+      <c r="Q29">
+        <v>271</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>143</v>
+      </c>
+      <c r="T29">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B30">
+        <v>87</v>
+      </c>
+      <c r="C30">
+        <v>81</v>
+      </c>
+      <c r="D30">
+        <v>71</v>
+      </c>
+      <c r="E30">
+        <v>62</v>
+      </c>
+      <c r="F30">
+        <v>34</v>
+      </c>
+      <c r="G30">
+        <v>32</v>
+      </c>
+      <c r="H30">
+        <v>7</v>
+      </c>
+      <c r="I30">
+        <v>11</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>24</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>417</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="P30">
+        <v>4</v>
+      </c>
+      <c r="Q30">
+        <v>281</v>
+      </c>
+      <c r="R30">
+        <v>3</v>
+      </c>
+      <c r="S30">
+        <v>133</v>
+      </c>
+      <c r="T30">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B31">
+        <v>87</v>
+      </c>
+      <c r="C31">
+        <v>81</v>
+      </c>
+      <c r="D31">
+        <v>71</v>
+      </c>
+      <c r="E31">
+        <v>62</v>
+      </c>
+      <c r="F31">
+        <v>34</v>
+      </c>
+      <c r="G31">
+        <v>32</v>
+      </c>
+      <c r="H31">
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <v>11</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>24</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ref="M31:M36" si="5">SUM(B31:L31)</f>
+        <v>417</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:N36" si="6">M31-M30</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>5</v>
+      </c>
+      <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="Q31">
+        <v>299</v>
+      </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <v>115</v>
+      </c>
+      <c r="T31">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B32">
+        <v>87</v>
+      </c>
+      <c r="C32">
+        <v>81</v>
+      </c>
+      <c r="D32">
+        <v>71</v>
+      </c>
+      <c r="E32">
+        <v>62</v>
+      </c>
+      <c r="F32">
+        <v>34</v>
+      </c>
+      <c r="G32">
+        <v>32</v>
+      </c>
+      <c r="H32">
+        <v>7</v>
+      </c>
+      <c r="I32">
+        <v>11</v>
+      </c>
+      <c r="J32">
+        <v>6</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>24</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>417</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>5</v>
+      </c>
+      <c r="P32">
+        <v>2</v>
+      </c>
+      <c r="Q32">
+        <v>308</v>
+      </c>
+      <c r="R32">
+        <v>3</v>
+      </c>
+      <c r="S32">
+        <v>106</v>
+      </c>
+      <c r="T32">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B33">
+        <v>87</v>
+      </c>
+      <c r="C33">
+        <v>82</v>
+      </c>
+      <c r="D33">
+        <v>71</v>
+      </c>
+      <c r="E33">
+        <v>62</v>
+      </c>
+      <c r="F33">
+        <v>34</v>
+      </c>
+      <c r="G33">
+        <v>32</v>
+      </c>
+      <c r="H33">
+        <v>7</v>
+      </c>
+      <c r="I33">
+        <v>11</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>24</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="5"/>
+        <v>418</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>6</v>
+      </c>
+      <c r="P33">
+        <v>2</v>
+      </c>
+      <c r="Q33">
+        <v>320</v>
+      </c>
+      <c r="R33">
+        <v>3</v>
+      </c>
+      <c r="S33">
+        <v>95</v>
+      </c>
+      <c r="T33">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B34">
+        <v>87</v>
+      </c>
+      <c r="C34">
+        <v>82</v>
+      </c>
+      <c r="D34">
+        <v>71</v>
+      </c>
+      <c r="E34">
+        <v>62</v>
+      </c>
+      <c r="F34">
+        <v>34</v>
+      </c>
+      <c r="G34">
+        <v>32</v>
+      </c>
+      <c r="H34">
+        <v>7</v>
+      </c>
+      <c r="I34">
+        <v>11</v>
+      </c>
+      <c r="J34">
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>24</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>418</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>6</v>
+      </c>
+      <c r="P34">
+        <v>2</v>
+      </c>
+      <c r="Q34">
+        <v>332</v>
+      </c>
+      <c r="R34">
+        <v>3</v>
+      </c>
+      <c r="S34">
+        <v>83</v>
+      </c>
+      <c r="T34">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B35">
+        <v>87</v>
+      </c>
+      <c r="C35">
+        <v>82</v>
+      </c>
+      <c r="D35">
+        <v>71</v>
+      </c>
+      <c r="E35">
+        <v>62</v>
+      </c>
+      <c r="F35">
+        <v>34</v>
+      </c>
+      <c r="G35">
+        <v>32</v>
+      </c>
+      <c r="H35">
+        <v>7</v>
+      </c>
+      <c r="I35">
+        <v>11</v>
+      </c>
+      <c r="J35">
+        <v>6</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>24</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>418</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>5</v>
+      </c>
+      <c r="P35">
+        <v>3</v>
+      </c>
+      <c r="Q35">
+        <v>341</v>
+      </c>
+      <c r="R35">
+        <v>3</v>
+      </c>
+      <c r="S35">
+        <v>74</v>
+      </c>
+      <c r="T35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B36">
+        <v>87</v>
+      </c>
+      <c r="C36">
+        <v>82</v>
+      </c>
+      <c r="D36">
+        <v>71</v>
+      </c>
+      <c r="E36">
+        <v>62</v>
+      </c>
+      <c r="F36">
+        <v>34</v>
+      </c>
+      <c r="G36">
+        <v>32</v>
+      </c>
+      <c r="H36">
+        <v>7</v>
+      </c>
+      <c r="I36">
+        <v>11</v>
+      </c>
+      <c r="J36">
+        <v>6</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>24</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>418</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>5</v>
+      </c>
+      <c r="P36">
+        <v>3</v>
+      </c>
+      <c r="Q36">
+        <v>350</v>
+      </c>
+      <c r="R36">
+        <v>3</v>
+      </c>
+      <c r="S36">
+        <v>65</v>
+      </c>
+      <c r="T36">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26310,11 +26911,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9D6FEA-175F-4C98-96B4-DF3F2D772A0A}">
   <dimension ref="A1:D178"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>

--- a/Shenzhen_WJW/2019nCov_Shenzhen_new_cases.xlsx
+++ b/Shenzhen_WJW/2019nCov_Shenzhen_new_cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Shenzhen_WJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2664" documentId="8_{518E5CB1-397D-479F-A002-9F80F41B7951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{22A258E8-42B7-4946-9B4A-85508A713914}"/>
+  <xr:revisionPtr revIDLastSave="2696" documentId="8_{518E5CB1-397D-479F-A002-9F80F41B7951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FDC26018-B4E7-4D34-8D31-4FD7D3645C25}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4016" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4018" uniqueCount="874">
   <si>
     <t>Sex</t>
   </si>
@@ -2801,13 +2801,16 @@
   </si>
   <si>
     <t>Shenzhen WJW/MHC has stopped published case discharge details from 26th Feb 2020</t>
+  </si>
+  <si>
+    <t>福保街道红树福苑</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2820,6 +2823,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2842,12 +2852,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3146,12 +3157,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B519BE8-A2B8-44C7-98F6-FE697302CB0E}">
   <dimension ref="B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>872</v>
       </c>
     </row>
@@ -3165,8 +3176,8 @@
   <dimension ref="A1:U421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1:S1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24593,11 +24604,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0673D1E6-6595-4429-B6E9-D1E808706CBD}">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -25724,11 +25733,11 @@
         <v>24</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M18:M37" si="3">SUM(B18:L18)</f>
+        <f t="shared" ref="M18:M30" si="3">SUM(B18:L18)</f>
         <v>414</v>
       </c>
       <c r="N18">
-        <f t="shared" ref="N18:N37" si="4">M18-M17</f>
+        <f t="shared" ref="N18:N30" si="4">M18-M17</f>
         <v>8</v>
       </c>
       <c r="O18">
@@ -26903,7 +26912,324 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B37">
+        <v>87</v>
+      </c>
+      <c r="C37">
+        <v>82</v>
+      </c>
+      <c r="D37">
+        <v>71</v>
+      </c>
+      <c r="E37">
+        <v>62</v>
+      </c>
+      <c r="F37">
+        <v>34</v>
+      </c>
+      <c r="G37">
+        <v>32</v>
+      </c>
+      <c r="H37">
+        <v>7</v>
+      </c>
+      <c r="I37">
+        <v>11</v>
+      </c>
+      <c r="J37">
+        <v>6</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>24</v>
+      </c>
+      <c r="M37">
+        <f t="shared" ref="M37:M41" si="7">SUM(B37:L37)</f>
+        <v>418</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ref="N37:N41" si="8">M37-M36</f>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>4</v>
+      </c>
+      <c r="P37">
+        <v>3</v>
+      </c>
+      <c r="Q37">
+        <v>358</v>
+      </c>
+      <c r="R37">
+        <v>3</v>
+      </c>
+      <c r="S37">
+        <v>57</v>
+      </c>
+      <c r="T37">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B38">
+        <v>87</v>
+      </c>
+      <c r="C38">
+        <v>83</v>
+      </c>
+      <c r="D38">
+        <v>71</v>
+      </c>
+      <c r="E38">
+        <v>62</v>
+      </c>
+      <c r="F38">
+        <v>34</v>
+      </c>
+      <c r="G38">
+        <v>32</v>
+      </c>
+      <c r="H38">
+        <v>7</v>
+      </c>
+      <c r="I38">
+        <v>11</v>
+      </c>
+      <c r="J38">
+        <v>6</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>24</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="7"/>
+        <v>419</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>4</v>
+      </c>
+      <c r="P38">
+        <v>3</v>
+      </c>
+      <c r="Q38">
+        <v>361</v>
+      </c>
+      <c r="R38">
+        <v>3</v>
+      </c>
+      <c r="S38">
+        <v>55</v>
+      </c>
+      <c r="T38">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B39">
+        <v>87</v>
+      </c>
+      <c r="C39">
+        <v>83</v>
+      </c>
+      <c r="D39">
+        <v>71</v>
+      </c>
+      <c r="E39">
+        <v>62</v>
+      </c>
+      <c r="F39">
+        <v>34</v>
+      </c>
+      <c r="G39">
+        <v>32</v>
+      </c>
+      <c r="H39">
+        <v>7</v>
+      </c>
+      <c r="I39">
+        <v>11</v>
+      </c>
+      <c r="J39">
+        <v>6</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>24</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="7"/>
+        <v>419</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>4</v>
+      </c>
+      <c r="P39">
+        <v>3</v>
+      </c>
+      <c r="Q39">
+        <v>368</v>
+      </c>
+      <c r="R39">
+        <v>3</v>
+      </c>
+      <c r="S39">
+        <v>48</v>
+      </c>
+      <c r="T39">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B40">
+        <v>87</v>
+      </c>
+      <c r="C40">
+        <v>83</v>
+      </c>
+      <c r="D40">
+        <v>71</v>
+      </c>
+      <c r="E40">
+        <v>62</v>
+      </c>
+      <c r="F40">
+        <v>34</v>
+      </c>
+      <c r="G40">
+        <v>32</v>
+      </c>
+      <c r="H40">
+        <v>7</v>
+      </c>
+      <c r="I40">
+        <v>11</v>
+      </c>
+      <c r="J40">
+        <v>6</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>24</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="7"/>
+        <v>419</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>4</v>
+      </c>
+      <c r="P40">
+        <v>3</v>
+      </c>
+      <c r="Q40">
+        <v>373</v>
+      </c>
+      <c r="R40">
+        <v>3</v>
+      </c>
+      <c r="S40">
+        <v>43</v>
+      </c>
+      <c r="T40">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B41">
+        <v>87</v>
+      </c>
+      <c r="C41">
+        <v>83</v>
+      </c>
+      <c r="D41">
+        <v>71</v>
+      </c>
+      <c r="E41">
+        <v>62</v>
+      </c>
+      <c r="F41">
+        <v>34</v>
+      </c>
+      <c r="G41">
+        <v>32</v>
+      </c>
+      <c r="H41">
+        <v>7</v>
+      </c>
+      <c r="I41">
+        <v>11</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>24</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="7"/>
+        <v>419</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>2</v>
+      </c>
+      <c r="P41">
+        <v>3</v>
+      </c>
+      <c r="Q41">
+        <v>381</v>
+      </c>
+      <c r="R41">
+        <v>3</v>
+      </c>
+      <c r="S41">
+        <v>35</v>
+      </c>
+      <c r="T41">
+        <v>153</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26913,11 +27239,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9D6FEA-175F-4C98-96B4-DF3F2D772A0A}">
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G174" sqref="G174"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -29418,6 +29742,20 @@
         <v>870</v>
       </c>
     </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1">
+        <v>43888</v>
+      </c>
+      <c r="C179" t="s">
+        <v>280</v>
+      </c>
+      <c r="D179" t="s">
+        <v>873</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Shenzhen_WJW/2019nCov_Shenzhen_new_cases.xlsx
+++ b/Shenzhen_WJW/2019nCov_Shenzhen_new_cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Shenzhen_WJW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://decisiontechnology-my.sharepoint.com/personal/y_fan_dectech_co_uk/Documents/Projects/Personal/2019-nCov/2019-nCov-data-collection/Shenzhen_WJW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2696" documentId="8_{518E5CB1-397D-479F-A002-9F80F41B7951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FDC26018-B4E7-4D34-8D31-4FD7D3645C25}"/>
+  <xr:revisionPtr revIDLastSave="2722" documentId="8_{518E5CB1-397D-479F-A002-9F80F41B7951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BFB43DC9-6DC2-4102-84C2-508C816A6303}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4018" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4019" uniqueCount="875">
   <si>
     <t>Sex</t>
   </si>
@@ -2804,6 +2804,9 @@
   </si>
   <si>
     <t>福保街道红树福苑</t>
+  </si>
+  <si>
+    <t>Late Update: 14 Mar 2020</t>
   </si>
 </sst>
 </file>
@@ -3155,7 +3158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B519BE8-A2B8-44C7-98F6-FE697302CB0E}">
-  <dimension ref="B3"/>
+  <dimension ref="B3:B4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3164,6 +3167,11 @@
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>872</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -24604,9 +24612,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0673D1E6-6595-4429-B6E9-D1E808706CBD}">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V49" sqref="V49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -26953,7 +26963,7 @@
         <v>418</v>
       </c>
       <c r="N37">
-        <f t="shared" ref="N37:N41" si="8">M37-M36</f>
+        <f t="shared" ref="N37:N45" si="8">M37-M36</f>
         <v>0</v>
       </c>
       <c r="O37">
@@ -27229,6 +27239,258 @@
       </c>
       <c r="T41">
         <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B42">
+        <v>87</v>
+      </c>
+      <c r="C42">
+        <v>83</v>
+      </c>
+      <c r="D42">
+        <v>71</v>
+      </c>
+      <c r="E42">
+        <v>62</v>
+      </c>
+      <c r="F42">
+        <v>34</v>
+      </c>
+      <c r="G42">
+        <v>32</v>
+      </c>
+      <c r="H42">
+        <v>7</v>
+      </c>
+      <c r="I42">
+        <v>11</v>
+      </c>
+      <c r="J42">
+        <v>6</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>24</v>
+      </c>
+      <c r="M42">
+        <v>419</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
+      <c r="P42">
+        <v>3</v>
+      </c>
+      <c r="Q42">
+        <v>387</v>
+      </c>
+      <c r="R42">
+        <v>3</v>
+      </c>
+      <c r="S42">
+        <v>29</v>
+      </c>
+      <c r="T42">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B43">
+        <v>87</v>
+      </c>
+      <c r="C43">
+        <v>83</v>
+      </c>
+      <c r="D43">
+        <v>71</v>
+      </c>
+      <c r="E43">
+        <v>62</v>
+      </c>
+      <c r="F43">
+        <v>34</v>
+      </c>
+      <c r="G43">
+        <v>32</v>
+      </c>
+      <c r="H43">
+        <v>7</v>
+      </c>
+      <c r="I43">
+        <v>11</v>
+      </c>
+      <c r="J43">
+        <v>6</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>25</v>
+      </c>
+      <c r="M43">
+        <v>420</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="P43">
+        <v>3</v>
+      </c>
+      <c r="Q43">
+        <v>392</v>
+      </c>
+      <c r="R43">
+        <v>3</v>
+      </c>
+      <c r="S43">
+        <v>25</v>
+      </c>
+      <c r="T43">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B44">
+        <v>87</v>
+      </c>
+      <c r="C44">
+        <v>83</v>
+      </c>
+      <c r="D44">
+        <v>71</v>
+      </c>
+      <c r="E44">
+        <v>62</v>
+      </c>
+      <c r="F44">
+        <v>34</v>
+      </c>
+      <c r="G44">
+        <v>32</v>
+      </c>
+      <c r="H44">
+        <v>7</v>
+      </c>
+      <c r="I44">
+        <v>11</v>
+      </c>
+      <c r="J44">
+        <v>6</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>25</v>
+      </c>
+      <c r="M44">
+        <v>420</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>2</v>
+      </c>
+      <c r="P44">
+        <v>3</v>
+      </c>
+      <c r="Q44">
+        <v>395</v>
+      </c>
+      <c r="R44">
+        <v>3</v>
+      </c>
+      <c r="S44">
+        <v>22</v>
+      </c>
+      <c r="T44">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B45">
+        <v>87</v>
+      </c>
+      <c r="C45">
+        <v>83</v>
+      </c>
+      <c r="D45">
+        <v>71</v>
+      </c>
+      <c r="E45">
+        <v>62</v>
+      </c>
+      <c r="F45">
+        <v>34</v>
+      </c>
+      <c r="G45">
+        <v>32</v>
+      </c>
+      <c r="H45">
+        <v>7</v>
+      </c>
+      <c r="I45">
+        <v>11</v>
+      </c>
+      <c r="J45">
+        <v>6</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>25</v>
+      </c>
+      <c r="M45">
+        <v>420</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>2</v>
+      </c>
+      <c r="P45">
+        <v>3</v>
+      </c>
+      <c r="Q45">
+        <v>396</v>
+      </c>
+      <c r="R45">
+        <v>3</v>
+      </c>
+      <c r="S45">
+        <v>21</v>
+      </c>
+      <c r="T45">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -27241,7 +27503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9D6FEA-175F-4C98-96B4-DF3F2D772A0A}">
   <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A118" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
